--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои док\Evernote\Databases\Attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои док\_Мой рабстол\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="46" activeTab="48"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="149" activeTab="156"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -121,84 +121,85 @@
     <sheet name="ContractSchedulePayment" sheetId="230" r:id="rId107"/>
     <sheet name="ContractAddCondition" sheetId="359" r:id="rId108"/>
     <sheet name="UnitMeasure" sheetId="91" r:id="rId109"/>
-    <sheet name="Tax" sheetId="93" r:id="rId110"/>
-    <sheet name="TBKind" sheetId="330" r:id="rId111"/>
-    <sheet name="TBLimit" sheetId="440" r:id="rId112"/>
-    <sheet name="TBException" sheetId="322" r:id="rId113"/>
-    <sheet name="TBDeductionKind" sheetId="446" r:id="rId114"/>
-    <sheet name="TBDeductionSubKind" sheetId="447" r:id="rId115"/>
-    <sheet name="TBDeductionTransferKind" sheetId="449" r:id="rId116"/>
-    <sheet name="TBDeductionData" sheetId="445" r:id="rId117"/>
-    <sheet name="TaxCalcKind" sheetId="280" r:id="rId118"/>
-    <sheet name="TaxAnalystPersonalAccount" sheetId="326" r:id="rId119"/>
-    <sheet name="TaxIDKind" sheetId="262" r:id="rId120"/>
-    <sheet name="TaxRegimeKind" sheetId="266" r:id="rId121"/>
-    <sheet name="TaxRateKind" sheetId="256" r:id="rId122"/>
-    <sheet name="TaxRateData" sheetId="60" r:id="rId123"/>
-    <sheet name="Country" sheetId="172" r:id="rId124"/>
-    <sheet name="CountryKind" sheetId="392" r:id="rId125"/>
-    <sheet name="CountryCodeData" sheetId="416" r:id="rId126"/>
-    <sheet name="Account" sheetId="13" r:id="rId127"/>
-    <sheet name="AccInfoData" sheetId="450" r:id="rId128"/>
-    <sheet name="AccTableKind" sheetId="263" r:id="rId129"/>
-    <sheet name="AccSign" sheetId="254" r:id="rId130"/>
-    <sheet name="AccKind" sheetId="250" r:id="rId131"/>
-    <sheet name="AccSubKind" sheetId="454" r:id="rId132"/>
-    <sheet name="AC" sheetId="336" r:id="rId133"/>
-    <sheet name="ACKind" sheetId="251" r:id="rId134"/>
-    <sheet name="ACSubKind" sheetId="260" r:id="rId135"/>
-    <sheet name="ACCodeData" sheetId="337" r:id="rId136"/>
-    <sheet name="ACInfoData" sheetId="338" r:id="rId137"/>
-    <sheet name="AСInfoDataKind" sheetId="339" r:id="rId138"/>
-    <sheet name="AСInfoDataSubKind" sheetId="344" r:id="rId139"/>
-    <sheet name="ACPack" sheetId="379" r:id="rId140"/>
-    <sheet name="ACPiece" sheetId="380" r:id="rId141"/>
-    <sheet name="Asset" sheetId="48" r:id="rId142"/>
-    <sheet name="AssetCodeData" sheetId="305" r:id="rId143"/>
-    <sheet name="AssetInfoDataKind" sheetId="286" r:id="rId144"/>
-    <sheet name="AssetInfoData" sheetId="227" r:id="rId145"/>
-    <sheet name="TransportationKind" sheetId="291" r:id="rId146"/>
-    <sheet name="Transportation" sheetId="457" r:id="rId147"/>
-    <sheet name="RelationshipKind" sheetId="349" r:id="rId148"/>
-    <sheet name="DocJournalKind" sheetId="426" r:id="rId149"/>
-    <sheet name="DocJournalConsist" sheetId="427" r:id="rId150"/>
-    <sheet name="DocKind" sheetId="237" r:id="rId151"/>
-    <sheet name="DocSubKind" sheetId="424" r:id="rId152"/>
-    <sheet name="DocViewKind" sheetId="459" r:id="rId153"/>
-    <sheet name="DocView" sheetId="458" r:id="rId154"/>
-    <sheet name="DocPreset" sheetId="456" r:id="rId155"/>
-    <sheet name="DocCodeData" sheetId="462" r:id="rId156"/>
-    <sheet name="DocHead" sheetId="235" r:id="rId157"/>
-    <sheet name="DocLine" sheetId="236" r:id="rId158"/>
-    <sheet name="AccountingReference" sheetId="215" r:id="rId159"/>
-    <sheet name="AdvanceCheck" sheetId="125" r:id="rId160"/>
-    <sheet name="WriteOff" sheetId="154" r:id="rId161"/>
-    <sheet name="BankStatement" sheetId="152" r:id="rId162"/>
-    <sheet name="Warrant" sheetId="150" r:id="rId163"/>
-    <sheet name="PaymentOrder" sheetId="148" r:id="rId164"/>
-    <sheet name="Enter" sheetId="146" r:id="rId165"/>
-    <sheet name="IncomeCashOrder" sheetId="144" r:id="rId166"/>
-    <sheet name="LeaveCashOrder" sheetId="140" r:id="rId167"/>
-    <sheet name="Sell" sheetId="142" r:id="rId168"/>
-    <sheet name="Invoice" sheetId="406" r:id="rId169"/>
-    <sheet name="Return" sheetId="394" r:id="rId170"/>
-    <sheet name="Bill" sheetId="138" r:id="rId171"/>
-    <sheet name="Transfer" sheetId="136" r:id="rId172"/>
-    <sheet name="TimeSheet" sheetId="217" r:id="rId173"/>
-    <sheet name="SalaryCalc" sheetId="134" r:id="rId174"/>
-    <sheet name="List" sheetId="132" r:id="rId175"/>
-    <sheet name="StoreOrder" sheetId="396" r:id="rId176"/>
-    <sheet name="LoadingList" sheetId="395" r:id="rId177"/>
-    <sheet name="CalculationAverageSalary" sheetId="317" r:id="rId178"/>
-    <sheet name="AmortizationCalc" sheetId="318" r:id="rId179"/>
-    <sheet name="HRStatement" sheetId="425" r:id="rId180"/>
+    <sheet name="UMRelationshipData" sheetId="463" r:id="rId110"/>
+    <sheet name="Tax" sheetId="93" r:id="rId111"/>
+    <sheet name="TBKind" sheetId="330" r:id="rId112"/>
+    <sheet name="TBLimit" sheetId="440" r:id="rId113"/>
+    <sheet name="TBException" sheetId="322" r:id="rId114"/>
+    <sheet name="TBDeductionKind" sheetId="446" r:id="rId115"/>
+    <sheet name="TBDeductionSubKind" sheetId="447" r:id="rId116"/>
+    <sheet name="TBDeductionTransferKind" sheetId="449" r:id="rId117"/>
+    <sheet name="TBDeductionData" sheetId="445" r:id="rId118"/>
+    <sheet name="TaxCalcKind" sheetId="280" r:id="rId119"/>
+    <sheet name="TaxAnalystPersonalAccount" sheetId="326" r:id="rId120"/>
+    <sheet name="TaxIDKind" sheetId="262" r:id="rId121"/>
+    <sheet name="TaxRegimeKind" sheetId="266" r:id="rId122"/>
+    <sheet name="TaxRateKind" sheetId="256" r:id="rId123"/>
+    <sheet name="TaxRateData" sheetId="60" r:id="rId124"/>
+    <sheet name="Country" sheetId="172" r:id="rId125"/>
+    <sheet name="CountryKind" sheetId="392" r:id="rId126"/>
+    <sheet name="CountryCodeData" sheetId="416" r:id="rId127"/>
+    <sheet name="Account" sheetId="13" r:id="rId128"/>
+    <sheet name="AccInfoData" sheetId="450" r:id="rId129"/>
+    <sheet name="AccTableKind" sheetId="263" r:id="rId130"/>
+    <sheet name="AccSign" sheetId="254" r:id="rId131"/>
+    <sheet name="AccKind" sheetId="250" r:id="rId132"/>
+    <sheet name="AccSubKind" sheetId="454" r:id="rId133"/>
+    <sheet name="AC" sheetId="336" r:id="rId134"/>
+    <sheet name="ACKind" sheetId="251" r:id="rId135"/>
+    <sheet name="ACSubKind" sheetId="260" r:id="rId136"/>
+    <sheet name="ACCodeData" sheetId="337" r:id="rId137"/>
+    <sheet name="ACInfoData" sheetId="338" r:id="rId138"/>
+    <sheet name="AСInfoDataKind" sheetId="339" r:id="rId139"/>
+    <sheet name="AСInfoDataSubKind" sheetId="344" r:id="rId140"/>
+    <sheet name="ACPack" sheetId="379" r:id="rId141"/>
+    <sheet name="ACPiece" sheetId="380" r:id="rId142"/>
+    <sheet name="Asset" sheetId="48" r:id="rId143"/>
+    <sheet name="AssetCodeData" sheetId="305" r:id="rId144"/>
+    <sheet name="AssetInfoDataKind" sheetId="286" r:id="rId145"/>
+    <sheet name="AssetInfoData" sheetId="227" r:id="rId146"/>
+    <sheet name="TransportationKind" sheetId="291" r:id="rId147"/>
+    <sheet name="Transportation" sheetId="457" r:id="rId148"/>
+    <sheet name="RelationshipKind" sheetId="349" r:id="rId149"/>
+    <sheet name="DocJournalKind" sheetId="426" r:id="rId150"/>
+    <sheet name="DocJournalConsist" sheetId="427" r:id="rId151"/>
+    <sheet name="DocKind" sheetId="237" r:id="rId152"/>
+    <sheet name="DocSubKind" sheetId="424" r:id="rId153"/>
+    <sheet name="DocViewKind" sheetId="459" r:id="rId154"/>
+    <sheet name="DocView" sheetId="458" r:id="rId155"/>
+    <sheet name="DocPreset" sheetId="456" r:id="rId156"/>
+    <sheet name="DocCodeData" sheetId="462" r:id="rId157"/>
+    <sheet name="DocHead" sheetId="235" r:id="rId158"/>
+    <sheet name="DocLine" sheetId="236" r:id="rId159"/>
+    <sheet name="AccountingReference" sheetId="215" r:id="rId160"/>
+    <sheet name="AdvanceCheck" sheetId="125" r:id="rId161"/>
+    <sheet name="WriteOff" sheetId="154" r:id="rId162"/>
+    <sheet name="BankStatement" sheetId="152" r:id="rId163"/>
+    <sheet name="Warrant" sheetId="150" r:id="rId164"/>
+    <sheet name="PaymentOrder" sheetId="148" r:id="rId165"/>
+    <sheet name="Enter" sheetId="146" r:id="rId166"/>
+    <sheet name="IncomeCashOrder" sheetId="144" r:id="rId167"/>
+    <sheet name="LeaveCashOrder" sheetId="140" r:id="rId168"/>
+    <sheet name="Sell" sheetId="142" r:id="rId169"/>
+    <sheet name="Invoice" sheetId="406" r:id="rId170"/>
+    <sheet name="Return" sheetId="394" r:id="rId171"/>
+    <sheet name="Bill" sheetId="138" r:id="rId172"/>
+    <sheet name="Transfer" sheetId="136" r:id="rId173"/>
+    <sheet name="TimeSheet" sheetId="217" r:id="rId174"/>
+    <sheet name="SalaryCalc" sheetId="134" r:id="rId175"/>
+    <sheet name="List" sheetId="132" r:id="rId176"/>
+    <sheet name="StoreOrder" sheetId="396" r:id="rId177"/>
+    <sheet name="LoadingList" sheetId="395" r:id="rId178"/>
+    <sheet name="CalculationAverageSalary" sheetId="317" r:id="rId179"/>
+    <sheet name="AmortizationCalc" sheetId="318" r:id="rId180"/>
+    <sheet name="HRStatement" sheetId="425" r:id="rId181"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8653" uniqueCount="2618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8702" uniqueCount="2630">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -7839,12 +7840,6 @@
     <t>Свод</t>
   </si>
   <si>
-    <t>Лимит отгрузки (сумма)</t>
-  </si>
-  <si>
-    <t>Лимит отгрузки (дней)</t>
-  </si>
-  <si>
     <t>объектная часть адреса</t>
   </si>
   <si>
@@ -8083,6 +8078,48 @@
   </si>
   <si>
     <t>если пустой то для всех отделов</t>
+  </si>
+  <si>
+    <t>Ед изм</t>
+  </si>
+  <si>
+    <t>Данные отношений единиц измерения</t>
+  </si>
+  <si>
+    <t>Вид расчета</t>
+  </si>
+  <si>
+    <t>AppMethodCalcValueId</t>
+  </si>
+  <si>
+    <t>ед изм куда, например, "условная банка"</t>
+  </si>
+  <si>
+    <t>например, равно</t>
+  </si>
+  <si>
+    <t>владелец, ед изм откуда, например, "изделие"</t>
+  </si>
+  <si>
+    <t>UnitMeasureRelationshipData</t>
+  </si>
+  <si>
+    <t>UnitMeasureRelationshipDataId</t>
+  </si>
+  <si>
+    <t>UnitMeasureRelationshipDataValue</t>
+  </si>
+  <si>
+    <t>UnitMeasureRelationshipId</t>
+  </si>
+  <si>
+    <t>значение, например = 1,7</t>
+  </si>
+  <si>
+    <t>осн пересчет в усл ЕИ</t>
+  </si>
+  <si>
+    <t>основной пересчет в условные единицы измерения</t>
   </si>
 </sst>
 </file>
@@ -8697,7 +8734,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9577,6 +9614,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9611,7 +9658,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="Гиперссылка" xfId="25" builtinId="8"/>
@@ -10838,10 +10884,10 @@
     </row>
     <row r="27" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A27" s="173" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B27" s="173" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
     </row>
   </sheetData>
@@ -11555,7 +11601,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="196" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -11934,7 +11980,7 @@
         <v>1972</v>
       </c>
       <c r="C22" s="196" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -11954,36 +12000,36 @@
         <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>2543</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>2544</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="367" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B26" s="367" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>2558</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>2560</v>
-      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="380" t="s">
+      <c r="A27" s="384" t="s">
         <v>304</v>
       </c>
-      <c r="B27" s="380" t="s">
+      <c r="B27" s="384" t="s">
         <v>305</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -11991,15 +12037,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="381"/>
-      <c r="B28" s="381"/>
+      <c r="A28" s="385"/>
+      <c r="B28" s="385"/>
       <c r="C28" s="22" t="s">
         <v>1739</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="382"/>
-      <c r="B29" s="382"/>
+      <c r="A29" s="386"/>
+      <c r="B29" s="386"/>
       <c r="C29" s="22" t="s">
         <v>1740</v>
       </c>
@@ -12322,7 +12368,7 @@
     </row>
     <row r="18" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="362" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B18" s="362" t="s">
         <v>240</v>
@@ -12604,10 +12650,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="155" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B12" s="155" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -13205,9 +13251,210 @@
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="376" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="376" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="377" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="196" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="115" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="101" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="196" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="378" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B16" s="378" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C16" s="196" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C17" s="196" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="377" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C18" s="196" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="101" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="102" t="s">
+        <v>548</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13552,7 +13799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -13730,7 +13977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -13942,7 +14189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -14149,7 +14396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -14349,7 +14596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -14556,7 +14803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -14690,7 +14937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -14955,7 +15202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -15157,174 +15404,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="152" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="155" t="s">
-        <v>524</v>
-      </c>
-      <c r="B11" s="155" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="162" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="162" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="284" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="284" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="285" t="s">
-        <v>832</v>
-      </c>
-      <c r="B17" s="285" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="285" t="s">
-        <v>608</v>
-      </c>
-      <c r="B18" s="285" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="285" t="s">
-        <v>610</v>
-      </c>
-      <c r="B19" s="285" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="285" t="s">
-        <v>2105</v>
-      </c>
-      <c r="B20" s="285" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -15490,6 +15569,174 @@
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="161" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="155" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="155" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="162" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="162" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="284" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="284" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="285" t="s">
+        <v>832</v>
+      </c>
+      <c r="B17" s="285" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="285" t="s">
+        <v>608</v>
+      </c>
+      <c r="B18" s="285" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="285" t="s">
+        <v>610</v>
+      </c>
+      <c r="B19" s="285" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="285" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B20" s="285" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
@@ -15716,7 +15963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -15873,10 +16120,10 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="360" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B20" s="360" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
   </sheetData>
@@ -15885,7 +16132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -16085,7 +16332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист14"/>
   <dimension ref="A1:I39"/>
@@ -16454,7 +16701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -16769,7 +17016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -17020,7 +17267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
@@ -17184,7 +17431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист38"/>
   <dimension ref="A1:E23"/>
@@ -17397,7 +17644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -17571,209 +17818,6 @@
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>751</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="233" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="233" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="221" t="s">
-        <v>1950</v>
-      </c>
-      <c r="D9" s="222"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="155" t="s">
-        <v>524</v>
-      </c>
-      <c r="B12" s="155" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="162" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" s="162" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="142" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="143" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B18" s="143" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="143" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B19" s="143" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="143" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B20" s="143" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="143" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B21" s="143" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="143" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B22" s="143" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="143" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B23" s="143" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="143" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B24" s="143" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17986,13 +18030,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="291" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B24" s="291" t="s">
         <v>1543</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -18113,6 +18157,209 @@
 </file>
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="233" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="233" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="221" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D9" s="222"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="155" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="155" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="162" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="162" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="142" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="143" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B18" s="143" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="143" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B19" s="143" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="143" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B20" s="143" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="143" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B21" s="143" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="143" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B22" s="143" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="143" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B23" s="143" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="143" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B24" s="143" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -18257,7 +18504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -18464,7 +18711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -18639,7 +18886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
@@ -18826,7 +19073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -19174,7 +19421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -19361,7 +19608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
@@ -19532,7 +19779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -19690,7 +19937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -19858,154 +20105,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="55" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="155" t="s">
-        <v>524</v>
-      </c>
-      <c r="B10" s="155" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="162" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" s="162" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="144" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="145" t="s">
-        <v>657</v>
-      </c>
-      <c r="B15" s="145" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="145" t="s">
-        <v>658</v>
-      </c>
-      <c r="B16" s="145" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="145" t="s">
-        <v>659</v>
-      </c>
-      <c r="B17" s="145" t="s">
-        <v>659</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -20167,6 +20266,154 @@
 
 <file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="55" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="155" t="s">
+        <v>524</v>
+      </c>
+      <c r="B10" s="155" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="162" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" s="162" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="145" t="s">
+        <v>657</v>
+      </c>
+      <c r="B15" s="145" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="145" t="s">
+        <v>658</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="145" t="s">
+        <v>659</v>
+      </c>
+      <c r="B17" s="145" t="s">
+        <v>659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -20471,7 +20718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
@@ -20755,7 +21002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист43"/>
   <dimension ref="A2:D22"/>
@@ -20962,7 +21209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
@@ -21135,7 +21382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -21290,7 +21537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -21435,7 +21682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -21590,7 +21837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -21815,9 +22062,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -22204,279 +22451,33 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="372" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="B50" s="372" t="s">
-        <v>2594</v>
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="372" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B51" s="372" t="s">
+        <v>2629</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
-        <v>828</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="155" t="s">
-        <v>524</v>
-      </c>
-      <c r="B11" s="155" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="162" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="162" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="174" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="174" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="175" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="175" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="175" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B17" s="175" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="175" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B18" s="175" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="175" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B19" s="175" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="175" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B20" s="175" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="175" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="175" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="175" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="175" t="s">
-        <v>790</v>
-      </c>
-      <c r="B23" s="175" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="175" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="175" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="175" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B26" s="175" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="175" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B27" s="175" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="175" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B28" s="175" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="175" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B29" s="175" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="175" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B30" s="175" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -22844,13 +22845,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="291" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B37" s="291" t="s">
         <v>1543</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="D37" s="22"/>
     </row>
@@ -22983,6 +22984,260 @@
 </file>
 
 <file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>828</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="155" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="155" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="162" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="162" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="175" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="175" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="175" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B17" s="175" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="175" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B18" s="175" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="175" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B19" s="175" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="175" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B20" s="175" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="175" t="s">
+        <v>790</v>
+      </c>
+      <c r="B23" s="175" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="175" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="175" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B26" s="175" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="175" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B27" s="175" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="175" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B28" s="175" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="175" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B29" s="175" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="175" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B30" s="175" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -23297,7 +23552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -23707,7 +23962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -24005,7 +24260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -24253,7 +24508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
@@ -24412,7 +24667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -24557,11 +24812,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24574,15 +24829,15 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -24598,7 +24853,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -24637,7 +24892,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>2331</v>
@@ -24694,7 +24949,7 @@
         <v>170</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -24749,7 +25004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -24942,7 +25197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
@@ -25211,10 +25466,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="380" t="s">
+      <c r="A33" s="384" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="380" t="s">
+      <c r="B33" s="384" t="s">
         <v>305</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -25222,15 +25477,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="381"/>
-      <c r="B34" s="381"/>
+      <c r="A34" s="385"/>
+      <c r="B34" s="385"/>
       <c r="C34" s="22" t="s">
         <v>1739</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="382"/>
-      <c r="B35" s="382"/>
+      <c r="A35" s="386"/>
+      <c r="B35" s="386"/>
       <c r="C35" s="22" t="s">
         <v>1740</v>
       </c>
@@ -25410,13 +25665,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="291" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B59" s="291" t="s">
         <v>1543</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -25563,13 +25818,13 @@
       <c r="B79" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="383" t="s">
+      <c r="C79" s="387" t="s">
         <v>998</v>
       </c>
-      <c r="D79" s="384"/>
-      <c r="E79" s="384"/>
-      <c r="F79" s="384"/>
-      <c r="G79" s="384"/>
+      <c r="D79" s="388"/>
+      <c r="E79" s="388"/>
+      <c r="F79" s="388"/>
+      <c r="G79" s="388"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
@@ -25611,277 +25866,6 @@
     <mergeCell ref="B33:B35"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C36"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -26027,7 +26011,7 @@
         <v>110</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="D14" s="157"/>
       <c r="E14" s="157"/>
@@ -26134,6 +26118,277 @@
 </file>
 
 <file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C36"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="71" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
@@ -26281,7 +26536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -26541,7 +26796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
@@ -26784,7 +27039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
@@ -26999,7 +27254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C36"/>
   <sheetViews>
@@ -27282,7 +27537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C42"/>
   <sheetViews>
@@ -27613,7 +27868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
@@ -27830,7 +28085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -28068,7 +28323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C40"/>
   <sheetViews>
@@ -28369,302 +28624,6 @@
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="107" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>948</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28817,6 +28776,302 @@
 
 <file path=xl/worksheets/sheet170.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="71" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="43" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet171.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
@@ -29117,7 +29372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet171.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C31"/>
   <sheetViews>
@@ -29381,7 +29636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet173.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C19"/>
   <sheetViews>
@@ -29542,7 +29797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet173.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet174.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
@@ -29666,7 +29921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet174.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -29881,7 +30136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C42"/>
   <sheetViews>
@@ -30165,7 +30420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -30247,10 +30502,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="385" t="s">
+      <c r="A11" s="389" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="385" t="s">
+      <c r="B11" s="389" t="s">
         <v>305</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -30258,15 +30513,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="386"/>
-      <c r="B12" s="386"/>
+      <c r="A12" s="390"/>
+      <c r="B12" s="390"/>
       <c r="C12" s="26" t="s">
         <v>1739</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="376"/>
-      <c r="B13" s="376"/>
+      <c r="A13" s="380"/>
+      <c r="B13" s="380"/>
       <c r="C13" s="26" t="s">
         <v>1740</v>
       </c>
@@ -30499,7 +30754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet178.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -30598,10 +30853,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="385" t="s">
+      <c r="A14" s="389" t="s">
         <v>304</v>
       </c>
-      <c r="B14" s="385" t="s">
+      <c r="B14" s="389" t="s">
         <v>305</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -30609,15 +30864,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="386"/>
-      <c r="B15" s="386"/>
+      <c r="A15" s="390"/>
+      <c r="B15" s="390"/>
       <c r="C15" s="26" t="s">
         <v>1739</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="376"/>
-      <c r="B16" s="376"/>
+      <c r="A16" s="380"/>
+      <c r="B16" s="380"/>
       <c r="C16" s="26" t="s">
         <v>1740</v>
       </c>
@@ -30772,7 +31027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet178.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet179.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -30926,108 +31181,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet179.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B12"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>523</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -31183,18 +31336,18 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="366" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B20" s="366" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="366" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B21" s="366" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -31207,26 +31360,26 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="366" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B23" s="366" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="366" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B24" s="366" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="366" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="B25" s="366" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -31244,6 +31397,108 @@
 </file>
 
 <file path=xl/worksheets/sheet180.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet181.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -35183,7 +35438,7 @@
         <v>665</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -36083,34 +36338,34 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="374" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="B28" s="374" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="374" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="B29" s="374" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="374" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="B30" s="374" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="374" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B31" s="374" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -36139,18 +36394,18 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="374" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B35" s="374" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="374" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="B36" s="374" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
     </row>
   </sheetData>
@@ -36163,7 +36418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -36282,50 +36539,50 @@
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A16" s="371" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B16" s="371" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="371" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="B17" s="371" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="371" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="B18" s="371" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="371" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="B19" s="371" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A20" s="371" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="B20" s="371" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A21" s="371" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="B21" s="371" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
   </sheetData>
@@ -36721,7 +36978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38099,10 +38356,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="377" t="s">
+      <c r="A14" s="381" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="375" t="s">
+      <c r="B14" s="379" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -38110,8 +38367,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="376"/>
-      <c r="B15" s="376"/>
+      <c r="A15" s="380"/>
+      <c r="B15" s="380"/>
       <c r="C15" t="s">
         <v>1503</v>
       </c>
@@ -38692,19 +38949,19 @@
     </row>
     <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A31" s="138" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B31" s="138" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="C31" s="139"/>
     </row>
     <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A32" s="138" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B32" s="138" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="C32" s="139" t="s">
         <v>629</v>
@@ -38712,10 +38969,10 @@
     </row>
     <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A33" s="138" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B33" s="138" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="C33" s="139" t="s">
         <v>629</v>
@@ -38723,10 +38980,10 @@
     </row>
     <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A34" s="138" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B34" s="138" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="C34" s="139" t="s">
         <v>629</v>
@@ -38734,10 +38991,10 @@
     </row>
     <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A35" s="138" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="B35" s="138" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="C35" s="139" t="s">
         <v>629</v>
@@ -38745,10 +39002,10 @@
     </row>
     <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A36" s="138" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="B36" s="138" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="C36" s="139" t="s">
         <v>629</v>
@@ -38764,7 +39021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38779,7 +39036,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.25">
@@ -38847,14 +39104,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="387" t="s">
+      <c r="A11" s="375" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="387" t="s">
+      <c r="B11" s="375" t="s">
         <v>199</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -38907,13 +39164,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="300" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B15" s="300" t="s">
         <v>2331</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -39438,26 +39695,26 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="172" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B21" s="172" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="172" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B22" s="172" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="172" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B23" s="172" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
     </row>
   </sheetData>
@@ -39572,7 +39829,7 @@
         <v>79</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="D12" s="26"/>
     </row>
@@ -39960,12 +40217,12 @@
       <c r="B15" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="378" t="s">
+      <c r="C15" s="382" t="s">
         <v>1128</v>
       </c>
-      <c r="D15" s="379"/>
-      <c r="E15" s="379"/>
-      <c r="F15" s="379"/>
+      <c r="D15" s="383"/>
+      <c r="E15" s="383"/>
+      <c r="F15" s="383"/>
       <c r="G15" s="196"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -40376,9 +40633,11 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -40467,96 +40726,105 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="15" t="s">
         <v>522</v>
       </c>
       <c r="C11" s="316"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="16" t="s">
         <v>523</v>
       </c>
       <c r="C12" s="316"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="258" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="258" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C13" s="316"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B17" s="39" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="40" t="s">
         <v>518</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B24" s="40" t="s">
         <v>511</v>
       </c>
     </row>
@@ -40568,7 +40836,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -40648,62 +40916,70 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="15" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="258" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="258" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B16" s="38" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>252</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B19" s="46" t="s">
         <v>504</v>
       </c>
     </row>
@@ -41504,7 +41780,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>1906</v>
@@ -41526,7 +41802,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -42034,7 +42310,7 @@
         <v>2015</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -44448,7 +44724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44648,7 +44924,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -44797,22 +45073,6 @@
       </c>
       <c r="B18" s="359" t="s">
         <v>1828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="359" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B19" s="359" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="359" t="s">
-        <v>2537</v>
-      </c>
-      <c r="B20" s="359" t="s">
-        <v>2537</v>
       </c>
     </row>
   </sheetData>
@@ -47861,7 +48121,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -47986,35 +48246,35 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="369" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B17" s="369" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="369" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B18" s="369" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>2569</v>
-      </c>
-      <c r="B18" s="369" t="s">
-        <v>2569</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>2571</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="369" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B19" s="369" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48025,7 +48285,7 @@
         <v>1544</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48036,7 +48296,7 @@
         <v>1545</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48047,7 +48307,7 @@
         <v>2334</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48058,7 +48318,7 @@
         <v>1574</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48069,14 +48329,22 @@
         <v>2225</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="321" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B25" s="321" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="321" t="s">
         <v>2226</v>
       </c>
-      <c r="B25" s="321" t="s">
+      <c r="B26" s="321" t="s">
         <v>2226</v>
       </c>
     </row>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="24" activeTab="25"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="119" activeTab="124"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8675" uniqueCount="2674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8676" uniqueCount="2675">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -8268,6 +8268,9 @@
   </si>
   <si>
     <t>если указана формула вида "док \ поле" - то это подстановка полей из дока</t>
+  </si>
+  <si>
+    <t>основная валюта страны</t>
   </si>
 </sst>
 </file>
@@ -8887,7 +8890,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9477,7 +9480,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10386,7 +10388,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="345" t="s">
+      <c r="A17" s="344" t="s">
         <v>2421</v>
       </c>
       <c r="B17" s="61" t="s">
@@ -10394,7 +10396,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="345" t="s">
+      <c r="A18" s="344" t="s">
         <v>2422</v>
       </c>
       <c r="B18" s="61" t="s">
@@ -10402,7 +10404,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="345" t="s">
+      <c r="A19" s="344" t="s">
         <v>949</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -10410,10 +10412,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="382" t="s">
+      <c r="A20" s="381" t="s">
         <v>2419</v>
       </c>
-      <c r="B20" s="382" t="s">
+      <c r="B20" s="381" t="s">
         <v>2420</v>
       </c>
     </row>
@@ -10450,18 +10452,18 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="381" t="s">
+      <c r="A25" s="380" t="s">
         <v>2638</v>
       </c>
-      <c r="B25" s="381" t="s">
+      <c r="B25" s="380" t="s">
         <v>2638</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="381" t="s">
+      <c r="A26" s="380" t="s">
         <v>1880</v>
       </c>
-      <c r="B26" s="381" t="s">
+      <c r="B26" s="380" t="s">
         <v>1880</v>
       </c>
     </row>
@@ -10616,18 +10618,18 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="298" t="s">
+      <c r="A16" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="298" t="s">
+      <c r="B16" s="297" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="299" t="s">
+      <c r="A17" s="298" t="s">
         <v>1198</v>
       </c>
-      <c r="B17" s="299" t="s">
+      <c r="B17" s="298" t="s">
         <v>1198</v>
       </c>
       <c r="C17" t="s">
@@ -10635,10 +10637,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="299" t="s">
+      <c r="A18" s="298" t="s">
         <v>1199</v>
       </c>
-      <c r="B18" s="299" t="s">
+      <c r="B18" s="298" t="s">
         <v>1199</v>
       </c>
       <c r="C18" t="s">
@@ -10646,58 +10648,58 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="299" t="s">
+      <c r="A19" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="299" t="s">
+      <c r="B19" s="298" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="299" t="s">
+      <c r="A20" s="298" t="s">
         <v>1195</v>
       </c>
-      <c r="B20" s="299" t="s">
+      <c r="B20" s="298" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="299" t="s">
+      <c r="A21" s="298" t="s">
         <v>1193</v>
       </c>
-      <c r="B21" s="299" t="s">
+      <c r="B21" s="298" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="299" t="s">
+      <c r="A22" s="298" t="s">
         <v>1194</v>
       </c>
-      <c r="B22" s="299" t="s">
+      <c r="B22" s="298" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="299" t="s">
+      <c r="A23" s="298" t="s">
         <v>2157</v>
       </c>
-      <c r="B23" s="299" t="s">
+      <c r="B23" s="298" t="s">
         <v>2157</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="299" t="s">
+      <c r="A24" s="298" t="s">
         <v>1196</v>
       </c>
-      <c r="B24" s="299" t="s">
+      <c r="B24" s="298" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="299" t="s">
+      <c r="A25" s="298" t="s">
         <v>2158</v>
       </c>
-      <c r="B25" s="299" t="s">
+      <c r="B25" s="298" t="s">
         <v>2158</v>
       </c>
     </row>
@@ -11195,7 +11197,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A23" s="92" t="s">
         <v>954</v>
       </c>
@@ -11641,10 +11643,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="379" t="s">
+      <c r="A24" s="378" t="s">
         <v>2604</v>
       </c>
-      <c r="B24" s="379" t="s">
+      <c r="B24" s="378" t="s">
         <v>2605</v>
       </c>
     </row>
@@ -12146,9 +12148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12368,10 +12368,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="360" t="s">
+      <c r="A26" s="359" t="s">
         <v>2511</v>
       </c>
-      <c r="B26" s="360" t="s">
+      <c r="B26" s="359" t="s">
         <v>2510</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -12379,10 +12379,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="393" t="s">
+      <c r="A27" s="392" t="s">
         <v>304</v>
       </c>
-      <c r="B27" s="393" t="s">
+      <c r="B27" s="392" t="s">
         <v>305</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -12390,15 +12390,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="394"/>
-      <c r="B28" s="394"/>
+      <c r="A28" s="393"/>
+      <c r="B28" s="393"/>
       <c r="C28" s="22" t="s">
         <v>1722</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="395"/>
-      <c r="B29" s="395"/>
+      <c r="A29" s="394"/>
+      <c r="B29" s="394"/>
       <c r="C29" s="22" t="s">
         <v>1723</v>
       </c>
@@ -12523,13 +12523,13 @@
       <c r="B5" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="310"/>
-      <c r="I5" s="310"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="309"/>
+      <c r="E5" s="309"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
@@ -12538,13 +12538,13 @@
       <c r="B6" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="310"/>
-      <c r="D6" s="310"/>
-      <c r="E6" s="310"/>
-      <c r="F6" s="310"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="310"/>
-      <c r="I6" s="310"/>
+      <c r="C6" s="309"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="113" t="s">
@@ -12556,51 +12556,51 @@
       <c r="C7" s="193" t="s">
         <v>2598</v>
       </c>
-      <c r="D7" s="310"/>
-      <c r="E7" s="310"/>
-      <c r="F7" s="310"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="310"/>
-      <c r="I7" s="310"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
     </row>
     <row r="8" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="378"/>
-      <c r="B8" s="378"/>
+      <c r="A8" s="377"/>
+      <c r="B8" s="377"/>
       <c r="C8" s="193" t="s">
         <v>2599</v>
       </c>
-      <c r="D8" s="377"/>
-      <c r="E8" s="377"/>
-      <c r="F8" s="377"/>
-      <c r="G8" s="377"/>
-      <c r="H8" s="377"/>
-      <c r="I8" s="377"/>
+      <c r="D8" s="376"/>
+      <c r="E8" s="376"/>
+      <c r="F8" s="376"/>
+      <c r="G8" s="376"/>
+      <c r="H8" s="376"/>
+      <c r="I8" s="376"/>
     </row>
     <row r="9" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="378"/>
-      <c r="B9" s="378"/>
+      <c r="A9" s="377"/>
+      <c r="B9" s="377"/>
       <c r="C9" s="193" t="s">
         <v>2600</v>
       </c>
-      <c r="D9" s="377"/>
-      <c r="E9" s="377"/>
-      <c r="F9" s="377"/>
-      <c r="G9" s="377"/>
-      <c r="H9" s="377"/>
-      <c r="I9" s="377"/>
+      <c r="D9" s="376"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="376"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="376"/>
+      <c r="I9" s="376"/>
     </row>
     <row r="10" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="378"/>
-      <c r="B10" s="378"/>
+      <c r="A10" s="377"/>
+      <c r="B10" s="377"/>
       <c r="C10" s="193" t="s">
         <v>2601</v>
       </c>
-      <c r="D10" s="377"/>
-      <c r="E10" s="377"/>
-      <c r="F10" s="377"/>
-      <c r="G10" s="377"/>
-      <c r="H10" s="377"/>
-      <c r="I10" s="377"/>
+      <c r="D10" s="376"/>
+      <c r="E10" s="376"/>
+      <c r="F10" s="376"/>
+      <c r="G10" s="376"/>
+      <c r="H10" s="376"/>
+      <c r="I10" s="376"/>
     </row>
     <row r="11" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71" t="s">
@@ -12612,12 +12612,12 @@
       <c r="C11" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="310"/>
-      <c r="E11" s="310"/>
-      <c r="F11" s="310"/>
-      <c r="G11" s="310"/>
-      <c r="H11" s="310"/>
-      <c r="I11" s="310"/>
+      <c r="D11" s="309"/>
+      <c r="E11" s="309"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="309"/>
+      <c r="H11" s="309"/>
+      <c r="I11" s="309"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
@@ -12626,13 +12626,13 @@
       <c r="B12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="310"/>
-      <c r="D12" s="310"/>
-      <c r="E12" s="310"/>
-      <c r="F12" s="310"/>
-      <c r="G12" s="310"/>
-      <c r="H12" s="310"/>
-      <c r="I12" s="310"/>
+      <c r="C12" s="309"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="309"/>
+      <c r="H12" s="309"/>
+      <c r="I12" s="309"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
@@ -12641,13 +12641,13 @@
       <c r="B13" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="310"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="310"/>
-      <c r="F13" s="310"/>
-      <c r="G13" s="310"/>
-      <c r="H13" s="310"/>
-      <c r="I13" s="310"/>
+      <c r="C13" s="309"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="309"/>
+      <c r="I13" s="309"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
@@ -12656,15 +12656,15 @@
       <c r="B14" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="310" t="s">
+      <c r="C14" s="309" t="s">
         <v>742</v>
       </c>
-      <c r="D14" s="310"/>
-      <c r="E14" s="310"/>
-      <c r="F14" s="310"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="310"/>
-      <c r="I14" s="310"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="309"/>
+      <c r="H14" s="309"/>
+      <c r="I14" s="309"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
@@ -12673,13 +12673,13 @@
       <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="310"/>
-      <c r="H15" s="310"/>
-      <c r="I15" s="310"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="309"/>
+      <c r="G15" s="309"/>
+      <c r="H15" s="309"/>
+      <c r="I15" s="309"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
@@ -12688,13 +12688,13 @@
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="310"/>
-      <c r="D16" s="310"/>
-      <c r="E16" s="310"/>
-      <c r="F16" s="310"/>
-      <c r="G16" s="310"/>
-      <c r="H16" s="310"/>
-      <c r="I16" s="310"/>
+      <c r="C16" s="309"/>
+      <c r="D16" s="309"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="309"/>
+      <c r="G16" s="309"/>
+      <c r="H16" s="309"/>
+      <c r="I16" s="309"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="99" t="s">
@@ -12703,13 +12703,13 @@
       <c r="B17" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="310"/>
-      <c r="D17" s="310"/>
-      <c r="E17" s="310"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="310"/>
-      <c r="H17" s="310"/>
-      <c r="I17" s="310"/>
+      <c r="C17" s="309"/>
+      <c r="D17" s="309"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="309"/>
+      <c r="G17" s="309"/>
+      <c r="H17" s="309"/>
+      <c r="I17" s="309"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
@@ -12718,28 +12718,28 @@
       <c r="B18" s="18" t="s">
         <v>2296</v>
       </c>
-      <c r="C18" s="310"/>
-      <c r="D18" s="310"/>
-      <c r="E18" s="310"/>
-      <c r="F18" s="310"/>
-      <c r="G18" s="310"/>
-      <c r="H18" s="310"/>
-      <c r="I18" s="310"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
     </row>
     <row r="19" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="355" t="s">
+      <c r="A19" s="354" t="s">
         <v>381</v>
       </c>
-      <c r="B19" s="355" t="s">
+      <c r="B19" s="354" t="s">
         <v>353</v>
       </c>
-      <c r="C19" s="361"/>
-      <c r="D19" s="361"/>
-      <c r="E19" s="361"/>
-      <c r="F19" s="361"/>
-      <c r="G19" s="361"/>
-      <c r="H19" s="361"/>
-      <c r="I19" s="361"/>
+      <c r="C19" s="360"/>
+      <c r="D19" s="360"/>
+      <c r="E19" s="360"/>
+      <c r="F19" s="360"/>
+      <c r="G19" s="360"/>
+      <c r="H19" s="360"/>
+      <c r="I19" s="360"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
@@ -12751,27 +12751,27 @@
       <c r="C20" s="193" t="s">
         <v>1773</v>
       </c>
-      <c r="D20" s="310"/>
-      <c r="E20" s="310"/>
-      <c r="F20" s="310"/>
-      <c r="G20" s="310"/>
-      <c r="H20" s="310"/>
-      <c r="I20" s="310"/>
+      <c r="D20" s="309"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="309"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="309"/>
     </row>
     <row r="21" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="355" t="s">
+      <c r="A21" s="354" t="s">
         <v>2517</v>
       </c>
-      <c r="B21" s="355" t="s">
+      <c r="B21" s="354" t="s">
         <v>240</v>
       </c>
       <c r="C21" s="193"/>
-      <c r="D21" s="361"/>
-      <c r="E21" s="361"/>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
-      <c r="I21" s="361"/>
+      <c r="D21" s="360"/>
+      <c r="E21" s="360"/>
+      <c r="F21" s="360"/>
+      <c r="G21" s="360"/>
+      <c r="H21" s="360"/>
+      <c r="I21" s="360"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -12781,12 +12781,12 @@
         <v>115</v>
       </c>
       <c r="C22" s="193"/>
-      <c r="D22" s="310"/>
-      <c r="E22" s="310"/>
-      <c r="F22" s="310"/>
-      <c r="G22" s="310"/>
-      <c r="H22" s="310"/>
-      <c r="I22" s="310"/>
+      <c r="D22" s="309"/>
+      <c r="E22" s="309"/>
+      <c r="F22" s="309"/>
+      <c r="G22" s="309"/>
+      <c r="H22" s="309"/>
+      <c r="I22" s="309"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="99" t="s">
@@ -12798,12 +12798,12 @@
       <c r="C23" s="193" t="s">
         <v>1774</v>
       </c>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="310"/>
-      <c r="I23" s="310"/>
+      <c r="D23" s="309"/>
+      <c r="E23" s="309"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="309"/>
+      <c r="H23" s="309"/>
+      <c r="I23" s="309"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
@@ -12813,12 +12813,12 @@
         <v>28</v>
       </c>
       <c r="C24" s="193"/>
-      <c r="D24" s="310"/>
-      <c r="E24" s="310"/>
-      <c r="F24" s="310"/>
-      <c r="G24" s="310"/>
-      <c r="H24" s="310"/>
-      <c r="I24" s="310"/>
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="309"/>
+      <c r="H24" s="309"/>
+      <c r="I24" s="309"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="99" t="s">
@@ -12830,25 +12830,25 @@
       <c r="C25" s="22" t="s">
         <v>1049</v>
       </c>
-      <c r="D25" s="310"/>
-      <c r="E25" s="310"/>
-      <c r="F25" s="310"/>
-      <c r="G25" s="310"/>
-      <c r="H25" s="310"/>
-      <c r="I25" s="310"/>
+      <c r="D25" s="309"/>
+      <c r="E25" s="309"/>
+      <c r="F25" s="309"/>
+      <c r="G25" s="309"/>
+      <c r="H25" s="309"/>
+      <c r="I25" s="309"/>
     </row>
     <row r="26" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="330"/>
-      <c r="B26" s="330"/>
+      <c r="A26" s="329"/>
+      <c r="B26" s="329"/>
       <c r="C26" s="22" t="s">
         <v>1048</v>
       </c>
-      <c r="D26" s="329"/>
-      <c r="E26" s="329"/>
-      <c r="F26" s="329"/>
-      <c r="G26" s="329"/>
-      <c r="H26" s="329"/>
-      <c r="I26" s="329"/>
+      <c r="D26" s="328"/>
+      <c r="E26" s="328"/>
+      <c r="F26" s="328"/>
+      <c r="G26" s="328"/>
+      <c r="H26" s="328"/>
+      <c r="I26" s="328"/>
     </row>
     <row r="27" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
@@ -12857,7 +12857,7 @@
       <c r="B27" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C27" s="317"/>
+      <c r="C27" s="316"/>
     </row>
     <row r="28" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
@@ -12866,7 +12866,7 @@
       <c r="B28" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="C28" s="317"/>
+      <c r="C28" s="316"/>
     </row>
     <row r="29" spans="1:9" s="134" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
@@ -13001,7 +13001,7 @@
       <c r="C7" s="193" t="s">
         <v>1135</v>
       </c>
-      <c r="D7" s="317"/>
+      <c r="D7" s="316"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -13586,15 +13586,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="369" t="s">
+      <c r="A10" s="368" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="369" t="s">
+      <c r="B10" s="368" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="370" t="s">
+      <c r="A11" s="369" t="s">
         <v>2570</v>
       </c>
       <c r="B11" s="101" t="s">
@@ -13640,10 +13640,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="371" t="s">
+      <c r="A16" s="370" t="s">
         <v>2572</v>
       </c>
-      <c r="B16" s="371" t="s">
+      <c r="B16" s="370" t="s">
         <v>2573</v>
       </c>
       <c r="C16" s="193" t="s">
@@ -13662,7 +13662,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="370" t="s">
+      <c r="A18" s="369" t="s">
         <v>2570</v>
       </c>
       <c r="B18" s="101" t="s">
@@ -14153,7 +14153,7 @@
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B11" s="152" t="s">
@@ -14412,7 +14412,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="300" t="s">
+      <c r="A19" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B19" s="152" t="s">
@@ -14583,10 +14583,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="268" t="s">
+      <c r="A16" s="267" t="s">
         <v>2006</v>
       </c>
-      <c r="B16" s="268" t="s">
+      <c r="B16" s="267" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -14621,7 +14621,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="300" t="s">
+      <c r="A20" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B20" s="152" t="s">
@@ -14818,34 +14818,34 @@
       <c r="B18" s="4"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="272" t="s">
+      <c r="A21" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="272" t="s">
+      <c r="B21" s="271" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="273" t="s">
+      <c r="A22" s="272" t="s">
         <v>2039</v>
       </c>
-      <c r="B22" s="273" t="s">
+      <c r="B22" s="272" t="s">
         <v>2039</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="273" t="s">
+      <c r="A23" s="272" t="s">
         <v>2040</v>
       </c>
-      <c r="B23" s="273" t="s">
+      <c r="B23" s="272" t="s">
         <v>2040</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="273" t="s">
+      <c r="A24" s="272" t="s">
         <v>2041</v>
       </c>
-      <c r="B24" s="273" t="s">
+      <c r="B24" s="272" t="s">
         <v>2041</v>
       </c>
     </row>
@@ -14991,8 +14991,8 @@
       <c r="G14" s="218"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="274"/>
-      <c r="B15" s="274"/>
+      <c r="A15" s="273"/>
+      <c r="B15" s="273"/>
       <c r="C15" s="217" t="s">
         <v>2044</v>
       </c>
@@ -15323,10 +15323,10 @@
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="268" t="s">
+      <c r="A14" s="267" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="268" t="s">
+      <c r="B14" s="267" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -15579,18 +15579,18 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="313" t="s">
+      <c r="A16" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="313" t="s">
+      <c r="B16" s="312" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="362" t="s">
+      <c r="A17" s="361" t="s">
         <v>2520</v>
       </c>
-      <c r="B17" s="362" t="s">
+      <c r="B17" s="361" t="s">
         <v>2520</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -15598,10 +15598,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="362" t="s">
+      <c r="A18" s="361" t="s">
         <v>2521</v>
       </c>
-      <c r="B18" s="362" t="s">
+      <c r="B18" s="361" t="s">
         <v>2521</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -15609,10 +15609,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="362" t="s">
+      <c r="A19" s="361" t="s">
         <v>2522</v>
       </c>
-      <c r="B19" s="362" t="s">
+      <c r="B19" s="361" t="s">
         <v>2522</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -15620,10 +15620,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="314" t="s">
+      <c r="A20" s="313" t="s">
         <v>1189</v>
       </c>
-      <c r="B20" s="314" t="s">
+      <c r="B20" s="313" t="s">
         <v>1529</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -15631,10 +15631,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="314" t="s">
+      <c r="A21" s="313" t="s">
         <v>1531</v>
       </c>
-      <c r="B21" s="314" t="s">
+      <c r="B21" s="313" t="s">
         <v>1530</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -15642,10 +15642,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="314" t="s">
+      <c r="A22" s="313" t="s">
         <v>2291</v>
       </c>
-      <c r="B22" s="314" t="s">
+      <c r="B22" s="313" t="s">
         <v>2292</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -15653,10 +15653,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="314" t="s">
+      <c r="A23" s="313" t="s">
         <v>1558</v>
       </c>
-      <c r="B23" s="314" t="s">
+      <c r="B23" s="313" t="s">
         <v>1559</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -15664,10 +15664,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="314" t="s">
+      <c r="A24" s="313" t="s">
         <v>2182</v>
       </c>
-      <c r="B24" s="314" t="s">
+      <c r="B24" s="313" t="s">
         <v>2183</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -15675,18 +15675,18 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="314" t="s">
+      <c r="A25" s="313" t="s">
         <v>2440</v>
       </c>
-      <c r="B25" s="314" t="s">
+      <c r="B25" s="313" t="s">
         <v>2440</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="314" t="s">
+      <c r="A26" s="313" t="s">
         <v>2184</v>
       </c>
-      <c r="B26" s="314" t="s">
+      <c r="B26" s="313" t="s">
         <v>2184</v>
       </c>
     </row>
@@ -16023,42 +16023,42 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="278" t="s">
+      <c r="A16" s="277" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="278" t="s">
+      <c r="B16" s="277" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="279" t="s">
+      <c r="A17" s="278" t="s">
         <v>823</v>
       </c>
-      <c r="B17" s="279" t="s">
+      <c r="B17" s="278" t="s">
         <v>2062</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="279" t="s">
+      <c r="A18" s="278" t="s">
         <v>607</v>
       </c>
-      <c r="B18" s="279" t="s">
+      <c r="B18" s="278" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="279" t="s">
+      <c r="A19" s="278" t="s">
         <v>609</v>
       </c>
-      <c r="B19" s="279" t="s">
+      <c r="B19" s="278" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="279" t="s">
+      <c r="A20" s="278" t="s">
         <v>2063</v>
       </c>
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="278" t="s">
         <v>2063</v>
       </c>
     </row>
@@ -16192,101 +16192,101 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="269" t="s">
+      <c r="A16" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="269" t="s">
+      <c r="B16" s="268" t="s">
         <v>500</v>
       </c>
-      <c r="C16" s="269" t="s">
+      <c r="C16" s="268" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="270" t="s">
+      <c r="A17" s="269" t="s">
         <v>621</v>
       </c>
-      <c r="B17" s="270" t="s">
+      <c r="B17" s="269" t="s">
         <v>622</v>
       </c>
-      <c r="C17" s="270" t="s">
+      <c r="C17" s="269" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="270" t="s">
+      <c r="A18" s="269" t="s">
         <v>623</v>
       </c>
-      <c r="B18" s="270" t="s">
+      <c r="B18" s="269" t="s">
         <v>624</v>
       </c>
-      <c r="C18" s="270" t="s">
+      <c r="C18" s="269" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="270" t="s">
+      <c r="A19" s="269" t="s">
         <v>625</v>
       </c>
-      <c r="B19" s="270" t="s">
+      <c r="B19" s="269" t="s">
         <v>626</v>
       </c>
-      <c r="C19" s="270" t="s">
+      <c r="C19" s="269" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="270" t="s">
+      <c r="A20" s="269" t="s">
         <v>627</v>
       </c>
-      <c r="B20" s="270" t="s">
+      <c r="B20" s="269" t="s">
         <v>627</v>
       </c>
-      <c r="C20" s="270" t="s">
+      <c r="C20" s="269" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="270" t="s">
+      <c r="A21" s="269" t="s">
         <v>629</v>
       </c>
-      <c r="B21" s="270" t="s">
+      <c r="B21" s="269" t="s">
         <v>629</v>
       </c>
-      <c r="C21" s="270" t="s">
+      <c r="C21" s="269" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="270" t="s">
+      <c r="A22" s="269" t="s">
         <v>630</v>
       </c>
-      <c r="B22" s="270" t="s">
+      <c r="B22" s="269" t="s">
         <v>631</v>
       </c>
-      <c r="C22" s="270" t="s">
+      <c r="C22" s="269" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="270" t="s">
+      <c r="A23" s="269" t="s">
         <v>2028</v>
       </c>
-      <c r="B23" s="270" t="s">
+      <c r="B23" s="269" t="s">
         <v>2028</v>
       </c>
-      <c r="C23" s="270" t="s">
+      <c r="C23" s="269" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="270" t="s">
+      <c r="A24" s="269" t="s">
         <v>2029</v>
       </c>
-      <c r="B24" s="270" t="s">
+      <c r="B24" s="269" t="s">
         <v>2029</v>
       </c>
-      <c r="C24" s="270" t="s">
+      <c r="C24" s="269" t="s">
         <v>628</v>
       </c>
     </row>
@@ -16452,10 +16452,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="353" t="s">
+      <c r="A20" s="352" t="s">
         <v>2499</v>
       </c>
-      <c r="B20" s="353" t="s">
+      <c r="B20" s="352" t="s">
         <v>2500</v>
       </c>
     </row>
@@ -16670,7 +16670,7 @@
   <sheetPr codeName="Лист14"/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17190,154 +17190,154 @@
       <c r="B16" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="341" t="s">
+      <c r="A18" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="341" t="s">
+      <c r="B18" s="340" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="342" t="s">
+      <c r="A19" s="341" t="s">
         <v>2354</v>
       </c>
-      <c r="B19" s="342" t="s">
+      <c r="B19" s="341" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="342" t="s">
+      <c r="A20" s="341" t="s">
         <v>2355</v>
       </c>
-      <c r="B20" s="342" t="s">
+      <c r="B20" s="341" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="342" t="s">
+      <c r="A21" s="341" t="s">
         <v>1341</v>
       </c>
-      <c r="B21" s="342" t="s">
+      <c r="B21" s="341" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="342" t="s">
+      <c r="A22" s="341" t="s">
         <v>2356</v>
       </c>
-      <c r="B22" s="342" t="s">
+      <c r="B22" s="341" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="342" t="s">
+      <c r="A23" s="341" t="s">
         <v>1344</v>
       </c>
-      <c r="B23" s="342" t="s">
+      <c r="B23" s="341" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="342" t="s">
+      <c r="A24" s="341" t="s">
         <v>2357</v>
       </c>
-      <c r="B24" s="342" t="s">
+      <c r="B24" s="341" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="342" t="s">
+      <c r="A25" s="341" t="s">
         <v>2358</v>
       </c>
-      <c r="B25" s="342" t="s">
+      <c r="B25" s="341" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="342" t="s">
+      <c r="A26" s="341" t="s">
         <v>1349</v>
       </c>
-      <c r="B26" s="342" t="s">
+      <c r="B26" s="341" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="342" t="s">
+      <c r="A27" s="341" t="s">
         <v>1350</v>
       </c>
-      <c r="B27" s="342" t="s">
+      <c r="B27" s="341" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="342" t="s">
+      <c r="A28" s="341" t="s">
         <v>2359</v>
       </c>
-      <c r="B28" s="342" t="s">
+      <c r="B28" s="341" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="342" t="s">
+      <c r="A29" s="341" t="s">
         <v>1354</v>
       </c>
-      <c r="B29" s="342" t="s">
+      <c r="B29" s="341" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="342" t="s">
+      <c r="A30" s="341" t="s">
         <v>1356</v>
       </c>
-      <c r="B30" s="342" t="s">
+      <c r="B30" s="341" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="342" t="s">
+      <c r="A31" s="341" t="s">
         <v>2360</v>
       </c>
-      <c r="B31" s="342" t="s">
+      <c r="B31" s="341" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="342" t="s">
+      <c r="A32" s="341" t="s">
         <v>1359</v>
       </c>
-      <c r="B32" s="342" t="s">
+      <c r="B32" s="341" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="342" t="s">
+      <c r="A33" s="341" t="s">
         <v>2361</v>
       </c>
-      <c r="B33" s="342" t="s">
+      <c r="B33" s="341" t="s">
         <v>2362</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="342" t="s">
+      <c r="A34" s="341" t="s">
         <v>2363</v>
       </c>
-      <c r="B34" s="342" t="s">
+      <c r="B34" s="341" t="s">
         <v>2363</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="342" t="s">
+      <c r="A35" s="341" t="s">
         <v>2364</v>
       </c>
-      <c r="B35" s="342" t="s">
+      <c r="B35" s="341" t="s">
         <v>2364</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="342" t="s">
+      <c r="A36" s="341" t="s">
         <v>2365</v>
       </c>
-      <c r="B36" s="342" t="s">
+      <c r="B36" s="341" t="s">
         <v>2365</v>
       </c>
     </row>
@@ -17579,18 +17579,18 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="350" t="s">
+      <c r="A30" s="349" t="s">
         <v>2450</v>
       </c>
-      <c r="B30" s="350" t="s">
+      <c r="B30" s="349" t="s">
         <v>2450</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="350" t="s">
+      <c r="A31" s="349" t="s">
         <v>2474</v>
       </c>
-      <c r="B31" s="350" t="s">
+      <c r="B31" s="349" t="s">
         <v>2474</v>
       </c>
     </row>
@@ -18130,22 +18130,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="315"/>
-      <c r="B23" s="316"/>
+      <c r="A23" s="314"/>
+      <c r="B23" s="315"/>
       <c r="C23" s="217" t="s">
         <v>2205</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="315"/>
-      <c r="B24" s="316"/>
+      <c r="A24" s="314"/>
+      <c r="B24" s="315"/>
       <c r="C24" s="217" t="s">
         <v>2202</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="315"/>
-      <c r="B25" s="316"/>
+      <c r="A25" s="314"/>
+      <c r="B25" s="315"/>
       <c r="C25" s="217" t="s">
         <v>2203</v>
       </c>
@@ -18266,10 +18266,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="312" t="s">
+      <c r="A7" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="312" t="s">
+      <c r="B7" s="311" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="231" t="s">
@@ -18412,102 +18412,102 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="375" t="s">
+      <c r="A25" s="374" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="375" t="s">
+      <c r="B25" s="374" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="375" t="s">
+      <c r="C25" s="374" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="375" t="s">
+      <c r="D25" s="374" t="s">
         <v>2250</v>
       </c>
-      <c r="E25" s="375" t="s">
+      <c r="E25" s="374" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="375" t="s">
+      <c r="F25" s="374" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="376" t="s">
+      <c r="A26" s="375" t="s">
         <v>2590</v>
       </c>
-      <c r="B26" s="376" t="s">
+      <c r="B26" s="375" t="s">
         <v>2591</v>
       </c>
-      <c r="C26" s="376" t="s">
+      <c r="C26" s="375" t="s">
         <v>805</v>
       </c>
-      <c r="D26" s="376" t="s">
+      <c r="D26" s="375" t="s">
         <v>628</v>
       </c>
-      <c r="E26" s="376" t="s">
+      <c r="E26" s="375" t="s">
         <v>725</v>
       </c>
-      <c r="F26" s="376" t="s">
+      <c r="F26" s="375" t="s">
         <v>2632</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="376" t="s">
+      <c r="A27" s="375" t="s">
         <v>2592</v>
       </c>
-      <c r="B27" s="376" t="s">
+      <c r="B27" s="375" t="s">
         <v>2593</v>
       </c>
-      <c r="C27" s="376" t="s">
+      <c r="C27" s="375" t="s">
         <v>805</v>
       </c>
-      <c r="D27" s="376" t="s">
+      <c r="D27" s="375" t="s">
         <v>628</v>
       </c>
-      <c r="E27" s="376" t="s">
+      <c r="E27" s="375" t="s">
         <v>725</v>
       </c>
-      <c r="F27" s="376" t="s">
+      <c r="F27" s="375" t="s">
         <v>2632</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="376" t="s">
+      <c r="A28" s="375" t="s">
         <v>2594</v>
       </c>
-      <c r="B28" s="376" t="s">
+      <c r="B28" s="375" t="s">
         <v>2595</v>
       </c>
-      <c r="C28" s="376" t="s">
+      <c r="C28" s="375" t="s">
         <v>805</v>
       </c>
-      <c r="D28" s="376" t="s">
+      <c r="D28" s="375" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="376" t="s">
+      <c r="E28" s="375" t="s">
         <v>725</v>
       </c>
-      <c r="F28" s="376" t="s">
+      <c r="F28" s="375" t="s">
         <v>2632</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="376" t="s">
+      <c r="A29" s="375" t="s">
         <v>2596</v>
       </c>
-      <c r="B29" s="376" t="s">
+      <c r="B29" s="375" t="s">
         <v>2597</v>
       </c>
-      <c r="C29" s="376" t="s">
+      <c r="C29" s="375" t="s">
         <v>805</v>
       </c>
-      <c r="D29" s="376" t="s">
+      <c r="D29" s="375" t="s">
         <v>628</v>
       </c>
-      <c r="E29" s="376" t="s">
+      <c r="E29" s="375" t="s">
         <v>725</v>
       </c>
-      <c r="F29" s="376" t="s">
+      <c r="F29" s="375" t="s">
         <v>2632</v>
       </c>
     </row>
@@ -18586,10 +18586,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="285" t="s">
+      <c r="A8" s="284" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="285" t="s">
+      <c r="B8" s="284" t="s">
         <v>165</v>
       </c>
     </row>
@@ -19373,18 +19373,18 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="325" t="s">
+      <c r="A16" s="324" t="s">
         <v>2251</v>
       </c>
-      <c r="B16" s="325" t="s">
+      <c r="B16" s="324" t="s">
         <v>2251</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="326" t="s">
+      <c r="A17" s="325" t="s">
         <v>2252</v>
       </c>
-      <c r="B17" s="325" t="s">
+      <c r="B17" s="324" t="s">
         <v>2252</v>
       </c>
     </row>
@@ -19501,10 +19501,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="319" t="s">
+      <c r="A9" s="318" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="319" t="s">
+      <c r="B9" s="318" t="s">
         <v>165</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -20247,13 +20247,13 @@
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="387" t="s">
+      <c r="A9" s="386" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="387" t="s">
+      <c r="B9" s="386" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="347" t="s">
+      <c r="C9" s="346" t="s">
         <v>2659</v>
       </c>
       <c r="D9" s="22"/>
@@ -20479,18 +20479,18 @@
       <c r="B15" s="94"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="343" t="s">
+      <c r="A16" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="343" t="s">
+      <c r="B16" s="342" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="344" t="s">
+      <c r="A17" s="343" t="s">
         <v>1082</v>
       </c>
-      <c r="B17" s="344" t="s">
+      <c r="B17" s="343" t="s">
         <v>1080</v>
       </c>
       <c r="C17" t="s">
@@ -20498,82 +20498,82 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="344" t="s">
+      <c r="A18" s="343" t="s">
         <v>1083</v>
       </c>
-      <c r="B18" s="344" t="s">
+      <c r="B18" s="343" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="344" t="s">
+      <c r="A19" s="343" t="s">
         <v>1087</v>
       </c>
-      <c r="B19" s="344" t="s">
+      <c r="B19" s="343" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="344" t="s">
+      <c r="A20" s="343" t="s">
         <v>2237</v>
       </c>
-      <c r="B20" s="344" t="s">
+      <c r="B20" s="343" t="s">
         <v>2236</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="344" t="s">
+      <c r="A21" s="343" t="s">
         <v>1085</v>
       </c>
-      <c r="B21" s="344" t="s">
+      <c r="B21" s="343" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="344" t="s">
+      <c r="A22" s="343" t="s">
         <v>1086</v>
       </c>
-      <c r="B22" s="344" t="s">
+      <c r="B22" s="343" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="344" t="s">
+      <c r="A23" s="343" t="s">
         <v>1126</v>
       </c>
-      <c r="B23" s="344" t="s">
+      <c r="B23" s="343" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="344" t="s">
+      <c r="A24" s="343" t="s">
         <v>1417</v>
       </c>
-      <c r="B24" s="344" t="s">
+      <c r="B24" s="343" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="344" t="s">
+      <c r="A25" s="343" t="s">
         <v>1419</v>
       </c>
-      <c r="B25" s="344" t="s">
+      <c r="B25" s="343" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="344" t="s">
+      <c r="A26" s="343" t="s">
         <v>1421</v>
       </c>
-      <c r="B26" s="344" t="s">
+      <c r="B26" s="343" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="344" t="s">
+      <c r="A27" s="343" t="s">
         <v>2074</v>
       </c>
-      <c r="B27" s="344" t="s">
+      <c r="B27" s="343" t="s">
         <v>2075</v>
       </c>
       <c r="C27" t="s">
@@ -20581,26 +20581,26 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="344" t="s">
+      <c r="A28" s="343" t="s">
         <v>2385</v>
       </c>
-      <c r="B28" s="344" t="s">
+      <c r="B28" s="343" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="346" t="s">
+      <c r="A29" s="345" t="s">
         <v>2445</v>
       </c>
-      <c r="B29" s="346" t="s">
+      <c r="B29" s="345" t="s">
         <v>2445</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="346" t="s">
+      <c r="A30" s="345" t="s">
         <v>2479</v>
       </c>
-      <c r="B30" s="346" t="s">
+      <c r="B30" s="345" t="s">
         <v>2479</v>
       </c>
     </row>
@@ -20614,9 +20614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -20702,13 +20700,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="387" t="s">
+      <c r="A11" s="386" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="387" t="s">
+      <c r="B11" s="386" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="347" t="s">
+      <c r="C11" s="346" t="s">
         <v>2659</v>
       </c>
     </row>
@@ -21435,16 +21433,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="319" t="s">
+      <c r="A9" s="318" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="319" t="s">
+      <c r="B9" s="318" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="320" t="s">
+      <c r="C9" s="319" t="s">
         <v>2274</v>
       </c>
-      <c r="D9" s="281"/>
+      <c r="D9" s="280"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
@@ -21835,10 +21833,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="266" t="s">
+      <c r="A10" s="265" t="s">
         <v>2441</v>
       </c>
-      <c r="B10" s="266" t="s">
+      <c r="B10" s="265" t="s">
         <v>350</v>
       </c>
       <c r="C10" t="s">
@@ -21846,18 +21844,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="265" t="s">
         <v>1949</v>
       </c>
-      <c r="B11" s="266" t="s">
+      <c r="B11" s="265" t="s">
         <v>2442</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="266" t="s">
+      <c r="A12" s="265" t="s">
         <v>1950</v>
       </c>
-      <c r="B12" s="266" t="s">
+      <c r="B12" s="265" t="s">
         <v>2443</v>
       </c>
     </row>
@@ -21917,13 +21915,13 @@
       <c r="B18" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="348" t="s">
+      <c r="C18" s="347" t="s">
         <v>2449</v>
       </c>
-      <c r="D18" s="347"/>
-      <c r="E18" s="347"/>
-      <c r="F18" s="347"/>
-      <c r="G18" s="347"/>
+      <c r="D18" s="346"/>
+      <c r="E18" s="346"/>
+      <c r="F18" s="346"/>
+      <c r="G18" s="346"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
@@ -22205,10 +22203,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="271" t="s">
+      <c r="A30" s="270" t="s">
         <v>2031</v>
       </c>
-      <c r="B30" s="271" t="s">
+      <c r="B30" s="270" t="s">
         <v>2032</v>
       </c>
       <c r="C30" s="218" t="s">
@@ -22374,18 +22372,18 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="365" t="s">
+      <c r="A50" s="364" t="s">
         <v>2546</v>
       </c>
-      <c r="B50" s="365" t="s">
+      <c r="B50" s="364" t="s">
         <v>2546</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="365" t="s">
+      <c r="A51" s="364" t="s">
         <v>2582</v>
       </c>
-      <c r="B51" s="365" t="s">
+      <c r="B51" s="364" t="s">
         <v>2583</v>
       </c>
     </row>
@@ -22968,7 +22966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23102,154 +23100,154 @@
       <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="333" t="s">
+      <c r="A16" s="332" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="333" t="s">
+      <c r="B16" s="332" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="334" t="s">
+      <c r="A17" s="333" t="s">
         <v>534</v>
       </c>
-      <c r="B17" s="334" t="s">
+      <c r="B17" s="333" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="334" t="s">
+      <c r="A18" s="333" t="s">
         <v>782</v>
       </c>
-      <c r="B18" s="334" t="s">
+      <c r="B18" s="333" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="334" t="s">
+      <c r="A19" s="333" t="s">
         <v>784</v>
       </c>
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="333" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="334" t="s">
+      <c r="A20" s="333" t="s">
         <v>786</v>
       </c>
-      <c r="B20" s="334" t="s">
+      <c r="B20" s="333" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="334" t="s">
+      <c r="A21" s="333" t="s">
         <v>787</v>
       </c>
-      <c r="B21" s="334" t="s">
+      <c r="B21" s="333" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="334" t="s">
+      <c r="A22" s="333" t="s">
         <v>1067</v>
       </c>
-      <c r="B22" s="334" t="s">
+      <c r="B22" s="333" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="334" t="s">
+      <c r="A23" s="333" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="334" t="s">
+      <c r="B23" s="333" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="334" t="s">
+      <c r="A24" s="333" t="s">
         <v>610</v>
       </c>
-      <c r="B24" s="334" t="s">
+      <c r="B24" s="333" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="334" t="s">
+    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="333" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="334" t="s">
+      <c r="B25" s="333" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="334" t="s">
+      <c r="A26" s="333" t="s">
         <v>792</v>
       </c>
-      <c r="B26" s="334" t="s">
+      <c r="B26" s="333" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="334" t="s">
+      <c r="A27" s="333" t="s">
         <v>1620</v>
       </c>
-      <c r="B27" s="334" t="s">
+      <c r="B27" s="333" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="334" t="s">
+      <c r="A28" s="333" t="s">
         <v>794</v>
       </c>
-      <c r="B28" s="334" t="s">
+      <c r="B28" s="333" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="334" t="s">
+      <c r="A29" s="333" t="s">
         <v>796</v>
       </c>
-      <c r="B29" s="334" t="s">
+      <c r="B29" s="333" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="334" t="s">
+      <c r="A30" s="333" t="s">
         <v>1068</v>
       </c>
-      <c r="B30" s="334" t="s">
+      <c r="B30" s="333" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="334" t="s">
+      <c r="A31" s="333" t="s">
         <v>2307</v>
       </c>
-      <c r="B31" s="334" t="s">
+      <c r="B31" s="333" t="s">
         <v>2308</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="334" t="s">
+      <c r="A32" s="333" t="s">
         <v>1069</v>
       </c>
-      <c r="B32" s="334" t="s">
+      <c r="B32" s="333" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="334" t="s">
+      <c r="A33" s="333" t="s">
         <v>1072</v>
       </c>
-      <c r="B33" s="334" t="s">
+      <c r="B33" s="333" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="334" t="s">
+      <c r="A34" s="333" t="s">
         <v>1070</v>
       </c>
-      <c r="B34" s="334" t="s">
+      <c r="B34" s="333" t="s">
         <v>1071</v>
       </c>
       <c r="C34" t="s">
@@ -23257,114 +23255,114 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="334" t="s">
+      <c r="A35" s="333" t="s">
         <v>1133</v>
       </c>
-      <c r="B35" s="334" t="s">
+      <c r="B35" s="333" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="334" t="s">
+      <c r="A36" s="333" t="s">
         <v>1460</v>
       </c>
-      <c r="B36" s="334" t="s">
+      <c r="B36" s="333" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="334" t="s">
+      <c r="A37" s="333" t="s">
         <v>1619</v>
       </c>
-      <c r="B37" s="334" t="s">
+      <c r="B37" s="333" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="334" t="s">
+      <c r="A38" s="333" t="s">
         <v>2333</v>
       </c>
-      <c r="B38" s="334" t="s">
+      <c r="B38" s="333" t="s">
         <v>2332</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="334" t="s">
+      <c r="A39" s="333" t="s">
         <v>1838</v>
       </c>
-      <c r="B39" s="334" t="s">
+      <c r="B39" s="333" t="s">
         <v>1839</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="334" t="s">
+      <c r="A40" s="333" t="s">
         <v>2309</v>
       </c>
-      <c r="B40" s="334" t="s">
+      <c r="B40" s="333" t="s">
         <v>1826</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="334" t="s">
+      <c r="A41" s="333" t="s">
         <v>2310</v>
       </c>
-      <c r="B41" s="334" t="s">
+      <c r="B41" s="333" t="s">
         <v>1827</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="334" t="s">
+      <c r="A42" s="333" t="s">
         <v>2311</v>
       </c>
-      <c r="B42" s="334" t="s">
+      <c r="B42" s="333" t="s">
         <v>1828</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="334" t="s">
+      <c r="A43" s="333" t="s">
         <v>2312</v>
       </c>
-      <c r="B43" s="334" t="s">
+      <c r="B43" s="333" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="338" t="s">
+      <c r="A44" s="337" t="s">
         <v>796</v>
       </c>
-      <c r="B44" s="338" t="s">
+      <c r="B44" s="337" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="338" t="s">
+      <c r="A45" s="337" t="s">
         <v>2334</v>
       </c>
-      <c r="B45" s="338" t="s">
+      <c r="B45" s="337" t="s">
         <v>2335</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="338" t="s">
+      <c r="A46" s="337" t="s">
         <v>2336</v>
       </c>
-      <c r="B46" s="338" t="s">
+      <c r="B46" s="337" t="s">
         <v>2337</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="338" t="s">
+      <c r="A47" s="337" t="s">
         <v>2338</v>
       </c>
-      <c r="B47" s="338" t="s">
+      <c r="B47" s="337" t="s">
         <v>2339</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="338" t="s">
+      <c r="A48" s="337" t="s">
         <v>2340</v>
       </c>
-      <c r="B48" s="338" t="s">
+      <c r="B48" s="337" t="s">
         <v>2341</v>
       </c>
     </row>
@@ -23455,11 +23453,11 @@
       <c r="B9" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="311" t="s">
+      <c r="C9" s="310" t="s">
         <v>1903</v>
       </c>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -23682,146 +23680,146 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="331" t="s">
+      <c r="A17" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="331" t="s">
+      <c r="B17" s="330" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="332" t="s">
+      <c r="A18" s="331" t="s">
         <v>345</v>
       </c>
-      <c r="B18" s="332" t="s">
+      <c r="B18" s="331" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="332" t="s">
+      <c r="A19" s="331" t="s">
         <v>1451</v>
       </c>
-      <c r="B19" s="332" t="s">
+      <c r="B19" s="331" t="s">
         <v>1627</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="332" t="s">
+      <c r="A20" s="331" t="s">
         <v>1452</v>
       </c>
-      <c r="B20" s="332" t="s">
+      <c r="B20" s="331" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="332" t="s">
+      <c r="A21" s="331" t="s">
         <v>1453</v>
       </c>
-      <c r="B21" s="332" t="s">
+      <c r="B21" s="331" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="332" t="s">
+      <c r="A22" s="331" t="s">
         <v>597</v>
       </c>
-      <c r="B22" s="332" t="s">
+      <c r="B22" s="331" t="s">
         <v>1502</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="332" t="s">
+      <c r="A23" s="331" t="s">
         <v>1505</v>
       </c>
-      <c r="B23" s="332" t="s">
+      <c r="B23" s="331" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="332" t="s">
+      <c r="A24" s="331" t="s">
         <v>1506</v>
       </c>
-      <c r="B24" s="332" t="s">
+      <c r="B24" s="331" t="s">
         <v>1504</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="332" t="s">
+      <c r="A25" s="331" t="s">
         <v>1630</v>
       </c>
-      <c r="B25" s="332" t="s">
+      <c r="B25" s="331" t="s">
         <v>1631</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="332" t="s">
+      <c r="A26" s="331" t="s">
         <v>1632</v>
       </c>
-      <c r="B26" s="332" t="s">
+      <c r="B26" s="331" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="332" t="s">
+      <c r="A27" s="331" t="s">
         <v>1634</v>
       </c>
-      <c r="B27" s="332" t="s">
+      <c r="B27" s="331" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="332" t="s">
+      <c r="A28" s="331" t="s">
         <v>1635</v>
       </c>
-      <c r="B28" s="332" t="s">
+      <c r="B28" s="331" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="332" t="s">
+      <c r="A29" s="331" t="s">
         <v>1825</v>
       </c>
-      <c r="B29" s="332" t="s">
+      <c r="B29" s="331" t="s">
         <v>1825</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="332" t="s">
+      <c r="A30" s="331" t="s">
         <v>1630</v>
       </c>
-      <c r="B30" s="332" t="s">
+      <c r="B30" s="331" t="s">
         <v>1631</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="339" t="s">
+      <c r="A31" s="338" t="s">
         <v>2344</v>
       </c>
-      <c r="B31" s="339" t="s">
+      <c r="B31" s="338" t="s">
         <v>2345</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="332" t="s">
+      <c r="A32" s="331" t="s">
         <v>2423</v>
       </c>
-      <c r="B32" s="332" t="s">
+      <c r="B32" s="331" t="s">
         <v>2424</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="339" t="s">
+      <c r="A33" s="338" t="s">
         <v>2332</v>
       </c>
-      <c r="B33" s="339" t="s">
+      <c r="B33" s="338" t="s">
         <v>2488</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="339" t="s">
+      <c r="A34" s="338" t="s">
         <v>2332</v>
       </c>
-      <c r="B34" s="339" t="s">
+      <c r="B34" s="338" t="s">
         <v>2489</v>
       </c>
     </row>
@@ -23942,136 +23940,136 @@
       <c r="B13" s="10"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="331" t="s">
+      <c r="A15" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="331" t="s">
+      <c r="B15" s="330" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="349" t="s">
+      <c r="A16" s="348" t="s">
         <v>2464</v>
       </c>
-      <c r="B16" s="349" t="s">
+      <c r="B16" s="348" t="s">
         <v>2464</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="349" t="s">
+      <c r="A17" s="348" t="s">
         <v>2465</v>
       </c>
-      <c r="B17" s="349" t="s">
+      <c r="B17" s="348" t="s">
         <v>2465</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="349" t="s">
+      <c r="A18" s="348" t="s">
         <v>2466</v>
       </c>
-      <c r="B18" s="349" t="s">
+      <c r="B18" s="348" t="s">
         <v>2466</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="349" t="s">
+      <c r="A19" s="348" t="s">
         <v>2467</v>
       </c>
-      <c r="B19" s="349" t="s">
+      <c r="B19" s="348" t="s">
         <v>2467</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="349" t="s">
+      <c r="A20" s="348" t="s">
         <v>2468</v>
       </c>
-      <c r="B20" s="349" t="s">
+      <c r="B20" s="348" t="s">
         <v>2468</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="349" t="s">
+      <c r="A21" s="348" t="s">
         <v>2461</v>
       </c>
-      <c r="B21" s="349" t="s">
+      <c r="B21" s="348" t="s">
         <v>2461</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="349" t="s">
+      <c r="A22" s="348" t="s">
         <v>2462</v>
       </c>
-      <c r="B22" s="349" t="s">
+      <c r="B22" s="348" t="s">
         <v>2462</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="349" t="s">
+      <c r="A23" s="348" t="s">
         <v>2475</v>
       </c>
-      <c r="B23" s="349" t="s">
+      <c r="B23" s="348" t="s">
         <v>2475</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="349" t="s">
+      <c r="A24" s="348" t="s">
         <v>2463</v>
       </c>
-      <c r="B24" s="349" t="s">
+      <c r="B24" s="348" t="s">
         <v>2463</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="349" t="s">
+      <c r="A25" s="348" t="s">
         <v>2476</v>
       </c>
-      <c r="B25" s="349" t="s">
+      <c r="B25" s="348" t="s">
         <v>2476</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="349" t="s">
+      <c r="A26" s="348" t="s">
         <v>2469</v>
       </c>
-      <c r="B26" s="349" t="s">
+      <c r="B26" s="348" t="s">
         <v>2469</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="349" t="s">
+      <c r="A27" s="348" t="s">
         <v>2470</v>
       </c>
-      <c r="B27" s="349" t="s">
+      <c r="B27" s="348" t="s">
         <v>2470</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="349" t="s">
+      <c r="A28" s="348" t="s">
         <v>2471</v>
       </c>
-      <c r="B28" s="349" t="s">
+      <c r="B28" s="348" t="s">
         <v>2471</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="349" t="s">
+      <c r="A29" s="348" t="s">
         <v>2472</v>
       </c>
-      <c r="B29" s="349" t="s">
+      <c r="B29" s="348" t="s">
         <v>2472</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="332"/>
-      <c r="B30" s="332"/>
+      <c r="A30" s="331"/>
+      <c r="B30" s="331"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="339"/>
-      <c r="B31" s="339"/>
+      <c r="A31" s="338"/>
+      <c r="B31" s="338"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="332"/>
-      <c r="B32" s="332"/>
+      <c r="A32" s="331"/>
+      <c r="B32" s="331"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -24600,7 +24598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -24948,8 +24946,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="266"/>
-      <c r="B17" s="266"/>
+      <c r="A17" s="265"/>
+      <c r="B17" s="265"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
@@ -25063,10 +25061,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="393" t="s">
+      <c r="A33" s="392" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="393" t="s">
+      <c r="B33" s="392" t="s">
         <v>305</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -25074,15 +25072,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="394"/>
-      <c r="B34" s="394"/>
+      <c r="A34" s="393"/>
+      <c r="B34" s="393"/>
       <c r="C34" s="22" t="s">
         <v>1722</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="395"/>
-      <c r="B35" s="395"/>
+      <c r="A35" s="394"/>
+      <c r="B35" s="394"/>
       <c r="C35" s="22" t="s">
         <v>1723</v>
       </c>
@@ -25257,14 +25255,14 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="335"/>
-      <c r="B58" s="335"/>
+      <c r="A58" s="334"/>
+      <c r="B58" s="334"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="285" t="s">
+      <c r="A59" s="284" t="s">
         <v>2518</v>
       </c>
-      <c r="B59" s="285" t="s">
+      <c r="B59" s="284" t="s">
         <v>1528</v>
       </c>
       <c r="C59" s="26" t="s">
@@ -25299,8 +25297,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="335"/>
-      <c r="B63" s="335"/>
+      <c r="A63" s="334"/>
+      <c r="B63" s="334"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
@@ -25319,8 +25317,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="335"/>
-      <c r="B66" s="335"/>
+      <c r="A66" s="334"/>
+      <c r="B66" s="334"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="65" t="s">
@@ -25415,13 +25413,13 @@
       <c r="B79" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="396" t="s">
+      <c r="C79" s="395" t="s">
         <v>2586</v>
       </c>
-      <c r="D79" s="397"/>
-      <c r="E79" s="397"/>
-      <c r="F79" s="397"/>
-      <c r="G79" s="397"/>
+      <c r="D79" s="396"/>
+      <c r="E79" s="396"/>
+      <c r="F79" s="396"/>
+      <c r="G79" s="396"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
@@ -26150,9 +26148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B29"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26340,10 +26336,10 @@
       <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="337" t="s">
+      <c r="A22" s="336" t="s">
         <v>426</v>
       </c>
-      <c r="B22" s="337" t="s">
+      <c r="B22" s="336" t="s">
         <v>425</v>
       </c>
       <c r="C22" s="24"/>
@@ -26354,10 +26350,10 @@
       <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="285" t="s">
+      <c r="A24" s="284" t="s">
         <v>2518</v>
       </c>
-      <c r="B24" s="285" t="s">
+      <c r="B24" s="284" t="s">
         <v>1528</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -27117,10 +27113,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="267" t="s">
+      <c r="A21" s="266" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="267" t="s">
+      <c r="B21" s="266" t="s">
         <v>132</v>
       </c>
     </row>
@@ -29300,8 +29296,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="380"/>
-      <c r="B16" s="380"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="379"/>
       <c r="C16" t="s">
         <v>2629</v>
       </c>
@@ -29329,8 +29325,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="380"/>
-      <c r="B19" s="380"/>
+      <c r="A19" s="379"/>
+      <c r="B19" s="379"/>
       <c r="C19" t="s">
         <v>2631</v>
       </c>
@@ -29406,10 +29402,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="340" t="s">
+      <c r="A8" s="339" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="340" t="s">
+      <c r="B8" s="339" t="s">
         <v>305</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -30215,10 +30211,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="398" t="s">
+      <c r="A11" s="397" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="398" t="s">
+      <c r="B11" s="397" t="s">
         <v>305</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -30226,15 +30222,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="399"/>
-      <c r="B12" s="399"/>
+      <c r="A12" s="398"/>
+      <c r="B12" s="398"/>
       <c r="C12" s="26" t="s">
         <v>1722</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="389"/>
-      <c r="B13" s="389"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="388"/>
       <c r="C13" s="26" t="s">
         <v>1723</v>
       </c>
@@ -30566,10 +30562,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="398" t="s">
+      <c r="A14" s="397" t="s">
         <v>304</v>
       </c>
-      <c r="B14" s="398" t="s">
+      <c r="B14" s="397" t="s">
         <v>305</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -30577,15 +30573,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="399"/>
-      <c r="B15" s="399"/>
+      <c r="A15" s="398"/>
+      <c r="B15" s="398"/>
       <c r="C15" s="26" t="s">
         <v>1722</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="389"/>
-      <c r="B16" s="389"/>
+      <c r="A16" s="388"/>
+      <c r="B16" s="388"/>
       <c r="C16" s="26" t="s">
         <v>1723</v>
       </c>
@@ -30709,7 +30705,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="257"/>
-      <c r="B32" s="267"/>
+      <c r="B32" s="266"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
@@ -31341,11 +31337,11 @@
       <c r="B13" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="336" t="s">
+      <c r="C13" s="335" t="s">
         <v>742</v>
       </c>
-      <c r="D13" s="336"/>
-      <c r="E13" s="336"/>
+      <c r="D13" s="335"/>
+      <c r="E13" s="335"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -31357,9 +31353,9 @@
       <c r="B14" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="336"/>
-      <c r="D14" s="336"/>
-      <c r="E14" s="336"/>
+      <c r="C14" s="335"/>
+      <c r="D14" s="335"/>
+      <c r="E14" s="335"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -31658,10 +31654,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="330" t="s">
+      <c r="A44" s="329" t="s">
         <v>1004</v>
       </c>
-      <c r="B44" s="330" t="s">
+      <c r="B44" s="329" t="s">
         <v>936</v>
       </c>
       <c r="C44" s="22"/>
@@ -31925,7 +31921,7 @@
       <c r="G13" s="154"/>
       <c r="H13" s="154"/>
     </row>
-    <row r="14" spans="1:8" s="354" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="253" t="s">
         <v>11</v>
       </c>
@@ -31941,11 +31937,11 @@
       <c r="G14" s="154"/>
       <c r="H14" s="154"/>
     </row>
-    <row r="15" spans="1:8" s="354" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="355" t="s">
+    <row r="15" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="354" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="355" t="s">
+      <c r="B15" s="354" t="s">
         <v>242</v>
       </c>
       <c r="C15" s="154"/>
@@ -31955,7 +31951,7 @@
       <c r="G15" s="154"/>
       <c r="H15" s="154"/>
     </row>
-    <row r="16" spans="1:8" s="354" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="159" t="s">
         <v>286</v>
       </c>
@@ -31969,7 +31965,7 @@
       <c r="G16" s="154"/>
       <c r="H16" s="154"/>
     </row>
-    <row r="17" spans="1:8" s="354" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="159" t="s">
         <v>301</v>
       </c>
@@ -31983,7 +31979,7 @@
       <c r="G17" s="154"/>
       <c r="H17" s="154"/>
     </row>
-    <row r="18" spans="1:8" s="354" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="155" t="s">
         <v>381</v>
       </c>
@@ -32281,50 +32277,50 @@
       <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="356" t="s">
+      <c r="A13" s="355" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="356" t="s">
+      <c r="B13" s="355" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="357" t="s">
+      <c r="A14" s="356" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="357" t="s">
+      <c r="B14" s="356" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="357" t="s">
+      <c r="A15" s="356" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="357" t="s">
+      <c r="B15" s="356" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="357" t="s">
+      <c r="A16" s="356" t="s">
         <v>1467</v>
       </c>
-      <c r="B16" s="357" t="s">
+      <c r="B16" s="356" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="357" t="s">
+      <c r="A17" s="356" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="357" t="s">
+      <c r="B17" s="356" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="357" t="s">
+      <c r="A18" s="356" t="s">
         <v>1568</v>
       </c>
-      <c r="B18" s="357" t="s">
+      <c r="B18" s="356" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -32428,114 +32424,114 @@
       <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="357" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="358" t="s">
+      <c r="B13" s="357" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="359" t="s">
+      <c r="A14" s="358" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="359" t="s">
+      <c r="B14" s="358" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="359" t="s">
+      <c r="A15" s="358" t="s">
         <v>1199</v>
       </c>
-      <c r="B15" s="359" t="s">
+      <c r="B15" s="358" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="359" t="s">
+      <c r="A16" s="358" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="359" t="s">
+      <c r="B16" s="358" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="359" t="s">
+      <c r="A17" s="358" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="359" t="s">
+      <c r="B17" s="358" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="358" t="s">
         <v>996</v>
       </c>
-      <c r="B18" s="359" t="s">
+      <c r="B18" s="358" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="359" t="s">
+      <c r="A19" s="358" t="s">
         <v>1210</v>
       </c>
-      <c r="B19" s="359" t="s">
+      <c r="B19" s="358" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="359" t="s">
+      <c r="A20" s="358" t="s">
         <v>2504</v>
       </c>
-      <c r="B20" s="359" t="s">
+      <c r="B20" s="358" t="s">
         <v>2504</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="359" t="s">
+      <c r="A21" s="358" t="s">
         <v>2503</v>
       </c>
-      <c r="B21" s="359" t="s">
+      <c r="B21" s="358" t="s">
         <v>2503</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="359" t="s">
+      <c r="A22" s="358" t="s">
         <v>1220</v>
       </c>
-      <c r="B22" s="359" t="s">
+      <c r="B22" s="358" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="359" t="s">
+      <c r="A23" s="358" t="s">
         <v>2505</v>
       </c>
-      <c r="B23" s="359" t="s">
+      <c r="B23" s="358" t="s">
         <v>2505</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="359" t="s">
+      <c r="A24" s="358" t="s">
         <v>2506</v>
       </c>
-      <c r="B24" s="359" t="s">
+      <c r="B24" s="358" t="s">
         <v>2506</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="359" t="s">
+      <c r="A25" s="358" t="s">
         <v>2507</v>
       </c>
-      <c r="B25" s="359" t="s">
+      <c r="B25" s="358" t="s">
         <v>2507</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="359" t="s">
+      <c r="A26" s="358" t="s">
         <v>1568</v>
       </c>
-      <c r="B26" s="359" t="s">
+      <c r="B26" s="358" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -33309,18 +33305,18 @@
       <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="264" t="s">
+      <c r="A13" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="263" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="265" t="s">
+      <c r="A14" s="264" t="s">
         <v>1994</v>
       </c>
-      <c r="B14" s="265" t="s">
+      <c r="B14" s="264" t="s">
         <v>1995</v>
       </c>
       <c r="C14" t="s">
@@ -33328,10 +33324,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="265" t="s">
+      <c r="A15" s="264" t="s">
         <v>1996</v>
       </c>
-      <c r="B15" s="265" t="s">
+      <c r="B15" s="264" t="s">
         <v>1997</v>
       </c>
       <c r="C15" t="s">
@@ -33339,10 +33335,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="265" t="s">
+      <c r="A16" s="264" t="s">
         <v>1998</v>
       </c>
-      <c r="B16" s="265" t="s">
+      <c r="B16" s="264" t="s">
         <v>1999</v>
       </c>
       <c r="C16" t="s">
@@ -33359,7 +33355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -33656,7 +33652,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C27"/>
+  <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -33766,10 +33762,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="386" t="s">
+      <c r="A13" s="385" t="s">
         <v>2645</v>
       </c>
-      <c r="B13" s="386" t="s">
+      <c r="B13" s="385" t="s">
         <v>2641</v>
       </c>
       <c r="C13" s="22"/>
@@ -33871,34 +33867,42 @@
       <c r="B23" s="257"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="160" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B24" s="160" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C24" s="22"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -33908,9 +33912,9 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -34106,7 +34110,7 @@
       <c r="A23" s="152" t="s">
         <v>811</v>
       </c>
-      <c r="B23" s="300" t="s">
+      <c r="B23" s="299" t="s">
         <v>2667</v>
       </c>
       <c r="C23" s="22"/>
@@ -34115,7 +34119,7 @@
       <c r="A24" s="152" t="s">
         <v>810</v>
       </c>
-      <c r="B24" s="300" t="s">
+      <c r="B24" s="299" t="s">
         <v>2668</v>
       </c>
       <c r="C24" s="22"/>
@@ -34161,20 +34165,20 @@
       <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="285" t="s">
+      <c r="A29" s="284" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="285" t="s">
+      <c r="B29" s="284" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="285" t="s">
+      <c r="A30" s="284" t="s">
         <v>1467</v>
       </c>
-      <c r="B30" s="285" t="s">
+      <c r="B30" s="284" t="s">
         <v>1016</v>
       </c>
       <c r="C30" s="22"/>
@@ -34185,53 +34189,41 @@
       <c r="B31" s="262"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>1601</v>
-      </c>
+      <c r="A32" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="263"/>
-      <c r="B33" s="263"/>
+      <c r="A33" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C34" s="22"/>
+      <c r="A34" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="C35" s="22"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A38" s="22" t="s">
         <v>2193</v>
       </c>
     </row>
@@ -35101,18 +35093,18 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="290" t="s">
+      <c r="A16" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="289" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="291" t="s">
+      <c r="A17" s="290" t="s">
         <v>1548</v>
       </c>
-      <c r="B17" s="291" t="s">
+      <c r="B17" s="290" t="s">
         <v>1551</v>
       </c>
       <c r="C17" t="s">
@@ -35120,10 +35112,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="291" t="s">
+      <c r="A18" s="290" t="s">
         <v>1549</v>
       </c>
-      <c r="B18" s="291" t="s">
+      <c r="B18" s="290" t="s">
         <v>1552</v>
       </c>
       <c r="C18" t="s">
@@ -35131,26 +35123,26 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="291" t="s">
+      <c r="A19" s="290" t="s">
         <v>1622</v>
       </c>
-      <c r="B19" s="291" t="s">
+      <c r="B19" s="290" t="s">
         <v>1623</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="291" t="s">
+      <c r="A20" s="290" t="s">
         <v>1624</v>
       </c>
-      <c r="B20" s="291" t="s">
+      <c r="B20" s="290" t="s">
         <v>1625</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="291" t="s">
+      <c r="A21" s="290" t="s">
         <v>1550</v>
       </c>
-      <c r="B21" s="291" t="s">
+      <c r="B21" s="290" t="s">
         <v>1553</v>
       </c>
       <c r="C21" t="s">
@@ -35158,26 +35150,26 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="291" t="s">
+      <c r="A22" s="290" t="s">
         <v>1560</v>
       </c>
-      <c r="B22" s="291" t="s">
+      <c r="B22" s="290" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="291" t="s">
+      <c r="A23" s="290" t="s">
         <v>1561</v>
       </c>
-      <c r="B23" s="291" t="s">
+      <c r="B23" s="290" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="291" t="s">
+      <c r="A24" s="290" t="s">
         <v>1673</v>
       </c>
-      <c r="B24" s="291" t="s">
+      <c r="B24" s="290" t="s">
         <v>1674</v>
       </c>
       <c r="C24" t="s">
@@ -35185,122 +35177,122 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="291" t="s">
+      <c r="A25" s="290" t="s">
         <v>2128</v>
       </c>
-      <c r="B25" s="291" t="s">
+      <c r="B25" s="290" t="s">
         <v>1706</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="291" t="s">
+      <c r="A26" s="290" t="s">
         <v>2129</v>
       </c>
-      <c r="B26" s="291" t="s">
+      <c r="B26" s="290" t="s">
         <v>1707</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="291" t="s">
+      <c r="A27" s="290" t="s">
         <v>2130</v>
       </c>
-      <c r="B27" s="291" t="s">
+      <c r="B27" s="290" t="s">
         <v>1708</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="291" t="s">
+      <c r="A28" s="290" t="s">
         <v>2131</v>
       </c>
-      <c r="B28" s="291" t="s">
+      <c r="B28" s="290" t="s">
         <v>2132</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="291" t="s">
+      <c r="A29" s="290" t="s">
         <v>2133</v>
       </c>
-      <c r="B29" s="291" t="s">
+      <c r="B29" s="290" t="s">
         <v>2134</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="291" t="s">
+      <c r="A30" s="290" t="s">
         <v>2135</v>
       </c>
-      <c r="B30" s="291" t="s">
+      <c r="B30" s="290" t="s">
         <v>2136</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="291" t="s">
+      <c r="A31" s="290" t="s">
         <v>2137</v>
       </c>
-      <c r="B31" s="291" t="s">
+      <c r="B31" s="290" t="s">
         <v>2138</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="291" t="s">
+      <c r="A32" s="290" t="s">
         <v>2139</v>
       </c>
-      <c r="B32" s="291" t="s">
+      <c r="B32" s="290" t="s">
         <v>2139</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="291" t="s">
+      <c r="A33" s="290" t="s">
         <v>2140</v>
       </c>
-      <c r="B33" s="291" t="s">
+      <c r="B33" s="290" t="s">
         <v>2140</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="318" t="s">
+      <c r="A34" s="317" t="s">
         <v>2213</v>
       </c>
-      <c r="B34" s="318" t="s">
+      <c r="B34" s="317" t="s">
         <v>2212</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="318" t="s">
+      <c r="A35" s="317" t="s">
         <v>2259</v>
       </c>
-      <c r="B35" s="318" t="s">
+      <c r="B35" s="317" t="s">
         <v>2258</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="318" t="s">
+      <c r="A36" s="317" t="s">
         <v>2264</v>
       </c>
-      <c r="B36" s="318" t="s">
+      <c r="B36" s="317" t="s">
         <v>2265</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="318" t="s">
+      <c r="A37" s="317" t="s">
         <v>2342</v>
       </c>
-      <c r="B37" s="318" t="s">
+      <c r="B37" s="317" t="s">
         <v>2343</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="318" t="s">
+      <c r="A38" s="317" t="s">
         <v>2396</v>
       </c>
-      <c r="B38" s="318" t="s">
+      <c r="B38" s="317" t="s">
         <v>2397</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="318" t="s">
+      <c r="A39" s="317" t="s">
         <v>2398</v>
       </c>
-      <c r="B39" s="318" t="s">
+      <c r="B39" s="317" t="s">
         <v>2399</v>
       </c>
     </row>
@@ -35511,9 +35503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35642,18 +35632,18 @@
       <c r="B15" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="295" t="s">
+      <c r="A17" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="295" t="s">
+      <c r="B17" s="294" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="296" t="s">
+      <c r="A18" s="295" t="s">
         <v>656</v>
       </c>
-      <c r="B18" s="296" t="s">
+      <c r="B18" s="295" t="s">
         <v>657</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -35661,42 +35651,42 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="296" t="s">
+      <c r="A19" s="295" t="s">
         <v>658</v>
       </c>
-      <c r="B19" s="296" t="s">
+      <c r="B19" s="295" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="296" t="s">
+      <c r="A20" s="295" t="s">
         <v>660</v>
       </c>
-      <c r="B20" s="296" t="s">
+      <c r="B20" s="295" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="296" t="s">
+      <c r="A21" s="295" t="s">
         <v>662</v>
       </c>
-      <c r="B21" s="296" t="s">
+      <c r="B21" s="295" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="296" t="s">
+      <c r="A22" s="295" t="s">
         <v>2151</v>
       </c>
-      <c r="B22" s="296" t="s">
+      <c r="B22" s="295" t="s">
         <v>2151</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="296" t="s">
+      <c r="A23" s="295" t="s">
         <v>1568</v>
       </c>
-      <c r="B23" s="296" t="s">
+      <c r="B23" s="295" t="s">
         <v>1568</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -35704,7 +35694,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -35947,7 +35937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -36072,90 +36062,90 @@
       <c r="B15" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="288" t="s">
+      <c r="A17" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="288" t="s">
+      <c r="B17" s="287" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="289" t="s">
+      <c r="A18" s="288" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="289" t="s">
+      <c r="B18" s="288" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="289" t="s">
+      <c r="A19" s="288" t="s">
         <v>383</v>
       </c>
-      <c r="B19" s="289" t="s">
+      <c r="B19" s="288" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="289" t="s">
+      <c r="A20" s="288" t="s">
         <v>384</v>
       </c>
-      <c r="B20" s="289" t="s">
+      <c r="B20" s="288" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="289" t="s">
+      <c r="A21" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="289" t="s">
+      <c r="B21" s="288" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="289" t="s">
+      <c r="A22" s="288" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="289" t="s">
+      <c r="B22" s="288" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="289" t="s">
+      <c r="A23" s="288" t="s">
         <v>386</v>
       </c>
-      <c r="B23" s="289" t="s">
+      <c r="B23" s="288" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="289" t="s">
+      <c r="A24" s="288" t="s">
         <v>387</v>
       </c>
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="288" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="289" t="s">
+      <c r="A25" s="288" t="s">
         <v>2122</v>
       </c>
-      <c r="B25" s="289" t="s">
+      <c r="B25" s="288" t="s">
         <v>2123</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="289" t="s">
+      <c r="A26" s="288" t="s">
         <v>2124</v>
       </c>
-      <c r="B26" s="289" t="s">
+      <c r="B26" s="288" t="s">
         <v>2125</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="289" t="s">
+      <c r="A27" s="288" t="s">
         <v>2126</v>
       </c>
-      <c r="B27" s="289" t="s">
+      <c r="B27" s="288" t="s">
         <v>2127</v>
       </c>
     </row>
@@ -36460,170 +36450,170 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="366" t="s">
+      <c r="A16" s="365" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="366" t="s">
+      <c r="B16" s="365" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="367" t="s">
+      <c r="A17" s="366" t="s">
         <v>855</v>
       </c>
-      <c r="B17" s="367" t="s">
+      <c r="B17" s="366" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="367" t="s">
+      <c r="A18" s="366" t="s">
         <v>857</v>
       </c>
-      <c r="B18" s="367" t="s">
+      <c r="B18" s="366" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="367" t="s">
+      <c r="A19" s="366" t="s">
         <v>859</v>
       </c>
-      <c r="B19" s="367" t="s">
+      <c r="B19" s="366" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="367" t="s">
+      <c r="A20" s="366" t="s">
         <v>860</v>
       </c>
-      <c r="B20" s="367" t="s">
+      <c r="B20" s="366" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="367" t="s">
+      <c r="A21" s="366" t="s">
         <v>862</v>
       </c>
-      <c r="B21" s="367" t="s">
+      <c r="B21" s="366" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="367" t="s">
+      <c r="A22" s="366" t="s">
         <v>863</v>
       </c>
-      <c r="B22" s="367" t="s">
+      <c r="B22" s="366" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="367" t="s">
+      <c r="A23" s="366" t="s">
         <v>865</v>
       </c>
-      <c r="B23" s="367" t="s">
+      <c r="B23" s="366" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="367" t="s">
+      <c r="A24" s="366" t="s">
         <v>867</v>
       </c>
-      <c r="B24" s="367" t="s">
+      <c r="B24" s="366" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="367" t="s">
+      <c r="A25" s="366" t="s">
         <v>868</v>
       </c>
-      <c r="B25" s="367" t="s">
+      <c r="B25" s="366" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="367" t="s">
+      <c r="A26" s="366" t="s">
         <v>869</v>
       </c>
-      <c r="B26" s="367" t="s">
+      <c r="B26" s="366" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="367" t="s">
+      <c r="A27" s="366" t="s">
         <v>871</v>
       </c>
-      <c r="B27" s="367" t="s">
+      <c r="B27" s="366" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="367" t="s">
+      <c r="A28" s="366" t="s">
         <v>2548</v>
       </c>
-      <c r="B28" s="367" t="s">
+      <c r="B28" s="366" t="s">
         <v>2549</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="367" t="s">
+      <c r="A29" s="366" t="s">
         <v>2550</v>
       </c>
-      <c r="B29" s="367" t="s">
+      <c r="B29" s="366" t="s">
         <v>2551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="367" t="s">
+      <c r="A30" s="366" t="s">
         <v>2552</v>
       </c>
-      <c r="B30" s="367" t="s">
+      <c r="B30" s="366" t="s">
         <v>2553</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="367" t="s">
+      <c r="A31" s="366" t="s">
         <v>2554</v>
       </c>
-      <c r="B31" s="367" t="s">
+      <c r="B31" s="366" t="s">
         <v>2555</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="367" t="s">
+      <c r="A32" s="366" t="s">
         <v>1573</v>
       </c>
-      <c r="B32" s="367" t="s">
+      <c r="B32" s="366" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="367" t="s">
+      <c r="A33" s="366" t="s">
         <v>1574</v>
       </c>
-      <c r="B33" s="367" t="s">
+      <c r="B33" s="366" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="367" t="s">
+      <c r="A34" s="366" t="s">
         <v>1575</v>
       </c>
-      <c r="B34" s="367" t="s">
+      <c r="B34" s="366" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="367" t="s">
+      <c r="A35" s="366" t="s">
         <v>2556</v>
       </c>
-      <c r="B35" s="367" t="s">
+      <c r="B35" s="366" t="s">
         <v>2556</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="367" t="s">
+      <c r="A36" s="366" t="s">
         <v>2547</v>
       </c>
-      <c r="B36" s="367" t="s">
+      <c r="B36" s="366" t="s">
         <v>2547</v>
       </c>
     </row>
@@ -36747,58 +36737,58 @@
       <c r="B13" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="363" t="s">
+      <c r="A15" s="362" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="363" t="s">
+      <c r="B15" s="362" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="364" t="s">
+      <c r="A16" s="363" t="s">
         <v>2536</v>
       </c>
-      <c r="B16" s="364" t="s">
+      <c r="B16" s="363" t="s">
         <v>2537</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="364" t="s">
+      <c r="A17" s="363" t="s">
         <v>2538</v>
       </c>
-      <c r="B17" s="364" t="s">
+      <c r="B17" s="363" t="s">
         <v>2538</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="364" t="s">
+      <c r="A18" s="363" t="s">
         <v>2539</v>
       </c>
-      <c r="B18" s="364" t="s">
+      <c r="B18" s="363" t="s">
         <v>2539</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="364" t="s">
+      <c r="A19" s="363" t="s">
         <v>2540</v>
       </c>
-      <c r="B19" s="364" t="s">
+      <c r="B19" s="363" t="s">
         <v>2541</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="364" t="s">
+      <c r="A20" s="363" t="s">
         <v>2542</v>
       </c>
-      <c r="B20" s="364" t="s">
+      <c r="B20" s="363" t="s">
         <v>2543</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="364" t="s">
+      <c r="A21" s="363" t="s">
         <v>2544</v>
       </c>
-      <c r="B21" s="364" t="s">
+      <c r="B21" s="363" t="s">
         <v>2545</v>
       </c>
     </row>
@@ -36947,26 +36937,26 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="282" t="s">
+      <c r="A17" s="281" t="s">
         <v>2096</v>
       </c>
-      <c r="B17" s="282" t="s">
+      <c r="B17" s="281" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="282" t="s">
+      <c r="A18" s="281" t="s">
         <v>2091</v>
       </c>
-      <c r="B18" s="282" t="s">
+      <c r="B18" s="281" t="s">
         <v>2092</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="282" t="s">
+      <c r="A19" s="281" t="s">
         <v>2093</v>
       </c>
-      <c r="B19" s="282" t="s">
+      <c r="B19" s="281" t="s">
         <v>2094</v>
       </c>
     </row>
@@ -37195,7 +37185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -37337,7 +37327,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="257"/>
-      <c r="B17" s="266"/>
+      <c r="B17" s="265"/>
       <c r="C17" t="s">
         <v>2300</v>
       </c>
@@ -37770,10 +37760,10 @@
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="372" t="s">
+      <c r="A14" s="371" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="372" t="s">
+      <c r="B14" s="371" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -37784,8 +37774,8 @@
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="292"/>
-      <c r="B15" s="292"/>
+      <c r="A15" s="291"/>
+      <c r="B15" s="291"/>
       <c r="C15" s="22" t="s">
         <v>2143</v>
       </c>
@@ -38583,10 +38573,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="390" t="s">
+      <c r="A14" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="388" t="s">
+      <c r="B14" s="387" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -38594,8 +38584,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="389"/>
-      <c r="B15" s="389"/>
+      <c r="A15" s="388"/>
+      <c r="B15" s="388"/>
       <c r="C15" t="s">
         <v>1489</v>
       </c>
@@ -38825,7 +38815,7 @@
       <c r="B19" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C19" s="280" t="s">
+      <c r="C19" s="279" t="s">
         <v>293</v>
       </c>
       <c r="D19" s="22"/>
@@ -38970,7 +38960,7 @@
       <c r="B10" s="152" t="s">
         <v>521</v>
       </c>
-      <c r="C10" s="308"/>
+      <c r="C10" s="307"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="159" t="s">
@@ -38979,7 +38969,7 @@
       <c r="B11" s="159" t="s">
         <v>522</v>
       </c>
-      <c r="C11" s="308"/>
+      <c r="C11" s="307"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -39257,7 +39247,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="274" t="s">
         <v>1490</v>
       </c>
       <c r="B1" s="134"/>
@@ -39333,18 +39323,18 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="285" t="s">
+      <c r="A11" s="284" t="s">
         <v>2102</v>
       </c>
-      <c r="B11" s="285" t="s">
+      <c r="B11" s="284" t="s">
         <v>2104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="285" t="s">
+      <c r="A12" s="284" t="s">
         <v>2103</v>
       </c>
-      <c r="B12" s="285" t="s">
+      <c r="B12" s="284" t="s">
         <v>2105</v>
       </c>
     </row>
@@ -39426,66 +39416,66 @@
       <c r="B22" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="283" t="s">
+      <c r="A24" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="283" t="s">
+      <c r="B24" s="282" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="284" t="s">
+      <c r="A25" s="283" t="s">
         <v>2097</v>
       </c>
-      <c r="B25" s="284" t="s">
+      <c r="B25" s="283" t="s">
         <v>2097</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="284" t="s">
+      <c r="A26" s="283" t="s">
         <v>2098</v>
       </c>
-      <c r="B26" s="284" t="s">
+      <c r="B26" s="283" t="s">
         <v>2098</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="284" t="s">
+      <c r="A27" s="283" t="s">
         <v>2110</v>
       </c>
-      <c r="B27" s="284" t="s">
+      <c r="B27" s="283" t="s">
         <v>2110</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="284" t="s">
+      <c r="A28" s="283" t="s">
         <v>2111</v>
       </c>
-      <c r="B28" s="284" t="s">
+      <c r="B28" s="283" t="s">
         <v>2111</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="284" t="s">
+      <c r="A29" s="283" t="s">
         <v>2099</v>
       </c>
-      <c r="B29" s="284" t="s">
+      <c r="B29" s="283" t="s">
         <v>2099</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="284" t="s">
+      <c r="A30" s="283" t="s">
         <v>2100</v>
       </c>
-      <c r="B30" s="284" t="s">
+      <c r="B30" s="283" t="s">
         <v>2100</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="284" t="s">
+      <c r="A31" s="283" t="s">
         <v>2101</v>
       </c>
-      <c r="B31" s="284" t="s">
+      <c r="B31" s="283" t="s">
         <v>2101</v>
       </c>
     </row>
@@ -39582,10 +39572,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="368" t="s">
+      <c r="A11" s="367" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="368" t="s">
+      <c r="B11" s="367" t="s">
         <v>199</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -39625,10 +39615,10 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="293" t="s">
+      <c r="A14" s="292" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="293" t="s">
+      <c r="B14" s="292" t="s">
         <v>214</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -39641,10 +39631,10 @@
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="293" t="s">
+      <c r="A15" s="292" t="s">
         <v>2528</v>
       </c>
-      <c r="B15" s="293" t="s">
+      <c r="B15" s="292" t="s">
         <v>2289</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -39657,10 +39647,10 @@
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="293" t="s">
+      <c r="A16" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="293" t="s">
+      <c r="B16" s="292" t="s">
         <v>279</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -39673,10 +39663,10 @@
       <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="293" t="s">
+      <c r="A17" s="292" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="292" t="s">
         <v>281</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -39689,10 +39679,10 @@
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="293" t="s">
+      <c r="A18" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="293" t="s">
+      <c r="B18" s="292" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -40444,12 +40434,12 @@
       <c r="B15" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="391" t="s">
+      <c r="C15" s="390" t="s">
         <v>1115</v>
       </c>
-      <c r="D15" s="392"/>
-      <c r="E15" s="392"/>
-      <c r="F15" s="392"/>
+      <c r="D15" s="391"/>
+      <c r="E15" s="391"/>
+      <c r="F15" s="391"/>
       <c r="G15" s="193"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -40464,24 +40454,24 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="286" t="s">
+      <c r="A17" s="285" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="286" t="s">
+      <c r="B17" s="285" t="s">
         <v>279</v>
       </c>
-      <c r="C17" s="287" t="s">
+      <c r="C17" s="286" t="s">
         <v>2107</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="286" t="s">
+      <c r="A18" s="285" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="286" t="s">
+      <c r="B18" s="285" t="s">
         <v>281</v>
       </c>
-      <c r="C18" s="287" t="s">
+      <c r="C18" s="286" t="s">
         <v>2108</v>
       </c>
     </row>
@@ -40494,13 +40484,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="276" t="s">
+      <c r="A20" s="275" t="s">
         <v>714</v>
       </c>
-      <c r="B20" s="276" t="s">
+      <c r="B20" s="275" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="277" t="s">
+      <c r="C20" s="276" t="s">
         <v>1514</v>
       </c>
       <c r="D20" s="193"/>
@@ -40516,7 +40506,7 @@
       <c r="B21" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C21" s="277"/>
+      <c r="C21" s="276"/>
       <c r="D21" s="193"/>
       <c r="E21" s="193"/>
       <c r="F21" s="193"/>
@@ -40530,7 +40520,7 @@
       <c r="B22" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C22" s="277"/>
+      <c r="C22" s="276"/>
       <c r="D22" s="193"/>
       <c r="E22" s="193"/>
       <c r="F22" s="193"/>
@@ -40959,7 +40949,7 @@
       <c r="B11" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C11" s="309"/>
+      <c r="C11" s="308"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -40968,7 +40958,7 @@
       <c r="B12" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C12" s="309"/>
+      <c r="C12" s="308"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="253" t="s">
@@ -40977,7 +40967,7 @@
       <c r="B13" s="253" t="s">
         <v>1921</v>
       </c>
-      <c r="C13" s="309"/>
+      <c r="C13" s="308"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -41828,10 +41818,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="307" t="s">
+      <c r="A9" s="306" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="307" t="s">
+      <c r="B9" s="306" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="243" t="s">
@@ -41875,10 +41865,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="306" t="s">
+      <c r="A14" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="306" t="s">
+      <c r="B14" s="305" t="s">
         <v>204</v>
       </c>
     </row>
@@ -42249,10 +42239,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="294" t="s">
+      <c r="A10" s="293" t="s">
         <v>1515</v>
       </c>
-      <c r="B10" s="294" t="s">
+      <c r="B10" s="293" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -42811,10 +42801,10 @@
       <c r="D15" s="94"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="373" t="s">
+      <c r="A16" s="372" t="s">
         <v>2528</v>
       </c>
-      <c r="B16" s="374" t="s">
+      <c r="B16" s="373" t="s">
         <v>2289</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -43429,10 +43419,10 @@
       <c r="B15" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="C15" s="311"/>
-      <c r="D15" s="311"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="311"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -44117,8 +44107,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="266"/>
-      <c r="B13" s="266"/>
+      <c r="A13" s="265"/>
+      <c r="B13" s="265"/>
       <c r="C13" s="26" t="s">
         <v>2403</v>
       </c>
@@ -44148,10 +44138,10 @@
       <c r="B16" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="C16" s="311"/>
-      <c r="D16" s="311"/>
-      <c r="E16" s="311"/>
-      <c r="F16" s="311"/>
+      <c r="C16" s="310"/>
+      <c r="D16" s="310"/>
+      <c r="E16" s="310"/>
+      <c r="F16" s="310"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -44679,8 +44669,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="266"/>
-      <c r="B17" s="266"/>
+      <c r="A17" s="265"/>
+      <c r="B17" s="265"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="262" t="s">
@@ -45163,9 +45153,9 @@
       <c r="B8" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
+      <c r="C8" s="310"/>
+      <c r="D8" s="310"/>
+      <c r="E8" s="310"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -45229,18 +45219,18 @@
       <c r="B15" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="351" t="s">
+      <c r="A17" s="350" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="351" t="s">
+      <c r="B17" s="350" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="352" t="s">
+      <c r="A18" s="351" t="s">
         <v>1808</v>
       </c>
-      <c r="B18" s="352" t="s">
+      <c r="B18" s="351" t="s">
         <v>1808</v>
       </c>
     </row>
@@ -47194,114 +47184,114 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="323" t="s">
+      <c r="A16" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="323" t="s">
+      <c r="B16" s="322" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="324" t="s">
+      <c r="A17" s="323" t="s">
         <v>1210</v>
       </c>
-      <c r="B17" s="324" t="s">
+      <c r="B17" s="323" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="324" t="s">
+      <c r="A18" s="323" t="s">
         <v>1194</v>
       </c>
-      <c r="B18" s="324" t="s">
+      <c r="B18" s="323" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="324" t="s">
+      <c r="A19" s="323" t="s">
         <v>1214</v>
       </c>
-      <c r="B19" s="324" t="s">
+      <c r="B19" s="323" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="324" t="s">
+      <c r="A20" s="323" t="s">
         <v>1194</v>
       </c>
-      <c r="B20" s="324" t="s">
+      <c r="B20" s="323" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="323" t="s">
         <v>1214</v>
       </c>
-      <c r="B21" s="324" t="s">
+      <c r="B21" s="323" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="324" t="s">
+      <c r="A22" s="323" t="s">
         <v>2227</v>
       </c>
-      <c r="B22" s="324" t="s">
+      <c r="B22" s="323" t="s">
         <v>2228</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="324" t="s">
+      <c r="A23" s="323" t="s">
         <v>2229</v>
       </c>
-      <c r="B23" s="324" t="s">
+      <c r="B23" s="323" t="s">
         <v>2229</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="324" t="s">
+      <c r="A24" s="323" t="s">
         <v>2230</v>
       </c>
-      <c r="B24" s="324" t="s">
+      <c r="B24" s="323" t="s">
         <v>2231</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="324" t="s">
+      <c r="A25" s="323" t="s">
         <v>2232</v>
       </c>
-      <c r="B25" s="324" t="s">
+      <c r="B25" s="323" t="s">
         <v>2233</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="324" t="s">
+      <c r="A26" s="323" t="s">
         <v>2234</v>
       </c>
-      <c r="B26" s="324" t="s">
+      <c r="B26" s="323" t="s">
         <v>2235</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="324" t="s">
+      <c r="A27" s="323" t="s">
         <v>1768</v>
       </c>
-      <c r="B27" s="324" t="s">
+      <c r="B27" s="323" t="s">
         <v>1765</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="324" t="s">
+      <c r="A28" s="323" t="s">
         <v>1766</v>
       </c>
-      <c r="B28" s="324" t="s">
+      <c r="B28" s="323" t="s">
         <v>1767</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="324" t="s">
+      <c r="A29" s="323" t="s">
         <v>1470</v>
       </c>
-      <c r="B29" s="324" t="s">
+      <c r="B29" s="323" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -47598,7 +47588,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B11" s="152" t="s">
@@ -47634,42 +47624,42 @@
       <c r="B15" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="327" t="s">
+      <c r="A17" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="327" t="s">
+      <c r="B17" s="326" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="328" t="s">
+      <c r="A18" s="327" t="s">
         <v>2266</v>
       </c>
-      <c r="B18" s="328" t="s">
+      <c r="B18" s="327" t="s">
         <v>2267</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="328" t="s">
+      <c r="A19" s="327" t="s">
         <v>2268</v>
       </c>
-      <c r="B19" s="328" t="s">
+      <c r="B19" s="327" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="328" t="s">
+      <c r="A20" s="327" t="s">
         <v>2270</v>
       </c>
-      <c r="B20" s="328" t="s">
+      <c r="B20" s="327" t="s">
         <v>2271</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="328" t="s">
+      <c r="A21" s="327" t="s">
         <v>2272</v>
       </c>
-      <c r="B21" s="328" t="s">
+      <c r="B21" s="327" t="s">
         <v>2273</v>
       </c>
     </row>
@@ -47771,7 +47761,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="285" t="s">
+      <c r="A11" s="284" t="s">
         <v>1459</v>
       </c>
       <c r="B11" s="159" t="s">
@@ -47991,10 +47981,10 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="302" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="302" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="231" t="s">
@@ -48006,7 +47996,7 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B11" s="152" t="s">
@@ -48036,50 +48026,50 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="301" t="s">
+      <c r="A16" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="301" t="s">
+      <c r="B16" s="300" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="302" t="s">
+      <c r="A17" s="301" t="s">
         <v>1319</v>
       </c>
-      <c r="B17" s="302" t="s">
+      <c r="B17" s="301" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="302" t="s">
+      <c r="A18" s="301" t="s">
         <v>1321</v>
       </c>
-      <c r="B18" s="302" t="s">
+      <c r="B18" s="301" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="302" t="s">
+      <c r="A19" s="301" t="s">
         <v>1323</v>
       </c>
-      <c r="B19" s="302" t="s">
+      <c r="B19" s="301" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="302" t="s">
+      <c r="A20" s="301" t="s">
         <v>2160</v>
       </c>
-      <c r="B20" s="302" t="s">
+      <c r="B20" s="301" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="302" t="s">
+      <c r="A21" s="301" t="s">
         <v>1326</v>
       </c>
-      <c r="B21" s="302" t="s">
+      <c r="B21" s="301" t="s">
         <v>1325</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -48087,10 +48077,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="302" t="s">
+      <c r="A22" s="301" t="s">
         <v>2161</v>
       </c>
-      <c r="B22" s="302" t="s">
+      <c r="B22" s="301" t="s">
         <v>2162</v>
       </c>
     </row>
@@ -48246,56 +48236,56 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="383" t="s">
+      <c r="A19" s="382" t="s">
         <v>2643</v>
       </c>
-      <c r="B19" s="383" t="s">
+      <c r="B19" s="382" t="s">
         <v>2656</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="384" t="s">
+      <c r="A20" s="383" t="s">
         <v>2644</v>
       </c>
-      <c r="B20" s="384" t="s">
+      <c r="B20" s="383" t="s">
         <v>2644</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="385"/>
-      <c r="B21" s="385"/>
+      <c r="A21" s="384"/>
+      <c r="B21" s="384"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="385"/>
-      <c r="B22" s="385"/>
+      <c r="A22" s="384"/>
+      <c r="B22" s="384"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="385"/>
-      <c r="B23" s="385"/>
+      <c r="A23" s="384"/>
+      <c r="B23" s="384"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="385"/>
-      <c r="B24" s="385"/>
+      <c r="A24" s="384"/>
+      <c r="B24" s="384"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="385"/>
-      <c r="B25" s="385"/>
+      <c r="A25" s="384"/>
+      <c r="B25" s="384"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="385"/>
-      <c r="B26" s="385"/>
+      <c r="A26" s="384"/>
+      <c r="B26" s="384"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="385"/>
-      <c r="B27" s="385"/>
+      <c r="A27" s="384"/>
+      <c r="B27" s="384"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="385"/>
-      <c r="B28" s="385"/>
+      <c r="A28" s="384"/>
+      <c r="B28" s="384"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="385"/>
-      <c r="B29" s="385"/>
+      <c r="A29" s="384"/>
+      <c r="B29" s="384"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -48307,7 +48297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48385,10 +48375,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="297" t="s">
+      <c r="A10" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="297" t="s">
+      <c r="B10" s="296" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -48396,7 +48386,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B11" s="152" t="s">
@@ -48424,154 +48414,157 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="304" t="s">
+      <c r="A16" s="303" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="304" t="s">
+      <c r="B16" s="303" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="305" t="s">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="304" t="s">
         <v>1853</v>
       </c>
-      <c r="B17" s="305" t="s">
+      <c r="B17" s="304" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="305" t="s">
+      <c r="C17" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="304" t="s">
         <v>1854</v>
       </c>
-      <c r="B18" s="305" t="s">
+      <c r="B18" s="304" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="305" t="s">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="304" t="s">
         <v>1855</v>
       </c>
-      <c r="B19" s="305" t="s">
+      <c r="B19" s="304" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="305" t="s">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="304" t="s">
         <v>2165</v>
       </c>
-      <c r="B20" s="305" t="s">
+      <c r="B20" s="304" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="305" t="s">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="304" t="s">
         <v>2166</v>
       </c>
-      <c r="B21" s="305" t="s">
+      <c r="B21" s="304" t="s">
         <v>2166</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="305" t="s">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="304" t="s">
         <v>2167</v>
       </c>
-      <c r="B22" s="305" t="s">
+      <c r="B22" s="304" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="305" t="s">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="304" t="s">
         <v>2168</v>
       </c>
-      <c r="B23" s="305" t="s">
+      <c r="B23" s="304" t="s">
         <v>2168</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="305" t="s">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="304" t="s">
         <v>2169</v>
       </c>
-      <c r="B24" s="305" t="s">
+      <c r="B24" s="304" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="305" t="s">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="304" t="s">
         <v>2607</v>
       </c>
-      <c r="B25" s="305" t="s">
+      <c r="B25" s="304" t="s">
         <v>2611</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="305" t="s">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="304" t="s">
         <v>2608</v>
       </c>
-      <c r="B26" s="305" t="s">
+      <c r="B26" s="304" t="s">
         <v>2612</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="305" t="s">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="304" t="s">
         <v>2609</v>
       </c>
-      <c r="B27" s="305" t="s">
+      <c r="B27" s="304" t="s">
         <v>2613</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="305" t="s">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="304" t="s">
         <v>2610</v>
       </c>
-      <c r="B28" s="305" t="s">
+      <c r="B28" s="304" t="s">
         <v>2614</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="305" t="s">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="304" t="s">
         <v>628</v>
       </c>
-      <c r="B29" s="305" t="s">
+      <c r="B29" s="304" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="305" t="s">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="304" t="s">
         <v>628</v>
       </c>
-      <c r="B30" s="305" t="s">
+      <c r="B30" s="304" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="305" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="304" t="s">
         <v>628</v>
       </c>
-      <c r="B31" s="305" t="s">
+      <c r="B31" s="304" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="305" t="s">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="304" t="s">
         <v>628</v>
       </c>
-      <c r="B32" s="305" t="s">
+      <c r="B32" s="304" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="305" t="s">
+      <c r="A33" s="304" t="s">
         <v>628</v>
       </c>
-      <c r="B33" s="305" t="s">
+      <c r="B33" s="304" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="305" t="s">
+      <c r="A34" s="304" t="s">
         <v>628</v>
       </c>
-      <c r="B34" s="305" t="s">
+      <c r="B34" s="304" t="s">
         <v>628</v>
       </c>
     </row>
@@ -48693,10 +48686,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="285" t="s">
+      <c r="A13" s="284" t="s">
         <v>2518</v>
       </c>
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="284" t="s">
         <v>1528</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -48878,7 +48871,7 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="300" t="s">
+      <c r="A13" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B13" s="152" t="s">
@@ -49081,7 +49074,7 @@
       <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="300" t="s">
+      <c r="A12" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B12" s="152" t="s">
@@ -49286,7 +49279,7 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="300" t="s">
+      <c r="A12" s="299" t="s">
         <v>1416</v>
       </c>
       <c r="B12" s="152" t="s">
@@ -49325,9 +49318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B17"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50054,290 +50045,290 @@
       <c r="B17" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="321" t="s">
+      <c r="A19" s="320" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="321" t="s">
+      <c r="B19" s="320" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="322" t="s">
+      <c r="A20" s="321" t="s">
         <v>2223</v>
       </c>
-      <c r="B20" s="322" t="s">
+      <c r="B20" s="321" t="s">
         <v>2223</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="322" t="s">
+      <c r="A21" s="321" t="s">
         <v>1256</v>
       </c>
-      <c r="B21" s="322" t="s">
+      <c r="B21" s="321" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="322" t="s">
+      <c r="A22" s="321" t="s">
         <v>1257</v>
       </c>
-      <c r="B22" s="322" t="s">
+      <c r="B22" s="321" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="322" t="s">
+      <c r="A23" s="321" t="s">
         <v>1279</v>
       </c>
-      <c r="B23" s="322" t="s">
+      <c r="B23" s="321" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="322" t="s">
+      <c r="A24" s="321" t="s">
         <v>1258</v>
       </c>
-      <c r="B24" s="322" t="s">
+      <c r="B24" s="321" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="322" t="s">
+      <c r="A25" s="321" t="s">
         <v>429</v>
       </c>
-      <c r="B25" s="322" t="s">
+      <c r="B25" s="321" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="322" t="s">
+      <c r="A26" s="321" t="s">
         <v>1259</v>
       </c>
-      <c r="B26" s="322" t="s">
+      <c r="B26" s="321" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="322" t="s">
+      <c r="A27" s="321" t="s">
         <v>1260</v>
       </c>
-      <c r="B27" s="322" t="s">
+      <c r="B27" s="321" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="322" t="s">
+      <c r="A28" s="321" t="s">
         <v>1261</v>
       </c>
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="321" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="322" t="s">
+      <c r="A29" s="321" t="s">
         <v>1262</v>
       </c>
-      <c r="B29" s="322" t="s">
+      <c r="B29" s="321" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="322" t="s">
+      <c r="A30" s="321" t="s">
         <v>1314</v>
       </c>
-      <c r="B30" s="322" t="s">
+      <c r="B30" s="321" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="322" t="s">
+      <c r="A31" s="321" t="s">
         <v>1251</v>
       </c>
-      <c r="B31" s="322" t="s">
+      <c r="B31" s="321" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="322" t="s">
+      <c r="A32" s="321" t="s">
         <v>1252</v>
       </c>
-      <c r="B32" s="322" t="s">
+      <c r="B32" s="321" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="322" t="s">
+      <c r="A33" s="321" t="s">
         <v>2224</v>
       </c>
-      <c r="B33" s="322" t="s">
+      <c r="B33" s="321" t="s">
         <v>2224</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="321" t="s">
         <v>1278</v>
       </c>
-      <c r="B34" s="322" t="s">
+      <c r="B34" s="321" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="322" t="s">
+      <c r="A35" s="321" t="s">
         <v>1280</v>
       </c>
-      <c r="B35" s="322" t="s">
+      <c r="B35" s="321" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="322" t="s">
+      <c r="A36" s="321" t="s">
         <v>1254</v>
       </c>
-      <c r="B36" s="322" t="s">
+      <c r="B36" s="321" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="322" t="s">
+      <c r="A37" s="321" t="s">
         <v>1281</v>
       </c>
-      <c r="B37" s="322" t="s">
+      <c r="B37" s="321" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="322" t="s">
+      <c r="A38" s="321" t="s">
         <v>1263</v>
       </c>
-      <c r="B38" s="322" t="s">
+      <c r="B38" s="321" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="322" t="s">
+      <c r="A39" s="321" t="s">
         <v>1264</v>
       </c>
-      <c r="B39" s="322" t="s">
+      <c r="B39" s="321" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="322" t="s">
+      <c r="A40" s="321" t="s">
         <v>1265</v>
       </c>
-      <c r="B40" s="322" t="s">
+      <c r="B40" s="321" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="322" t="s">
+      <c r="A41" s="321" t="s">
         <v>1266</v>
       </c>
-      <c r="B41" s="322" t="s">
+      <c r="B41" s="321" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="322" t="s">
+      <c r="A42" s="321" t="s">
         <v>1267</v>
       </c>
-      <c r="B42" s="322" t="s">
+      <c r="B42" s="321" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="322" t="s">
+      <c r="A43" s="321" t="s">
         <v>1268</v>
       </c>
-      <c r="B43" s="322" t="s">
+      <c r="B43" s="321" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="322" t="s">
+      <c r="A44" s="321" t="s">
         <v>1269</v>
       </c>
-      <c r="B44" s="322" t="s">
+      <c r="B44" s="321" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="322" t="s">
+      <c r="A45" s="321" t="s">
         <v>1270</v>
       </c>
-      <c r="B45" s="322" t="s">
+      <c r="B45" s="321" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="322" t="s">
+      <c r="A46" s="321" t="s">
         <v>1271</v>
       </c>
-      <c r="B46" s="322" t="s">
+      <c r="B46" s="321" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="322" t="s">
+      <c r="A47" s="321" t="s">
         <v>1272</v>
       </c>
-      <c r="B47" s="322" t="s">
+      <c r="B47" s="321" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="322" t="s">
+      <c r="A48" s="321" t="s">
         <v>1273</v>
       </c>
-      <c r="B48" s="322" t="s">
+      <c r="B48" s="321" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="322" t="s">
+      <c r="A49" s="321" t="s">
         <v>1274</v>
       </c>
-      <c r="B49" s="322" t="s">
+      <c r="B49" s="321" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="322" t="s">
+      <c r="A50" s="321" t="s">
         <v>1275</v>
       </c>
-      <c r="B50" s="322" t="s">
+      <c r="B50" s="321" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="322" t="s">
+      <c r="A51" s="321" t="s">
         <v>1276</v>
       </c>
-      <c r="B51" s="322" t="s">
+      <c r="B51" s="321" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="322" t="s">
+      <c r="A52" s="321" t="s">
         <v>2225</v>
       </c>
-      <c r="B52" s="322" t="s">
+      <c r="B52" s="321" t="s">
         <v>2225</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="322" t="s">
+      <c r="A53" s="321" t="s">
         <v>2226</v>
       </c>
-      <c r="B53" s="322" t="s">
+      <c r="B53" s="321" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="322" t="s">
+      <c r="A54" s="321" t="s">
         <v>1277</v>
       </c>
-      <c r="B54" s="322" t="s">
+      <c r="B54" s="321" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -50351,9 +50342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B11"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50498,9 +50487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B11"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="92" activeTab="93"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="32" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="PSExchangeData" sheetId="465" r:id="rId6"/>
     <sheet name="AppCodeKind" sheetId="303" r:id="rId7"/>
     <sheet name="AppCostKind" sheetId="433" r:id="rId8"/>
-    <sheet name="AppWriteOffCostKind" sheetId="467" r:id="rId9"/>
+    <sheet name="AppCostMovementKind" sheetId="467" r:id="rId9"/>
     <sheet name="AppInfoDataKind" sheetId="339" r:id="rId10"/>
     <sheet name="AppForm" sheetId="434" r:id="rId11"/>
     <sheet name="AppMethodCalcKind" sheetId="429" r:id="rId12"/>
@@ -38,8 +38,8 @@
     <sheet name="OpEntry" sheetId="234" r:id="rId24"/>
     <sheet name="OEKind" sheetId="443" r:id="rId25"/>
     <sheet name="OEAnalystPreset" sheetId="249" r:id="rId26"/>
-    <sheet name="OEAnalystWriteOffCostPreset" sheetId="466" r:id="rId27"/>
-    <sheet name="OESubAnalystPreset" sheetId="388" r:id="rId28"/>
+    <sheet name="OESubAnalystPreset" sheetId="388" r:id="rId27"/>
+    <sheet name="OECostMovementPreset" sheetId="466" r:id="rId28"/>
     <sheet name="Face" sheetId="41" r:id="rId29"/>
     <sheet name="FaceCodeKind" sheetId="389" r:id="rId30"/>
     <sheet name="FaceCodeData" sheetId="390" r:id="rId31"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="2672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8648" uniqueCount="2672">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -8149,24 +8149,12 @@
     <t>Привязка списания себест-ти аналитики</t>
   </si>
   <si>
-    <t>AppWriteOffCostKind</t>
-  </si>
-  <si>
-    <t>AppWriteOffCostKindId</t>
-  </si>
-  <si>
-    <t>Виды списания себестоимости приложения</t>
-  </si>
-  <si>
     <t>скользящая средневзвешенная количественная</t>
   </si>
   <si>
     <t>скользящая суммовая</t>
   </si>
   <si>
-    <t>Вид списания себест-ти</t>
-  </si>
-  <si>
     <t>здесь может быть "название товара" для интернет-магазина</t>
   </si>
   <si>
@@ -8200,12 +8188,6 @@
     <t>скользящая средневзвешенная количественно-суммовая</t>
   </si>
   <si>
-    <t>OperationEntryAnalystWriteOffCostPreset</t>
-  </si>
-  <si>
-    <t>OperationEntryAnalystWriteOffCostPresetId</t>
-  </si>
-  <si>
     <t>если для конкретного актива</t>
   </si>
   <si>
@@ -8261,6 +8243,24 @@
   </si>
   <si>
     <t>подвид РП может быть подчинен виду РП</t>
+  </si>
+  <si>
+    <t>Виды движения себестоимости приложения</t>
+  </si>
+  <si>
+    <t>AppCostMovementKind</t>
+  </si>
+  <si>
+    <t>AppCostMovementKindId</t>
+  </si>
+  <si>
+    <t>OperationEntryCostMovementPreset</t>
+  </si>
+  <si>
+    <t>OperationEntryCostMovementPresetId</t>
+  </si>
+  <si>
+    <t>Вид движения себест-ти</t>
   </si>
 </sst>
 </file>
@@ -8880,7 +8880,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9790,6 +9790,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9824,7 +9828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="Гиперссылка" xfId="24" builtinId="8"/>
@@ -10275,7 +10278,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.25">
@@ -10283,7 +10286,7 @@
         <v>648</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -10299,7 +10302,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10460,18 +10463,18 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
     </row>
   </sheetData>
@@ -11188,7 +11191,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A23" s="92" t="s">
         <v>952</v>
       </c>
@@ -12370,10 +12373,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="392" t="s">
+      <c r="A27" s="394" t="s">
         <v>304</v>
       </c>
-      <c r="B27" s="392" t="s">
+      <c r="B27" s="394" t="s">
         <v>305</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -12381,15 +12384,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="393"/>
-      <c r="B28" s="393"/>
+      <c r="A28" s="395"/>
+      <c r="B28" s="395"/>
       <c r="C28" s="22" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="394"/>
-      <c r="B29" s="394"/>
+      <c r="A29" s="396"/>
+      <c r="B29" s="396"/>
       <c r="C29" s="22" t="s">
         <v>1721</v>
       </c>
@@ -19347,7 +19350,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -19358,7 +19361,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -19407,7 +19410,7 @@
         <v>521</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -19418,7 +19421,7 @@
         <v>522</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -20082,7 +20085,7 @@
         <v>77</v>
       </c>
       <c r="C9" s="346" t="s">
-        <v>2653</v>
+        <v>2647</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -20279,7 +20282,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="346" t="s">
-        <v>2653</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -20287,7 +20290,7 @@
         <v>1360</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -21280,7 +21283,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -21291,7 +21294,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -21354,7 +21357,7 @@
         <v>521</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -21365,7 +21368,7 @@
         <v>522</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -24889,10 +24892,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="392" t="s">
+      <c r="A33" s="394" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="392" t="s">
+      <c r="B33" s="394" t="s">
         <v>305</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -24900,15 +24903,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="393"/>
-      <c r="B34" s="393"/>
+      <c r="A34" s="395"/>
+      <c r="B34" s="395"/>
       <c r="C34" s="22" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="394"/>
-      <c r="B35" s="394"/>
+      <c r="A35" s="396"/>
+      <c r="B35" s="396"/>
       <c r="C35" s="22" t="s">
         <v>1721</v>
       </c>
@@ -25241,13 +25244,13 @@
       <c r="B79" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="395" t="s">
+      <c r="C79" s="397" t="s">
         <v>2584</v>
       </c>
-      <c r="D79" s="396"/>
-      <c r="E79" s="396"/>
-      <c r="F79" s="396"/>
-      <c r="G79" s="396"/>
+      <c r="D79" s="398"/>
+      <c r="E79" s="398"/>
+      <c r="F79" s="398"/>
+      <c r="G79" s="398"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
@@ -30039,10 +30042,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="397" t="s">
+      <c r="A11" s="399" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="397" t="s">
+      <c r="B11" s="399" t="s">
         <v>305</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -30050,15 +30053,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="398"/>
-      <c r="B12" s="398"/>
+      <c r="A12" s="400"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="26" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="388"/>
-      <c r="B13" s="388"/>
+      <c r="A13" s="390"/>
+      <c r="B13" s="390"/>
       <c r="C13" s="26" t="s">
         <v>1721</v>
       </c>
@@ -30390,10 +30393,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="397" t="s">
+      <c r="A14" s="399" t="s">
         <v>304</v>
       </c>
-      <c r="B14" s="397" t="s">
+      <c r="B14" s="399" t="s">
         <v>305</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -30401,15 +30404,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="398"/>
-      <c r="B15" s="398"/>
+      <c r="A15" s="400"/>
+      <c r="B15" s="400"/>
       <c r="C15" s="26" t="s">
         <v>1720</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="388"/>
-      <c r="B16" s="388"/>
+      <c r="A16" s="390"/>
+      <c r="B16" s="390"/>
       <c r="C16" s="26" t="s">
         <v>1721</v>
       </c>
@@ -33183,7 +33186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -33464,12 +33467,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="154" t="s">
-        <v>2666</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="154" t="s">
-        <v>2667</v>
+        <v>2661</v>
       </c>
     </row>
   </sheetData>
@@ -33480,7 +33483,330 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C28"/>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="222" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B14" s="222" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="247"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="253" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="253" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="253" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="253" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="253" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="253" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="152" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="152" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="152" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="152" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="152" t="s">
+        <v>809</v>
+      </c>
+      <c r="B23" s="299" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="152" t="s">
+        <v>808</v>
+      </c>
+      <c r="B24" s="299" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="253" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="253" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="152" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B26" s="152" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="152" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B27" s="152" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="152" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B28" s="152" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="284" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="284" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="284" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B30" s="284" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="262"/>
+      <c r="B31" s="262"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C29"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -33496,7 +33822,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2651</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.2">
@@ -33504,7 +33830,7 @@
         <v>2633</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2651</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -33520,7 +33846,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2652</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -33591,10 +33917,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="385" t="s">
-        <v>2639</v>
+        <v>2671</v>
       </c>
       <c r="B13" s="385" t="s">
-        <v>2635</v>
+        <v>2668</v>
       </c>
       <c r="C13" s="22"/>
     </row>
@@ -33602,461 +33928,149 @@
       <c r="A14" s="257"/>
       <c r="B14" s="257"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="284" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="284" t="s">
         <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="284" t="s">
         <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>226</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="284" t="s">
+        <v>200</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>200</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="284" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="284" t="s">
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>22</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="284" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="284" t="s">
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>76</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="284" t="s">
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>68</v>
+    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="388" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" s="388" t="s">
+        <v>424</v>
       </c>
       <c r="C21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="256" t="s">
-        <v>426</v>
-      </c>
-      <c r="B22" s="256" t="s">
-        <v>424</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="253" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="253" t="s">
+        <v>1013</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="257"/>
-      <c r="B23" s="257"/>
+      <c r="A23" s="284" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B23" s="284" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="257"/>
+      <c r="B24" s="257"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="160" t="s">
         <v>1610</v>
       </c>
-      <c r="B24" s="160" t="s">
+      <c r="B25" s="160" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B27" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>1925</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="222" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B14" s="222" t="s">
-        <v>1957</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="247"/>
-      <c r="B15" s="247"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="253" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="253" t="s">
-        <v>2654</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="253" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" s="253" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="253" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="253" t="s">
-        <v>2656</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="253" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="253" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="152" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="152" t="s">
-        <v>2658</v>
-      </c>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="152" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="152" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="152" t="s">
-        <v>2660</v>
-      </c>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="152" t="s">
-        <v>809</v>
-      </c>
-      <c r="B23" s="299" t="s">
-        <v>2661</v>
-      </c>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="152" t="s">
-        <v>808</v>
-      </c>
-      <c r="B24" s="299" t="s">
-        <v>2662</v>
-      </c>
-      <c r="C24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="253" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="253" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="152" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B26" s="152" t="s">
-        <v>2663</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="152" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B27" s="152" t="s">
-        <v>2664</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="152" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B28" s="152" t="s">
-        <v>2665</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="284" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="284" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="284" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B30" s="284" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="262"/>
-      <c r="B31" s="262"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C32" s="22"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -35469,10 +35483,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="295" t="s">
-        <v>2669</v>
+        <v>2663</v>
       </c>
       <c r="B18" s="295" t="s">
-        <v>2670</v>
+        <v>2664</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>2499</v>
@@ -36455,7 +36469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -37712,7 +37726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38401,10 +38415,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="389" t="s">
+      <c r="A14" s="391" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="387" t="s">
+      <c r="B14" s="389" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -38412,8 +38426,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="388"/>
-      <c r="B15" s="388"/>
+      <c r="A15" s="390"/>
+      <c r="B15" s="390"/>
       <c r="C15" t="s">
         <v>1487</v>
       </c>
@@ -40262,12 +40276,12 @@
       <c r="B15" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="390" t="s">
+      <c r="C15" s="392" t="s">
         <v>1113</v>
       </c>
-      <c r="D15" s="391"/>
-      <c r="E15" s="391"/>
-      <c r="F15" s="391"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="393"/>
       <c r="G15" s="193"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -40680,9 +40694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -41038,9 +41050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -47927,7 +47937,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -47940,15 +47950,15 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2634</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>2636</v>
+        <v>2666</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2634</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -47964,7 +47974,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2635</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -48065,18 +48075,18 @@
     </row>
     <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="382" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="B19" s="382" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="383" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="B20" s="383" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -48257,7 +48267,7 @@
         <v>1851</v>
       </c>
       <c r="C17" t="s">
-        <v>2668</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48981,7 +48991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49091,14 +49101,14 @@
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="399" t="s">
+      <c r="A11" s="387" t="s">
         <v>1857</v>
       </c>
-      <c r="B11" s="399" t="s">
+      <c r="B11" s="387" t="s">
         <v>297</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>2671</v>
+        <v>2665</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="51" activeTab="51"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="141" activeTab="148"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -23630,7 +23630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31916,7 +31916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -33625,7 +33625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -34038,9 +34038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C23"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38104,7 +38102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38372,7 +38370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39433,7 +39431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42863,9 +42861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C23"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="98" activeTab="98"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="107" activeTab="112"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8885" uniqueCount="2582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8905" uniqueCount="2586">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -7981,6 +7981,18 @@
   </si>
   <si>
     <t>для лица….(БИН и т.д.)</t>
+  </si>
+  <si>
+    <t>если для конкрентного док-та….</t>
+  </si>
+  <si>
+    <t>если для конкрентной строки док-та….</t>
+  </si>
+  <si>
+    <t>если для конкретного договора….</t>
+  </si>
+  <si>
+    <t>налоговый режим может меняться для сэз, отдельных сделок и т.д.</t>
   </si>
 </sst>
 </file>
@@ -9509,6 +9521,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9530,9 +9545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -12418,7 +12430,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
+      <selection activeCell="A16" sqref="A16:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13492,9 +13504,9 @@
 
 <file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13503,12 +13515,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="180" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
@@ -13516,7 +13528,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2517</v>
       </c>
@@ -13524,7 +13536,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -13532,7 +13544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="97" t="s">
         <v>15</v>
       </c>
@@ -13540,7 +13552,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="97" t="s">
         <v>241</v>
       </c>
@@ -13548,7 +13560,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="107" t="s">
         <v>997</v>
       </c>
@@ -13559,7 +13571,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="97" t="s">
         <v>100</v>
       </c>
@@ -13567,7 +13579,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="343" t="s">
         <v>156</v>
       </c>
@@ -13575,7 +13587,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="98" t="s">
         <v>17</v>
       </c>
@@ -13583,7 +13595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="98" t="s">
         <v>35</v>
       </c>
@@ -13591,7 +13603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="s">
         <v>50</v>
       </c>
@@ -13603,7 +13615,7 @@
       </c>
       <c r="D12" s="180"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="111" t="s">
         <v>2519</v>
       </c>
@@ -13619,86 +13631,221 @@
       <c r="G13" s="180"/>
       <c r="H13" s="180"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="111" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="180"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="97" t="s">
-        <v>125</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="347" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="348" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="347" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="348" t="s">
+        <v>204</v>
       </c>
       <c r="C15" s="180" t="s">
-        <v>2520</v>
+        <v>2582</v>
       </c>
       <c r="D15" s="180"/>
       <c r="E15" s="180"/>
       <c r="F15" s="180"/>
       <c r="G15" s="180"/>
       <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="372" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="347" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B16" s="348" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C16" s="180" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="111" t="s">
+        <v>686</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="180"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="180" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="186" t="s">
         <v>1430</v>
       </c>
-      <c r="B16" s="372" t="s">
+      <c r="B19" s="186" t="s">
         <v>1426</v>
-      </c>
-      <c r="C16" s="180"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="97" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B17" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="97" t="s">
-        <v>484</v>
-      </c>
-      <c r="B18" s="97" t="s">
-        <v>482</v>
-      </c>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="97" t="s">
-        <v>485</v>
-      </c>
-      <c r="B19" s="97" t="s">
-        <v>483</v>
       </c>
       <c r="C19" s="180"/>
       <c r="D19" s="180"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="142" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B22" s="142" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="142" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B23" s="142" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="185" t="s">
+        <v>924</v>
+      </c>
+      <c r="B25" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="97" t="s">
+        <v>484</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>482</v>
+      </c>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="97" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>483</v>
+      </c>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B28" s="98" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="180" t="s">
+        <v>2585</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -22378,10 +22525,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="388" t="s">
+      <c r="A33" s="389" t="s">
         <v>288</v>
       </c>
-      <c r="B33" s="388" t="s">
+      <c r="B33" s="389" t="s">
         <v>289</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -22389,15 +22536,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="389"/>
-      <c r="B34" s="389"/>
+      <c r="A34" s="390"/>
+      <c r="B34" s="390"/>
       <c r="C34" s="22" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="390"/>
-      <c r="B35" s="390"/>
+      <c r="A35" s="391"/>
+      <c r="B35" s="391"/>
       <c r="C35" s="22" t="s">
         <v>1609</v>
       </c>
@@ -22720,13 +22867,13 @@
       <c r="B77" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="391" t="s">
+      <c r="C77" s="392" t="s">
         <v>2367</v>
       </c>
-      <c r="D77" s="392"/>
-      <c r="E77" s="392"/>
-      <c r="F77" s="392"/>
-      <c r="G77" s="392"/>
+      <c r="D77" s="393"/>
+      <c r="E77" s="393"/>
+      <c r="F77" s="393"/>
+      <c r="G77" s="393"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
@@ -27508,10 +27655,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="393" t="s">
+      <c r="A11" s="394" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="393" t="s">
+      <c r="B11" s="394" t="s">
         <v>289</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -27519,15 +27666,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="394"/>
-      <c r="B12" s="394"/>
+      <c r="A12" s="395"/>
+      <c r="B12" s="395"/>
       <c r="C12" s="26" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="395"/>
-      <c r="B13" s="395"/>
+      <c r="A13" s="396"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="26" t="s">
         <v>1609</v>
       </c>
@@ -27859,10 +28006,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="393" t="s">
+      <c r="A14" s="394" t="s">
         <v>288</v>
       </c>
-      <c r="B14" s="393" t="s">
+      <c r="B14" s="394" t="s">
         <v>289</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -27870,15 +28017,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="394"/>
-      <c r="B15" s="394"/>
+      <c r="A15" s="395"/>
+      <c r="B15" s="395"/>
       <c r="C15" s="26" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="395"/>
-      <c r="B16" s="395"/>
+      <c r="A16" s="396"/>
+      <c r="B16" s="396"/>
       <c r="C16" s="26" t="s">
         <v>1609</v>
       </c>
@@ -31618,9 +31765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38242,7 +38387,7 @@
   <sheetPr codeName="Лист12"/>
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:B23"/>
     </sheetView>
   </sheetViews>
@@ -39138,8 +39283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C33"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48754,10 +48899,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="388" t="s">
+      <c r="A27" s="389" t="s">
         <v>288</v>
       </c>
-      <c r="B27" s="388" t="s">
+      <c r="B27" s="389" t="s">
         <v>289</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -48765,15 +48910,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="389"/>
-      <c r="B28" s="389"/>
+      <c r="A28" s="390"/>
+      <c r="B28" s="390"/>
       <c r="C28" s="22" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="390"/>
-      <c r="B29" s="390"/>
+      <c r="A29" s="391"/>
+      <c r="B29" s="391"/>
       <c r="C29" s="22" t="s">
         <v>1609</v>
       </c>
@@ -50257,42 +50402,42 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="396" t="s">
+      <c r="A85" s="388" t="s">
         <v>582</v>
       </c>
-      <c r="B85" s="396" t="s">
+      <c r="B85" s="388" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="396" t="s">
+      <c r="A86" s="388" t="s">
         <v>583</v>
       </c>
-      <c r="B86" s="396" t="s">
+      <c r="B86" s="388" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="396" t="s">
+      <c r="A87" s="388" t="s">
         <v>584</v>
       </c>
-      <c r="B87" s="396" t="s">
+      <c r="B87" s="388" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="396" t="s">
+      <c r="A88" s="388" t="s">
         <v>1865</v>
       </c>
-      <c r="B88" s="396" t="s">
+      <c r="B88" s="388" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="396" t="s">
+      <c r="A89" s="388" t="s">
         <v>1866</v>
       </c>
-      <c r="B89" s="396" t="s">
+      <c r="B89" s="388" t="s">
         <v>1866</v>
       </c>
     </row>
@@ -50542,18 +50687,18 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="396" t="s">
+      <c r="A26" s="388" t="s">
         <v>1865</v>
       </c>
-      <c r="B26" s="396" t="s">
+      <c r="B26" s="388" t="s">
         <v>1865</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="396" t="s">
+      <c r="A27" s="388" t="s">
         <v>1866</v>
       </c>
-      <c r="B27" s="396" t="s">
+      <c r="B27" s="388" t="s">
         <v>1866</v>
       </c>
     </row>
@@ -50567,7 +50712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -20579,7 +20579,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="308" t="s">
         <v>47</v>
       </c>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="107" activeTab="112"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="21" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8905" uniqueCount="2586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8910" uniqueCount="2591">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -7993,6 +7993,21 @@
   </si>
   <si>
     <t>налоговый режим может меняться для сэз, отдельных сделок и т.д.</t>
+  </si>
+  <si>
+    <t>норм (станд)</t>
+  </si>
+  <si>
+    <t>нормативная (стандартная) себестоимость</t>
+  </si>
+  <si>
+    <t>Вид налогового номера</t>
+  </si>
+  <si>
+    <t>TaxIDKIndId</t>
+  </si>
+  <si>
+    <t>тип "Единица измерения" (для Казахстана)</t>
   </si>
 </sst>
 </file>
@@ -13506,7 +13521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32325,9 +32340,9 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32418,13 +32433,13 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="231" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>2041</v>
       </c>
       <c r="D11" s="22"/>
@@ -32433,121 +32448,136 @@
       <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="263" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B12" s="263" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="155" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B18" s="155" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="156" t="s">
+    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="156" t="s">
         <v>490</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B19" s="156" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="156" t="s">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="156" t="s">
         <v>492</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B20" s="156" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="156" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B20" s="156" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="156" t="s">
-        <v>495</v>
+        <v>1459</v>
       </c>
       <c r="B21" s="156" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="156" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B22" s="156" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="156" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B23" s="156" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="156" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B24" s="156" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="156" t="s">
-        <v>1460</v>
+        <v>499</v>
       </c>
       <c r="B25" s="156" t="s">
-        <v>1461</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="156" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B26" s="156" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="156" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B27" s="156" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="156" t="s">
         <v>1464</v>
       </c>
-      <c r="B27" s="156" t="s">
+      <c r="B28" s="156" t="s">
         <v>1464</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -42239,7 +42269,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -42429,6 +42459,14 @@
       </c>
       <c r="B23" s="171" t="s">
         <v>1580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="171" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B24" s="171" t="s">
+        <v>2587</v>
       </c>
     </row>
   </sheetData>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="21" activeTab="29"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8910" uniqueCount="2591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8912" uniqueCount="2591">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -32342,7 +32342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32591,7 +32591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39873,13 +39873,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39984,16 +39984,24 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="149" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="149" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B15" s="58" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -42271,7 +42279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="127" activeTab="128"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="110" activeTab="116"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8937" uniqueCount="2600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8951" uniqueCount="2606">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -8035,6 +8035,24 @@
   </si>
   <si>
     <t>налоговая корректировка</t>
+  </si>
+  <si>
+    <t>для адресов</t>
+  </si>
+  <si>
+    <t>взнос</t>
+  </si>
+  <si>
+    <t>Взнос ОСМС</t>
+  </si>
+  <si>
+    <t>для ОСМС и т.д.</t>
+  </si>
+  <si>
+    <t>родитель. Для указания цепочки операций</t>
+  </si>
+  <si>
+    <t>некоторые виды стран могут быть только для конкретных стран</t>
   </si>
 </sst>
 </file>
@@ -8650,7 +8668,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9407,9 +9425,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9569,6 +9584,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10299,10 +10321,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="367" t="s">
+      <c r="A18" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="367" t="s">
+      <c r="B18" s="366" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -10310,10 +10332,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="365" t="s">
+      <c r="A19" s="364" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="365" t="s">
+      <c r="B19" s="364" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -10543,10 +10565,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="388" t="s">
+      <c r="A45" s="387" t="s">
         <v>532</v>
       </c>
-      <c r="B45" s="388" t="s">
+      <c r="B45" s="387" t="s">
         <v>533</v>
       </c>
       <c r="C45" t="s">
@@ -10554,10 +10576,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="388" t="s">
+      <c r="A46" s="387" t="s">
         <v>2585</v>
       </c>
-      <c r="B46" s="388" t="s">
+      <c r="B46" s="387" t="s">
         <v>2586</v>
       </c>
     </row>
@@ -10626,10 +10648,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="389" t="s">
+      <c r="A55" s="388" t="s">
         <v>2453</v>
       </c>
-      <c r="B55" s="389" t="s">
+      <c r="B55" s="388" t="s">
         <v>2582</v>
       </c>
       <c r="C55" t="s">
@@ -10637,18 +10659,18 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="389" t="s">
+      <c r="A56" s="388" t="s">
         <v>2583</v>
       </c>
-      <c r="B56" s="389" t="s">
+      <c r="B56" s="388" t="s">
         <v>2584</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="389" t="s">
+      <c r="A57" s="388" t="s">
         <v>2587</v>
       </c>
-      <c r="B57" s="389" t="s">
+      <c r="B57" s="388" t="s">
         <v>2588</v>
       </c>
     </row>
@@ -10664,9 +10686,7 @@
   <sheetPr codeName="Лист24"/>
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10716,10 +10736,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="342" t="s">
+      <c r="A7" s="341" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="342" t="s">
+      <c r="B7" s="341" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10773,10 +10793,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="365" t="s">
+      <c r="A13" s="364" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="365" t="s">
+      <c r="B13" s="364" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -10784,10 +10804,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="374" t="s">
+      <c r="A14" s="373" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="374" t="s">
+      <c r="B14" s="373" t="s">
         <v>254</v>
       </c>
       <c r="C14" s="180" t="s">
@@ -10804,7 +10824,7 @@
       <c r="C15" s="180" t="s">
         <v>1743</v>
       </c>
-      <c r="D15" s="370"/>
+      <c r="D15" s="369"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="186" t="s">
@@ -10814,7 +10834,7 @@
         <v>1425</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="370"/>
+      <c r="D16" s="369"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="149" t="s">
@@ -10824,7 +10844,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="370"/>
+      <c r="D17" s="369"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="142" t="s">
@@ -10833,10 +10853,10 @@
       <c r="B18" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="372" t="s">
+      <c r="C18" s="371" t="s">
         <v>2516</v>
       </c>
-      <c r="D18" s="370"/>
+      <c r="D18" s="369"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="142" t="s">
@@ -10845,8 +10865,8 @@
       <c r="B19" s="142" t="s">
         <v>2116</v>
       </c>
-      <c r="C19" s="372"/>
-      <c r="D19" s="370"/>
+      <c r="C19" s="371"/>
+      <c r="D19" s="369"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="142" t="s">
@@ -10855,8 +10875,8 @@
       <c r="B20" s="142" t="s">
         <v>2117</v>
       </c>
-      <c r="C20" s="372"/>
-      <c r="D20" s="370"/>
+      <c r="C20" s="371"/>
+      <c r="D20" s="369"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="149" t="s">
@@ -10866,7 +10886,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="370"/>
+      <c r="D21" s="369"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="185" t="s">
@@ -10876,7 +10896,7 @@
         <v>195</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="370"/>
+      <c r="D22" s="369"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="97" t="s">
@@ -10885,7 +10905,7 @@
       <c r="B23" s="97" t="s">
         <v>481</v>
       </c>
-      <c r="C23" s="372"/>
+      <c r="C23" s="371"/>
       <c r="D23" s="180"/>
       <c r="E23" s="180"/>
       <c r="F23" s="180"/>
@@ -10899,7 +10919,7 @@
       <c r="B24" s="97" t="s">
         <v>482</v>
       </c>
-      <c r="C24" s="373"/>
+      <c r="C24" s="372"/>
       <c r="D24" s="180"/>
       <c r="E24" s="180"/>
       <c r="F24" s="180"/>
@@ -11200,10 +11220,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="366" t="s">
+      <c r="A11" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="366" t="s">
+      <c r="B11" s="365" t="s">
         <v>158</v>
       </c>
     </row>
@@ -11255,10 +11275,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="365" t="s">
+      <c r="A17" s="364" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="365" t="s">
+      <c r="B17" s="364" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -11477,10 +11497,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="366" t="s">
+      <c r="A11" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="366" t="s">
+      <c r="B11" s="365" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="26"/>
@@ -12322,10 +12342,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="366" t="s">
+      <c r="A10" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="366" t="s">
+      <c r="B10" s="365" t="s">
         <v>158</v>
       </c>
     </row>
@@ -12943,10 +12963,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="335" t="s">
+      <c r="A17" s="334" t="s">
         <v>2299</v>
       </c>
-      <c r="B17" s="335" t="s">
+      <c r="B17" s="334" t="s">
         <v>2299</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -12954,10 +12974,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="335" t="s">
+      <c r="A18" s="334" t="s">
         <v>2578</v>
       </c>
-      <c r="B18" s="335" t="s">
+      <c r="B18" s="334" t="s">
         <v>2578</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -12965,10 +12985,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="335" t="s">
+      <c r="A19" s="334" t="s">
         <v>2579</v>
       </c>
-      <c r="B19" s="335" t="s">
+      <c r="B19" s="334" t="s">
         <v>2579</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -13671,10 +13691,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="342" t="s">
+      <c r="A9" s="341" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="342" t="s">
+      <c r="B9" s="341" t="s">
         <v>158</v>
       </c>
     </row>
@@ -13723,10 +13743,10 @@
       <c r="H13" s="180"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="346" t="s">
+      <c r="A14" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="347" t="s">
+      <c r="B14" s="346" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="180" t="s">
@@ -13739,10 +13759,10 @@
       <c r="H14" s="180"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="346" t="s">
+      <c r="A15" s="345" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="347" t="s">
+      <c r="B15" s="346" t="s">
         <v>203</v>
       </c>
       <c r="C15" s="180" t="s">
@@ -13755,10 +13775,10 @@
       <c r="H15" s="180"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="346" t="s">
+      <c r="A16" s="345" t="s">
         <v>2305</v>
       </c>
-      <c r="B16" s="347" t="s">
+      <c r="B16" s="346" t="s">
         <v>2095</v>
       </c>
       <c r="C16" s="180" t="s">
@@ -14234,10 +14254,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="366" t="s">
+      <c r="A10" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="366" t="s">
+      <c r="B10" s="365" t="s">
         <v>158</v>
       </c>
     </row>
@@ -14578,7 +14598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14891,22 +14911,22 @@
 
 <file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -14914,7 +14934,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>886</v>
       </c>
@@ -14922,7 +14942,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -14930,7 +14950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -14938,7 +14958,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>240</v>
       </c>
@@ -14946,7 +14966,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
@@ -14954,7 +14974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -14962,7 +14982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -14970,167 +14990,178 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="142" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="263" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="263" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B11" s="15" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="149" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B12" s="16" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B16" s="37" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="137" t="s">
-        <v>905</v>
-      </c>
-      <c r="B16" s="137" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="137" t="s">
+        <v>905</v>
+      </c>
+      <c r="B17" s="137" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="137" t="s">
         <v>1997</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B18" s="137" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="137" t="s">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="137" t="s">
         <v>1998</v>
       </c>
-      <c r="B18" s="137" t="s">
+      <c r="B19" s="137" t="s">
         <v>1999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>897</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
+        <v>904</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
         <v>905</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B29" s="42" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="137" t="s">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="137" t="s">
         <v>1331</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B30" s="137" t="s">
         <v>1330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="323" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B30" s="323" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="323" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B31" s="323" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="323" t="s">
         <v>2254</v>
       </c>
-      <c r="B31" s="323" t="s">
+      <c r="B32" s="323" t="s">
         <v>2254</v>
       </c>
     </row>
@@ -15524,102 +15555,102 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="348" t="s">
+      <c r="A25" s="347" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="348" t="s">
+      <c r="B25" s="347" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="348" t="s">
+      <c r="C25" s="347" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="348" t="s">
+      <c r="D25" s="347" t="s">
         <v>2064</v>
       </c>
-      <c r="E25" s="348" t="s">
+      <c r="E25" s="347" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="348" t="s">
+      <c r="F25" s="347" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="349" t="s">
+      <c r="A26" s="348" t="s">
         <v>2356</v>
       </c>
-      <c r="B26" s="349" t="s">
+      <c r="B26" s="348" t="s">
         <v>2357</v>
       </c>
-      <c r="C26" s="349" t="s">
+      <c r="C26" s="348" t="s">
         <v>750</v>
       </c>
-      <c r="D26" s="349" t="s">
+      <c r="D26" s="348" t="s">
         <v>584</v>
       </c>
-      <c r="E26" s="349" t="s">
+      <c r="E26" s="348" t="s">
         <v>671</v>
       </c>
-      <c r="F26" s="349" t="s">
+      <c r="F26" s="348" t="s">
         <v>2395</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="349" t="s">
+      <c r="A27" s="348" t="s">
         <v>2358</v>
       </c>
-      <c r="B27" s="349" t="s">
+      <c r="B27" s="348" t="s">
         <v>2359</v>
       </c>
-      <c r="C27" s="349" t="s">
+      <c r="C27" s="348" t="s">
         <v>750</v>
       </c>
-      <c r="D27" s="349" t="s">
+      <c r="D27" s="348" t="s">
         <v>584</v>
       </c>
-      <c r="E27" s="349" t="s">
+      <c r="E27" s="348" t="s">
         <v>671</v>
       </c>
-      <c r="F27" s="349" t="s">
+      <c r="F27" s="348" t="s">
         <v>2395</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="349" t="s">
+      <c r="A28" s="348" t="s">
         <v>2360</v>
       </c>
-      <c r="B28" s="349" t="s">
+      <c r="B28" s="348" t="s">
         <v>2361</v>
       </c>
-      <c r="C28" s="349" t="s">
+      <c r="C28" s="348" t="s">
         <v>750</v>
       </c>
-      <c r="D28" s="349" t="s">
+      <c r="D28" s="348" t="s">
         <v>584</v>
       </c>
-      <c r="E28" s="349" t="s">
+      <c r="E28" s="348" t="s">
         <v>671</v>
       </c>
-      <c r="F28" s="349" t="s">
+      <c r="F28" s="348" t="s">
         <v>2395</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="349" t="s">
+      <c r="A29" s="348" t="s">
         <v>2362</v>
       </c>
-      <c r="B29" s="349" t="s">
+      <c r="B29" s="348" t="s">
         <v>2363</v>
       </c>
-      <c r="C29" s="349" t="s">
+      <c r="C29" s="348" t="s">
         <v>750</v>
       </c>
-      <c r="D29" s="349" t="s">
+      <c r="D29" s="348" t="s">
         <v>584</v>
       </c>
-      <c r="E29" s="349" t="s">
+      <c r="E29" s="348" t="s">
         <v>671</v>
       </c>
-      <c r="F29" s="349" t="s">
+      <c r="F29" s="348" t="s">
         <v>2395</v>
       </c>
     </row>
@@ -17642,10 +17673,10 @@
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="380" t="s">
+      <c r="A9" s="379" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="380" t="s">
+      <c r="B9" s="379" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="144" t="s">
@@ -17656,13 +17687,13 @@
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="347" t="s">
+      <c r="A10" s="346" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="347" t="s">
+      <c r="B10" s="346" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="370" t="s">
+      <c r="C10" s="369" t="s">
         <v>2532</v>
       </c>
       <c r="D10" s="22"/>
@@ -17780,7 +17811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17831,13 +17862,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="375" t="s">
+      <c r="A7" s="374" t="s">
         <v>1054</v>
       </c>
-      <c r="B7" s="375" t="s">
+      <c r="B7" s="374" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="376" t="s">
+      <c r="C7" s="375" t="s">
         <v>687</v>
       </c>
     </row>
@@ -17866,21 +17897,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="347" t="s">
+      <c r="A11" s="346" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="347" t="s">
+      <c r="B11" s="346" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="370" t="s">
+      <c r="C11" s="369" t="s">
         <v>2532</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="351" t="s">
+      <c r="A12" s="350" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="351" t="s">
+      <c r="B12" s="350" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="180" t="s">
@@ -19844,18 +19875,18 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="338" t="s">
+      <c r="A50" s="337" t="s">
         <v>2322</v>
       </c>
-      <c r="B50" s="338" t="s">
+      <c r="B50" s="337" t="s">
         <v>2322</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="338" t="s">
+      <c r="A51" s="337" t="s">
         <v>2352</v>
       </c>
-      <c r="B51" s="338" t="s">
+      <c r="B51" s="337" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -20233,10 +20264,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="363" t="s">
+      <c r="A13" s="362" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="359" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -20244,10 +20275,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="363" t="s">
+      <c r="A14" s="362" t="s">
         <v>2305</v>
       </c>
-      <c r="B14" s="360" t="s">
+      <c r="B14" s="359" t="s">
         <v>2095</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -22603,10 +22634,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="390" t="s">
+      <c r="A33" s="392" t="s">
         <v>287</v>
       </c>
-      <c r="B33" s="390" t="s">
+      <c r="B33" s="392" t="s">
         <v>288</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -22614,15 +22645,15 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="391"/>
-      <c r="B34" s="391"/>
+      <c r="A34" s="393"/>
+      <c r="B34" s="393"/>
       <c r="C34" s="22" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="392"/>
-      <c r="B35" s="392"/>
+      <c r="A35" s="394"/>
+      <c r="B35" s="394"/>
       <c r="C35" s="22" t="s">
         <v>1608</v>
       </c>
@@ -22945,13 +22976,13 @@
       <c r="B77" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="393" t="s">
+      <c r="C77" s="395" t="s">
         <v>2355</v>
       </c>
-      <c r="D77" s="394"/>
-      <c r="E77" s="394"/>
-      <c r="F77" s="394"/>
-      <c r="G77" s="394"/>
+      <c r="D77" s="396"/>
+      <c r="E77" s="396"/>
+      <c r="F77" s="396"/>
+      <c r="G77" s="396"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
@@ -26979,8 +27010,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="353"/>
-      <c r="B16" s="353"/>
+      <c r="A16" s="352"/>
+      <c r="B16" s="352"/>
       <c r="C16" t="s">
         <v>2392</v>
       </c>
@@ -27008,8 +27039,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="353"/>
-      <c r="B19" s="353"/>
+      <c r="A19" s="352"/>
+      <c r="B19" s="352"/>
       <c r="C19" t="s">
         <v>2394</v>
       </c>
@@ -27733,10 +27764,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="395" t="s">
+      <c r="A11" s="397" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="395" t="s">
+      <c r="B11" s="397" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -27744,15 +27775,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="396"/>
-      <c r="B12" s="396"/>
+      <c r="A12" s="398"/>
+      <c r="B12" s="398"/>
       <c r="C12" s="26" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="397"/>
-      <c r="B13" s="397"/>
+      <c r="A13" s="399"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="26" t="s">
         <v>1608</v>
       </c>
@@ -28084,10 +28115,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="395" t="s">
+      <c r="A14" s="397" t="s">
         <v>287</v>
       </c>
-      <c r="B14" s="395" t="s">
+      <c r="B14" s="397" t="s">
         <v>288</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -28095,15 +28126,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="396"/>
-      <c r="B15" s="396"/>
+      <c r="A15" s="398"/>
+      <c r="B15" s="398"/>
       <c r="C15" s="26" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="397"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="399"/>
+      <c r="B16" s="399"/>
       <c r="C16" s="26" t="s">
         <v>1608</v>
       </c>
@@ -29299,7 +29330,7 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист32"/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -29430,13 +29461,13 @@
       <c r="H13" s="144"/>
     </row>
     <row r="14" spans="1:8" s="327" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="234" t="s">
+      <c r="B14" s="231" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>2281</v>
       </c>
       <c r="D14" s="144"/>
@@ -29446,10 +29477,10 @@
       <c r="H14" s="144"/>
     </row>
     <row r="15" spans="1:8" s="327" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="328" t="s">
+      <c r="A15" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="328" t="s">
+      <c r="B15" s="18" t="s">
         <v>231</v>
       </c>
       <c r="C15" s="144"/>
@@ -29460,10 +29491,10 @@
       <c r="H15" s="144"/>
     </row>
     <row r="16" spans="1:8" s="327" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="16" t="s">
         <v>276</v>
       </c>
       <c r="C16" s="144"/>
@@ -29474,10 +29505,10 @@
       <c r="H16" s="144"/>
     </row>
     <row r="17" spans="1:8" s="327" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="16" t="s">
         <v>254</v>
       </c>
       <c r="C17" s="144"/>
@@ -29488,10 +29519,10 @@
       <c r="H17" s="144"/>
     </row>
     <row r="18" spans="1:8" s="327" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="65" t="s">
         <v>335</v>
       </c>
       <c r="C18" s="144"/>
@@ -29519,21 +29550,32 @@
       </c>
       <c r="C20" s="144"/>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:8" s="389" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="149" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="149" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -29637,50 +29679,50 @@
       <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="329" t="s">
+      <c r="A13" s="328" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="329" t="s">
+      <c r="B13" s="328" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="330" t="s">
+      <c r="A14" s="329" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="330" t="s">
+      <c r="B14" s="329" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="329" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="330" t="s">
+      <c r="B15" s="329" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="330" t="s">
+      <c r="A16" s="329" t="s">
         <v>1370</v>
       </c>
-      <c r="B16" s="330" t="s">
+      <c r="B16" s="329" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="330" t="s">
+      <c r="A17" s="329" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="330" t="s">
+      <c r="B17" s="329" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="330" t="s">
+      <c r="A18" s="329" t="s">
         <v>1463</v>
       </c>
-      <c r="B18" s="330" t="s">
+      <c r="B18" s="329" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -29931,114 +29973,114 @@
       <c r="B11" s="4"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="331" t="s">
+      <c r="A13" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="331" t="s">
+      <c r="B13" s="330" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="332" t="s">
+      <c r="A14" s="331" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="332" t="s">
+      <c r="B14" s="331" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="332" t="s">
+      <c r="A15" s="331" t="s">
         <v>1111</v>
       </c>
-      <c r="B15" s="332" t="s">
+      <c r="B15" s="331" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="332" t="s">
+      <c r="A16" s="331" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="332" t="s">
+      <c r="B16" s="331" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="332" t="s">
+      <c r="A17" s="331" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="332" t="s">
+      <c r="B17" s="331" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="332" t="s">
+      <c r="A18" s="331" t="s">
         <v>918</v>
       </c>
-      <c r="B18" s="332" t="s">
+      <c r="B18" s="331" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="332" t="s">
+      <c r="A19" s="331" t="s">
         <v>1122</v>
       </c>
-      <c r="B19" s="332" t="s">
+      <c r="B19" s="331" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="332" t="s">
+      <c r="A20" s="331" t="s">
         <v>2283</v>
       </c>
-      <c r="B20" s="332" t="s">
+      <c r="B20" s="331" t="s">
         <v>2283</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="332" t="s">
+      <c r="A21" s="331" t="s">
         <v>2282</v>
       </c>
-      <c r="B21" s="332" t="s">
+      <c r="B21" s="331" t="s">
         <v>2282</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="332" t="s">
+      <c r="A22" s="331" t="s">
         <v>1132</v>
       </c>
-      <c r="B22" s="332" t="s">
+      <c r="B22" s="331" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="332" t="s">
+      <c r="A23" s="331" t="s">
         <v>2284</v>
       </c>
-      <c r="B23" s="332" t="s">
+      <c r="B23" s="331" t="s">
         <v>2284</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="332" t="s">
+      <c r="A24" s="331" t="s">
         <v>2285</v>
       </c>
-      <c r="B24" s="332" t="s">
+      <c r="B24" s="331" t="s">
         <v>2285</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="332" t="s">
+      <c r="A25" s="331" t="s">
         <v>2286</v>
       </c>
-      <c r="B25" s="332" t="s">
+      <c r="B25" s="331" t="s">
         <v>2286</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="332" t="s">
+      <c r="A26" s="331" t="s">
         <v>1463</v>
       </c>
-      <c r="B26" s="332" t="s">
+      <c r="B26" s="331" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -30138,7 +30180,7 @@
       <c r="B10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="368" t="s">
+      <c r="C10" s="367" t="s">
         <v>687</v>
       </c>
     </row>
@@ -30159,13 +30201,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="382" t="s">
+      <c r="A13" s="381" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="382" t="s">
+      <c r="B13" s="381" t="s">
         <v>2550</v>
       </c>
-      <c r="C13" s="370" t="s">
+      <c r="C13" s="369" t="s">
         <v>2442</v>
       </c>
     </row>
@@ -30176,10 +30218,10 @@
       <c r="B14" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="C14" s="368"/>
-      <c r="D14" s="368"/>
-      <c r="E14" s="368"/>
-      <c r="F14" s="368"/>
+      <c r="C14" s="367"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="367"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
@@ -30188,10 +30230,10 @@
       <c r="B15" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C15" s="368"/>
-      <c r="D15" s="368"/>
-      <c r="E15" s="368"/>
-      <c r="F15" s="368"/>
+      <c r="C15" s="367"/>
+      <c r="D15" s="367"/>
+      <c r="E15" s="367"/>
+      <c r="F15" s="367"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -30206,8 +30248,8 @@
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="383"/>
-      <c r="B18" s="383"/>
+      <c r="A18" s="382"/>
+      <c r="B18" s="382"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="125" t="s">
@@ -30234,7 +30276,7 @@
       <c r="A23" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="B23" s="384" t="s">
+      <c r="B23" s="383" t="s">
         <v>334</v>
       </c>
     </row>
@@ -30274,7 +30316,7 @@
       <c r="A28" s="95" t="s">
         <v>1698</v>
       </c>
-      <c r="B28" s="384" t="s">
+      <c r="B28" s="383" t="s">
         <v>1699</v>
       </c>
     </row>
@@ -30282,7 +30324,7 @@
       <c r="A29" s="95" t="s">
         <v>975</v>
       </c>
-      <c r="B29" s="384" t="s">
+      <c r="B29" s="383" t="s">
         <v>977</v>
       </c>
     </row>
@@ -30789,26 +30831,26 @@
       <c r="F12" s="153"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="359"/>
-      <c r="B13" s="359"/>
-      <c r="C13" s="361"/>
-      <c r="D13" s="361"/>
-      <c r="E13" s="361"/>
-      <c r="F13" s="361"/>
+      <c r="A13" s="358"/>
+      <c r="B13" s="358"/>
+      <c r="C13" s="360"/>
+      <c r="D13" s="360"/>
+      <c r="E13" s="360"/>
+      <c r="F13" s="360"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="362" t="s">
+      <c r="A14" s="361" t="s">
         <v>1800</v>
       </c>
-      <c r="B14" s="362" t="s">
+      <c r="B14" s="361" t="s">
         <v>1799</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>1830</v>
       </c>
-      <c r="D14" s="361"/>
-      <c r="E14" s="361"/>
-      <c r="F14" s="361"/>
+      <c r="D14" s="360"/>
+      <c r="E14" s="360"/>
+      <c r="F14" s="360"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="281" t="s">
@@ -30825,26 +30867,26 @@
       <c r="F15" s="235"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="363"/>
-      <c r="B16" s="363"/>
+      <c r="A16" s="362"/>
+      <c r="B16" s="362"/>
       <c r="C16" s="321"/>
-      <c r="D16" s="361"/>
-      <c r="E16" s="361"/>
-      <c r="F16" s="361"/>
+      <c r="D16" s="360"/>
+      <c r="E16" s="360"/>
+      <c r="F16" s="360"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="363" t="s">
+      <c r="A17" s="362" t="s">
         <v>2436</v>
       </c>
-      <c r="B17" s="363" t="s">
+      <c r="B17" s="362" t="s">
         <v>2435</v>
       </c>
       <c r="C17" s="321" t="s">
         <v>2444</v>
       </c>
-      <c r="D17" s="361"/>
-      <c r="E17" s="361"/>
-      <c r="F17" s="361"/>
+      <c r="D17" s="360"/>
+      <c r="E17" s="360"/>
+      <c r="F17" s="360"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="150" t="s">
@@ -30856,17 +30898,17 @@
       <c r="C18" s="321" t="s">
         <v>2444</v>
       </c>
-      <c r="D18" s="361"/>
-      <c r="E18" s="361"/>
-      <c r="F18" s="361"/>
+      <c r="D18" s="360"/>
+      <c r="E18" s="360"/>
+      <c r="F18" s="360"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="341"/>
-      <c r="B19" s="341"/>
+      <c r="A19" s="340"/>
+      <c r="B19" s="340"/>
       <c r="C19" s="321"/>
-      <c r="D19" s="361"/>
-      <c r="E19" s="361"/>
-      <c r="F19" s="361"/>
+      <c r="D19" s="360"/>
+      <c r="E19" s="360"/>
+      <c r="F19" s="360"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -30940,7 +30982,7 @@
       <c r="B34" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="361"/>
+      <c r="C34" s="360"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
@@ -30949,7 +30991,7 @@
       <c r="B35" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C35" s="361"/>
+      <c r="C35" s="360"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
@@ -30958,7 +31000,7 @@
       <c r="B36" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C36" s="361"/>
+      <c r="C36" s="360"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
@@ -30967,7 +31009,7 @@
       <c r="B37" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="361"/>
+      <c r="C37" s="360"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
@@ -30976,7 +31018,7 @@
       <c r="B38" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="361"/>
+      <c r="C38" s="360"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
@@ -30985,7 +31027,7 @@
       <c r="B39" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="361" t="s">
+      <c r="C39" s="360" t="s">
         <v>1846</v>
       </c>
     </row>
@@ -30996,7 +31038,7 @@
       <c r="B40" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="361"/>
+      <c r="C40" s="360"/>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="237" t="s">
@@ -31005,7 +31047,7 @@
       <c r="B41" s="237" t="s">
         <v>385</v>
       </c>
-      <c r="C41" s="361"/>
+      <c r="C41" s="360"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="144" t="s">
@@ -31143,7 +31185,9 @@
   <sheetPr codeName="Лист17"/>
   <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -33154,106 +33198,106 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="339" t="s">
+      <c r="A16" s="338" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="339" t="s">
+      <c r="B16" s="338" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="340" t="s">
+      <c r="A17" s="339" t="s">
         <v>780</v>
       </c>
-      <c r="B17" s="340" t="s">
+      <c r="B17" s="339" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="340" t="s">
+      <c r="A18" s="339" t="s">
         <v>782</v>
       </c>
-      <c r="B18" s="340" t="s">
+      <c r="B18" s="339" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="340" t="s">
+      <c r="A19" s="339" t="s">
         <v>784</v>
       </c>
-      <c r="B19" s="340" t="s">
+      <c r="B19" s="339" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="340" t="s">
+      <c r="A20" s="339" t="s">
         <v>785</v>
       </c>
-      <c r="B20" s="340" t="s">
+      <c r="B20" s="339" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="340" t="s">
+      <c r="A21" s="339" t="s">
         <v>787</v>
       </c>
-      <c r="B21" s="340" t="s">
+      <c r="B21" s="339" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="340" t="s">
+      <c r="A22" s="339" t="s">
         <v>788</v>
       </c>
-      <c r="B22" s="340" t="s">
+      <c r="B22" s="339" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="340" t="s">
+      <c r="A23" s="339" t="s">
         <v>790</v>
       </c>
-      <c r="B23" s="340" t="s">
+      <c r="B23" s="339" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="340" t="s">
+      <c r="A24" s="339" t="s">
         <v>792</v>
       </c>
-      <c r="B24" s="340" t="s">
+      <c r="B24" s="339" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="340" t="s">
+      <c r="A25" s="339" t="s">
         <v>793</v>
       </c>
-      <c r="B25" s="340" t="s">
+      <c r="B25" s="339" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="340" t="s">
+      <c r="A26" s="339" t="s">
         <v>794</v>
       </c>
-      <c r="B26" s="340" t="s">
+      <c r="B26" s="339" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="340" t="s">
+      <c r="A27" s="339" t="s">
         <v>796</v>
       </c>
-      <c r="B27" s="340" t="s">
+      <c r="B27" s="339" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="340" t="s">
+      <c r="A28" s="339" t="s">
         <v>2324</v>
       </c>
-      <c r="B28" s="340" t="s">
+      <c r="B28" s="339" t="s">
         <v>2325</v>
       </c>
       <c r="C28" t="s">
@@ -33261,10 +33305,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="340" t="s">
+      <c r="A29" s="339" t="s">
         <v>2326</v>
       </c>
-      <c r="B29" s="340" t="s">
+      <c r="B29" s="339" t="s">
         <v>2327</v>
       </c>
       <c r="C29" t="s">
@@ -33272,10 +33316,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="340" t="s">
+      <c r="A30" s="339" t="s">
         <v>2328</v>
       </c>
-      <c r="B30" s="340" t="s">
+      <c r="B30" s="339" t="s">
         <v>2329</v>
       </c>
       <c r="C30" t="s">
@@ -33283,10 +33327,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="340" t="s">
+      <c r="A31" s="339" t="s">
         <v>2330</v>
       </c>
-      <c r="B31" s="340" t="s">
+      <c r="B31" s="339" t="s">
         <v>2331</v>
       </c>
       <c r="C31" t="s">
@@ -33294,42 +33338,42 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="340" t="s">
+      <c r="A32" s="339" t="s">
         <v>1468</v>
       </c>
-      <c r="B32" s="340" t="s">
+      <c r="B32" s="339" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="340" t="s">
+      <c r="A33" s="339" t="s">
         <v>1469</v>
       </c>
-      <c r="B33" s="340" t="s">
+      <c r="B33" s="339" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="340" t="s">
+      <c r="A34" s="339" t="s">
         <v>1470</v>
       </c>
-      <c r="B34" s="340" t="s">
+      <c r="B34" s="339" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="340" t="s">
+      <c r="A35" s="339" t="s">
         <v>2332</v>
       </c>
-      <c r="B35" s="340" t="s">
+      <c r="B35" s="339" t="s">
         <v>2332</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="340" t="s">
+      <c r="A36" s="339" t="s">
         <v>2323</v>
       </c>
-      <c r="B36" s="340" t="s">
+      <c r="B36" s="339" t="s">
         <v>2323</v>
       </c>
     </row>
@@ -33453,58 +33497,58 @@
       <c r="B13" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="336" t="s">
+      <c r="A15" s="335" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B15" s="335" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="337" t="s">
+      <c r="A16" s="336" t="s">
         <v>2312</v>
       </c>
-      <c r="B16" s="337" t="s">
+      <c r="B16" s="336" t="s">
         <v>2313</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="337" t="s">
+      <c r="A17" s="336" t="s">
         <v>2314</v>
       </c>
-      <c r="B17" s="337" t="s">
+      <c r="B17" s="336" t="s">
         <v>2314</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="337" t="s">
+      <c r="A18" s="336" t="s">
         <v>2315</v>
       </c>
-      <c r="B18" s="337" t="s">
+      <c r="B18" s="336" t="s">
         <v>2315</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="337" t="s">
+      <c r="A19" s="336" t="s">
         <v>2316</v>
       </c>
-      <c r="B19" s="337" t="s">
+      <c r="B19" s="336" t="s">
         <v>2317</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="337" t="s">
+      <c r="A20" s="336" t="s">
         <v>2318</v>
       </c>
-      <c r="B20" s="337" t="s">
+      <c r="B20" s="336" t="s">
         <v>2319</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="337" t="s">
+      <c r="A21" s="336" t="s">
         <v>2320</v>
       </c>
-      <c r="B21" s="337" t="s">
+      <c r="B21" s="336" t="s">
         <v>2321</v>
       </c>
     </row>
@@ -33936,9 +33980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C23"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -34336,10 +34378,10 @@
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="345" t="s">
+      <c r="A14" s="344" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="345" t="s">
+      <c r="B14" s="344" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -35469,8 +35511,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="381"/>
-      <c r="B20" s="381"/>
+      <c r="A20" s="380"/>
+      <c r="B20" s="380"/>
       <c r="C20" t="s">
         <v>1389</v>
       </c>
@@ -35993,10 +36035,10 @@
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="374" t="s">
+      <c r="A13" s="373" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="374" t="s">
+      <c r="B13" s="373" t="s">
         <v>188</v>
       </c>
       <c r="C13" s="180" t="s">
@@ -36036,10 +36078,10 @@
       <c r="H15" s="180"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="371" t="s">
+      <c r="A16" s="370" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="371" t="s">
+      <c r="B16" s="370" t="s">
         <v>203</v>
       </c>
       <c r="C16" s="180" t="s">
@@ -36052,10 +36094,10 @@
       <c r="H16" s="180"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="371" t="s">
+      <c r="A17" s="370" t="s">
         <v>2305</v>
       </c>
-      <c r="B17" s="371" t="s">
+      <c r="B17" s="370" t="s">
         <v>2095</v>
       </c>
       <c r="C17" s="180" t="s">
@@ -36068,10 +36110,10 @@
       <c r="H17" s="180"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="371" t="s">
+      <c r="A18" s="370" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="371" t="s">
+      <c r="B18" s="370" t="s">
         <v>267</v>
       </c>
       <c r="C18" s="180" t="s">
@@ -36084,10 +36126,10 @@
       <c r="H18" s="180"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="371" t="s">
+      <c r="A19" s="370" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="371" t="s">
+      <c r="B19" s="370" t="s">
         <v>269</v>
       </c>
       <c r="C19" s="180" t="s">
@@ -36100,10 +36142,10 @@
       <c r="H19" s="180"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="371" t="s">
+      <c r="A20" s="370" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="371" t="s">
+      <c r="B20" s="370" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="180" t="s">
@@ -36897,10 +36939,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="346" t="s">
+      <c r="A11" s="345" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="346" t="s">
+      <c r="B11" s="345" t="s">
         <v>70</v>
       </c>
     </row>
@@ -36957,18 +36999,18 @@
       <c r="F16" s="180"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="346" t="s">
+      <c r="A17" s="345" t="s">
         <v>666</v>
       </c>
-      <c r="B17" s="346" t="s">
+      <c r="B17" s="345" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="378" t="s">
+      <c r="C17" s="377" t="s">
         <v>1029</v>
       </c>
-      <c r="D17" s="377"/>
-      <c r="E17" s="377"/>
-      <c r="F17" s="377"/>
+      <c r="D17" s="376"/>
+      <c r="E17" s="376"/>
+      <c r="F17" s="376"/>
       <c r="G17" s="180"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -39513,10 +39555,10 @@
       <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="346" t="s">
+      <c r="A16" s="345" t="s">
         <v>2305</v>
       </c>
-      <c r="B16" s="347" t="s">
+      <c r="B16" s="346" t="s">
         <v>2095</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -39753,9 +39795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -40996,77 +41036,77 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="385" t="s">
+      <c r="A17" s="384" t="s">
         <v>2297</v>
       </c>
-      <c r="B17" s="385" t="s">
+      <c r="B17" s="384" t="s">
         <v>1425</v>
       </c>
-      <c r="C17" s="370" t="s">
+      <c r="C17" s="369" t="s">
         <v>2298</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="386" t="s">
+      <c r="A18" s="385" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="386" t="s">
+      <c r="B18" s="385" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="370" t="s">
+      <c r="C18" s="369" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="385" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="386" t="s">
+      <c r="B19" s="385" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="370" t="s">
+      <c r="C19" s="369" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="386" t="s">
+      <c r="A20" s="385" t="s">
         <v>2114</v>
       </c>
-      <c r="B20" s="386" t="s">
+      <c r="B20" s="385" t="s">
         <v>2116</v>
       </c>
-      <c r="C20" s="370" t="s">
+      <c r="C20" s="369" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="386" t="s">
+      <c r="A21" s="385" t="s">
         <v>2115</v>
       </c>
-      <c r="B21" s="386" t="s">
+      <c r="B21" s="385" t="s">
         <v>2117</v>
       </c>
-      <c r="C21" s="370" t="s">
+      <c r="C21" s="369" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="386" t="s">
+      <c r="A22" s="385" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="386" t="s">
+      <c r="B22" s="385" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="370"/>
+      <c r="C22" s="369"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="347" t="s">
+      <c r="A23" s="346" t="s">
         <v>923</v>
       </c>
-      <c r="B23" s="386" t="s">
+      <c r="B23" s="385" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="370"/>
+      <c r="C23" s="369"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="240" t="s">
@@ -42263,10 +42303,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="341" t="s">
+      <c r="A13" s="340" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="341" t="s">
+      <c r="B13" s="340" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -43252,9 +43292,11 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -43556,6 +43598,22 @@
         <v>553</v>
       </c>
     </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="391" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B39" s="391" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="391" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B40" s="391" t="s">
+        <v>2602</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -43565,7 +43623,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -43691,7 +43749,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="299" t="s">
         <v>1122</v>
       </c>
@@ -43699,7 +43757,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="299" t="s">
         <v>1106</v>
       </c>
@@ -43707,7 +43765,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="299" t="s">
         <v>1126</v>
       </c>
@@ -43715,7 +43773,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="299" t="s">
         <v>1106</v>
       </c>
@@ -43723,7 +43781,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="299" t="s">
         <v>1126</v>
       </c>
@@ -43731,7 +43789,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="299" t="s">
         <v>2042</v>
       </c>
@@ -43739,7 +43797,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="299" t="s">
         <v>2044</v>
       </c>
@@ -43747,7 +43805,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="299" t="s">
         <v>2045</v>
       </c>
@@ -43755,7 +43813,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="299" t="s">
         <v>2047</v>
       </c>
@@ -43763,7 +43821,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="299" t="s">
         <v>2049</v>
       </c>
@@ -43771,7 +43829,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="299" t="s">
         <v>1651</v>
       </c>
@@ -43779,7 +43837,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="299" t="s">
         <v>1649</v>
       </c>
@@ -43787,12 +43845,23 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="299" t="s">
         <v>1373</v>
       </c>
       <c r="B29" s="299" t="s">
         <v>1373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="390" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B30" s="390" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2603</v>
       </c>
     </row>
   </sheetData>
@@ -43805,7 +43874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44266,10 +44335,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="365" t="s">
+      <c r="A11" s="364" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="365" t="s">
+      <c r="B11" s="364" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -44798,56 +44867,56 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="356" t="s">
+      <c r="A19" s="355" t="s">
         <v>2402</v>
       </c>
-      <c r="B19" s="356" t="s">
+      <c r="B19" s="355" t="s">
         <v>2414</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="357" t="s">
+      <c r="A20" s="356" t="s">
         <v>2403</v>
       </c>
-      <c r="B20" s="357" t="s">
+      <c r="B20" s="356" t="s">
         <v>2403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="358"/>
-      <c r="B21" s="358"/>
+      <c r="A21" s="357"/>
+      <c r="B21" s="357"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="358"/>
-      <c r="B22" s="358"/>
+      <c r="A22" s="357"/>
+      <c r="B22" s="357"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="358"/>
-      <c r="B23" s="358"/>
+      <c r="A23" s="357"/>
+      <c r="B23" s="357"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="358"/>
-      <c r="B24" s="358"/>
+      <c r="A24" s="357"/>
+      <c r="B24" s="357"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="358"/>
-      <c r="B25" s="358"/>
+      <c r="A25" s="357"/>
+      <c r="B25" s="357"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="358"/>
-      <c r="B26" s="358"/>
+      <c r="A26" s="357"/>
+      <c r="B26" s="357"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="358"/>
-      <c r="B27" s="358"/>
+      <c r="A27" s="357"/>
+      <c r="B27" s="357"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="358"/>
-      <c r="B28" s="358"/>
+      <c r="A28" s="357"/>
+      <c r="B28" s="357"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="358"/>
-      <c r="B29" s="358"/>
+      <c r="A29" s="357"/>
+      <c r="B29" s="357"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -45197,10 +45266,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="366" t="s">
+      <c r="A8" s="365" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="366" t="s">
+      <c r="B8" s="365" t="s">
         <v>158</v>
       </c>
     </row>
@@ -45247,10 +45316,10 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="365" t="s">
+      <c r="A13" s="364" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="365" t="s">
+      <c r="B13" s="364" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -47606,10 +47675,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="355" t="s">
+      <c r="A20" s="354" t="s">
         <v>2202</v>
       </c>
-      <c r="B20" s="355" t="s">
+      <c r="B20" s="354" t="s">
         <v>2203</v>
       </c>
     </row>
@@ -47646,18 +47715,18 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="354" t="s">
+      <c r="A25" s="353" t="s">
         <v>2401</v>
       </c>
-      <c r="B25" s="354" t="s">
+      <c r="B25" s="353" t="s">
         <v>2401</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="354" t="s">
+      <c r="A26" s="353" t="s">
         <v>1732</v>
       </c>
-      <c r="B26" s="354" t="s">
+      <c r="B26" s="353" t="s">
         <v>1732</v>
       </c>
     </row>
@@ -48031,10 +48100,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="360" t="s">
+      <c r="A13" s="359" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="360" t="s">
+      <c r="B13" s="359" t="s">
         <v>267</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -48132,10 +48201,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="352" t="s">
+      <c r="A26" s="351" t="s">
         <v>2370</v>
       </c>
-      <c r="B26" s="352" t="s">
+      <c r="B26" s="351" t="s">
         <v>2371</v>
       </c>
     </row>
@@ -49005,10 +49074,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="333" t="s">
+      <c r="A26" s="332" t="s">
         <v>2290</v>
       </c>
-      <c r="B26" s="333" t="s">
+      <c r="B26" s="332" t="s">
         <v>2289</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -49016,10 +49085,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="390" t="s">
+      <c r="A27" s="392" t="s">
         <v>287</v>
       </c>
-      <c r="B27" s="390" t="s">
+      <c r="B27" s="392" t="s">
         <v>288</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -49027,15 +49096,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="391"/>
-      <c r="B28" s="391"/>
+      <c r="A28" s="393"/>
+      <c r="B28" s="393"/>
       <c r="C28" s="22" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="392"/>
-      <c r="B29" s="392"/>
+      <c r="A29" s="394"/>
+      <c r="B29" s="394"/>
       <c r="C29" s="22" t="s">
         <v>1608</v>
       </c>
@@ -49118,7 +49187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49201,43 +49270,43 @@
       <c r="I7" s="285"/>
     </row>
     <row r="8" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="351"/>
-      <c r="B8" s="351"/>
+      <c r="A8" s="350"/>
+      <c r="B8" s="350"/>
       <c r="C8" s="180" t="s">
         <v>2365</v>
       </c>
-      <c r="D8" s="350"/>
-      <c r="E8" s="350"/>
-      <c r="F8" s="350"/>
-      <c r="G8" s="350"/>
-      <c r="H8" s="350"/>
-      <c r="I8" s="350"/>
+      <c r="D8" s="349"/>
+      <c r="E8" s="349"/>
+      <c r="F8" s="349"/>
+      <c r="G8" s="349"/>
+      <c r="H8" s="349"/>
+      <c r="I8" s="349"/>
     </row>
     <row r="9" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="350"/>
+      <c r="B9" s="350"/>
       <c r="C9" s="180" t="s">
         <v>2366</v>
       </c>
-      <c r="D9" s="350"/>
-      <c r="E9" s="350"/>
-      <c r="F9" s="350"/>
-      <c r="G9" s="350"/>
-      <c r="H9" s="350"/>
-      <c r="I9" s="350"/>
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="349"/>
     </row>
     <row r="10" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="351"/>
-      <c r="B10" s="351"/>
+      <c r="A10" s="350"/>
+      <c r="B10" s="350"/>
       <c r="C10" s="180" t="s">
         <v>2367</v>
       </c>
-      <c r="D10" s="350"/>
-      <c r="E10" s="350"/>
-      <c r="F10" s="350"/>
-      <c r="G10" s="350"/>
-      <c r="H10" s="350"/>
-      <c r="I10" s="350"/>
+      <c r="D10" s="349"/>
+      <c r="E10" s="349"/>
+      <c r="F10" s="349"/>
+      <c r="G10" s="349"/>
+      <c r="H10" s="349"/>
+      <c r="I10" s="349"/>
     </row>
     <row r="11" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="70" t="s">
@@ -49370,13 +49439,13 @@
       <c r="B19" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="C19" s="334"/>
-      <c r="D19" s="334"/>
-      <c r="E19" s="334"/>
-      <c r="F19" s="334"/>
-      <c r="G19" s="334"/>
-      <c r="H19" s="334"/>
-      <c r="I19" s="334"/>
+      <c r="C19" s="333"/>
+      <c r="D19" s="333"/>
+      <c r="E19" s="333"/>
+      <c r="F19" s="333"/>
+      <c r="G19" s="333"/>
+      <c r="H19" s="333"/>
+      <c r="I19" s="333"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
@@ -49403,12 +49472,12 @@
         <v>229</v>
       </c>
       <c r="C21" s="180"/>
-      <c r="D21" s="334"/>
-      <c r="E21" s="334"/>
-      <c r="F21" s="334"/>
-      <c r="G21" s="334"/>
-      <c r="H21" s="334"/>
-      <c r="I21" s="334"/>
+      <c r="D21" s="333"/>
+      <c r="E21" s="333"/>
+      <c r="F21" s="333"/>
+      <c r="G21" s="333"/>
+      <c r="H21" s="333"/>
+      <c r="I21" s="333"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -49443,21 +49512,21 @@
       <c r="I23" s="285"/>
     </row>
     <row r="24" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="369" t="s">
+      <c r="A24" s="368" t="s">
         <v>2118</v>
       </c>
-      <c r="B24" s="369" t="s">
+      <c r="B24" s="368" t="s">
         <v>1660</v>
       </c>
       <c r="C24" s="180" t="s">
         <v>2119</v>
       </c>
-      <c r="D24" s="364"/>
-      <c r="E24" s="364"/>
-      <c r="F24" s="364"/>
-      <c r="G24" s="364"/>
-      <c r="H24" s="364"/>
-      <c r="I24" s="364"/>
+      <c r="D24" s="363"/>
+      <c r="E24" s="363"/>
+      <c r="F24" s="363"/>
+      <c r="G24" s="363"/>
+      <c r="H24" s="363"/>
+      <c r="I24" s="363"/>
     </row>
     <row r="25" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="263" t="s">
@@ -49469,12 +49538,12 @@
       <c r="C25" s="26" t="s">
         <v>2298</v>
       </c>
-      <c r="D25" s="368"/>
-      <c r="E25" s="368"/>
-      <c r="F25" s="368"/>
-      <c r="G25" s="368"/>
-      <c r="H25" s="368"/>
-      <c r="I25" s="368"/>
+      <c r="D25" s="367"/>
+      <c r="E25" s="367"/>
+      <c r="F25" s="367"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="367"/>
+      <c r="I25" s="367"/>
     </row>
     <row r="26" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="142" t="s">
@@ -49486,12 +49555,12 @@
       <c r="C26" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="368"/>
-      <c r="E26" s="368"/>
-      <c r="F26" s="368"/>
-      <c r="G26" s="368"/>
-      <c r="H26" s="368"/>
-      <c r="I26" s="368"/>
+      <c r="D26" s="367"/>
+      <c r="E26" s="367"/>
+      <c r="F26" s="367"/>
+      <c r="G26" s="367"/>
+      <c r="H26" s="367"/>
+      <c r="I26" s="367"/>
     </row>
     <row r="27" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="142" t="s">
@@ -49501,12 +49570,12 @@
         <v>124</v>
       </c>
       <c r="C27" s="26"/>
-      <c r="D27" s="368"/>
-      <c r="E27" s="368"/>
-      <c r="F27" s="368"/>
-      <c r="G27" s="368"/>
-      <c r="H27" s="368"/>
-      <c r="I27" s="368"/>
+      <c r="D27" s="367"/>
+      <c r="E27" s="367"/>
+      <c r="F27" s="367"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="367"/>
+      <c r="I27" s="367"/>
     </row>
     <row r="28" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="185" t="s">
@@ -49516,12 +49585,12 @@
         <v>861</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="368"/>
-      <c r="E28" s="368"/>
-      <c r="F28" s="368"/>
-      <c r="G28" s="368"/>
-      <c r="H28" s="368"/>
-      <c r="I28" s="368"/>
+      <c r="D28" s="367"/>
+      <c r="E28" s="367"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="367"/>
+      <c r="I28" s="367"/>
     </row>
     <row r="29" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="142" t="s">
@@ -49533,12 +49602,12 @@
       <c r="C29" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="368"/>
-      <c r="E29" s="368"/>
-      <c r="F29" s="368"/>
-      <c r="G29" s="368"/>
-      <c r="H29" s="368"/>
-      <c r="I29" s="368"/>
+      <c r="D29" s="367"/>
+      <c r="E29" s="367"/>
+      <c r="F29" s="367"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="367"/>
+      <c r="I29" s="367"/>
     </row>
     <row r="30" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="142" t="s">
@@ -49550,12 +49619,12 @@
       <c r="C30" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="368"/>
-      <c r="E30" s="368"/>
-      <c r="F30" s="368"/>
-      <c r="G30" s="368"/>
-      <c r="H30" s="368"/>
-      <c r="I30" s="368"/>
+      <c r="D30" s="367"/>
+      <c r="E30" s="367"/>
+      <c r="F30" s="367"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="367"/>
+      <c r="I30" s="367"/>
     </row>
     <row r="31" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="142" t="s">
@@ -49567,12 +49636,12 @@
       <c r="C31" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="368"/>
-      <c r="E31" s="368"/>
-      <c r="F31" s="368"/>
-      <c r="G31" s="368"/>
-      <c r="H31" s="368"/>
-      <c r="I31" s="368"/>
+      <c r="D31" s="367"/>
+      <c r="E31" s="367"/>
+      <c r="F31" s="367"/>
+      <c r="G31" s="367"/>
+      <c r="H31" s="367"/>
+      <c r="I31" s="367"/>
     </row>
     <row r="32" spans="1:9" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="185" t="s">
@@ -49582,12 +49651,12 @@
         <v>195</v>
       </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="368"/>
-      <c r="E32" s="368"/>
-      <c r="F32" s="368"/>
-      <c r="G32" s="368"/>
-      <c r="H32" s="368"/>
-      <c r="I32" s="368"/>
+      <c r="D32" s="367"/>
+      <c r="E32" s="367"/>
+      <c r="F32" s="367"/>
+      <c r="G32" s="367"/>
+      <c r="H32" s="367"/>
+      <c r="I32" s="367"/>
     </row>
     <row r="33" spans="1:3" s="125" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
@@ -49922,10 +49991,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="360" t="s">
+      <c r="A10" s="359" t="s">
         <v>2544</v>
       </c>
-      <c r="B10" s="360" t="s">
+      <c r="B10" s="359" t="s">
         <v>2536</v>
       </c>
     </row>
@@ -50099,7 +50168,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="189" t="s">
         <v>1680</v>
       </c>
@@ -50107,7 +50176,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="189" t="s">
         <v>1682</v>
       </c>
@@ -50115,7 +50184,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="189" t="s">
         <v>1684</v>
       </c>
@@ -50123,7 +50192,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="189" t="s">
         <v>1686</v>
       </c>
@@ -50131,7 +50200,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>2474</v>
       </c>
@@ -50139,7 +50208,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>2477</v>
       </c>
@@ -50147,7 +50216,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>2478</v>
       </c>
@@ -50155,7 +50224,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="258" t="s">
         <v>2479</v>
       </c>
@@ -50163,7 +50232,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>1362</v>
       </c>
@@ -50171,7 +50240,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="66" t="s">
         <v>925</v>
       </c>
@@ -50179,7 +50248,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>2497</v>
       </c>
@@ -50187,7 +50256,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>2499</v>
       </c>
@@ -50195,7 +50264,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>2511</v>
       </c>
@@ -50203,7 +50272,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>2513</v>
       </c>
@@ -50211,15 +50280,18 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>2523</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>2523</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>2529</v>
       </c>
@@ -50498,7 +50570,7 @@
       <c r="A82" s="177" t="s">
         <v>2123</v>
       </c>
-      <c r="B82" s="379" t="s">
+      <c r="B82" s="378" t="s">
         <v>2125</v>
       </c>
     </row>
@@ -50519,74 +50591,74 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="387" t="s">
+      <c r="A85" s="386" t="s">
         <v>581</v>
       </c>
-      <c r="B85" s="387" t="s">
+      <c r="B85" s="386" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="387" t="s">
+      <c r="A86" s="386" t="s">
         <v>582</v>
       </c>
-      <c r="B86" s="387" t="s">
+      <c r="B86" s="386" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="387" t="s">
+      <c r="A87" s="386" t="s">
         <v>583</v>
       </c>
-      <c r="B87" s="387" t="s">
+      <c r="B87" s="386" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="387" t="s">
+      <c r="A88" s="386" t="s">
         <v>1861</v>
       </c>
-      <c r="B88" s="387" t="s">
+      <c r="B88" s="386" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="387" t="s">
+      <c r="A89" s="386" t="s">
         <v>1862</v>
       </c>
-      <c r="B89" s="387" t="s">
+      <c r="B89" s="386" t="s">
         <v>1862</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="387" t="s">
+      <c r="A90" s="386" t="s">
         <v>2592</v>
       </c>
-      <c r="B90" s="387" t="s">
+      <c r="B90" s="386" t="s">
         <v>2596</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="387" t="s">
+      <c r="A91" s="386" t="s">
         <v>2593</v>
       </c>
-      <c r="B91" s="387" t="s">
+      <c r="B91" s="386" t="s">
         <v>2597</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="387" t="s">
+      <c r="A92" s="386" t="s">
         <v>2594</v>
       </c>
-      <c r="B92" s="387" t="s">
+      <c r="B92" s="386" t="s">
         <v>2598</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="387" t="s">
+      <c r="A93" s="386" t="s">
         <v>2595</v>
       </c>
-      <c r="B93" s="387" t="s">
+      <c r="B93" s="386" t="s">
         <v>2599</v>
       </c>
     </row>
@@ -50836,18 +50908,18 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="387" t="s">
+      <c r="A26" s="386" t="s">
         <v>1861</v>
       </c>
-      <c r="B26" s="387" t="s">
+      <c r="B26" s="386" t="s">
         <v>1861</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="387" t="s">
+      <c r="A27" s="386" t="s">
         <v>1862</v>
       </c>
-      <c r="B27" s="387" t="s">
+      <c r="B27" s="386" t="s">
         <v>1862</v>
       </c>
     </row>
@@ -50943,15 +51015,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="342" t="s">
+      <c r="A10" s="341" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="342" t="s">
+      <c r="B10" s="341" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="343" t="s">
+      <c r="A11" s="342" t="s">
         <v>2346</v>
       </c>
       <c r="B11" s="97" t="s">
@@ -50980,10 +51052,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="365" t="s">
+      <c r="A14" s="364" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="364" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -51024,10 +51096,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="344" t="s">
+      <c r="A18" s="343" t="s">
         <v>2347</v>
       </c>
-      <c r="B18" s="344" t="s">
+      <c r="B18" s="343" t="s">
         <v>1425</v>
       </c>
       <c r="C18" s="180" t="s">
@@ -51046,7 +51118,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="343" t="s">
+      <c r="A20" s="342" t="s">
         <v>2346</v>
       </c>
       <c r="B20" s="97" t="s">

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="68" activeTab="71"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="85" activeTab="87"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -8729,7 +8729,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9398,12 +9398,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9635,9 +9629,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9687,6 +9678,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10325,15 +10328,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="333" t="s">
+      <c r="A10" s="331" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="333" t="s">
+      <c r="B10" s="331" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="334" t="s">
+      <c r="A11" s="332" t="s">
         <v>2316</v>
       </c>
       <c r="B11" s="96" t="s">
@@ -10362,10 +10365,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="355" t="s">
+      <c r="A14" s="353" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="355" t="s">
+      <c r="B14" s="353" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -10406,10 +10409,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="335" t="s">
+      <c r="A18" s="333" t="s">
         <v>2317</v>
       </c>
-      <c r="B18" s="335" t="s">
+      <c r="B18" s="333" t="s">
         <v>1410</v>
       </c>
       <c r="C18" s="179" t="s">
@@ -10428,7 +10431,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="334" t="s">
+      <c r="A20" s="332" t="s">
         <v>2316</v>
       </c>
       <c r="B20" s="96" t="s">
@@ -10667,10 +10670,10 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="357" t="s">
+      <c r="A18" s="355" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="357" t="s">
+      <c r="B18" s="355" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -10678,10 +10681,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="355" t="s">
+      <c r="A19" s="353" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="355" t="s">
+      <c r="B19" s="353" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -10911,10 +10914,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="378" t="s">
+      <c r="A45" s="376" t="s">
         <v>525</v>
       </c>
-      <c r="B45" s="378" t="s">
+      <c r="B45" s="376" t="s">
         <v>526</v>
       </c>
       <c r="C45" t="s">
@@ -10922,10 +10925,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="378" t="s">
+      <c r="A46" s="376" t="s">
         <v>2552</v>
       </c>
-      <c r="B46" s="378" t="s">
+      <c r="B46" s="376" t="s">
         <v>2553</v>
       </c>
     </row>
@@ -10994,10 +10997,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="379" t="s">
+      <c r="A55" s="377" t="s">
         <v>2421</v>
       </c>
-      <c r="B55" s="379" t="s">
+      <c r="B55" s="377" t="s">
         <v>2549</v>
       </c>
       <c r="C55" t="s">
@@ -11005,18 +11008,18 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="379" t="s">
+      <c r="A56" s="377" t="s">
         <v>2550</v>
       </c>
-      <c r="B56" s="379" t="s">
+      <c r="B56" s="377" t="s">
         <v>2551</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="379" t="s">
+      <c r="A57" s="377" t="s">
         <v>2554</v>
       </c>
-      <c r="B57" s="379" t="s">
+      <c r="B57" s="377" t="s">
         <v>2555</v>
       </c>
     </row>
@@ -11082,10 +11085,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="333" t="s">
+      <c r="A7" s="331" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="333" t="s">
+      <c r="B7" s="331" t="s">
         <v>153</v>
       </c>
     </row>
@@ -11139,10 +11142,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="355" t="s">
+      <c r="A13" s="353" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="355" t="s">
+      <c r="B13" s="353" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -11150,10 +11153,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="364" t="s">
+      <c r="A14" s="362" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="364" t="s">
+      <c r="B14" s="362" t="s">
         <v>247</v>
       </c>
       <c r="C14" s="179" t="s">
@@ -11170,7 +11173,7 @@
       <c r="C15" s="179" t="s">
         <v>1724</v>
       </c>
-      <c r="D15" s="360"/>
+      <c r="D15" s="358"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="185" t="s">
@@ -11180,7 +11183,7 @@
         <v>1410</v>
       </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="360"/>
+      <c r="D16" s="358"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="148" t="s">
@@ -11190,7 +11193,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="360"/>
+      <c r="D17" s="358"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="141" t="s">
@@ -11199,10 +11202,10 @@
       <c r="B18" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="362" t="s">
+      <c r="C18" s="360" t="s">
         <v>2483</v>
       </c>
-      <c r="D18" s="360"/>
+      <c r="D18" s="358"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="141" t="s">
@@ -11211,8 +11214,8 @@
       <c r="B19" s="141" t="s">
         <v>2092</v>
       </c>
-      <c r="C19" s="362"/>
-      <c r="D19" s="360"/>
+      <c r="C19" s="360"/>
+      <c r="D19" s="358"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="141" t="s">
@@ -11221,8 +11224,8 @@
       <c r="B20" s="141" t="s">
         <v>2093</v>
       </c>
-      <c r="C20" s="362"/>
-      <c r="D20" s="360"/>
+      <c r="C20" s="360"/>
+      <c r="D20" s="358"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="148" t="s">
@@ -11232,7 +11235,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="360"/>
+      <c r="D21" s="358"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="184" t="s">
@@ -11242,7 +11245,7 @@
         <v>189</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="360"/>
+      <c r="D22" s="358"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="96" t="s">
@@ -11251,7 +11254,7 @@
       <c r="B23" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="C23" s="362"/>
+      <c r="C23" s="360"/>
       <c r="D23" s="179"/>
       <c r="E23" s="179"/>
       <c r="F23" s="179"/>
@@ -11265,7 +11268,7 @@
       <c r="B24" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="363"/>
+      <c r="C24" s="361"/>
       <c r="D24" s="179"/>
       <c r="E24" s="179"/>
       <c r="F24" s="179"/>
@@ -11566,10 +11569,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="356" t="s">
+      <c r="A11" s="354" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="356" t="s">
+      <c r="B11" s="354" t="s">
         <v>153</v>
       </c>
     </row>
@@ -11621,10 +11624,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="355" t="s">
+      <c r="A17" s="353" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="355" t="s">
+      <c r="B17" s="353" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -11843,10 +11846,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="356" t="s">
+      <c r="A11" s="354" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="356" t="s">
+      <c r="B11" s="354" t="s">
         <v>153</v>
       </c>
       <c r="C11" s="25"/>
@@ -12697,10 +12700,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="356" t="s">
+      <c r="A10" s="354" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="356" t="s">
+      <c r="B10" s="354" t="s">
         <v>153</v>
       </c>
     </row>
@@ -13017,10 +13020,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="326" t="s">
+      <c r="A17" s="324" t="s">
         <v>2269</v>
       </c>
-      <c r="B17" s="326" t="s">
+      <c r="B17" s="324" t="s">
         <v>2269</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -13028,10 +13031,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="326" t="s">
+      <c r="A18" s="324" t="s">
         <v>2545</v>
       </c>
-      <c r="B18" s="326" t="s">
+      <c r="B18" s="324" t="s">
         <v>2545</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -13039,10 +13042,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="326" t="s">
+      <c r="A19" s="324" t="s">
         <v>2546</v>
       </c>
-      <c r="B19" s="326" t="s">
+      <c r="B19" s="324" t="s">
         <v>2546</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -13955,10 +13958,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="320" t="s">
+      <c r="A20" s="318" t="s">
         <v>2249</v>
       </c>
-      <c r="B20" s="320" t="s">
+      <c r="B20" s="318" t="s">
         <v>2250</v>
       </c>
     </row>
@@ -14046,10 +14049,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="333" t="s">
+      <c r="A9" s="331" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="333" t="s">
+      <c r="B9" s="331" t="s">
         <v>153</v>
       </c>
     </row>
@@ -14098,10 +14101,10 @@
       <c r="H13" s="179"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="337" t="s">
+      <c r="A14" s="335" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="338" t="s">
+      <c r="B14" s="336" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="179" t="s">
@@ -14114,10 +14117,10 @@
       <c r="H14" s="179"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="337" t="s">
+      <c r="A15" s="335" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="338" t="s">
+      <c r="B15" s="336" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="179" t="s">
@@ -14130,10 +14133,10 @@
       <c r="H15" s="179"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="337" t="s">
+      <c r="A16" s="335" t="s">
         <v>2275</v>
       </c>
-      <c r="B16" s="338" t="s">
+      <c r="B16" s="336" t="s">
         <v>2071</v>
       </c>
       <c r="C16" s="179" t="s">
@@ -14609,10 +14612,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="356" t="s">
+      <c r="A10" s="354" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="356" t="s">
+      <c r="B10" s="354" t="s">
         <v>153</v>
       </c>
     </row>
@@ -15105,154 +15108,154 @@
       <c r="B16" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="309" t="s">
+      <c r="A18" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="309" t="s">
+      <c r="B18" s="307" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="310" t="s">
+      <c r="A19" s="308" t="s">
         <v>2123</v>
       </c>
-      <c r="B19" s="310" t="s">
+      <c r="B19" s="308" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="310" t="s">
+      <c r="A20" s="308" t="s">
         <v>2124</v>
       </c>
-      <c r="B20" s="310" t="s">
+      <c r="B20" s="308" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="310" t="s">
+      <c r="A21" s="308" t="s">
         <v>1235</v>
       </c>
-      <c r="B21" s="310" t="s">
+      <c r="B21" s="308" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="310" t="s">
+      <c r="A22" s="308" t="s">
         <v>2125</v>
       </c>
-      <c r="B22" s="310" t="s">
+      <c r="B22" s="308" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="310" t="s">
+      <c r="A23" s="308" t="s">
         <v>1238</v>
       </c>
-      <c r="B23" s="310" t="s">
+      <c r="B23" s="308" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="310" t="s">
+      <c r="A24" s="308" t="s">
         <v>2126</v>
       </c>
-      <c r="B24" s="310" t="s">
+      <c r="B24" s="308" t="s">
         <v>1240</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="310" t="s">
+      <c r="A25" s="308" t="s">
         <v>2127</v>
       </c>
-      <c r="B25" s="310" t="s">
+      <c r="B25" s="308" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="310" t="s">
+      <c r="A26" s="308" t="s">
         <v>1243</v>
       </c>
-      <c r="B26" s="310" t="s">
+      <c r="B26" s="308" t="s">
         <v>1243</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="310" t="s">
+      <c r="A27" s="308" t="s">
         <v>1244</v>
       </c>
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="308" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="310" t="s">
+      <c r="A28" s="308" t="s">
         <v>2128</v>
       </c>
-      <c r="B28" s="310" t="s">
+      <c r="B28" s="308" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="310" t="s">
+      <c r="A29" s="308" t="s">
         <v>1247</v>
       </c>
-      <c r="B29" s="310" t="s">
+      <c r="B29" s="308" t="s">
         <v>1248</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="310" t="s">
+      <c r="A30" s="308" t="s">
         <v>1249</v>
       </c>
-      <c r="B30" s="310" t="s">
+      <c r="B30" s="308" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="310" t="s">
+      <c r="A31" s="308" t="s">
         <v>2129</v>
       </c>
-      <c r="B31" s="310" t="s">
+      <c r="B31" s="308" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="310" t="s">
+      <c r="A32" s="308" t="s">
         <v>1252</v>
       </c>
-      <c r="B32" s="310" t="s">
+      <c r="B32" s="308" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="310" t="s">
+      <c r="A33" s="308" t="s">
         <v>2130</v>
       </c>
-      <c r="B33" s="310" t="s">
+      <c r="B33" s="308" t="s">
         <v>2131</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="310" t="s">
+      <c r="A34" s="308" t="s">
         <v>2132</v>
       </c>
-      <c r="B34" s="310" t="s">
+      <c r="B34" s="308" t="s">
         <v>2132</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="310" t="s">
+      <c r="A35" s="308" t="s">
         <v>2133</v>
       </c>
-      <c r="B35" s="310" t="s">
+      <c r="B35" s="308" t="s">
         <v>2133</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="310" t="s">
+      <c r="A36" s="308" t="s">
         <v>2134</v>
       </c>
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="308" t="s">
         <v>2134</v>
       </c>
     </row>
@@ -15505,18 +15508,18 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="317" t="s">
+      <c r="A31" s="315" t="s">
         <v>2204</v>
       </c>
-      <c r="B31" s="317" t="s">
+      <c r="B31" s="315" t="s">
         <v>2204</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="317" t="s">
+      <c r="A32" s="315" t="s">
         <v>2228</v>
       </c>
-      <c r="B32" s="317" t="s">
+      <c r="B32" s="315" t="s">
         <v>2228</v>
       </c>
     </row>
@@ -16190,102 +16193,102 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="339" t="s">
+      <c r="A25" s="337" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="339" t="s">
+      <c r="B25" s="337" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="339" t="s">
+      <c r="C25" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="339" t="s">
+      <c r="D25" s="337" t="s">
         <v>2040</v>
       </c>
-      <c r="E25" s="339" t="s">
+      <c r="E25" s="337" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="339" t="s">
+      <c r="F25" s="337" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="340" t="s">
+      <c r="A26" s="338" t="s">
         <v>2325</v>
       </c>
-      <c r="B26" s="340" t="s">
+      <c r="B26" s="338" t="s">
         <v>2326</v>
       </c>
-      <c r="C26" s="340" t="s">
+      <c r="C26" s="338" t="s">
         <v>741</v>
       </c>
-      <c r="D26" s="340" t="s">
+      <c r="D26" s="338" t="s">
         <v>577</v>
       </c>
-      <c r="E26" s="340" t="s">
+      <c r="E26" s="338" t="s">
         <v>662</v>
       </c>
-      <c r="F26" s="340" t="s">
+      <c r="F26" s="338" t="s">
         <v>2364</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="340" t="s">
+      <c r="A27" s="338" t="s">
         <v>2327</v>
       </c>
-      <c r="B27" s="340" t="s">
+      <c r="B27" s="338" t="s">
         <v>2328</v>
       </c>
-      <c r="C27" s="340" t="s">
+      <c r="C27" s="338" t="s">
         <v>741</v>
       </c>
-      <c r="D27" s="340" t="s">
+      <c r="D27" s="338" t="s">
         <v>577</v>
       </c>
-      <c r="E27" s="340" t="s">
+      <c r="E27" s="338" t="s">
         <v>662</v>
       </c>
-      <c r="F27" s="340" t="s">
+      <c r="F27" s="338" t="s">
         <v>2364</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="340" t="s">
+      <c r="A28" s="338" t="s">
         <v>2329</v>
       </c>
-      <c r="B28" s="340" t="s">
+      <c r="B28" s="338" t="s">
         <v>2330</v>
       </c>
-      <c r="C28" s="340" t="s">
+      <c r="C28" s="338" t="s">
         <v>741</v>
       </c>
-      <c r="D28" s="340" t="s">
+      <c r="D28" s="338" t="s">
         <v>577</v>
       </c>
-      <c r="E28" s="340" t="s">
+      <c r="E28" s="338" t="s">
         <v>662</v>
       </c>
-      <c r="F28" s="340" t="s">
+      <c r="F28" s="338" t="s">
         <v>2364</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="340" t="s">
+      <c r="A29" s="338" t="s">
         <v>2331</v>
       </c>
-      <c r="B29" s="340" t="s">
+      <c r="B29" s="338" t="s">
         <v>2332</v>
       </c>
-      <c r="C29" s="340" t="s">
+      <c r="C29" s="338" t="s">
         <v>741</v>
       </c>
-      <c r="D29" s="340" t="s">
+      <c r="D29" s="338" t="s">
         <v>577</v>
       </c>
-      <c r="E29" s="340" t="s">
+      <c r="E29" s="338" t="s">
         <v>662</v>
       </c>
-      <c r="F29" s="340" t="s">
+      <c r="F29" s="338" t="s">
         <v>2364</v>
       </c>
     </row>
@@ -17156,18 +17159,18 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="294" t="s">
+      <c r="A16" s="292" t="s">
         <v>2041</v>
       </c>
-      <c r="B16" s="294" t="s">
+      <c r="B16" s="292" t="s">
         <v>2041</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="295" t="s">
+      <c r="A17" s="293" t="s">
         <v>2042</v>
       </c>
-      <c r="B17" s="294" t="s">
+      <c r="B17" s="292" t="s">
         <v>2042</v>
       </c>
     </row>
@@ -17647,7 +17650,7 @@
       <c r="A31" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="B31" s="386" t="s">
+      <c r="B31" s="383" t="s">
         <v>448</v>
       </c>
     </row>
@@ -17655,7 +17658,7 @@
       <c r="A32" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="B32" s="386" t="s">
+      <c r="B32" s="383" t="s">
         <v>450</v>
       </c>
     </row>
@@ -18028,10 +18031,10 @@
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="370" t="s">
+      <c r="A9" s="368" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="370" t="s">
+      <c r="B9" s="368" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="143" t="s">
@@ -18042,13 +18045,13 @@
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="338" t="s">
+      <c r="A10" s="336" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="338" t="s">
+      <c r="B10" s="336" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="360" t="s">
+      <c r="C10" s="358" t="s">
         <v>2499</v>
       </c>
       <c r="D10" s="22"/>
@@ -18286,18 +18289,18 @@
       <c r="B15" s="89"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="311" t="s">
+      <c r="A16" s="309" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="311" t="s">
+      <c r="B16" s="309" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="312" t="s">
+      <c r="A17" s="310" t="s">
         <v>987</v>
       </c>
-      <c r="B17" s="312" t="s">
+      <c r="B17" s="310" t="s">
         <v>985</v>
       </c>
       <c r="C17" t="s">
@@ -18305,82 +18308,82 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="312" t="s">
+      <c r="A18" s="310" t="s">
         <v>988</v>
       </c>
-      <c r="B18" s="312" t="s">
+      <c r="B18" s="310" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="312" t="s">
+      <c r="A19" s="310" t="s">
         <v>992</v>
       </c>
-      <c r="B19" s="312" t="s">
+      <c r="B19" s="310" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="312" t="s">
+      <c r="A20" s="310" t="s">
         <v>2028</v>
       </c>
-      <c r="B20" s="312" t="s">
+      <c r="B20" s="310" t="s">
         <v>2027</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="312" t="s">
+      <c r="A21" s="310" t="s">
         <v>990</v>
       </c>
-      <c r="B21" s="312" t="s">
+      <c r="B21" s="310" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="312" t="s">
+      <c r="A22" s="310" t="s">
         <v>991</v>
       </c>
-      <c r="B22" s="312" t="s">
+      <c r="B22" s="310" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="312" t="s">
+      <c r="A23" s="310" t="s">
         <v>1028</v>
       </c>
-      <c r="B23" s="312" t="s">
+      <c r="B23" s="310" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="312" t="s">
+      <c r="A24" s="310" t="s">
         <v>1310</v>
       </c>
-      <c r="B24" s="312" t="s">
+      <c r="B24" s="310" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="312" t="s">
+      <c r="A25" s="310" t="s">
         <v>1312</v>
       </c>
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="310" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="312" t="s">
+      <c r="A26" s="310" t="s">
         <v>1314</v>
       </c>
-      <c r="B26" s="312" t="s">
+      <c r="B26" s="310" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="312" t="s">
+      <c r="A27" s="310" t="s">
         <v>1880</v>
       </c>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="310" t="s">
         <v>1881</v>
       </c>
       <c r="C27" t="s">
@@ -18388,26 +18391,26 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="312" t="s">
+      <c r="A28" s="310" t="s">
         <v>2152</v>
       </c>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="310" t="s">
         <v>2153</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="314" t="s">
+      <c r="A29" s="312" t="s">
         <v>2200</v>
       </c>
-      <c r="B29" s="314" t="s">
+      <c r="B29" s="312" t="s">
         <v>2200</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="314" t="s">
+      <c r="A30" s="312" t="s">
         <v>2233</v>
       </c>
-      <c r="B30" s="314" t="s">
+      <c r="B30" s="312" t="s">
         <v>2233</v>
       </c>
     </row>
@@ -18459,7 +18462,7 @@
       <c r="A5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="305" t="s">
+      <c r="B5" s="303" t="s">
         <v>599</v>
       </c>
     </row>
@@ -18472,13 +18475,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="365" t="s">
+      <c r="A7" s="363" t="s">
         <v>1042</v>
       </c>
-      <c r="B7" s="365" t="s">
+      <c r="B7" s="363" t="s">
         <v>412</v>
       </c>
-      <c r="C7" s="366" t="s">
+      <c r="C7" s="364" t="s">
         <v>678</v>
       </c>
     </row>
@@ -18507,21 +18510,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="338" t="s">
+      <c r="A11" s="336" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="338" t="s">
+      <c r="B11" s="336" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="360" t="s">
+      <c r="C11" s="358" t="s">
         <v>2499</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="342" t="s">
+      <c r="A12" s="340" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="342" t="s">
+      <c r="B12" s="340" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="179" t="s">
@@ -20240,18 +20243,18 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="329" t="s">
+      <c r="A50" s="327" t="s">
         <v>2292</v>
       </c>
-      <c r="B50" s="329" t="s">
+      <c r="B50" s="327" t="s">
         <v>2292</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="329" t="s">
+      <c r="A51" s="327" t="s">
         <v>2322</v>
       </c>
-      <c r="B51" s="329" t="s">
+      <c r="B51" s="327" t="s">
         <v>2323</v>
       </c>
     </row>
@@ -20637,10 +20640,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="353" t="s">
+      <c r="A13" s="351" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="351" t="s">
+      <c r="B13" s="349" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -20648,10 +20651,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="353" t="s">
+      <c r="A14" s="351" t="s">
         <v>2275</v>
       </c>
-      <c r="B14" s="351" t="s">
+      <c r="B14" s="349" t="s">
         <v>2071</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -21016,154 +21019,154 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="301" t="s">
+      <c r="A17" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="301" t="s">
+      <c r="B17" s="299" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="302" t="s">
+      <c r="A18" s="300" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="302" t="s">
+      <c r="B18" s="300" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="302" t="s">
+      <c r="A19" s="300" t="s">
         <v>718</v>
       </c>
-      <c r="B19" s="302" t="s">
+      <c r="B19" s="300" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="302" t="s">
+      <c r="A20" s="300" t="s">
         <v>720</v>
       </c>
-      <c r="B20" s="302" t="s">
+      <c r="B20" s="300" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="302" t="s">
+      <c r="A21" s="300" t="s">
         <v>722</v>
       </c>
-      <c r="B21" s="302" t="s">
+      <c r="B21" s="300" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="302" t="s">
+      <c r="A22" s="300" t="s">
         <v>723</v>
       </c>
-      <c r="B22" s="302" t="s">
+      <c r="B22" s="300" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="302" t="s">
+      <c r="A23" s="300" t="s">
         <v>972</v>
       </c>
-      <c r="B23" s="302" t="s">
+      <c r="B23" s="300" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="302" t="s">
+      <c r="A24" s="300" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="302" t="s">
+      <c r="B24" s="300" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="302" t="s">
+      <c r="A25" s="300" t="s">
         <v>563</v>
       </c>
-      <c r="B25" s="302" t="s">
+      <c r="B25" s="300" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="302" t="s">
+      <c r="A26" s="300" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="302" t="s">
+      <c r="B26" s="300" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="302" t="s">
+      <c r="A27" s="300" t="s">
         <v>728</v>
       </c>
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="300" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="302" t="s">
+      <c r="A28" s="300" t="s">
         <v>1499</v>
       </c>
-      <c r="B28" s="302" t="s">
+      <c r="B28" s="300" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="302" t="s">
+      <c r="A29" s="300" t="s">
         <v>730</v>
       </c>
-      <c r="B29" s="302" t="s">
+      <c r="B29" s="300" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="302" t="s">
+      <c r="A30" s="300" t="s">
         <v>732</v>
       </c>
-      <c r="B30" s="302" t="s">
+      <c r="B30" s="300" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="302" t="s">
+      <c r="A31" s="300" t="s">
         <v>973</v>
       </c>
-      <c r="B31" s="302" t="s">
+      <c r="B31" s="300" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="302" t="s">
+      <c r="A32" s="300" t="s">
         <v>2082</v>
       </c>
-      <c r="B32" s="302" t="s">
+      <c r="B32" s="300" t="s">
         <v>2083</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="302" t="s">
+      <c r="A33" s="300" t="s">
         <v>974</v>
       </c>
-      <c r="B33" s="302" t="s">
+      <c r="B33" s="300" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="302" t="s">
+      <c r="A34" s="300" t="s">
         <v>977</v>
       </c>
-      <c r="B34" s="302" t="s">
+      <c r="B34" s="300" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="302" t="s">
+      <c r="A35" s="300" t="s">
         <v>975</v>
       </c>
-      <c r="B35" s="302" t="s">
+      <c r="B35" s="300" t="s">
         <v>976</v>
       </c>
       <c r="C35" t="s">
@@ -21171,114 +21174,114 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="302" t="s">
+      <c r="A36" s="300" t="s">
         <v>1035</v>
       </c>
-      <c r="B36" s="302" t="s">
+      <c r="B36" s="300" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="302" t="s">
+      <c r="A37" s="300" t="s">
         <v>1350</v>
       </c>
-      <c r="B37" s="302" t="s">
+      <c r="B37" s="300" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="302" t="s">
+      <c r="A38" s="300" t="s">
         <v>1498</v>
       </c>
-      <c r="B38" s="302" t="s">
+      <c r="B38" s="300" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="302" t="s">
+      <c r="A39" s="300" t="s">
         <v>2103</v>
       </c>
-      <c r="B39" s="302" t="s">
+      <c r="B39" s="300" t="s">
         <v>2102</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="302" t="s">
+      <c r="A40" s="300" t="s">
         <v>1682</v>
       </c>
-      <c r="B40" s="302" t="s">
+      <c r="B40" s="300" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="302" t="s">
+      <c r="A41" s="300" t="s">
         <v>2084</v>
       </c>
-      <c r="B41" s="302" t="s">
+      <c r="B41" s="300" t="s">
         <v>1670</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="302" t="s">
+      <c r="A42" s="300" t="s">
         <v>2085</v>
       </c>
-      <c r="B42" s="302" t="s">
+      <c r="B42" s="300" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="302" t="s">
+      <c r="A43" s="300" t="s">
         <v>2086</v>
       </c>
-      <c r="B43" s="302" t="s">
+      <c r="B43" s="300" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="302" t="s">
+      <c r="A44" s="300" t="s">
         <v>2087</v>
       </c>
-      <c r="B44" s="302" t="s">
+      <c r="B44" s="300" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="306" t="s">
+      <c r="A45" s="304" t="s">
         <v>732</v>
       </c>
-      <c r="B45" s="306" t="s">
+      <c r="B45" s="304" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="306" t="s">
+      <c r="A46" s="304" t="s">
         <v>2104</v>
       </c>
-      <c r="B46" s="306" t="s">
+      <c r="B46" s="304" t="s">
         <v>2105</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="306" t="s">
+      <c r="A47" s="304" t="s">
         <v>2106</v>
       </c>
-      <c r="B47" s="306" t="s">
+      <c r="B47" s="304" t="s">
         <v>2107</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="306" t="s">
+      <c r="A48" s="304" t="s">
         <v>2108</v>
       </c>
-      <c r="B48" s="306" t="s">
+      <c r="B48" s="304" t="s">
         <v>2109</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="306" t="s">
+      <c r="A49" s="304" t="s">
         <v>2110</v>
       </c>
-      <c r="B49" s="306" t="s">
+      <c r="B49" s="304" t="s">
         <v>2111</v>
       </c>
     </row>
@@ -21624,146 +21627,146 @@
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="299" t="s">
+      <c r="A18" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="299" t="s">
+      <c r="B18" s="297" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="300" t="s">
+      <c r="A19" s="298" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="300" t="s">
+      <c r="B19" s="298" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="300" t="s">
+      <c r="A20" s="298" t="s">
         <v>1342</v>
       </c>
-      <c r="B20" s="300" t="s">
+      <c r="B20" s="298" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="300" t="s">
+      <c r="A21" s="298" t="s">
         <v>1343</v>
       </c>
-      <c r="B21" s="300" t="s">
+      <c r="B21" s="298" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="300" t="s">
+      <c r="A22" s="298" t="s">
         <v>1344</v>
       </c>
-      <c r="B22" s="300" t="s">
+      <c r="B22" s="298" t="s">
         <v>1508</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="300" t="s">
+      <c r="A23" s="298" t="s">
         <v>550</v>
       </c>
-      <c r="B23" s="300" t="s">
+      <c r="B23" s="298" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="300" t="s">
+      <c r="A24" s="298" t="s">
         <v>1389</v>
       </c>
-      <c r="B24" s="300" t="s">
+      <c r="B24" s="298" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="300" t="s">
+      <c r="A25" s="298" t="s">
         <v>1390</v>
       </c>
-      <c r="B25" s="300" t="s">
+      <c r="B25" s="298" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="300" t="s">
+      <c r="A26" s="298" t="s">
         <v>1509</v>
       </c>
-      <c r="B26" s="300" t="s">
+      <c r="B26" s="298" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="300" t="s">
+      <c r="A27" s="298" t="s">
         <v>1511</v>
       </c>
-      <c r="B27" s="300" t="s">
+      <c r="B27" s="298" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="300" t="s">
+      <c r="A28" s="298" t="s">
         <v>1513</v>
       </c>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="298" t="s">
         <v>1513</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="300" t="s">
+      <c r="A29" s="298" t="s">
         <v>1514</v>
       </c>
-      <c r="B29" s="300" t="s">
+      <c r="B29" s="298" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="300" t="s">
+      <c r="A30" s="298" t="s">
         <v>1669</v>
       </c>
-      <c r="B30" s="300" t="s">
+      <c r="B30" s="298" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="300" t="s">
+      <c r="A31" s="298" t="s">
         <v>1509</v>
       </c>
-      <c r="B31" s="300" t="s">
+      <c r="B31" s="298" t="s">
         <v>1510</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="307" t="s">
+      <c r="A32" s="305" t="s">
         <v>2114</v>
       </c>
-      <c r="B32" s="307" t="s">
+      <c r="B32" s="305" t="s">
         <v>2115</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="300" t="s">
+      <c r="A33" s="298" t="s">
         <v>2181</v>
       </c>
-      <c r="B33" s="300" t="s">
+      <c r="B33" s="298" t="s">
         <v>2182</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="307" t="s">
+      <c r="A34" s="305" t="s">
         <v>2102</v>
       </c>
-      <c r="B34" s="307" t="s">
+      <c r="B34" s="305" t="s">
         <v>2238</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="307" t="s">
+      <c r="A35" s="305" t="s">
         <v>2102</v>
       </c>
-      <c r="B35" s="307" t="s">
+      <c r="B35" s="305" t="s">
         <v>2239</v>
       </c>
     </row>
@@ -21892,136 +21895,136 @@
       <c r="B14" s="10"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="299" t="s">
+      <c r="A16" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="299" t="s">
+      <c r="B16" s="297" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="316" t="s">
+      <c r="A17" s="314" t="s">
         <v>2218</v>
       </c>
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="314" t="s">
         <v>2218</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="316" t="s">
+      <c r="A18" s="314" t="s">
         <v>2219</v>
       </c>
-      <c r="B18" s="316" t="s">
+      <c r="B18" s="314" t="s">
         <v>2219</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="316" t="s">
+      <c r="A19" s="314" t="s">
         <v>2220</v>
       </c>
-      <c r="B19" s="316" t="s">
+      <c r="B19" s="314" t="s">
         <v>2220</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="316" t="s">
+      <c r="A20" s="314" t="s">
         <v>2221</v>
       </c>
-      <c r="B20" s="316" t="s">
+      <c r="B20" s="314" t="s">
         <v>2221</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="316" t="s">
+      <c r="A21" s="314" t="s">
         <v>2222</v>
       </c>
-      <c r="B21" s="316" t="s">
+      <c r="B21" s="314" t="s">
         <v>2222</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="316" t="s">
+      <c r="A22" s="314" t="s">
         <v>2215</v>
       </c>
-      <c r="B22" s="316" t="s">
+      <c r="B22" s="314" t="s">
         <v>2215</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="316" t="s">
+      <c r="A23" s="314" t="s">
         <v>2216</v>
       </c>
-      <c r="B23" s="316" t="s">
+      <c r="B23" s="314" t="s">
         <v>2216</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="316" t="s">
+      <c r="A24" s="314" t="s">
         <v>2229</v>
       </c>
-      <c r="B24" s="316" t="s">
+      <c r="B24" s="314" t="s">
         <v>2229</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="316" t="s">
+      <c r="A25" s="314" t="s">
         <v>2217</v>
       </c>
-      <c r="B25" s="316" t="s">
+      <c r="B25" s="314" t="s">
         <v>2217</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="316" t="s">
+      <c r="A26" s="314" t="s">
         <v>2230</v>
       </c>
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="314" t="s">
         <v>2230</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="316" t="s">
+      <c r="A27" s="314" t="s">
         <v>2223</v>
       </c>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="314" t="s">
         <v>2223</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="316" t="s">
+      <c r="A28" s="314" t="s">
         <v>2224</v>
       </c>
-      <c r="B28" s="316" t="s">
+      <c r="B28" s="314" t="s">
         <v>2224</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="316" t="s">
+      <c r="A29" s="314" t="s">
         <v>2225</v>
       </c>
-      <c r="B29" s="316" t="s">
+      <c r="B29" s="314" t="s">
         <v>2225</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="316" t="s">
+      <c r="A30" s="314" t="s">
         <v>2226</v>
       </c>
-      <c r="B30" s="316" t="s">
+      <c r="B30" s="314" t="s">
         <v>2226</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="300"/>
-      <c r="B31" s="300"/>
+      <c r="A31" s="298"/>
+      <c r="B31" s="298"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="307"/>
-      <c r="B32" s="307"/>
+      <c r="A32" s="305"/>
+      <c r="B32" s="305"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="300"/>
-      <c r="B33" s="300"/>
+      <c r="A33" s="298"/>
+      <c r="B33" s="298"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -23025,10 +23028,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="395" t="s">
+      <c r="A32" s="392" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="395" t="s">
+      <c r="B32" s="392" t="s">
         <v>281</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -23036,15 +23039,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="396"/>
-      <c r="B33" s="396"/>
+      <c r="A33" s="393"/>
+      <c r="B33" s="393"/>
       <c r="C33" s="22" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="397"/>
-      <c r="B34" s="397"/>
+      <c r="A34" s="394"/>
+      <c r="B34" s="394"/>
       <c r="C34" s="22" t="s">
         <v>1592</v>
       </c>
@@ -23219,8 +23222,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="303"/>
-      <c r="B57" s="303"/>
+      <c r="A57" s="301"/>
+      <c r="B57" s="301"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="258" t="s">
@@ -23256,8 +23259,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="303"/>
-      <c r="B61" s="303"/>
+      <c r="A61" s="301"/>
+      <c r="B61" s="301"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
@@ -23276,8 +23279,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="303"/>
-      <c r="B64" s="303"/>
+      <c r="A64" s="301"/>
+      <c r="B64" s="301"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="63" t="s">
@@ -24270,10 +24273,10 @@
       <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="305" t="s">
+      <c r="A22" s="303" t="s">
         <v>380</v>
       </c>
-      <c r="B22" s="305" t="s">
+      <c r="B22" s="303" t="s">
         <v>379</v>
       </c>
       <c r="C22" s="24"/>
@@ -24334,10 +24337,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="388" t="s">
+      <c r="A28" s="385" t="s">
         <v>1479</v>
       </c>
-      <c r="B28" s="388" t="s">
+      <c r="B28" s="385" t="s">
         <v>1480</v>
       </c>
       <c r="C28" s="22"/>
@@ -27244,8 +27247,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="344"/>
-      <c r="B17" s="344"/>
+      <c r="A17" s="342"/>
+      <c r="B17" s="342"/>
       <c r="C17" t="s">
         <v>2361</v>
       </c>
@@ -27273,8 +27276,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="344"/>
-      <c r="B20" s="344"/>
+      <c r="A20" s="342"/>
+      <c r="B20" s="342"/>
       <c r="C20" t="s">
         <v>2363</v>
       </c>
@@ -27350,10 +27353,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="308" t="s">
+      <c r="A8" s="306" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="308" t="s">
+      <c r="B8" s="306" t="s">
         <v>281</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -28159,10 +28162,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="398" t="s">
+      <c r="A11" s="395" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="398" t="s">
+      <c r="B11" s="395" t="s">
         <v>281</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -28170,15 +28173,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="399"/>
-      <c r="B12" s="399"/>
+      <c r="A12" s="396"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="25" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="400"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="397"/>
+      <c r="B13" s="397"/>
       <c r="C13" s="25" t="s">
         <v>1592</v>
       </c>
@@ -28510,10 +28513,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="398" t="s">
+      <c r="A14" s="395" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="398" t="s">
+      <c r="B14" s="395" t="s">
         <v>281</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -28521,15 +28524,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="399"/>
-      <c r="B15" s="399"/>
+      <c r="A15" s="396"/>
+      <c r="B15" s="396"/>
       <c r="C15" s="25" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="400"/>
-      <c r="B16" s="400"/>
+      <c r="A16" s="397"/>
+      <c r="B16" s="397"/>
       <c r="C16" s="25" t="s">
         <v>1592</v>
       </c>
@@ -29286,11 +29289,11 @@
       <c r="B13" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="304" t="s">
+      <c r="C13" s="302" t="s">
         <v>678</v>
       </c>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="302"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -29302,9 +29305,9 @@
       <c r="B14" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="304"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="304"/>
+      <c r="C14" s="302"/>
+      <c r="D14" s="302"/>
+      <c r="E14" s="302"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -29598,10 +29601,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="298" t="s">
+      <c r="A43" s="296" t="s">
         <v>916</v>
       </c>
-      <c r="B43" s="298" t="s">
+      <c r="B43" s="296" t="s">
         <v>852</v>
       </c>
       <c r="C43" s="22"/>
@@ -29865,7 +29868,7 @@
       <c r="G13" s="143"/>
       <c r="H13" s="143"/>
     </row>
-    <row r="14" spans="1:8" s="321" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="319" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="227" t="s">
         <v>11</v>
       </c>
@@ -29881,7 +29884,7 @@
       <c r="G14" s="143"/>
       <c r="H14" s="143"/>
     </row>
-    <row r="15" spans="1:8" s="321" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="319" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>224</v>
       </c>
@@ -29895,7 +29898,7 @@
       <c r="G15" s="143"/>
       <c r="H15" s="143"/>
     </row>
-    <row r="16" spans="1:8" s="321" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="319" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>267</v>
       </c>
@@ -29909,7 +29912,7 @@
       <c r="G16" s="143"/>
       <c r="H16" s="143"/>
     </row>
-    <row r="17" spans="1:8" s="321" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="319" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>277</v>
       </c>
@@ -29923,7 +29926,7 @@
       <c r="G17" s="143"/>
       <c r="H17" s="143"/>
     </row>
-    <row r="18" spans="1:8" s="321" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="319" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="64" t="s">
         <v>343</v>
       </c>
@@ -29937,7 +29940,7 @@
       <c r="G18" s="143"/>
       <c r="H18" s="143"/>
     </row>
-    <row r="19" spans="1:8" s="387" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="384" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="184" t="s">
         <v>963</v>
       </c>
@@ -29951,7 +29954,7 @@
       <c r="G19" s="143"/>
       <c r="H19" s="143"/>
     </row>
-    <row r="20" spans="1:8" s="387" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="384" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="141" t="s">
         <v>1679</v>
       </c>
@@ -29965,7 +29968,7 @@
       <c r="G20" s="143"/>
       <c r="H20" s="143"/>
     </row>
-    <row r="21" spans="1:8" s="387" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="384" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="141" t="s">
         <v>2598</v>
       </c>
@@ -29997,7 +30000,7 @@
       </c>
       <c r="C23" s="143"/>
     </row>
-    <row r="24" spans="1:8" s="380" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>235</v>
       </c>
@@ -30136,50 +30139,50 @@
       <c r="B12" s="4"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="322" t="s">
+      <c r="A14" s="320" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="322" t="s">
+      <c r="B14" s="320" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="323" t="s">
+      <c r="A15" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="323" t="s">
+      <c r="B15" s="321" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="323" t="s">
+      <c r="A16" s="321" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="323" t="s">
+      <c r="B16" s="321" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="323" t="s">
+      <c r="A17" s="321" t="s">
         <v>1357</v>
       </c>
-      <c r="B17" s="323" t="s">
+      <c r="B17" s="321" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="323" t="s">
+      <c r="A18" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="323" t="s">
+      <c r="B18" s="321" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="323" t="s">
+      <c r="A19" s="321" t="s">
         <v>1448</v>
       </c>
-      <c r="B19" s="323" t="s">
+      <c r="B19" s="321" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -30438,74 +30441,74 @@
       <c r="B12" s="4"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="390" t="s">
+      <c r="A14" s="387" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="390" t="s">
+      <c r="B14" s="387" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="391" t="s">
+      <c r="A15" s="388" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="391" t="s">
+      <c r="B15" s="388" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="391" t="s">
+      <c r="A16" s="388" t="s">
         <v>1098</v>
       </c>
-      <c r="B16" s="391" t="s">
+      <c r="B16" s="388" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="391" t="s">
+      <c r="A17" s="388" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="391" t="s">
+      <c r="B17" s="388" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="391" t="s">
+      <c r="A18" s="388" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="391" t="s">
+      <c r="B18" s="388" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="391" t="s">
+      <c r="A19" s="388" t="s">
         <v>908</v>
       </c>
-      <c r="B19" s="391" t="s">
+      <c r="B19" s="388" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="391" t="s">
+      <c r="A20" s="388" t="s">
         <v>1109</v>
       </c>
-      <c r="B20" s="391" t="s">
+      <c r="B20" s="388" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="391" t="s">
+      <c r="A21" s="388" t="s">
         <v>2253</v>
       </c>
-      <c r="B21" s="391" t="s">
+      <c r="B21" s="388" t="s">
         <v>2253</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="391" t="s">
+      <c r="A22" s="388" t="s">
         <v>1119</v>
       </c>
-      <c r="B22" s="391" t="s">
+      <c r="B22" s="388" t="s">
         <v>1119</v>
       </c>
       <c r="C22" t="s">
@@ -30513,35 +30516,35 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="391" t="s">
+      <c r="A23" s="388" t="s">
         <v>2254</v>
       </c>
-      <c r="B23" s="391" t="s">
+      <c r="B23" s="388" t="s">
         <v>2254</v>
       </c>
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="391" t="s">
+      <c r="A24" s="388" t="s">
         <v>2255</v>
       </c>
-      <c r="B24" s="391" t="s">
+      <c r="B24" s="388" t="s">
         <v>2255</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="391" t="s">
+      <c r="A25" s="388" t="s">
         <v>2256</v>
       </c>
-      <c r="B25" s="391" t="s">
+      <c r="B25" s="388" t="s">
         <v>2256</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="391" t="s">
+      <c r="A26" s="388" t="s">
         <v>1448</v>
       </c>
-      <c r="B26" s="391" t="s">
+      <c r="B26" s="388" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -30641,7 +30644,7 @@
       <c r="B10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="358" t="s">
+      <c r="C10" s="356" t="s">
         <v>678</v>
       </c>
     </row>
@@ -30662,13 +30665,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="372" t="s">
+      <c r="A13" s="370" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="372" t="s">
+      <c r="B13" s="370" t="s">
         <v>2517</v>
       </c>
-      <c r="C13" s="360" t="s">
+      <c r="C13" s="358" t="s">
         <v>2410</v>
       </c>
     </row>
@@ -30679,10 +30682,10 @@
       <c r="B14" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="C14" s="358"/>
-      <c r="D14" s="358"/>
-      <c r="E14" s="358"/>
-      <c r="F14" s="358"/>
+      <c r="C14" s="356"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="356"/>
+      <c r="F14" s="356"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
@@ -30691,10 +30694,10 @@
       <c r="B15" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="C15" s="358"/>
-      <c r="D15" s="358"/>
-      <c r="E15" s="358"/>
-      <c r="F15" s="358"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="356"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -30709,8 +30712,8 @@
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="373"/>
-      <c r="B18" s="373"/>
+      <c r="A18" s="371"/>
+      <c r="B18" s="371"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="124" t="s">
@@ -30737,7 +30740,7 @@
       <c r="A23" s="94" t="s">
         <v>343</v>
       </c>
-      <c r="B23" s="374" t="s">
+      <c r="B23" s="372" t="s">
         <v>327</v>
       </c>
     </row>
@@ -31276,12 +31279,12 @@
       <c r="F12" s="152"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="350"/>
-      <c r="B13" s="350"/>
-      <c r="C13" s="352"/>
-      <c r="D13" s="352"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="352"/>
+      <c r="A13" s="348"/>
+      <c r="B13" s="348"/>
+      <c r="C13" s="350"/>
+      <c r="D13" s="350"/>
+      <c r="E13" s="350"/>
+      <c r="F13" s="350"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="205" t="s">
@@ -31314,26 +31317,26 @@
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="353"/>
-      <c r="B16" s="353"/>
-      <c r="C16" s="315"/>
-      <c r="D16" s="352"/>
-      <c r="E16" s="352"/>
-      <c r="F16" s="352"/>
+      <c r="A16" s="351"/>
+      <c r="B16" s="351"/>
+      <c r="C16" s="313"/>
+      <c r="D16" s="350"/>
+      <c r="E16" s="350"/>
+      <c r="F16" s="350"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="353" t="s">
+      <c r="A17" s="351" t="s">
         <v>2405</v>
       </c>
-      <c r="B17" s="353" t="s">
+      <c r="B17" s="351" t="s">
         <v>2404</v>
       </c>
-      <c r="C17" s="315" t="s">
+      <c r="C17" s="313" t="s">
         <v>2412</v>
       </c>
-      <c r="D17" s="352"/>
-      <c r="E17" s="352"/>
-      <c r="F17" s="352"/>
+      <c r="D17" s="350"/>
+      <c r="E17" s="350"/>
+      <c r="F17" s="350"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="149" t="s">
@@ -31342,20 +31345,20 @@
       <c r="B18" s="149" t="s">
         <v>1480</v>
       </c>
-      <c r="C18" s="315" t="s">
+      <c r="C18" s="313" t="s">
         <v>2412</v>
       </c>
-      <c r="D18" s="352"/>
-      <c r="E18" s="352"/>
-      <c r="F18" s="352"/>
+      <c r="D18" s="350"/>
+      <c r="E18" s="350"/>
+      <c r="F18" s="350"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="332"/>
-      <c r="B19" s="332"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="352"/>
-      <c r="E19" s="352"/>
-      <c r="F19" s="352"/>
+      <c r="A19" s="330"/>
+      <c r="B19" s="330"/>
+      <c r="C19" s="313"/>
+      <c r="D19" s="350"/>
+      <c r="E19" s="350"/>
+      <c r="F19" s="350"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -31429,7 +31432,7 @@
       <c r="B34" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="352"/>
+      <c r="C34" s="350"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
@@ -31438,7 +31441,7 @@
       <c r="B35" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="352"/>
+      <c r="C35" s="350"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
@@ -31447,7 +31450,7 @@
       <c r="B36" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C36" s="352"/>
+      <c r="C36" s="350"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -31456,7 +31459,7 @@
       <c r="B37" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="352"/>
+      <c r="C37" s="350"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
@@ -31465,7 +31468,7 @@
       <c r="B38" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="352"/>
+      <c r="C38" s="350"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -31474,7 +31477,7 @@
       <c r="B39" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="352" t="s">
+      <c r="C39" s="350" t="s">
         <v>1825</v>
       </c>
     </row>
@@ -31485,7 +31488,7 @@
       <c r="B40" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="352"/>
+      <c r="C40" s="350"/>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="232" t="s">
@@ -31494,7 +31497,7 @@
       <c r="B41" s="232" t="s">
         <v>378</v>
       </c>
-      <c r="C41" s="352"/>
+      <c r="C41" s="350"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="143" t="s">
@@ -33643,138 +33646,138 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="330" t="s">
+      <c r="A16" s="328" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="330" t="s">
+      <c r="B16" s="328" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="331" t="s">
+      <c r="A17" s="329" t="s">
         <v>771</v>
       </c>
-      <c r="B17" s="331" t="s">
+      <c r="B17" s="329" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="331" t="s">
+      <c r="A18" s="329" t="s">
         <v>773</v>
       </c>
-      <c r="B18" s="331" t="s">
+      <c r="B18" s="329" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="331" t="s">
+      <c r="A19" s="329" t="s">
         <v>775</v>
       </c>
-      <c r="B19" s="331" t="s">
+      <c r="B19" s="329" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="331" t="s">
+      <c r="A20" s="329" t="s">
         <v>776</v>
       </c>
-      <c r="B20" s="331" t="s">
+      <c r="B20" s="329" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="331" t="s">
+      <c r="A21" s="329" t="s">
         <v>778</v>
       </c>
-      <c r="B21" s="331" t="s">
+      <c r="B21" s="329" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="331" t="s">
+      <c r="A22" s="329" t="s">
         <v>779</v>
       </c>
-      <c r="B22" s="331" t="s">
+      <c r="B22" s="329" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="331" t="s">
+      <c r="A23" s="329" t="s">
         <v>781</v>
       </c>
-      <c r="B23" s="331" t="s">
+      <c r="B23" s="329" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="329" t="s">
         <v>1455</v>
       </c>
-      <c r="B24" s="331" t="s">
+      <c r="B24" s="329" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="331" t="s">
+      <c r="A25" s="329" t="s">
         <v>783</v>
       </c>
-      <c r="B25" s="331" t="s">
+      <c r="B25" s="329" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="331" t="s">
+      <c r="A26" s="329" t="s">
         <v>784</v>
       </c>
-      <c r="B26" s="331" t="s">
+      <c r="B26" s="329" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="331" t="s">
+      <c r="A27" s="329" t="s">
         <v>785</v>
       </c>
-      <c r="B27" s="331" t="s">
+      <c r="B27" s="329" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="331" t="s">
+      <c r="A28" s="329" t="s">
         <v>787</v>
       </c>
-      <c r="B28" s="331" t="s">
+      <c r="B28" s="329" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="331" t="s">
+      <c r="A29" s="329" t="s">
         <v>2293</v>
       </c>
-      <c r="B29" s="331" t="s">
+      <c r="B29" s="329" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="331" t="s">
+      <c r="A30" s="329" t="s">
         <v>1453</v>
       </c>
-      <c r="B30" s="331" t="s">
+      <c r="B30" s="329" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="331" t="s">
+      <c r="A31" s="329" t="s">
         <v>1454</v>
       </c>
-      <c r="B31" s="331" t="s">
+      <c r="B31" s="329" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="331" t="s">
+      <c r="A32" s="329" t="s">
         <v>2294</v>
       </c>
-      <c r="B32" s="331" t="s">
+      <c r="B32" s="329" t="s">
         <v>2295</v>
       </c>
       <c r="C32" t="s">
@@ -33782,10 +33785,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="331" t="s">
+      <c r="A33" s="329" t="s">
         <v>2296</v>
       </c>
-      <c r="B33" s="331" t="s">
+      <c r="B33" s="329" t="s">
         <v>2297</v>
       </c>
       <c r="C33" t="s">
@@ -33793,10 +33796,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="331" t="s">
+      <c r="A34" s="329" t="s">
         <v>2298</v>
       </c>
-      <c r="B34" s="331" t="s">
+      <c r="B34" s="329" t="s">
         <v>2299</v>
       </c>
       <c r="C34" t="s">
@@ -33804,10 +33807,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="331" t="s">
+      <c r="A35" s="329" t="s">
         <v>2300</v>
       </c>
-      <c r="B35" s="331" t="s">
+      <c r="B35" s="329" t="s">
         <v>2301</v>
       </c>
       <c r="C35" t="s">
@@ -33815,10 +33818,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="331" t="s">
+      <c r="A36" s="329" t="s">
         <v>2302</v>
       </c>
-      <c r="B36" s="331" t="s">
+      <c r="B36" s="329" t="s">
         <v>2302</v>
       </c>
       <c r="C36" t="s">
@@ -33945,58 +33948,58 @@
       <c r="B13" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="327" t="s">
+      <c r="A15" s="325" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="327" t="s">
+      <c r="B15" s="325" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="328" t="s">
+      <c r="A16" s="326" t="s">
         <v>2282</v>
       </c>
-      <c r="B16" s="328" t="s">
+      <c r="B16" s="326" t="s">
         <v>2283</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="328" t="s">
+      <c r="A17" s="326" t="s">
         <v>2284</v>
       </c>
-      <c r="B17" s="328" t="s">
+      <c r="B17" s="326" t="s">
         <v>2284</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="328" t="s">
+      <c r="A18" s="326" t="s">
         <v>2285</v>
       </c>
-      <c r="B18" s="328" t="s">
+      <c r="B18" s="326" t="s">
         <v>2285</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="328" t="s">
+      <c r="A19" s="326" t="s">
         <v>2286</v>
       </c>
-      <c r="B19" s="328" t="s">
+      <c r="B19" s="326" t="s">
         <v>2287</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="328" t="s">
+      <c r="A20" s="326" t="s">
         <v>2288</v>
       </c>
-      <c r="B20" s="328" t="s">
+      <c r="B20" s="326" t="s">
         <v>2289</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="328" t="s">
+      <c r="A21" s="326" t="s">
         <v>2290</v>
       </c>
-      <c r="B21" s="328" t="s">
+      <c r="B21" s="326" t="s">
         <v>2291</v>
       </c>
     </row>
@@ -34324,10 +34327,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="389" t="s">
+      <c r="A19" s="386" t="s">
         <v>2580</v>
       </c>
-      <c r="B19" s="389" t="s">
+      <c r="B19" s="386" t="s">
         <v>2580</v>
       </c>
     </row>
@@ -34984,10 +34987,10 @@
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="336" t="s">
+      <c r="A14" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="336" t="s">
+      <c r="B14" s="334" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -36147,8 +36150,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="371"/>
-      <c r="B20" s="371"/>
+      <c r="A20" s="369"/>
+      <c r="B20" s="369"/>
       <c r="C20" t="s">
         <v>1376</v>
       </c>
@@ -36671,10 +36674,10 @@
       <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="364" t="s">
+      <c r="A13" s="362" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="364" t="s">
+      <c r="B13" s="362" t="s">
         <v>182</v>
       </c>
       <c r="C13" s="179" t="s">
@@ -36714,10 +36717,10 @@
       <c r="H15" s="179"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="361" t="s">
+      <c r="A16" s="359" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="361" t="s">
+      <c r="B16" s="359" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="179" t="s">
@@ -36730,10 +36733,10 @@
       <c r="H16" s="179"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="361" t="s">
+      <c r="A17" s="359" t="s">
         <v>2275</v>
       </c>
-      <c r="B17" s="361" t="s">
+      <c r="B17" s="359" t="s">
         <v>2071</v>
       </c>
       <c r="C17" s="179" t="s">
@@ -36746,10 +36749,10 @@
       <c r="H17" s="179"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="361" t="s">
+      <c r="A18" s="359" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="361" t="s">
+      <c r="B18" s="359" t="s">
         <v>260</v>
       </c>
       <c r="C18" s="179" t="s">
@@ -36762,10 +36765,10 @@
       <c r="H18" s="179"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="361" t="s">
+      <c r="A19" s="359" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="361" t="s">
+      <c r="B19" s="359" t="s">
         <v>262</v>
       </c>
       <c r="C19" s="179" t="s">
@@ -36778,10 +36781,10 @@
       <c r="H19" s="179"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="361" t="s">
+      <c r="A20" s="359" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="361" t="s">
+      <c r="B20" s="359" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="179" t="s">
@@ -37575,10 +37578,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="337" t="s">
+      <c r="A11" s="335" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="335" t="s">
         <v>70</v>
       </c>
     </row>
@@ -37635,18 +37638,18 @@
       <c r="F16" s="179"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="337" t="s">
+      <c r="A17" s="335" t="s">
         <v>657</v>
       </c>
-      <c r="B17" s="337" t="s">
+      <c r="B17" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="368" t="s">
+      <c r="C17" s="366" t="s">
         <v>1017</v>
       </c>
-      <c r="D17" s="367"/>
-      <c r="E17" s="367"/>
-      <c r="F17" s="367"/>
+      <c r="D17" s="365"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="365"/>
       <c r="G17" s="179"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -39243,7 +39246,7 @@
       <c r="A30" s="191" t="s">
         <v>1677</v>
       </c>
-      <c r="B30" s="383" t="s">
+      <c r="B30" s="380" t="s">
         <v>1674</v>
       </c>
       <c r="C30" s="191" t="s">
@@ -39254,7 +39257,7 @@
       <c r="A31" s="191" t="s">
         <v>1678</v>
       </c>
-      <c r="B31" s="383" t="s">
+      <c r="B31" s="380" t="s">
         <v>1676</v>
       </c>
       <c r="C31" s="191" t="s">
@@ -40305,10 +40308,10 @@
       <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="337" t="s">
+      <c r="A16" s="335" t="s">
         <v>2275</v>
       </c>
-      <c r="B16" s="338" t="s">
+      <c r="B16" s="336" t="s">
         <v>2071</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -41542,68 +41545,68 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="375" t="s">
+      <c r="A13" s="373" t="s">
         <v>2267</v>
       </c>
-      <c r="B13" s="375" t="s">
+      <c r="B13" s="373" t="s">
         <v>1410</v>
       </c>
-      <c r="C13" s="360" t="s">
+      <c r="C13" s="358" t="s">
         <v>2268</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="376" t="s">
+      <c r="A14" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="374" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="360" t="s">
+      <c r="C14" s="358" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="376" t="s">
+      <c r="A15" s="374" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="376" t="s">
+      <c r="B15" s="374" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="360" t="s">
+      <c r="C15" s="358" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="376" t="s">
+      <c r="A16" s="374" t="s">
         <v>2090</v>
       </c>
-      <c r="B16" s="376" t="s">
+      <c r="B16" s="374" t="s">
         <v>2092</v>
       </c>
-      <c r="C16" s="360" t="s">
+      <c r="C16" s="358" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="376" t="s">
+      <c r="A17" s="374" t="s">
         <v>2091</v>
       </c>
-      <c r="B17" s="376" t="s">
+      <c r="B17" s="374" t="s">
         <v>2093</v>
       </c>
-      <c r="C17" s="360" t="s">
+      <c r="C17" s="358" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="376" t="s">
+      <c r="A18" s="374" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="376" t="s">
+      <c r="B18" s="374" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="360"/>
+      <c r="C18" s="358"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
@@ -41875,10 +41878,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="392" t="s">
+      <c r="A18" s="389" t="s">
         <v>2267</v>
       </c>
-      <c r="B18" s="392" t="s">
+      <c r="B18" s="389" t="s">
         <v>1410</v>
       </c>
       <c r="C18" s="179" t="s">
@@ -42343,10 +42346,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="393" t="s">
+      <c r="A11" s="390" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="393" t="s">
+      <c r="B11" s="390" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="140" t="s">
@@ -42399,18 +42402,18 @@
       <c r="B16" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="318" t="s">
+      <c r="A18" s="316" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="318" t="s">
+      <c r="B18" s="316" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="319" t="s">
+      <c r="A19" s="317" t="s">
         <v>2458</v>
       </c>
-      <c r="B19" s="319" t="s">
+      <c r="B19" s="317" t="s">
         <v>2458</v>
       </c>
     </row>
@@ -42811,11 +42814,11 @@
       <c r="B8" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="394" t="s">
+      <c r="C8" s="391" t="s">
         <v>1030</v>
       </c>
-      <c r="D8" s="394"/>
-      <c r="E8" s="394"/>
+      <c r="D8" s="391"/>
+      <c r="E8" s="391"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
@@ -43400,10 +43403,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="332" t="s">
+      <c r="A12" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="332" t="s">
+      <c r="B12" s="330" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -43580,10 +43583,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="332" t="s">
+      <c r="A12" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="332" t="s">
+      <c r="B12" s="330" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -43789,7 +43792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44288,14 +44291,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B40"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -44593,18 +44594,18 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="382" t="s">
+      <c r="A39" s="379" t="s">
         <v>2551</v>
       </c>
-      <c r="B39" s="382" t="s">
+      <c r="B39" s="379" t="s">
         <v>2551</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="382" t="s">
+      <c r="A40" s="379" t="s">
         <v>2569</v>
       </c>
-      <c r="B40" s="382" t="s">
+      <c r="B40" s="379" t="s">
         <v>2569</v>
       </c>
     </row>
@@ -44623,28 +44624,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="8" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>1209</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="8" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -44657,204 +44659,204 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="97" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="96" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="97" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="97" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="398" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="398" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="358" t="s">
         <v>2012</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="18" t="s">
         <v>1309</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="96" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="96" t="s">
         <v>743</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="96" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="97" t="s">
         <v>500</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="97" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="292" t="s">
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="399" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="292" t="s">
+      <c r="B16" s="399" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="293" t="s">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="400" t="s">
         <v>1109</v>
       </c>
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="400" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="293" t="s">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="400" t="s">
         <v>1093</v>
       </c>
-      <c r="B18" s="293" t="s">
+      <c r="B18" s="400" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="293" t="s">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="400" t="s">
         <v>1113</v>
       </c>
-      <c r="B19" s="293" t="s">
+      <c r="B19" s="400" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="293" t="s">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="400" t="s">
         <v>1093</v>
       </c>
-      <c r="B20" s="293" t="s">
+      <c r="B20" s="400" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="293" t="s">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="400" t="s">
         <v>1113</v>
       </c>
-      <c r="B21" s="293" t="s">
+      <c r="B21" s="400" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="293" t="s">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="400" t="s">
         <v>2018</v>
       </c>
-      <c r="B22" s="293" t="s">
+      <c r="B22" s="400" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="293" t="s">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="400" t="s">
         <v>2020</v>
       </c>
-      <c r="B23" s="293" t="s">
+      <c r="B23" s="400" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="293" t="s">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="400" t="s">
         <v>2021</v>
       </c>
-      <c r="B24" s="293" t="s">
+      <c r="B24" s="400" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="293" t="s">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="400" t="s">
         <v>2023</v>
       </c>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="400" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="293" t="s">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="400" t="s">
         <v>2025</v>
       </c>
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="400" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="293" t="s">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="400" t="s">
         <v>1635</v>
       </c>
-      <c r="B27" s="293" t="s">
+      <c r="B27" s="400" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="293" t="s">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="400" t="s">
         <v>1633</v>
       </c>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="400" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="293" t="s">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="400" t="s">
         <v>1360</v>
       </c>
-      <c r="B29" s="293" t="s">
+      <c r="B29" s="400" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="381" t="s">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="401" t="s">
         <v>2568</v>
       </c>
-      <c r="B30" s="381" t="s">
+      <c r="B30" s="401" t="s">
         <v>2568</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>2570</v>
       </c>
     </row>
@@ -44872,7 +44874,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -45071,14 +45073,12 @@
   <sheetPr codeName="Лист11"/>
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -45190,42 +45190,42 @@
       <c r="B15" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="296" t="s">
+      <c r="A17" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="296" t="s">
+      <c r="B17" s="294" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="297" t="s">
+      <c r="A18" s="295" t="s">
         <v>2053</v>
       </c>
-      <c r="B18" s="297" t="s">
+      <c r="B18" s="295" t="s">
         <v>2054</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="297" t="s">
+      <c r="A19" s="295" t="s">
         <v>2055</v>
       </c>
-      <c r="B19" s="297" t="s">
+      <c r="B19" s="295" t="s">
         <v>2056</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="297" t="s">
+      <c r="A20" s="295" t="s">
         <v>2057</v>
       </c>
-      <c r="B20" s="297" t="s">
+      <c r="B20" s="295" t="s">
         <v>2058</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="297" t="s">
+      <c r="A21" s="295" t="s">
         <v>2059</v>
       </c>
-      <c r="B21" s="297" t="s">
+      <c r="B21" s="295" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -45330,10 +45330,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="355" t="s">
+      <c r="A11" s="353" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="355" t="s">
+      <c r="B11" s="353" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -45657,10 +45657,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="347" t="s">
+      <c r="A19" s="345" t="s">
         <v>2371</v>
       </c>
-      <c r="B19" s="347" t="s">
+      <c r="B19" s="345" t="s">
         <v>2383</v>
       </c>
       <c r="C19" t="s">
@@ -45668,48 +45668,48 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="348" t="s">
+      <c r="A20" s="346" t="s">
         <v>2372</v>
       </c>
-      <c r="B20" s="348" t="s">
+      <c r="B20" s="346" t="s">
         <v>2372</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="349"/>
-      <c r="B21" s="349"/>
+      <c r="A21" s="347"/>
+      <c r="B21" s="347"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="349"/>
-      <c r="B22" s="349"/>
+      <c r="A22" s="347"/>
+      <c r="B22" s="347"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="349"/>
-      <c r="B23" s="349"/>
+      <c r="A23" s="347"/>
+      <c r="B23" s="347"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="349"/>
-      <c r="B24" s="349"/>
+      <c r="A24" s="347"/>
+      <c r="B24" s="347"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="349"/>
-      <c r="B25" s="349"/>
+      <c r="A25" s="347"/>
+      <c r="B25" s="347"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="349"/>
-      <c r="B26" s="349"/>
+      <c r="A26" s="347"/>
+      <c r="B26" s="347"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="349"/>
-      <c r="B27" s="349"/>
+      <c r="A27" s="347"/>
+      <c r="B27" s="347"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="349"/>
-      <c r="B28" s="349"/>
+      <c r="A28" s="347"/>
+      <c r="B28" s="347"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="349"/>
-      <c r="B29" s="349"/>
+      <c r="A29" s="347"/>
+      <c r="B29" s="347"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -46264,10 +46264,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="356" t="s">
+      <c r="A8" s="354" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="356" t="s">
+      <c r="B8" s="354" t="s">
         <v>153</v>
       </c>
     </row>
@@ -46314,10 +46314,10 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="355" t="s">
+      <c r="A13" s="353" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="355" t="s">
+      <c r="B13" s="353" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -46452,8 +46452,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -47011,7 +47011,7 @@
       <c r="A16" s="120" t="s">
         <v>1127</v>
       </c>
-      <c r="B16" s="384" t="s">
+      <c r="B16" s="381" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -47019,7 +47019,7 @@
       <c r="A17" s="120" t="s">
         <v>1129</v>
       </c>
-      <c r="B17" s="384" t="s">
+      <c r="B17" s="381" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -47623,9 +47623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -47768,7 +47766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48379,7 +48377,7 @@
       <c r="B12" s="148" t="s">
         <v>1747</v>
       </c>
-      <c r="C12" s="387" t="s">
+      <c r="C12" s="384" t="s">
         <v>2591</v>
       </c>
     </row>
@@ -48412,7 +48410,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="313" t="s">
+      <c r="A18" s="311" t="s">
         <v>2179</v>
       </c>
       <c r="B18" s="59" t="s">
@@ -48420,7 +48418,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="313" t="s">
+      <c r="A19" s="311" t="s">
         <v>2180</v>
       </c>
       <c r="B19" s="59" t="s">
@@ -48428,7 +48426,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="313" t="s">
+      <c r="A20" s="311" t="s">
         <v>865</v>
       </c>
       <c r="B20" s="59" t="s">
@@ -48436,10 +48434,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="346" t="s">
+      <c r="A21" s="344" t="s">
         <v>2177</v>
       </c>
-      <c r="B21" s="346" t="s">
+      <c r="B21" s="344" t="s">
         <v>2178</v>
       </c>
     </row>
@@ -48476,18 +48474,18 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="345" t="s">
+      <c r="A26" s="343" t="s">
         <v>2370</v>
       </c>
-      <c r="B26" s="345" t="s">
+      <c r="B26" s="343" t="s">
         <v>2370</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="345" t="s">
+      <c r="A27" s="343" t="s">
         <v>1713</v>
       </c>
-      <c r="B27" s="345" t="s">
+      <c r="B27" s="343" t="s">
         <v>1713</v>
       </c>
     </row>
@@ -48672,7 +48670,7 @@
       <c r="A19" s="79" t="s">
         <v>863</v>
       </c>
-      <c r="B19" s="385" t="s">
+      <c r="B19" s="382" t="s">
         <v>864</v>
       </c>
     </row>
@@ -48696,7 +48694,7 @@
       <c r="A22" s="79" t="s">
         <v>867</v>
       </c>
-      <c r="B22" s="385" t="s">
+      <c r="B22" s="382" t="s">
         <v>869</v>
       </c>
     </row>
@@ -49092,10 +49090,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="351" t="s">
+      <c r="A13" s="349" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="351" t="s">
+      <c r="B13" s="349" t="s">
         <v>260</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -49193,10 +49191,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="343" t="s">
+      <c r="A26" s="341" t="s">
         <v>2339</v>
       </c>
-      <c r="B26" s="343" t="s">
+      <c r="B26" s="341" t="s">
         <v>2340</v>
       </c>
     </row>
@@ -50066,10 +50064,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="324" t="s">
+      <c r="A26" s="322" t="s">
         <v>2260</v>
       </c>
-      <c r="B26" s="324" t="s">
+      <c r="B26" s="322" t="s">
         <v>2259</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -50077,10 +50075,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="395" t="s">
+      <c r="A27" s="392" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="395" t="s">
+      <c r="B27" s="392" t="s">
         <v>281</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -50088,15 +50086,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="396"/>
-      <c r="B28" s="396"/>
+      <c r="A28" s="393"/>
+      <c r="B28" s="393"/>
       <c r="C28" s="22" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="397"/>
-      <c r="B29" s="397"/>
+      <c r="A29" s="394"/>
+      <c r="B29" s="394"/>
       <c r="C29" s="22" t="s">
         <v>1592</v>
       </c>
@@ -50262,43 +50260,43 @@
       <c r="I7" s="279"/>
     </row>
     <row r="8" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="342"/>
-      <c r="B8" s="342"/>
+      <c r="A8" s="340"/>
+      <c r="B8" s="340"/>
       <c r="C8" s="179" t="s">
         <v>2334</v>
       </c>
-      <c r="D8" s="341"/>
-      <c r="E8" s="341"/>
-      <c r="F8" s="341"/>
-      <c r="G8" s="341"/>
-      <c r="H8" s="341"/>
-      <c r="I8" s="341"/>
+      <c r="D8" s="339"/>
+      <c r="E8" s="339"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
     </row>
     <row r="9" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="342"/>
-      <c r="B9" s="342"/>
+      <c r="A9" s="340"/>
+      <c r="B9" s="340"/>
       <c r="C9" s="179" t="s">
         <v>2335</v>
       </c>
-      <c r="D9" s="341"/>
-      <c r="E9" s="341"/>
-      <c r="F9" s="341"/>
-      <c r="G9" s="341"/>
-      <c r="H9" s="341"/>
-      <c r="I9" s="341"/>
+      <c r="D9" s="339"/>
+      <c r="E9" s="339"/>
+      <c r="F9" s="339"/>
+      <c r="G9" s="339"/>
+      <c r="H9" s="339"/>
+      <c r="I9" s="339"/>
     </row>
     <row r="10" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="342"/>
-      <c r="B10" s="342"/>
+      <c r="A10" s="340"/>
+      <c r="B10" s="340"/>
       <c r="C10" s="179" t="s">
         <v>2336</v>
       </c>
-      <c r="D10" s="341"/>
-      <c r="E10" s="341"/>
-      <c r="F10" s="341"/>
-      <c r="G10" s="341"/>
-      <c r="H10" s="341"/>
-      <c r="I10" s="341"/>
+      <c r="D10" s="339"/>
+      <c r="E10" s="339"/>
+      <c r="F10" s="339"/>
+      <c r="G10" s="339"/>
+      <c r="H10" s="339"/>
+      <c r="I10" s="339"/>
     </row>
     <row r="11" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
@@ -50431,13 +50429,13 @@
       <c r="B19" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="325"/>
-      <c r="D19" s="325"/>
-      <c r="E19" s="325"/>
-      <c r="F19" s="325"/>
-      <c r="G19" s="325"/>
-      <c r="H19" s="325"/>
-      <c r="I19" s="325"/>
+      <c r="C19" s="323"/>
+      <c r="D19" s="323"/>
+      <c r="E19" s="323"/>
+      <c r="F19" s="323"/>
+      <c r="G19" s="323"/>
+      <c r="H19" s="323"/>
+      <c r="I19" s="323"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
@@ -50464,12 +50462,12 @@
         <v>223</v>
       </c>
       <c r="C21" s="179"/>
-      <c r="D21" s="325"/>
-      <c r="E21" s="325"/>
-      <c r="F21" s="325"/>
-      <c r="G21" s="325"/>
-      <c r="H21" s="325"/>
-      <c r="I21" s="325"/>
+      <c r="D21" s="323"/>
+      <c r="E21" s="323"/>
+      <c r="F21" s="323"/>
+      <c r="G21" s="323"/>
+      <c r="H21" s="323"/>
+      <c r="I21" s="323"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -50504,21 +50502,21 @@
       <c r="I23" s="279"/>
     </row>
     <row r="24" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="359" t="s">
+      <c r="A24" s="357" t="s">
         <v>2094</v>
       </c>
-      <c r="B24" s="359" t="s">
+      <c r="B24" s="357" t="s">
         <v>1644</v>
       </c>
       <c r="C24" s="179" t="s">
         <v>2095</v>
       </c>
-      <c r="D24" s="354"/>
-      <c r="E24" s="354"/>
-      <c r="F24" s="354"/>
-      <c r="G24" s="354"/>
-      <c r="H24" s="354"/>
-      <c r="I24" s="354"/>
+      <c r="D24" s="352"/>
+      <c r="E24" s="352"/>
+      <c r="F24" s="352"/>
+      <c r="G24" s="352"/>
+      <c r="H24" s="352"/>
+      <c r="I24" s="352"/>
     </row>
     <row r="25" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="258" t="s">
@@ -50530,12 +50528,12 @@
       <c r="C25" s="25" t="s">
         <v>2268</v>
       </c>
-      <c r="D25" s="358"/>
-      <c r="E25" s="358"/>
-      <c r="F25" s="358"/>
-      <c r="G25" s="358"/>
-      <c r="H25" s="358"/>
-      <c r="I25" s="358"/>
+      <c r="D25" s="356"/>
+      <c r="E25" s="356"/>
+      <c r="F25" s="356"/>
+      <c r="G25" s="356"/>
+      <c r="H25" s="356"/>
+      <c r="I25" s="356"/>
     </row>
     <row r="26" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="141" t="s">
@@ -50547,12 +50545,12 @@
       <c r="C26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="358"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="358"/>
-      <c r="G26" s="358"/>
-      <c r="H26" s="358"/>
-      <c r="I26" s="358"/>
+      <c r="D26" s="356"/>
+      <c r="E26" s="356"/>
+      <c r="F26" s="356"/>
+      <c r="G26" s="356"/>
+      <c r="H26" s="356"/>
+      <c r="I26" s="356"/>
     </row>
     <row r="27" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="141" t="s">
@@ -50562,12 +50560,12 @@
         <v>124</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="358"/>
-      <c r="E27" s="358"/>
-      <c r="F27" s="358"/>
-      <c r="G27" s="358"/>
-      <c r="H27" s="358"/>
-      <c r="I27" s="358"/>
+      <c r="D27" s="356"/>
+      <c r="E27" s="356"/>
+      <c r="F27" s="356"/>
+      <c r="G27" s="356"/>
+      <c r="H27" s="356"/>
+      <c r="I27" s="356"/>
     </row>
     <row r="28" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="184" t="s">
@@ -50577,12 +50575,12 @@
         <v>852</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="358"/>
-      <c r="E28" s="358"/>
-      <c r="F28" s="358"/>
-      <c r="G28" s="358"/>
-      <c r="H28" s="358"/>
-      <c r="I28" s="358"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="356"/>
+      <c r="F28" s="356"/>
+      <c r="G28" s="356"/>
+      <c r="H28" s="356"/>
+      <c r="I28" s="356"/>
     </row>
     <row r="29" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="141" t="s">
@@ -50594,12 +50592,12 @@
       <c r="C29" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="358"/>
-      <c r="E29" s="358"/>
-      <c r="F29" s="358"/>
-      <c r="G29" s="358"/>
-      <c r="H29" s="358"/>
-      <c r="I29" s="358"/>
+      <c r="D29" s="356"/>
+      <c r="E29" s="356"/>
+      <c r="F29" s="356"/>
+      <c r="G29" s="356"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
     </row>
     <row r="30" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="141" t="s">
@@ -50611,12 +50609,12 @@
       <c r="C30" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="358"/>
-      <c r="E30" s="358"/>
-      <c r="F30" s="358"/>
-      <c r="G30" s="358"/>
-      <c r="H30" s="358"/>
-      <c r="I30" s="358"/>
+      <c r="D30" s="356"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="356"/>
+      <c r="H30" s="356"/>
+      <c r="I30" s="356"/>
     </row>
     <row r="31" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="141" t="s">
@@ -50628,12 +50626,12 @@
       <c r="C31" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="358"/>
-      <c r="E31" s="358"/>
-      <c r="F31" s="358"/>
-      <c r="G31" s="358"/>
-      <c r="H31" s="358"/>
-      <c r="I31" s="358"/>
+      <c r="D31" s="356"/>
+      <c r="E31" s="356"/>
+      <c r="F31" s="356"/>
+      <c r="G31" s="356"/>
+      <c r="H31" s="356"/>
+      <c r="I31" s="356"/>
     </row>
     <row r="32" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="184" t="s">
@@ -50643,12 +50641,12 @@
         <v>189</v>
       </c>
       <c r="C32" s="25"/>
-      <c r="D32" s="358"/>
-      <c r="E32" s="358"/>
-      <c r="F32" s="358"/>
-      <c r="G32" s="358"/>
-      <c r="H32" s="358"/>
-      <c r="I32" s="358"/>
+      <c r="D32" s="356"/>
+      <c r="E32" s="356"/>
+      <c r="F32" s="356"/>
+      <c r="G32" s="356"/>
+      <c r="H32" s="356"/>
+      <c r="I32" s="356"/>
     </row>
     <row r="33" spans="1:3" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
@@ -50981,10 +50979,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="351" t="s">
+      <c r="A10" s="349" t="s">
         <v>2511</v>
       </c>
-      <c r="B10" s="351" t="s">
+      <c r="B10" s="349" t="s">
         <v>2503</v>
       </c>
     </row>
@@ -51560,7 +51558,7 @@
       <c r="A82" s="176" t="s">
         <v>2099</v>
       </c>
-      <c r="B82" s="369" t="s">
+      <c r="B82" s="367" t="s">
         <v>2101</v>
       </c>
     </row>
@@ -51581,82 +51579,82 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="377" t="s">
+      <c r="A85" s="375" t="s">
         <v>574</v>
       </c>
-      <c r="B85" s="377" t="s">
+      <c r="B85" s="375" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="377" t="s">
+      <c r="A86" s="375" t="s">
         <v>575</v>
       </c>
-      <c r="B86" s="377" t="s">
+      <c r="B86" s="375" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="377" t="s">
+      <c r="A87" s="375" t="s">
         <v>576</v>
       </c>
-      <c r="B87" s="377" t="s">
+      <c r="B87" s="375" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="377" t="s">
+      <c r="A88" s="375" t="s">
         <v>1840</v>
       </c>
-      <c r="B88" s="377" t="s">
+      <c r="B88" s="375" t="s">
         <v>1840</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="377" t="s">
+      <c r="A89" s="375" t="s">
         <v>1841</v>
       </c>
-      <c r="B89" s="377" t="s">
+      <c r="B89" s="375" t="s">
         <v>1841</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="377" t="s">
+      <c r="A90" s="375" t="s">
         <v>2559</v>
       </c>
-      <c r="B90" s="377" t="s">
+      <c r="B90" s="375" t="s">
         <v>2563</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="377" t="s">
+      <c r="A91" s="375" t="s">
         <v>2560</v>
       </c>
-      <c r="B91" s="377" t="s">
+      <c r="B91" s="375" t="s">
         <v>2564</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="377" t="s">
+      <c r="A92" s="375" t="s">
         <v>2561</v>
       </c>
-      <c r="B92" s="377" t="s">
+      <c r="B92" s="375" t="s">
         <v>2565</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="377" t="s">
+      <c r="A93" s="375" t="s">
         <v>2562</v>
       </c>
-      <c r="B93" s="377" t="s">
+      <c r="B93" s="375" t="s">
         <v>2566</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="377" t="s">
+      <c r="A94" s="375" t="s">
         <v>1411</v>
       </c>
-      <c r="B94" s="377" t="s">
+      <c r="B94" s="375" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -51906,18 +51904,18 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="377" t="s">
+      <c r="A26" s="375" t="s">
         <v>1840</v>
       </c>
-      <c r="B26" s="377" t="s">
+      <c r="B26" s="375" t="s">
         <v>1840</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="377" t="s">
+      <c r="A27" s="375" t="s">
         <v>1841</v>
       </c>
-      <c r="B27" s="377" t="s">
+      <c r="B27" s="375" t="s">
         <v>1841</v>
       </c>
     </row>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="85" activeTab="87"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9081" uniqueCount="2616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9101" uniqueCount="2622">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -6792,13 +6792,7 @@
     <t>перевозчик</t>
   </si>
   <si>
-    <t>Transportationd</t>
-  </si>
-  <si>
     <t>Транспортировка</t>
-  </si>
-  <si>
-    <t>TransportationId</t>
   </si>
   <si>
     <t>конкретная перевозка, например, из Астаны в Алматы</t>
@@ -8084,6 +8078,30 @@
   </si>
   <si>
     <t>владелец - если лицо имеет специфический график</t>
+  </si>
+  <si>
+    <t>это то же что и маршрут</t>
+  </si>
+  <si>
+    <t>Строка договора</t>
+  </si>
+  <si>
+    <t>это может быть внутридоговорная поставка отличающаяся от поставки клиенту</t>
+  </si>
+  <si>
+    <t>Списание (в т.ч. удержание)</t>
+  </si>
+  <si>
+    <t>Движени зарплаты</t>
+  </si>
+  <si>
+    <t>Движени бюджета</t>
+  </si>
+  <si>
+    <t>доминирующее в операци движение ЗП</t>
+  </si>
+  <si>
+    <t>доминирующее в операци движение бюджета</t>
   </si>
 </sst>
 </file>
@@ -8275,7 +8293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -8649,6 +8667,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8729,7 +8762,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="402">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9480,7 +9513,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9662,6 +9694,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9680,18 +9727,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="77">
     <cellStyle name="Гиперссылка" xfId="22" builtinId="8"/>
@@ -10229,7 +10269,7 @@
         <v>1747</v>
       </c>
       <c r="C13" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -10268,15 +10308,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -10292,7 +10332,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -10328,22 +10368,22 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="331" t="s">
+      <c r="A10" s="330" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="331" t="s">
+      <c r="B10" s="330" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="332" t="s">
-        <v>2316</v>
+      <c r="A11" s="331" t="s">
+        <v>2314</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="C11" s="179" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -10354,25 +10394,25 @@
         <v>1681</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="179" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="353" t="s">
+      <c r="A14" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="353" t="s">
+      <c r="B14" s="352" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -10383,7 +10423,7 @@
         <v>418</v>
       </c>
       <c r="C15" s="179" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -10394,7 +10434,7 @@
         <v>412</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -10405,40 +10445,40 @@
         <v>74</v>
       </c>
       <c r="C17" s="179" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="333" t="s">
+      <c r="A18" s="332" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B18" s="332" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C18" s="179" t="s">
         <v>2317</v>
-      </c>
-      <c r="B18" s="333" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C18" s="179" t="s">
-        <v>2319</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="148" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B19" s="148" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="179" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="332" t="s">
-        <v>2316</v>
+      <c r="A20" s="331" t="s">
+        <v>2314</v>
       </c>
       <c r="B20" s="96" t="s">
         <v>124</v>
       </c>
       <c r="C20" s="179" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -10592,7 +10632,7 @@
         <v>994</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -10670,25 +10710,25 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="355" t="s">
+      <c r="A18" s="354" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="355" t="s">
+      <c r="B18" s="354" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="353" t="s">
+      <c r="A19" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="353" t="s">
+      <c r="B19" s="352" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -10699,7 +10739,7 @@
         <v>74</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -10721,7 +10761,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -10759,7 +10799,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -10770,7 +10810,7 @@
         <v>189</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -10914,10 +10954,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="376" t="s">
+      <c r="A45" s="375" t="s">
         <v>525</v>
       </c>
-      <c r="B45" s="376" t="s">
+      <c r="B45" s="375" t="s">
         <v>526</v>
       </c>
       <c r="C45" t="s">
@@ -10925,11 +10965,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="376" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B46" s="376" t="s">
-        <v>2553</v>
+      <c r="A46" s="375" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B46" s="375" t="s">
+        <v>2551</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
@@ -10997,30 +11037,30 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="377" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B55" s="377" t="s">
-        <v>2549</v>
+      <c r="A55" s="376" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B55" s="376" t="s">
+        <v>2547</v>
       </c>
       <c r="C55" t="s">
         <v>2187</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="377" t="s">
-        <v>2550</v>
-      </c>
-      <c r="B56" s="377" t="s">
-        <v>2551</v>
+      <c r="A56" s="376" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B56" s="376" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="377" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B57" s="377" t="s">
-        <v>2555</v>
+      <c r="A57" s="376" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B57" s="376" t="s">
+        <v>2553</v>
       </c>
     </row>
   </sheetData>
@@ -11049,15 +11089,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -11073,7 +11113,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -11085,10 +11125,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="331" t="s">
+      <c r="A7" s="330" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="331" t="s">
+      <c r="B7" s="330" t="s">
         <v>153</v>
       </c>
     </row>
@@ -11142,25 +11182,25 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="353" t="s">
+      <c r="A13" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="353" t="s">
+      <c r="B13" s="352" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="362" t="s">
+      <c r="A14" s="361" t="s">
         <v>277</v>
       </c>
-      <c r="B14" s="362" t="s">
+      <c r="B14" s="361" t="s">
         <v>247</v>
       </c>
       <c r="C14" s="179" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -11173,7 +11213,7 @@
       <c r="C15" s="179" t="s">
         <v>1724</v>
       </c>
-      <c r="D15" s="358"/>
+      <c r="D15" s="357"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="185" t="s">
@@ -11183,17 +11223,17 @@
         <v>1410</v>
       </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="358"/>
+      <c r="D16" s="357"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="148" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B17" s="148" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="358"/>
+      <c r="D17" s="357"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="141" t="s">
@@ -11202,10 +11242,10 @@
       <c r="B18" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="360" t="s">
-        <v>2483</v>
-      </c>
-      <c r="D18" s="358"/>
+      <c r="C18" s="359" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D18" s="357"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="141" t="s">
@@ -11214,8 +11254,8 @@
       <c r="B19" s="141" t="s">
         <v>2092</v>
       </c>
-      <c r="C19" s="360"/>
-      <c r="D19" s="358"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="357"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="141" t="s">
@@ -11224,8 +11264,8 @@
       <c r="B20" s="141" t="s">
         <v>2093</v>
       </c>
-      <c r="C20" s="360"/>
-      <c r="D20" s="358"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="357"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="148" t="s">
@@ -11235,7 +11275,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="358"/>
+      <c r="D21" s="357"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="184" t="s">
@@ -11245,7 +11285,7 @@
         <v>189</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="358"/>
+      <c r="D22" s="357"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="96" t="s">
@@ -11254,7 +11294,7 @@
       <c r="B23" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="C23" s="360"/>
+      <c r="C23" s="359"/>
       <c r="D23" s="179"/>
       <c r="E23" s="179"/>
       <c r="F23" s="179"/>
@@ -11268,7 +11308,7 @@
       <c r="B24" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="361"/>
+      <c r="C24" s="360"/>
       <c r="D24" s="179"/>
       <c r="E24" s="179"/>
       <c r="F24" s="179"/>
@@ -11502,7 +11542,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11510,7 +11550,7 @@
         <v>1700</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="C4" s="22"/>
     </row>
@@ -11527,7 +11567,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -11557,7 +11597,7 @@
         <v>994</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -11569,10 +11609,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="354" t="s">
+      <c r="A11" s="353" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="354" t="s">
+      <c r="B11" s="353" t="s">
         <v>153</v>
       </c>
     </row>
@@ -11624,14 +11664,14 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="353" t="s">
+      <c r="A17" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="353" t="s">
+      <c r="B17" s="352" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -11642,7 +11682,7 @@
         <v>74</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -11664,7 +11704,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -11702,7 +11742,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -11713,7 +11753,7 @@
         <v>189</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -11782,7 +11822,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11790,7 +11830,7 @@
         <v>370</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -11806,7 +11846,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -11826,7 +11866,7 @@
         <v>994</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11846,10 +11886,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="354" t="s">
+      <c r="A11" s="353" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="354" t="s">
+      <c r="B11" s="353" t="s">
         <v>153</v>
       </c>
       <c r="C11" s="25"/>
@@ -11975,7 +12015,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -12013,7 +12053,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -12024,7 +12064,7 @@
         <v>189</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -12688,7 +12728,7 @@
         <v>994</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -12700,10 +12740,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="353" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="354" t="s">
+      <c r="B10" s="353" t="s">
         <v>153</v>
       </c>
     </row>
@@ -12805,7 +12845,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -12843,7 +12883,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -12854,7 +12894,7 @@
         <v>189</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -13020,36 +13060,36 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="324" t="s">
-        <v>2269</v>
-      </c>
-      <c r="B17" s="324" t="s">
-        <v>2269</v>
+      <c r="A17" s="323" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B17" s="323" t="s">
+        <v>2267</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="324" t="s">
-        <v>2545</v>
-      </c>
-      <c r="B18" s="324" t="s">
-        <v>2545</v>
+      <c r="A18" s="323" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B18" s="323" t="s">
+        <v>2543</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="324" t="s">
-        <v>2546</v>
-      </c>
-      <c r="B19" s="324" t="s">
-        <v>2546</v>
+      <c r="A19" s="323" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B19" s="323" t="s">
+        <v>2544</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13060,7 +13100,7 @@
         <v>1411</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13071,7 +13111,7 @@
         <v>1412</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13082,7 +13122,7 @@
         <v>2074</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13093,7 +13133,7 @@
         <v>1439</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13104,15 +13144,15 @@
         <v>1979</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="283" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="B25" s="283" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13153,18 +13193,18 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -13180,7 +13220,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -13210,7 +13250,7 @@
         <v>994</v>
       </c>
       <c r="C8" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -13221,7 +13261,7 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -13254,13 +13294,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="D13" s="22"/>
     </row>
@@ -13272,7 +13312,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -13287,7 +13327,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -13317,7 +13357,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -13371,7 +13411,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -13386,7 +13426,7 @@
         <v>189</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -13959,10 +13999,10 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="318" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B20" s="318" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
   </sheetData>
@@ -13994,15 +14034,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -14018,7 +14058,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14037,7 +14077,7 @@
         <v>994</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -14049,10 +14089,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="331" t="s">
+      <c r="A9" s="330" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="331" t="s">
+      <c r="B9" s="330" t="s">
         <v>153</v>
       </c>
     </row>
@@ -14086,7 +14126,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="110" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B13" s="110" t="s">
         <v>70</v>
@@ -14101,14 +14141,14 @@
       <c r="H13" s="179"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="335" t="s">
+      <c r="A14" s="334" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="336" t="s">
+      <c r="B14" s="335" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="179" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="D14" s="179"/>
       <c r="E14" s="179"/>
@@ -14117,14 +14157,14 @@
       <c r="H14" s="179"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="335" t="s">
+      <c r="A15" s="334" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B15" s="335" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="179" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="D15" s="179"/>
       <c r="E15" s="179"/>
@@ -14133,14 +14173,14 @@
       <c r="H15" s="179"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="335" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B16" s="336" t="s">
+      <c r="A16" s="334" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B16" s="335" t="s">
         <v>2071</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="D16" s="179"/>
       <c r="E16" s="179"/>
@@ -14165,7 +14205,7 @@
         <v>125</v>
       </c>
       <c r="C18" s="179" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="D18" s="179"/>
       <c r="E18" s="179"/>
@@ -14313,7 +14353,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="179" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
   </sheetData>
@@ -14350,7 +14390,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1875</v>
@@ -14600,7 +14640,7 @@
         <v>994</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -14612,10 +14652,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="354" t="s">
+      <c r="A10" s="353" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="354" t="s">
+      <c r="B10" s="353" t="s">
         <v>153</v>
       </c>
     </row>
@@ -14773,7 +14813,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -14811,7 +14851,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -14822,7 +14862,7 @@
         <v>189</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -15048,10 +15088,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="218" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="B11" s="218" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -15356,7 +15396,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -15509,18 +15549,18 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="315" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="B31" s="315" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="315" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B32" s="315" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
   </sheetData>
@@ -15629,13 +15669,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B12" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -15826,7 +15866,7 @@
         <v>1747</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -16134,16 +16174,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="230" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="B16" s="230" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>658</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -16193,103 +16233,103 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="337" t="s">
+      <c r="A25" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="337" t="s">
+      <c r="B25" s="336" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="337" t="s">
+      <c r="C25" s="336" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="337" t="s">
+      <c r="D25" s="336" t="s">
         <v>2040</v>
       </c>
-      <c r="E25" s="337" t="s">
+      <c r="E25" s="336" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="337" t="s">
+      <c r="F25" s="336" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="338" t="s">
+      <c r="A26" s="337" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B26" s="337" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C26" s="337" t="s">
+        <v>741</v>
+      </c>
+      <c r="D26" s="337" t="s">
+        <v>577</v>
+      </c>
+      <c r="E26" s="337" t="s">
+        <v>662</v>
+      </c>
+      <c r="F26" s="337" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="337" t="s">
         <v>2325</v>
       </c>
-      <c r="B26" s="338" t="s">
+      <c r="B27" s="337" t="s">
         <v>2326</v>
       </c>
-      <c r="C26" s="338" t="s">
+      <c r="C27" s="337" t="s">
         <v>741</v>
       </c>
-      <c r="D26" s="338" t="s">
+      <c r="D27" s="337" t="s">
         <v>577</v>
       </c>
-      <c r="E26" s="338" t="s">
+      <c r="E27" s="337" t="s">
         <v>662</v>
       </c>
-      <c r="F26" s="338" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="338" t="s">
+      <c r="F27" s="337" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="337" t="s">
         <v>2327</v>
       </c>
-      <c r="B27" s="338" t="s">
+      <c r="B28" s="337" t="s">
         <v>2328</v>
       </c>
-      <c r="C27" s="338" t="s">
+      <c r="C28" s="337" t="s">
         <v>741</v>
       </c>
-      <c r="D27" s="338" t="s">
+      <c r="D28" s="337" t="s">
         <v>577</v>
       </c>
-      <c r="E27" s="338" t="s">
+      <c r="E28" s="337" t="s">
         <v>662</v>
       </c>
-      <c r="F27" s="338" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="338" t="s">
+      <c r="F28" s="337" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="337" t="s">
         <v>2329</v>
       </c>
-      <c r="B28" s="338" t="s">
+      <c r="B29" s="337" t="s">
         <v>2330</v>
       </c>
-      <c r="C28" s="338" t="s">
+      <c r="C29" s="337" t="s">
         <v>741</v>
       </c>
-      <c r="D28" s="338" t="s">
+      <c r="D29" s="337" t="s">
         <v>577</v>
       </c>
-      <c r="E28" s="338" t="s">
+      <c r="E29" s="337" t="s">
         <v>662</v>
       </c>
-      <c r="F28" s="338" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="338" t="s">
-        <v>2331</v>
-      </c>
-      <c r="B29" s="338" t="s">
-        <v>2332</v>
-      </c>
-      <c r="C29" s="338" t="s">
-        <v>741</v>
-      </c>
-      <c r="D29" s="338" t="s">
-        <v>577</v>
-      </c>
-      <c r="E29" s="338" t="s">
-        <v>662</v>
-      </c>
-      <c r="F29" s="338" t="s">
-        <v>2364</v>
+      <c r="F29" s="337" t="s">
+        <v>2362</v>
       </c>
     </row>
   </sheetData>
@@ -17305,7 +17345,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -17316,7 +17356,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -17365,7 +17405,7 @@
         <v>474</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -17376,7 +17416,7 @@
         <v>475</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -17650,7 +17690,7 @@
       <c r="A31" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="B31" s="383" t="s">
+      <c r="B31" s="382" t="s">
         <v>448</v>
       </c>
     </row>
@@ -17658,7 +17698,7 @@
       <c r="A32" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="B32" s="383" t="s">
+      <c r="B32" s="382" t="s">
         <v>450</v>
       </c>
     </row>
@@ -17939,10 +17979,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
   </sheetData>
@@ -18031,28 +18071,28 @@
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="368" t="s">
+      <c r="A9" s="367" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="368" t="s">
+      <c r="B9" s="367" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="143" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="336" t="s">
+      <c r="A10" s="335" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="336" t="s">
+      <c r="B10" s="335" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="358" t="s">
-        <v>2499</v>
+      <c r="C10" s="357" t="s">
+        <v>2497</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -18084,13 +18124,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B14" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -18269,7 +18309,7 @@
         <v>1747</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -18400,18 +18440,18 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="312" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="B29" s="312" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="312" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B30" s="312" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
   </sheetData>
@@ -18475,13 +18515,13 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="363" t="s">
+      <c r="A7" s="362" t="s">
         <v>1042</v>
       </c>
-      <c r="B7" s="363" t="s">
+      <c r="B7" s="362" t="s">
         <v>412</v>
       </c>
-      <c r="C7" s="364" t="s">
+      <c r="C7" s="363" t="s">
         <v>678</v>
       </c>
     </row>
@@ -18510,25 +18550,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="336" t="s">
+      <c r="A11" s="335" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="336" t="s">
+      <c r="B11" s="335" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="358" t="s">
-        <v>2499</v>
+      <c r="C11" s="357" t="s">
+        <v>2497</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="340" t="s">
+      <c r="A12" s="339" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="340" t="s">
+      <c r="B12" s="339" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -18536,18 +18576,18 @@
         <v>1255</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B14" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -19321,7 +19361,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -19332,7 +19372,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -19395,7 +19435,7 @@
         <v>474</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -19406,7 +19446,7 @@
         <v>475</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -19629,13 +19669,13 @@
 
 <file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19649,15 +19689,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -19673,7 +19713,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -19713,7 +19753,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="241" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="B10" s="241" t="s">
         <v>326</v>
@@ -19727,7 +19767,7 @@
         <v>1772</v>
       </c>
       <c r="B11" s="241" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -19735,107 +19775,123 @@
         <v>1773</v>
       </c>
       <c r="B12" s="241" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="258" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B13" s="258" t="s">
+      <c r="A13" s="141" t="s">
+        <v>853</v>
+      </c>
+      <c r="B13" s="141" t="s">
+        <v>854</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="148" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="148" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="148" t="s">
+      <c r="B16" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="141" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>2090</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B17" s="15" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="141" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>2091</v>
       </c>
-      <c r="B17" s="141" t="s">
+      <c r="B18" s="15" t="s">
         <v>2093</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="148" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B19" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="184" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
         <v>913</v>
       </c>
-      <c r="B19" s="148" t="s">
+      <c r="B20" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B23" s="57" t="s">
         <v>1747</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="22" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>2194</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2614</v>
       </c>
     </row>
   </sheetData>
@@ -20225,37 +20281,37 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A48" s="192" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B48" s="192" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="327" t="s">
-        <v>2292</v>
-      </c>
-      <c r="B50" s="327" t="s">
-        <v>2292</v>
+      <c r="A50" s="326" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B50" s="326" t="s">
+        <v>2290</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="327" t="s">
-        <v>2322</v>
-      </c>
-      <c r="B51" s="327" t="s">
-        <v>2323</v>
+      <c r="A51" s="326" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B51" s="326" t="s">
+        <v>2321</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -20556,15 +20612,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -20580,7 +20636,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -20640,25 +20696,25 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="351" t="s">
+      <c r="A13" s="350" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="349" t="s">
+      <c r="B13" s="348" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="351" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B14" s="349" t="s">
+      <c r="A14" s="350" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B14" s="348" t="s">
         <v>2071</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -21170,7 +21226,7 @@
         <v>976</v>
       </c>
       <c r="C35" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -21444,22 +21500,22 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
   </sheetData>
@@ -21759,7 +21815,7 @@
         <v>2102</v>
       </c>
       <c r="B34" s="305" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -21767,7 +21823,7 @@
         <v>2102</v>
       </c>
       <c r="B35" s="305" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
     </row>
   </sheetData>
@@ -21799,15 +21855,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -21823,7 +21879,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -21904,114 +21960,114 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="314" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B17" s="314" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="314" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B18" s="314" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="314" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B19" s="314" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="314" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B20" s="314" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="314" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B21" s="314" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="314" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B22" s="314" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="314" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B23" s="314" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="314" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B24" s="314" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="314" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="B25" s="314" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="314" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B26" s="314" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="314" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B27" s="314" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="314" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B28" s="314" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="314" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B29" s="314" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="314" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B30" s="314" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -22046,10 +22102,10 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -22065,7 +22121,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -22076,7 +22132,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -22087,7 +22143,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -22139,10 +22195,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="233" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B12" s="233" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>678</v>
@@ -22153,7 +22209,7 @@
         <v>158</v>
       </c>
       <c r="B13" s="233" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -22180,7 +22236,7 @@
         <v>1747</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -22193,17 +22249,17 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
   </sheetData>
@@ -22376,15 +22432,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -22400,7 +22456,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -22439,7 +22495,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>2071</v>
@@ -22485,13 +22541,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B14" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -22560,7 +22616,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
   </sheetData>
@@ -22709,7 +22765,7 @@
         <v>137</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -22932,7 +22988,7 @@
         <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -23028,10 +23084,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="392" t="s">
+      <c r="A32" s="396" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="392" t="s">
+      <c r="B32" s="396" t="s">
         <v>281</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -23039,15 +23095,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="393"/>
-      <c r="B33" s="393"/>
+      <c r="A33" s="397"/>
+      <c r="B33" s="397"/>
       <c r="C33" s="22" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="394"/>
-      <c r="B34" s="394"/>
+      <c r="A34" s="398"/>
+      <c r="B34" s="398"/>
       <c r="C34" s="22" t="s">
         <v>1592</v>
       </c>
@@ -23122,10 +23178,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="141" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B45" s="141" t="s">
-        <v>2193</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -23227,13 +23283,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B58" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -24109,7 +24165,7 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1745</v>
@@ -24283,13 +24339,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>1410</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -24337,10 +24393,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="384" t="s">
         <v>1479</v>
       </c>
-      <c r="B28" s="385" t="s">
+      <c r="B28" s="384" t="s">
         <v>1480</v>
       </c>
       <c r="C28" s="22"/>
@@ -27200,7 +27256,7 @@
         <v>1747</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -27243,14 +27299,14 @@
         <v>1749</v>
       </c>
       <c r="C16" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="342"/>
-      <c r="B17" s="342"/>
+      <c r="A17" s="341"/>
+      <c r="B17" s="341"/>
       <c r="C17" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -27261,7 +27317,7 @@
         <v>1750</v>
       </c>
       <c r="C18" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -27272,14 +27328,14 @@
         <v>1786</v>
       </c>
       <c r="C19" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="342"/>
-      <c r="B20" s="342"/>
+      <c r="A20" s="341"/>
+      <c r="B20" s="341"/>
       <c r="C20" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -28162,10 +28218,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="395" t="s">
+      <c r="A11" s="399" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="395" t="s">
+      <c r="B11" s="399" t="s">
         <v>281</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -28173,15 +28229,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="396"/>
-      <c r="B12" s="396"/>
+      <c r="A12" s="400"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="25" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="397"/>
-      <c r="B13" s="397"/>
+      <c r="A13" s="401"/>
+      <c r="B13" s="401"/>
       <c r="C13" s="25" t="s">
         <v>1592</v>
       </c>
@@ -28513,10 +28569,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="395" t="s">
+      <c r="A14" s="399" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="395" t="s">
+      <c r="B14" s="399" t="s">
         <v>281</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -28524,15 +28580,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="396"/>
-      <c r="B15" s="396"/>
+      <c r="A15" s="400"/>
+      <c r="B15" s="400"/>
       <c r="C15" s="25" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="397"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="401"/>
+      <c r="B16" s="401"/>
       <c r="C16" s="25" t="s">
         <v>1592</v>
       </c>
@@ -29203,7 +29259,7 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1783</v>
@@ -29539,13 +29595,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>1410</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D37" s="22"/>
     </row>
@@ -29686,47 +29742,47 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
   </sheetData>
@@ -29738,9 +29794,9 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист32"/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29876,7 +29932,7 @@
         <v>103</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D14" s="143"/>
       <c r="E14" s="143"/>
@@ -29940,11 +29996,11 @@
       <c r="G18" s="143"/>
       <c r="H18" s="143"/>
     </row>
-    <row r="19" spans="1:8" s="384" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="184" t="s">
+    <row r="19" spans="1:8" s="383" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
         <v>963</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="69" t="s">
         <v>964</v>
       </c>
       <c r="C19" s="143"/>
@@ -29954,11 +30010,11 @@
       <c r="G19" s="143"/>
       <c r="H19" s="143"/>
     </row>
-    <row r="20" spans="1:8" s="384" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="141" t="s">
+    <row r="20" spans="1:8" s="383" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>1679</v>
       </c>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="15" t="s">
         <v>1681</v>
       </c>
       <c r="C20" s="143"/>
@@ -29968,11 +30024,11 @@
       <c r="G20" s="143"/>
       <c r="H20" s="143"/>
     </row>
-    <row r="21" spans="1:8" s="384" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="141" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B21" s="141" t="s">
+    <row r="21" spans="1:8" s="383" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>1860</v>
       </c>
       <c r="C21" s="143"/>
@@ -29982,50 +30038,82 @@
       <c r="G21" s="143"/>
       <c r="H21" s="143"/>
     </row>
-    <row r="22" spans="1:8" s="199" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:8" s="383" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="404" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B22" s="404" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="143" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+    </row>
+    <row r="23" spans="1:8" s="383" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="404" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B23" s="404" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="143" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+    </row>
+    <row r="24" spans="1:8" s="199" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C22" s="143"/>
-    </row>
-    <row r="23" spans="1:8" s="199" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="C24" s="143"/>
+    </row>
+    <row r="25" spans="1:8" s="199" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="C23" s="143"/>
-    </row>
-    <row r="24" spans="1:8" s="378" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="C25" s="143"/>
+    </row>
+    <row r="26" spans="1:8" s="377" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>1747</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="C26" s="22" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -30039,7 +30127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
@@ -30348,7 +30436,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -30441,110 +30530,110 @@
       <c r="B12" s="4"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="387" t="s">
+      <c r="A14" s="386" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="387" t="s">
+      <c r="B14" s="386" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="388" t="s">
+      <c r="A15" s="387" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="388" t="s">
+      <c r="B15" s="387" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="388" t="s">
+      <c r="A16" s="387" t="s">
         <v>1098</v>
       </c>
-      <c r="B16" s="388" t="s">
+      <c r="B16" s="387" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="388" t="s">
+      <c r="A17" s="387" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="388" t="s">
+      <c r="B17" s="387" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="388" t="s">
+      <c r="A18" s="387" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="388" t="s">
-        <v>39</v>
+      <c r="B18" s="403" t="s">
+        <v>2617</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="388" t="s">
+      <c r="A19" s="387" t="s">
         <v>908</v>
       </c>
-      <c r="B19" s="388" t="s">
+      <c r="B19" s="387" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="388" t="s">
+      <c r="A20" s="387" t="s">
         <v>1109</v>
       </c>
-      <c r="B20" s="388" t="s">
+      <c r="B20" s="387" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="388" t="s">
+      <c r="A21" s="387" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B21" s="387" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="387" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B22" s="387" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="387" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B23" s="387" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="387" t="s">
         <v>2253</v>
       </c>
-      <c r="B21" s="388" t="s">
+      <c r="B24" s="387" t="s">
         <v>2253</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="388" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B22" s="388" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="388" t="s">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="387" t="s">
         <v>2254</v>
       </c>
-      <c r="B23" s="388" t="s">
+      <c r="B25" s="387" t="s">
         <v>2254</v>
       </c>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="388" t="s">
-        <v>2255</v>
-      </c>
-      <c r="B24" s="388" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="388" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B25" s="388" t="s">
-        <v>2256</v>
-      </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="387" t="s">
         <v>1448</v>
       </c>
-      <c r="B26" s="388" t="s">
+      <c r="B26" s="387" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -30578,15 +30667,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -30602,7 +30691,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -30644,7 +30733,7 @@
       <c r="B10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="356" t="s">
+      <c r="C10" s="355" t="s">
         <v>678</v>
       </c>
     </row>
@@ -30665,14 +30754,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="370" t="s">
+      <c r="A13" s="369" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="370" t="s">
-        <v>2517</v>
-      </c>
-      <c r="C13" s="358" t="s">
-        <v>2410</v>
+      <c r="B13" s="369" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C13" s="357" t="s">
+        <v>2408</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -30682,10 +30771,10 @@
       <c r="B14" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="C14" s="356"/>
-      <c r="D14" s="356"/>
-      <c r="E14" s="356"/>
-      <c r="F14" s="356"/>
+      <c r="C14" s="355"/>
+      <c r="D14" s="355"/>
+      <c r="E14" s="355"/>
+      <c r="F14" s="355"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
@@ -30694,10 +30783,10 @@
       <c r="B15" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="C15" s="356"/>
-      <c r="D15" s="356"/>
-      <c r="E15" s="356"/>
-      <c r="F15" s="356"/>
+      <c r="C15" s="355"/>
+      <c r="D15" s="355"/>
+      <c r="E15" s="355"/>
+      <c r="F15" s="355"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -30712,12 +30801,12 @@
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="371"/>
-      <c r="B18" s="371"/>
+      <c r="A18" s="370"/>
+      <c r="B18" s="370"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="124" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -30740,7 +30829,7 @@
       <c r="A23" s="94" t="s">
         <v>343</v>
       </c>
-      <c r="B23" s="372" t="s">
+      <c r="B23" s="371" t="s">
         <v>327</v>
       </c>
     </row>
@@ -30757,7 +30846,7 @@
         <v>224</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -30834,7 +30923,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1752</v>
@@ -31186,16 +31275,16 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -31211,7 +31300,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -31279,12 +31368,12 @@
       <c r="F12" s="152"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="348"/>
-      <c r="B13" s="348"/>
-      <c r="C13" s="350"/>
-      <c r="D13" s="350"/>
-      <c r="E13" s="350"/>
-      <c r="F13" s="350"/>
+      <c r="A13" s="347"/>
+      <c r="B13" s="347"/>
+      <c r="C13" s="349"/>
+      <c r="D13" s="349"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="349"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="205" t="s">
@@ -31306,10 +31395,10 @@
         <v>158</v>
       </c>
       <c r="B15" s="233" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="C15" s="143" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="D15" s="143"/>
       <c r="E15" s="143"/>
@@ -31317,26 +31406,26 @@
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="351"/>
-      <c r="B16" s="351"/>
+      <c r="A16" s="350"/>
+      <c r="B16" s="350"/>
       <c r="C16" s="313"/>
-      <c r="D16" s="350"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="350"/>
+      <c r="D16" s="349"/>
+      <c r="E16" s="349"/>
+      <c r="F16" s="349"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="351" t="s">
-        <v>2405</v>
-      </c>
-      <c r="B17" s="351" t="s">
-        <v>2404</v>
+      <c r="A17" s="350" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B17" s="350" t="s">
+        <v>2402</v>
       </c>
       <c r="C17" s="313" t="s">
-        <v>2412</v>
-      </c>
-      <c r="D17" s="350"/>
-      <c r="E17" s="350"/>
-      <c r="F17" s="350"/>
+        <v>2410</v>
+      </c>
+      <c r="D17" s="349"/>
+      <c r="E17" s="349"/>
+      <c r="F17" s="349"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="149" t="s">
@@ -31346,19 +31435,19 @@
         <v>1480</v>
       </c>
       <c r="C18" s="313" t="s">
-        <v>2412</v>
-      </c>
-      <c r="D18" s="350"/>
-      <c r="E18" s="350"/>
-      <c r="F18" s="350"/>
+        <v>2410</v>
+      </c>
+      <c r="D18" s="349"/>
+      <c r="E18" s="349"/>
+      <c r="F18" s="349"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="330"/>
-      <c r="B19" s="330"/>
+      <c r="A19" s="329"/>
+      <c r="B19" s="329"/>
       <c r="C19" s="313"/>
-      <c r="D19" s="350"/>
-      <c r="E19" s="350"/>
-      <c r="F19" s="350"/>
+      <c r="D19" s="349"/>
+      <c r="E19" s="349"/>
+      <c r="F19" s="349"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -31412,17 +31501,17 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="143" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="143" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="143" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -31432,7 +31521,7 @@
       <c r="B34" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="350"/>
+      <c r="C34" s="349"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
@@ -31441,7 +31530,7 @@
       <c r="B35" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="350"/>
+      <c r="C35" s="349"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
@@ -31450,7 +31539,7 @@
       <c r="B36" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C36" s="350"/>
+      <c r="C36" s="349"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -31459,7 +31548,7 @@
       <c r="B37" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="350"/>
+      <c r="C37" s="349"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
@@ -31468,7 +31557,7 @@
       <c r="B38" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="350"/>
+      <c r="C38" s="349"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -31477,7 +31566,7 @@
       <c r="B39" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="350" t="s">
+      <c r="C39" s="349" t="s">
         <v>1825</v>
       </c>
     </row>
@@ -31488,7 +31577,7 @@
       <c r="B40" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="350"/>
+      <c r="C40" s="349"/>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="232" t="s">
@@ -31497,11 +31586,11 @@
       <c r="B41" s="232" t="s">
         <v>378</v>
       </c>
-      <c r="C41" s="350"/>
+      <c r="C41" s="349"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="143" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -31509,7 +31598,7 @@
         <v>236</v>
       </c>
       <c r="B44" s="230" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -31517,7 +31606,7 @@
         <v>237</v>
       </c>
       <c r="B45" s="230" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -31525,7 +31614,7 @@
         <v>190</v>
       </c>
       <c r="B46" s="230" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -31533,7 +31622,7 @@
         <v>280</v>
       </c>
       <c r="B47" s="230" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -31541,7 +31630,7 @@
         <v>203</v>
       </c>
       <c r="B48" s="141" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -31549,7 +31638,7 @@
         <v>145</v>
       </c>
       <c r="B49" s="141" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -31557,7 +31646,7 @@
         <v>146</v>
       </c>
       <c r="B50" s="141" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -31565,7 +31654,7 @@
         <v>747</v>
       </c>
       <c r="B51" s="270" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -31573,7 +31662,7 @@
         <v>746</v>
       </c>
       <c r="B52" s="270" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -31589,7 +31678,7 @@
         <v>1595</v>
       </c>
       <c r="B54" s="141" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -31597,7 +31686,7 @@
         <v>1596</v>
       </c>
       <c r="B55" s="141" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -31605,7 +31694,7 @@
         <v>1597</v>
       </c>
       <c r="B56" s="141" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -31880,7 +31969,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -31939,13 +32028,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B13" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -31956,7 +32045,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -32342,7 +32431,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1645</v>
@@ -32468,13 +32557,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B18" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -32714,13 +32803,13 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="266" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B18" s="266" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -32993,13 +33082,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="258" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B12" s="258" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>2541</v>
-      </c>
-      <c r="B12" s="258" t="s">
-        <v>2542</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>2543</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -33646,186 +33735,186 @@
       <c r="B14" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="328" t="s">
+      <c r="A16" s="327" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="328" t="s">
+      <c r="B16" s="327" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="329" t="s">
+      <c r="A17" s="328" t="s">
         <v>771</v>
       </c>
-      <c r="B17" s="329" t="s">
+      <c r="B17" s="328" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="329" t="s">
+      <c r="A18" s="328" t="s">
         <v>773</v>
       </c>
-      <c r="B18" s="329" t="s">
+      <c r="B18" s="328" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="329" t="s">
+      <c r="A19" s="328" t="s">
         <v>775</v>
       </c>
-      <c r="B19" s="329" t="s">
+      <c r="B19" s="328" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="329" t="s">
+      <c r="A20" s="328" t="s">
         <v>776</v>
       </c>
-      <c r="B20" s="329" t="s">
+      <c r="B20" s="328" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="329" t="s">
+      <c r="A21" s="328" t="s">
         <v>778</v>
       </c>
-      <c r="B21" s="329" t="s">
+      <c r="B21" s="328" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="329" t="s">
+      <c r="A22" s="328" t="s">
         <v>779</v>
       </c>
-      <c r="B22" s="329" t="s">
+      <c r="B22" s="328" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="329" t="s">
+      <c r="A23" s="328" t="s">
         <v>781</v>
       </c>
-      <c r="B23" s="329" t="s">
+      <c r="B23" s="328" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="329" t="s">
+      <c r="A24" s="328" t="s">
         <v>1455</v>
       </c>
-      <c r="B24" s="329" t="s">
+      <c r="B24" s="328" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="329" t="s">
+      <c r="A25" s="328" t="s">
         <v>783</v>
       </c>
-      <c r="B25" s="329" t="s">
+      <c r="B25" s="328" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="329" t="s">
+      <c r="A26" s="328" t="s">
         <v>784</v>
       </c>
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="328" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="329" t="s">
+      <c r="A27" s="328" t="s">
         <v>785</v>
       </c>
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="328" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="329" t="s">
+      <c r="A28" s="328" t="s">
         <v>787</v>
       </c>
-      <c r="B28" s="329" t="s">
+      <c r="B28" s="328" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="329" t="s">
+      <c r="A29" s="328" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B29" s="328" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="328" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B30" s="328" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="328" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B31" s="328" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="328" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B32" s="328" t="s">
         <v>2293</v>
       </c>
-      <c r="B29" s="329" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="329" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B30" s="329" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="329" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B31" s="329" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="329" t="s">
+      <c r="C32" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="328" t="s">
         <v>2294</v>
       </c>
-      <c r="B32" s="329" t="s">
+      <c r="B33" s="328" t="s">
         <v>2295</v>
       </c>
-      <c r="C32" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="329" t="s">
+      <c r="C33" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="328" t="s">
         <v>2296</v>
       </c>
-      <c r="B33" s="329" t="s">
+      <c r="B34" s="328" t="s">
         <v>2297</v>
       </c>
-      <c r="C33" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="329" t="s">
+      <c r="C34" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="328" t="s">
         <v>2298</v>
       </c>
-      <c r="B34" s="329" t="s">
+      <c r="B35" s="328" t="s">
         <v>2299</v>
       </c>
-      <c r="C34" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="329" t="s">
+      <c r="C35" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="328" t="s">
         <v>2300</v>
       </c>
-      <c r="B35" s="329" t="s">
-        <v>2301</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="329" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B36" s="329" t="s">
-        <v>2302</v>
+      <c r="B36" s="328" t="s">
+        <v>2300</v>
       </c>
       <c r="C36" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
     </row>
   </sheetData>
@@ -33948,59 +34037,59 @@
       <c r="B13" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="325" t="s">
+      <c r="A15" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="325" t="s">
+      <c r="B15" s="324" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="326" t="s">
+      <c r="A16" s="325" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B16" s="325" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="325" t="s">
         <v>2282</v>
       </c>
-      <c r="B16" s="326" t="s">
+      <c r="B17" s="325" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="325" t="s">
         <v>2283</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="326" t="s">
+      <c r="B18" s="325" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="325" t="s">
         <v>2284</v>
       </c>
-      <c r="B17" s="326" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="326" t="s">
+      <c r="B19" s="325" t="s">
         <v>2285</v>
       </c>
-      <c r="B18" s="326" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="326" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="325" t="s">
         <v>2286</v>
       </c>
-      <c r="B19" s="326" t="s">
+      <c r="B20" s="325" t="s">
         <v>2287</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="326" t="s">
+    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="325" t="s">
         <v>2288</v>
       </c>
-      <c r="B20" s="326" t="s">
+      <c r="B21" s="325" t="s">
         <v>2289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="326" t="s">
-        <v>2290</v>
-      </c>
-      <c r="B21" s="326" t="s">
-        <v>2291</v>
       </c>
     </row>
   </sheetData>
@@ -34207,7 +34296,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -34215,7 +34304,7 @@
         <v>963</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -34231,7 +34320,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -34327,11 +34416,11 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="386" t="s">
-        <v>2580</v>
-      </c>
-      <c r="B19" s="386" t="s">
-        <v>2580</v>
+      <c r="A19" s="385" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B19" s="385" t="s">
+        <v>2578</v>
       </c>
     </row>
   </sheetData>
@@ -34440,10 +34529,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="184" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B12" s="184" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -34475,13 +34564,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>1410</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -34592,7 +34681,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D32"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -34734,81 +34823,117 @@
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="258" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B17" s="258" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>1410</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="148" t="s">
+      <c r="C17" s="22" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="148" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="141" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>2090</v>
       </c>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="15" t="s">
         <v>2092</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="141" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>2091</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="15" t="s">
         <v>2093</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="148" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="184" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="69" t="s">
         <v>913</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="16" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>476</v>
       </c>
@@ -34818,7 +34943,7 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>477</v>
       </c>
@@ -34828,7 +34953,7 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>500</v>
       </c>
@@ -34836,26 +34961,26 @@
         <v>501</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1631</v>
       </c>
@@ -34987,10 +35112,10 @@
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="334" t="s">
+      <c r="A14" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="334" t="s">
+      <c r="B14" s="333" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -35020,13 +35145,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B17" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -35282,7 +35407,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="255" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="B17" s="255" t="s">
         <v>793</v>
@@ -35338,7 +35463,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="174" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B24" s="174" t="s">
         <v>1573</v>
@@ -36074,13 +36199,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B13" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -36150,8 +36275,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="369"/>
-      <c r="B20" s="369"/>
+      <c r="A20" s="368"/>
+      <c r="B20" s="368"/>
       <c r="C20" t="s">
         <v>1376</v>
       </c>
@@ -36498,19 +36623,19 @@
     </row>
     <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A31" s="127" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="C31" s="128"/>
     </row>
     <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A32" s="127" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B32" s="127" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="C32" s="128" t="s">
         <v>577</v>
@@ -36518,10 +36643,10 @@
     </row>
     <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A33" s="127" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B33" s="127" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C33" s="128" t="s">
         <v>577</v>
@@ -36529,10 +36654,10 @@
     </row>
     <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A34" s="127" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B34" s="127" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="C34" s="128" t="s">
         <v>577</v>
@@ -36540,10 +36665,10 @@
     </row>
     <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A35" s="127" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="B35" s="127" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="C35" s="128" t="s">
         <v>577</v>
@@ -36551,10 +36676,10 @@
     </row>
     <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A36" s="127" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B36" s="127" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="C36" s="128" t="s">
         <v>577</v>
@@ -36586,7 +36711,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="179" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -36599,7 +36724,7 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="B4" s="137" t="s">
         <v>749</v>
@@ -36674,14 +36799,14 @@
       <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="362" t="s">
+      <c r="A13" s="361" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="362" t="s">
+      <c r="B13" s="361" t="s">
         <v>182</v>
       </c>
       <c r="C13" s="179" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -36717,10 +36842,10 @@
       <c r="H15" s="179"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="359" t="s">
+      <c r="A16" s="358" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="359" t="s">
+      <c r="B16" s="358" t="s">
         <v>197</v>
       </c>
       <c r="C16" s="179" t="s">
@@ -36733,14 +36858,14 @@
       <c r="H16" s="179"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="359" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B17" s="359" t="s">
+      <c r="A17" s="358" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B17" s="358" t="s">
         <v>2071</v>
       </c>
       <c r="C17" s="179" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="D17" s="179"/>
       <c r="E17" s="179"/>
@@ -36749,10 +36874,10 @@
       <c r="H17" s="179"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="358" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="359" t="s">
+      <c r="B18" s="358" t="s">
         <v>260</v>
       </c>
       <c r="C18" s="179" t="s">
@@ -36765,10 +36890,10 @@
       <c r="H18" s="179"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="359" t="s">
+      <c r="A19" s="358" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="359" t="s">
+      <c r="B19" s="358" t="s">
         <v>262</v>
       </c>
       <c r="C19" s="179" t="s">
@@ -36781,10 +36906,10 @@
       <c r="H19" s="179"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="359" t="s">
+      <c r="A20" s="358" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="359" t="s">
+      <c r="B20" s="358" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="179" t="s">
@@ -37014,34 +37139,34 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="157" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B21" s="157" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="157" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B22" s="157" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="157" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B23" s="157" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="157" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="B24" s="157" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
   </sheetData>
@@ -37075,7 +37200,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>673</v>
@@ -37094,7 +37219,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -37179,19 +37304,19 @@
         <v>76</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B15" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -37213,7 +37338,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -37578,10 +37703,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="335" t="s">
+      <c r="A11" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="335" t="s">
+      <c r="B11" s="334" t="s">
         <v>70</v>
       </c>
     </row>
@@ -37638,18 +37763,18 @@
       <c r="F16" s="179"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="335" t="s">
+      <c r="A17" s="334" t="s">
         <v>657</v>
       </c>
-      <c r="B17" s="335" t="s">
+      <c r="B17" s="334" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="366" t="s">
+      <c r="C17" s="365" t="s">
         <v>1017</v>
       </c>
-      <c r="D17" s="365"/>
-      <c r="E17" s="365"/>
-      <c r="F17" s="365"/>
+      <c r="D17" s="364"/>
+      <c r="E17" s="364"/>
+      <c r="F17" s="364"/>
       <c r="G17" s="179"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -37713,13 +37838,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B23" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D23" s="179"/>
       <c r="E23" s="179"/>
@@ -37735,7 +37860,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D24" s="179"/>
       <c r="E24" s="179"/>
@@ -37751,7 +37876,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D25" s="179"/>
       <c r="E25" s="179"/>
@@ -37767,7 +37892,7 @@
         <v>2092</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D26" s="179"/>
       <c r="E26" s="179"/>
@@ -37783,7 +37908,7 @@
         <v>2093</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D27" s="179"/>
       <c r="E27" s="179"/>
@@ -37799,7 +37924,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D28" s="179"/>
       <c r="E28" s="179"/>
@@ -37815,7 +37940,7 @@
         <v>189</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D29" s="179"/>
       <c r="E29" s="179"/>
@@ -37905,7 +38030,7 @@
     </row>
     <row r="4" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1859</v>
@@ -38048,7 +38173,7 @@
         <v>1747</v>
       </c>
       <c r="C21" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -38105,18 +38230,18 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="257" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="B30" s="257" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="257" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="B31" s="257" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -38166,15 +38291,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -38190,7 +38315,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -38238,13 +38363,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B11" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -38345,7 +38470,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
   </sheetData>
@@ -38461,7 +38586,7 @@
         <v>1747</v>
       </c>
       <c r="C12" s="278" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -38651,7 +38776,7 @@
         <v>1747</v>
       </c>
       <c r="C12" s="278" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -38838,13 +38963,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B16" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -39110,13 +39235,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B17" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -39246,7 +39371,7 @@
       <c r="A30" s="191" t="s">
         <v>1677</v>
       </c>
-      <c r="B30" s="380" t="s">
+      <c r="B30" s="379" t="s">
         <v>1674</v>
       </c>
       <c r="C30" s="191" t="s">
@@ -39257,7 +39382,7 @@
       <c r="A31" s="191" t="s">
         <v>1678</v>
       </c>
-      <c r="B31" s="380" t="s">
+      <c r="B31" s="379" t="s">
         <v>1676</v>
       </c>
       <c r="C31" s="191" t="s">
@@ -39442,13 +39567,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B19" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -39522,7 +39647,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -39674,7 +39799,7 @@
         <v>1806</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -39685,13 +39810,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B12" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -40169,7 +40294,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -40308,18 +40433,18 @@
       <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="335" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B16" s="336" t="s">
+      <c r="A16" s="106" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B16" s="110" t="s">
         <v>2071</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="D16" s="89"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="95"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="106" t="s">
         <v>139</v>
       </c>
@@ -40331,12 +40456,12 @@
       </c>
       <c r="D17" s="89"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="106"/>
       <c r="B18" s="110"/>
       <c r="D18" s="89"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="96" t="s">
         <v>236</v>
       </c>
@@ -40348,7 +40473,7 @@
       </c>
       <c r="D19" s="89"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="97" t="s">
         <v>237</v>
       </c>
@@ -40360,7 +40485,7 @@
       </c>
       <c r="D20" s="89"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="97" t="s">
         <v>190</v>
       </c>
@@ -40372,7 +40497,7 @@
       </c>
       <c r="D21" s="89"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="97" t="s">
         <v>280</v>
       </c>
@@ -40384,7 +40509,7 @@
       </c>
       <c r="D22" s="89"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="96" t="s">
         <v>1007</v>
       </c>
@@ -40396,13 +40521,13 @@
       </c>
       <c r="D23" s="89"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="110"/>
       <c r="B24" s="110"/>
       <c r="C24" s="22"/>
       <c r="D24" s="89"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="106" t="s">
         <v>3</v>
       </c>
@@ -40414,129 +40539,169 @@
       </c>
       <c r="D25" s="89"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="214"/>
-      <c r="B26" s="215"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="141" t="s">
+        <v>853</v>
+      </c>
+      <c r="B26" s="141" t="s">
+        <v>854</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="D26" s="89"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="258" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B27" s="258" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="214"/>
+      <c r="B27" s="215"/>
+      <c r="D27" s="89"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>1410</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>2268</v>
-      </c>
-      <c r="D27" s="89"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="148" t="s">
+      <c r="C28" s="22" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D28" s="95"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="89"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="148" t="s">
+      <c r="D29" s="95"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B30" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>856</v>
       </c>
-      <c r="D29" s="89"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="D30" s="95"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>2090</v>
       </c>
-      <c r="B30" s="141" t="s">
+      <c r="B31" s="15" t="s">
         <v>2092</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="89"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="141" t="s">
+      <c r="D31" s="95"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>2091</v>
       </c>
-      <c r="B31" s="141" t="s">
+      <c r="B32" s="15" t="s">
         <v>2093</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C32" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="89"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="141" t="s">
+      <c r="D32" s="95"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="141" t="s">
+      <c r="B33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="89"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="184" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="69" t="s">
         <v>913</v>
       </c>
-      <c r="B33" s="148" t="s">
+      <c r="B34" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="89"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="214"/>
-      <c r="B34" s="215"/>
-      <c r="D34" s="89"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="97" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="214"/>
+      <c r="B35" s="215"/>
+      <c r="D35" s="89"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="97" t="s">
         <v>476</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B36" s="97" t="s">
         <v>474</v>
-      </c>
-      <c r="C35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>475</v>
       </c>
       <c r="C36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="97" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="97" t="s">
         <v>500</v>
       </c>
-      <c r="B37" s="97" t="s">
+      <c r="B38" s="97" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="97"/>
-      <c r="B38" s="97"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -40561,15 +40726,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -40585,7 +40750,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -40622,7 +40787,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>1860</v>
@@ -40656,7 +40821,7 @@
         <v>1747</v>
       </c>
       <c r="C13" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -40699,7 +40864,7 @@
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>179</v>
@@ -40729,7 +40894,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -40764,7 +40929,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -40826,7 +40991,7 @@
         <v>474</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -40837,7 +41002,7 @@
         <v>475</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -40917,7 +41082,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -40974,7 +41139,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -41300,7 +41465,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -41311,18 +41476,18 @@
         <v>1340</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B14" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -41419,7 +41584,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
   </sheetData>
@@ -41455,7 +41620,7 @@
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>949</v>
@@ -41545,68 +41710,68 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="373" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B13" s="373" t="s">
+      <c r="A13" s="372" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B13" s="372" t="s">
         <v>1410</v>
       </c>
-      <c r="C13" s="358" t="s">
-        <v>2268</v>
+      <c r="C13" s="357" t="s">
+        <v>2266</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="374" t="s">
+      <c r="A14" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="374" t="s">
+      <c r="B14" s="373" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="358" t="s">
+      <c r="C14" s="357" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="374" t="s">
+      <c r="A15" s="373" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="374" t="s">
+      <c r="B15" s="373" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="358" t="s">
+      <c r="C15" s="357" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="374" t="s">
+      <c r="A16" s="373" t="s">
         <v>2090</v>
       </c>
-      <c r="B16" s="374" t="s">
+      <c r="B16" s="373" t="s">
         <v>2092</v>
       </c>
-      <c r="C16" s="358" t="s">
+      <c r="C16" s="357" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="374" t="s">
+      <c r="A17" s="373" t="s">
         <v>2091</v>
       </c>
-      <c r="B17" s="374" t="s">
+      <c r="B17" s="373" t="s">
         <v>2093</v>
       </c>
-      <c r="C17" s="358" t="s">
+      <c r="C17" s="357" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="374" t="s">
+      <c r="A18" s="373" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="374" t="s">
+      <c r="B18" s="373" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="358"/>
+      <c r="C18" s="357"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
@@ -41878,14 +42043,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="389" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B18" s="389" t="s">
+      <c r="A18" s="388" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B18" s="388" t="s">
         <v>1410</v>
       </c>
       <c r="C18" s="179" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D18" s="179"/>
       <c r="E18" s="179"/>
@@ -42156,10 +42321,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="148" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B12" s="148" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>2050</v>
@@ -42170,10 +42335,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="148" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B13" s="148" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>2050</v>
@@ -42184,10 +42349,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="148" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B14" s="148" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>2050</v>
@@ -42275,15 +42440,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -42299,7 +42464,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -42346,10 +42511,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="390" t="s">
+      <c r="A11" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="390" t="s">
+      <c r="B11" s="389" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="140" t="s">
@@ -42411,10 +42576,10 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="317" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B19" s="317" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
   </sheetData>
@@ -42443,15 +42608,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -42467,7 +42632,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -42564,10 +42729,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="218" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B17" s="218" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -42578,13 +42743,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>1410</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -42814,11 +42979,11 @@
       <c r="B8" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="391" t="s">
+      <c r="C8" s="390" t="s">
         <v>1030</v>
       </c>
-      <c r="D8" s="391"/>
-      <c r="E8" s="391"/>
+      <c r="D8" s="390"/>
+      <c r="E8" s="390"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
@@ -43284,10 +43449,10 @@
     </row>
     <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A24" s="170" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B24" s="170" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
   </sheetData>
@@ -43403,10 +43568,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="330" t="s">
+      <c r="A12" s="329" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="330" t="s">
+      <c r="B12" s="329" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -43429,7 +43594,7 @@
         <v>2011</v>
       </c>
       <c r="B14" s="227" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -43501,15 +43666,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -43525,7 +43690,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -43583,14 +43748,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="330" t="s">
+      <c r="A12" s="329" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="330" t="s">
+      <c r="B12" s="329" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -43606,13 +43771,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>1410</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -43804,15 +43969,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -43828,7 +43993,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -43885,13 +44050,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="258" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B12" s="258" t="s">
         <v>2009</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -43904,7 +44069,7 @@
         <v>1760</v>
       </c>
       <c r="B13" s="212" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>678</v>
@@ -43923,13 +44088,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>1410</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -44594,19 +44759,19 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="379" t="s">
-        <v>2551</v>
-      </c>
-      <c r="B39" s="379" t="s">
-        <v>2551</v>
+      <c r="A39" s="378" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B39" s="378" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="379" t="s">
-        <v>2569</v>
-      </c>
-      <c r="B40" s="379" t="s">
-        <v>2569</v>
+      <c r="A40" s="378" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B40" s="378" t="s">
+        <v>2567</v>
       </c>
     </row>
   </sheetData>
@@ -44699,13 +44864,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="398" t="s">
+      <c r="A10" s="391" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="398" t="s">
+      <c r="B10" s="391" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="358" t="s">
+      <c r="C10" s="357" t="s">
         <v>2012</v>
       </c>
     </row>
@@ -44738,126 +44903,126 @@
       <c r="B14" s="97"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="399" t="s">
+      <c r="A16" s="392" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="399" t="s">
+      <c r="B16" s="392" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="400" t="s">
+      <c r="A17" s="393" t="s">
         <v>1109</v>
       </c>
-      <c r="B17" s="400" t="s">
+      <c r="B17" s="393" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="400" t="s">
+      <c r="A18" s="393" t="s">
         <v>1093</v>
       </c>
-      <c r="B18" s="400" t="s">
+      <c r="B18" s="393" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="400" t="s">
+      <c r="A19" s="393" t="s">
         <v>1113</v>
       </c>
-      <c r="B19" s="400" t="s">
+      <c r="B19" s="393" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="400" t="s">
+      <c r="A20" s="393" t="s">
         <v>1093</v>
       </c>
-      <c r="B20" s="400" t="s">
+      <c r="B20" s="393" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="400" t="s">
+      <c r="A21" s="393" t="s">
         <v>1113</v>
       </c>
-      <c r="B21" s="400" t="s">
+      <c r="B21" s="393" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="400" t="s">
+      <c r="A22" s="393" t="s">
         <v>2018</v>
       </c>
-      <c r="B22" s="400" t="s">
+      <c r="B22" s="393" t="s">
         <v>2019</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="400" t="s">
+      <c r="A23" s="393" t="s">
         <v>2020</v>
       </c>
-      <c r="B23" s="400" t="s">
+      <c r="B23" s="393" t="s">
         <v>2020</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="400" t="s">
+      <c r="A24" s="393" t="s">
         <v>2021</v>
       </c>
-      <c r="B24" s="400" t="s">
+      <c r="B24" s="393" t="s">
         <v>2022</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="400" t="s">
+      <c r="A25" s="393" t="s">
         <v>2023</v>
       </c>
-      <c r="B25" s="400" t="s">
+      <c r="B25" s="393" t="s">
         <v>2024</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="400" t="s">
+      <c r="A26" s="393" t="s">
         <v>2025</v>
       </c>
-      <c r="B26" s="400" t="s">
+      <c r="B26" s="393" t="s">
         <v>2026</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="400" t="s">
+      <c r="A27" s="393" t="s">
         <v>1635</v>
       </c>
-      <c r="B27" s="400" t="s">
+      <c r="B27" s="393" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="400" t="s">
+      <c r="A28" s="393" t="s">
         <v>1633</v>
       </c>
-      <c r="B28" s="400" t="s">
+      <c r="B28" s="393" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="400" t="s">
+      <c r="A29" s="393" t="s">
         <v>1360</v>
       </c>
-      <c r="B29" s="400" t="s">
+      <c r="B29" s="393" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="401" t="s">
+      <c r="A30" s="394" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B30" s="394" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="B30" s="401" t="s">
-        <v>2568</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2570</v>
       </c>
     </row>
   </sheetData>
@@ -45264,7 +45429,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>188</v>
@@ -45294,7 +45459,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -45330,14 +45495,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="353" t="s">
+      <c r="A11" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="353" t="s">
+      <c r="B11" s="352" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -45364,13 +45529,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B14" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -45390,7 +45555,7 @@
         <v>124</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -45401,7 +45566,7 @@
         <v>2092</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -45412,7 +45577,7 @@
         <v>2093</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -45536,15 +45701,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -45560,7 +45725,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -45657,59 +45822,59 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="345" t="s">
-        <v>2371</v>
-      </c>
-      <c r="B19" s="345" t="s">
-        <v>2383</v>
+      <c r="A19" s="344" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B19" s="344" t="s">
+        <v>2381</v>
       </c>
       <c r="C19" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="346" t="s">
-        <v>2372</v>
-      </c>
-      <c r="B20" s="346" t="s">
-        <v>2372</v>
+      <c r="A20" s="345" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B20" s="345" t="s">
+        <v>2370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="347"/>
-      <c r="B21" s="347"/>
+      <c r="A21" s="346"/>
+      <c r="B21" s="346"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="347"/>
-      <c r="B22" s="347"/>
+      <c r="A22" s="346"/>
+      <c r="B22" s="346"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="347"/>
-      <c r="B23" s="347"/>
+      <c r="A23" s="346"/>
+      <c r="B23" s="346"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="347"/>
-      <c r="B24" s="347"/>
+      <c r="A24" s="346"/>
+      <c r="B24" s="346"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="347"/>
-      <c r="B25" s="347"/>
+      <c r="A25" s="346"/>
+      <c r="B25" s="346"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="347"/>
-      <c r="B26" s="347"/>
+      <c r="A26" s="346"/>
+      <c r="B26" s="346"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="347"/>
-      <c r="B27" s="347"/>
+      <c r="A27" s="346"/>
+      <c r="B27" s="346"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="347"/>
-      <c r="B28" s="347"/>
+      <c r="A28" s="346"/>
+      <c r="B28" s="346"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="347"/>
-      <c r="B29" s="347"/>
+      <c r="A29" s="346"/>
+      <c r="B29" s="346"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -46058,7 +46223,7 @@
         <v>1697</v>
       </c>
       <c r="C17" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -46119,34 +46284,34 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="275" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B25" s="275" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="275" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B26" s="275" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="275" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B27" s="275" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="275" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B28" s="275" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -46264,10 +46429,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="354" t="s">
+      <c r="A8" s="353" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="354" t="s">
+      <c r="B8" s="353" t="s">
         <v>153</v>
       </c>
     </row>
@@ -46314,14 +46479,14 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="353" t="s">
+      <c r="A13" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="353" t="s">
+      <c r="B13" s="352" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -46339,13 +46504,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B15" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -47011,7 +47176,7 @@
       <c r="A16" s="120" t="s">
         <v>1127</v>
       </c>
-      <c r="B16" s="381" t="s">
+      <c r="B16" s="380" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -47019,7 +47184,7 @@
       <c r="A17" s="120" t="s">
         <v>1129</v>
       </c>
-      <c r="B17" s="381" t="s">
+      <c r="B17" s="380" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -47766,7 +47931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48295,15 +48460,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -48319,7 +48484,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -48377,8 +48542,8 @@
       <c r="B12" s="148" t="s">
         <v>1747</v>
       </c>
-      <c r="C12" s="384" t="s">
-        <v>2591</v>
+      <c r="C12" s="383" t="s">
+        <v>2589</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -48434,10 +48599,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="344" t="s">
+      <c r="A21" s="343" t="s">
         <v>2177</v>
       </c>
-      <c r="B21" s="344" t="s">
+      <c r="B21" s="343" t="s">
         <v>2178</v>
       </c>
     </row>
@@ -48474,35 +48639,35 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="343" t="s">
-        <v>2370</v>
-      </c>
-      <c r="B26" s="343" t="s">
-        <v>2370</v>
+      <c r="A26" s="342" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B26" s="342" t="s">
+        <v>2368</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="343" t="s">
+      <c r="A27" s="342" t="s">
         <v>1713</v>
       </c>
-      <c r="B27" s="343" t="s">
+      <c r="B27" s="342" t="s">
         <v>1713</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>2379</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>2381</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B29" s="56" t="s">
         <v>2380</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>2382</v>
       </c>
     </row>
   </sheetData>
@@ -48515,7 +48680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48670,7 +48835,7 @@
       <c r="A19" s="79" t="s">
         <v>863</v>
       </c>
-      <c r="B19" s="382" t="s">
+      <c r="B19" s="381" t="s">
         <v>864</v>
       </c>
     </row>
@@ -48694,7 +48859,7 @@
       <c r="A22" s="79" t="s">
         <v>867</v>
       </c>
-      <c r="B22" s="382" t="s">
+      <c r="B22" s="381" t="s">
         <v>869</v>
       </c>
     </row>
@@ -48732,10 +48897,10 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="158" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B27" s="158" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
   </sheetData>
@@ -48882,7 +49047,7 @@
         <v>474</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -48893,7 +49058,7 @@
         <v>475</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -48958,10 +49123,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
   </sheetData>
@@ -49090,14 +49255,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="349" t="s">
+      <c r="A13" s="348" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="349" t="s">
+      <c r="B13" s="348" t="s">
         <v>260</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -49108,7 +49273,7 @@
         <v>474</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -49119,7 +49284,7 @@
         <v>475</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -49191,11 +49356,11 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="341" t="s">
-        <v>2339</v>
-      </c>
-      <c r="B26" s="341" t="s">
-        <v>2340</v>
+      <c r="A26" s="340" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B26" s="340" t="s">
+        <v>2338</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -49224,18 +49389,18 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="253" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="B31" s="253" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
   </sheetData>
@@ -49252,8 +49417,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -49430,13 +49595,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B21" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -49573,20 +49738,22 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="179" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -49597,7 +49764,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>2005</v>
       </c>
@@ -49654,183 +49821,237 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="179" t="s">
+      <c r="A9" s="148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="148" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="373" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B10" s="373" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C10" s="357" t="s">
         <v>678</v>
       </c>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="97" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="258" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B13" s="258" t="s">
+      <c r="A13" s="141" t="s">
+        <v>853</v>
+      </c>
+      <c r="B13" s="141" t="s">
+        <v>854</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>1410</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="141" t="s">
+      <c r="C14" s="22" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="141" t="s">
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B16" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="184" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="69" t="s">
         <v>916</v>
       </c>
-      <c r="B16" s="184" t="s">
+      <c r="B17" s="69" t="s">
         <v>852</v>
       </c>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="141" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>2090</v>
       </c>
-      <c r="B17" s="141" t="s">
+      <c r="B18" s="15" t="s">
         <v>2092</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="141" t="s">
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>2091</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B19" s="15" t="s">
         <v>2093</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="141" t="s">
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="141" t="s">
+      <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="184" t="s">
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
         <v>913</v>
       </c>
-      <c r="B20" s="148" t="s">
+      <c r="B21" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="107" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B22" s="107" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="97" t="s">
+      <c r="C22" s="179" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="97" t="s">
         <v>1309</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B23" s="97" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="97" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="97" t="s">
         <v>743</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B24" s="97" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>1747</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C25" s="22" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="97" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="97" t="s">
         <v>500</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B26" s="97" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="179" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="179" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -49842,7 +50063,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -49852,12 +50073,12 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -49865,7 +50086,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>173</v>
       </c>
@@ -49873,7 +50094,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -49881,7 +50102,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -49889,7 +50110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>234</v>
       </c>
@@ -49897,7 +50118,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
         <v>984</v>
       </c>
@@ -49908,7 +50129,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
         <v>1334</v>
       </c>
@@ -49919,7 +50140,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>100</v>
       </c>
@@ -49927,7 +50148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>151</v>
       </c>
@@ -49935,7 +50156,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -49947,7 +50168,7 @@
       </c>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -49955,7 +50176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -49963,7 +50184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>175</v>
       </c>
@@ -49971,19 +50192,26 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="141" t="s">
-        <v>2192</v>
-      </c>
-      <c r="B15" s="141" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>2191</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="183"/>
       <c r="B16" s="183"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="110" t="s">
         <v>745</v>
       </c>
@@ -49992,7 +50220,7 @@
       </c>
       <c r="C17" s="179"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
         <v>747</v>
       </c>
@@ -50001,7 +50229,7 @@
       </c>
       <c r="C18" s="179"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="69" t="s">
         <v>684</v>
       </c>
@@ -50009,7 +50237,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>145</v>
       </c>
@@ -50017,11 +50245,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="69"/>
       <c r="B21" s="69"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="110" t="s">
         <v>322</v>
       </c>
@@ -50029,10 +50257,10 @@
         <v>1773</v>
       </c>
       <c r="C22" s="179" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
         <v>746</v>
       </c>
@@ -50041,7 +50269,7 @@
       </c>
       <c r="C23" s="179"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
         <v>685</v>
       </c>
@@ -50049,117 +50277,178 @@
         <v>108</v>
       </c>
       <c r="C24" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="402" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B26" s="402" t="s">
         <v>2257</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>2245</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="322" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B26" s="322" t="s">
+      <c r="C26" s="22" t="s">
         <v>2259</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="392" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="396" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="392" t="s">
+      <c r="B27" s="396" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="25" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="393"/>
-      <c r="B28" s="393"/>
-      <c r="C28" s="22" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="397"/>
+      <c r="B28" s="397"/>
+      <c r="C28" s="25" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="394"/>
-      <c r="B29" s="394"/>
-      <c r="C29" s="22" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="398"/>
+      <c r="B29" s="398"/>
+      <c r="C29" s="25" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="395"/>
+      <c r="B30" s="395"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="141" t="s">
+        <v>853</v>
+      </c>
+      <c r="B31" s="141" t="s">
+        <v>854</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
         <v>1309</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C31" s="22"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>1747</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C35" s="22" t="s">
         <v>2002</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-    </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>1600</v>
-      </c>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>1601</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
         <v>1602</v>
       </c>
     </row>
@@ -50177,7 +50466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50250,7 +50539,7 @@
         <v>994</v>
       </c>
       <c r="C7" s="179" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="D7" s="279"/>
       <c r="E7" s="279"/>
@@ -50260,43 +50549,43 @@
       <c r="I7" s="279"/>
     </row>
     <row r="8" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="340"/>
-      <c r="B8" s="340"/>
+      <c r="A8" s="339"/>
+      <c r="B8" s="339"/>
       <c r="C8" s="179" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D8" s="338"/>
+      <c r="E8" s="338"/>
+      <c r="F8" s="338"/>
+      <c r="G8" s="338"/>
+      <c r="H8" s="338"/>
+      <c r="I8" s="338"/>
+    </row>
+    <row r="9" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="339"/>
+      <c r="B9" s="339"/>
+      <c r="C9" s="179" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D9" s="338"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="338"/>
+      <c r="G9" s="338"/>
+      <c r="H9" s="338"/>
+      <c r="I9" s="338"/>
+    </row>
+    <row r="10" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="339"/>
+      <c r="B10" s="339"/>
+      <c r="C10" s="179" t="s">
         <v>2334</v>
       </c>
-      <c r="D8" s="339"/>
-      <c r="E8" s="339"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="339"/>
-    </row>
-    <row r="9" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="340"/>
-      <c r="C9" s="179" t="s">
-        <v>2335</v>
-      </c>
-      <c r="D9" s="339"/>
-      <c r="E9" s="339"/>
-      <c r="F9" s="339"/>
-      <c r="G9" s="339"/>
-      <c r="H9" s="339"/>
-      <c r="I9" s="339"/>
-    </row>
-    <row r="10" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="340"/>
-      <c r="B10" s="340"/>
-      <c r="C10" s="179" t="s">
-        <v>2336</v>
-      </c>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
+      <c r="G10" s="338"/>
+      <c r="H10" s="338"/>
+      <c r="I10" s="338"/>
     </row>
     <row r="11" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
@@ -50429,13 +50718,13 @@
       <c r="B19" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="323"/>
-      <c r="D19" s="323"/>
-      <c r="E19" s="323"/>
-      <c r="F19" s="323"/>
-      <c r="G19" s="323"/>
-      <c r="H19" s="323"/>
-      <c r="I19" s="323"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="322"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="322"/>
+      <c r="I19" s="322"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
@@ -50456,18 +50745,18 @@
     </row>
     <row r="21" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>223</v>
       </c>
       <c r="C21" s="179"/>
-      <c r="D21" s="323"/>
-      <c r="E21" s="323"/>
-      <c r="F21" s="323"/>
-      <c r="G21" s="323"/>
-      <c r="H21" s="323"/>
-      <c r="I21" s="323"/>
+      <c r="D21" s="322"/>
+      <c r="E21" s="322"/>
+      <c r="F21" s="322"/>
+      <c r="G21" s="322"/>
+      <c r="H21" s="322"/>
+      <c r="I21" s="322"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
@@ -50502,38 +50791,38 @@
       <c r="I23" s="279"/>
     </row>
     <row r="24" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="357" t="s">
+      <c r="A24" s="356" t="s">
         <v>2094</v>
       </c>
-      <c r="B24" s="357" t="s">
+      <c r="B24" s="356" t="s">
         <v>1644</v>
       </c>
       <c r="C24" s="179" t="s">
         <v>2095</v>
       </c>
-      <c r="D24" s="352"/>
-      <c r="E24" s="352"/>
-      <c r="F24" s="352"/>
-      <c r="G24" s="352"/>
-      <c r="H24" s="352"/>
-      <c r="I24" s="352"/>
+      <c r="D24" s="351"/>
+      <c r="E24" s="351"/>
+      <c r="F24" s="351"/>
+      <c r="G24" s="351"/>
+      <c r="H24" s="351"/>
+      <c r="I24" s="351"/>
     </row>
     <row r="25" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="258" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B25" s="258" t="s">
         <v>1410</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>2268</v>
-      </c>
-      <c r="D25" s="356"/>
-      <c r="E25" s="356"/>
-      <c r="F25" s="356"/>
-      <c r="G25" s="356"/>
-      <c r="H25" s="356"/>
-      <c r="I25" s="356"/>
+        <v>2266</v>
+      </c>
+      <c r="D25" s="355"/>
+      <c r="E25" s="355"/>
+      <c r="F25" s="355"/>
+      <c r="G25" s="355"/>
+      <c r="H25" s="355"/>
+      <c r="I25" s="355"/>
     </row>
     <row r="26" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="141" t="s">
@@ -50545,12 +50834,12 @@
       <c r="C26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="356"/>
-      <c r="E26" s="356"/>
-      <c r="F26" s="356"/>
-      <c r="G26" s="356"/>
-      <c r="H26" s="356"/>
-      <c r="I26" s="356"/>
+      <c r="D26" s="355"/>
+      <c r="E26" s="355"/>
+      <c r="F26" s="355"/>
+      <c r="G26" s="355"/>
+      <c r="H26" s="355"/>
+      <c r="I26" s="355"/>
     </row>
     <row r="27" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="141" t="s">
@@ -50560,12 +50849,12 @@
         <v>124</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="356"/>
-      <c r="E27" s="356"/>
-      <c r="F27" s="356"/>
-      <c r="G27" s="356"/>
-      <c r="H27" s="356"/>
-      <c r="I27" s="356"/>
+      <c r="D27" s="355"/>
+      <c r="E27" s="355"/>
+      <c r="F27" s="355"/>
+      <c r="G27" s="355"/>
+      <c r="H27" s="355"/>
+      <c r="I27" s="355"/>
     </row>
     <row r="28" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="184" t="s">
@@ -50575,12 +50864,12 @@
         <v>852</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="356"/>
-      <c r="F28" s="356"/>
-      <c r="G28" s="356"/>
-      <c r="H28" s="356"/>
-      <c r="I28" s="356"/>
+      <c r="D28" s="355"/>
+      <c r="E28" s="355"/>
+      <c r="F28" s="355"/>
+      <c r="G28" s="355"/>
+      <c r="H28" s="355"/>
+      <c r="I28" s="355"/>
     </row>
     <row r="29" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="141" t="s">
@@ -50592,12 +50881,12 @@
       <c r="C29" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="356"/>
-      <c r="E29" s="356"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="356"/>
-      <c r="H29" s="356"/>
-      <c r="I29" s="356"/>
+      <c r="D29" s="355"/>
+      <c r="E29" s="355"/>
+      <c r="F29" s="355"/>
+      <c r="G29" s="355"/>
+      <c r="H29" s="355"/>
+      <c r="I29" s="355"/>
     </row>
     <row r="30" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="141" t="s">
@@ -50609,12 +50898,12 @@
       <c r="C30" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="356"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="356"/>
-      <c r="G30" s="356"/>
-      <c r="H30" s="356"/>
-      <c r="I30" s="356"/>
+      <c r="D30" s="355"/>
+      <c r="E30" s="355"/>
+      <c r="F30" s="355"/>
+      <c r="G30" s="355"/>
+      <c r="H30" s="355"/>
+      <c r="I30" s="355"/>
     </row>
     <row r="31" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="141" t="s">
@@ -50626,12 +50915,12 @@
       <c r="C31" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="356"/>
-      <c r="E31" s="356"/>
-      <c r="F31" s="356"/>
-      <c r="G31" s="356"/>
-      <c r="H31" s="356"/>
-      <c r="I31" s="356"/>
+      <c r="D31" s="355"/>
+      <c r="E31" s="355"/>
+      <c r="F31" s="355"/>
+      <c r="G31" s="355"/>
+      <c r="H31" s="355"/>
+      <c r="I31" s="355"/>
     </row>
     <row r="32" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="184" t="s">
@@ -50641,12 +50930,12 @@
         <v>189</v>
       </c>
       <c r="C32" s="25"/>
-      <c r="D32" s="356"/>
-      <c r="E32" s="356"/>
-      <c r="F32" s="356"/>
-      <c r="G32" s="356"/>
-      <c r="H32" s="356"/>
-      <c r="I32" s="356"/>
+      <c r="D32" s="355"/>
+      <c r="E32" s="355"/>
+      <c r="F32" s="355"/>
+      <c r="G32" s="355"/>
+      <c r="H32" s="355"/>
+      <c r="I32" s="355"/>
     </row>
     <row r="33" spans="1:3" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
@@ -50840,10 +51129,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="141" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B12" s="141" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -50854,7 +51143,7 @@
         <v>474</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -50865,7 +51154,7 @@
         <v>475</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -50924,7 +51213,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -50979,11 +51268,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="349" t="s">
-        <v>2511</v>
-      </c>
-      <c r="B10" s="349" t="s">
-        <v>2503</v>
+      <c r="A10" s="348" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B10" s="348" t="s">
+        <v>2501</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -51190,34 +51479,34 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="253" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="B40" s="253" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -51238,53 +51527,53 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="C47" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -51473,7 +51762,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>1718</v>
@@ -51558,7 +51847,7 @@
       <c r="A82" s="176" t="s">
         <v>2099</v>
       </c>
-      <c r="B82" s="367" t="s">
+      <c r="B82" s="366" t="s">
         <v>2101</v>
       </c>
     </row>
@@ -51579,82 +51868,82 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="375" t="s">
+      <c r="A85" s="374" t="s">
         <v>574</v>
       </c>
-      <c r="B85" s="375" t="s">
+      <c r="B85" s="374" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="375" t="s">
+      <c r="A86" s="374" t="s">
         <v>575</v>
       </c>
-      <c r="B86" s="375" t="s">
+      <c r="B86" s="374" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="375" t="s">
+      <c r="A87" s="374" t="s">
         <v>576</v>
       </c>
-      <c r="B87" s="375" t="s">
+      <c r="B87" s="374" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="375" t="s">
+      <c r="A88" s="374" t="s">
         <v>1840</v>
       </c>
-      <c r="B88" s="375" t="s">
+      <c r="B88" s="374" t="s">
         <v>1840</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="375" t="s">
+      <c r="A89" s="374" t="s">
         <v>1841</v>
       </c>
-      <c r="B89" s="375" t="s">
+      <c r="B89" s="374" t="s">
         <v>1841</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="375" t="s">
+      <c r="A90" s="374" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B90" s="374" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="374" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B91" s="374" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="374" t="s">
         <v>2559</v>
       </c>
-      <c r="B90" s="375" t="s">
+      <c r="B92" s="374" t="s">
         <v>2563</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="375" t="s">
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="374" t="s">
         <v>2560</v>
       </c>
-      <c r="B91" s="375" t="s">
+      <c r="B93" s="374" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="375" t="s">
-        <v>2561</v>
-      </c>
-      <c r="B92" s="375" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="375" t="s">
-        <v>2562</v>
-      </c>
-      <c r="B93" s="375" t="s">
-        <v>2566</v>
-      </c>
-    </row>
     <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="375" t="s">
+      <c r="A94" s="374" t="s">
         <v>1411</v>
       </c>
-      <c r="B94" s="375" t="s">
+      <c r="B94" s="374" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -51687,7 +51976,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -51695,7 +51984,7 @@
         <v>405</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -51711,7 +52000,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -51852,79 +52141,79 @@
         <v>856</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="375" t="s">
+      <c r="A26" s="374" t="s">
         <v>1840</v>
       </c>
-      <c r="B26" s="375" t="s">
+      <c r="B26" s="374" t="s">
         <v>1840</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="375" t="s">
+      <c r="A27" s="374" t="s">
         <v>1841</v>
       </c>
-      <c r="B27" s="375" t="s">
+      <c r="B27" s="374" t="s">
         <v>1841</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="253" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B28" s="253" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
   </sheetData>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="73" activeTab="76"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="53" activeTab="53"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -89,104 +89,105 @@
     <sheet name="SM" sheetId="115" r:id="rId75"/>
     <sheet name="SMDescriptionKind" sheetId="412" r:id="rId76"/>
     <sheet name="SMSignKind" sheetId="270" r:id="rId77"/>
-    <sheet name="Currency" sheetId="65" r:id="rId78"/>
-    <sheet name="CurrencyExchangeRate" sheetId="69" r:id="rId79"/>
-    <sheet name="CurrencyExchangeRateKind" sheetId="413" r:id="rId80"/>
-    <sheet name="CurrencyInfoDataKind" sheetId="439" r:id="rId81"/>
-    <sheet name="CurrencyInfoData" sheetId="417" r:id="rId82"/>
-    <sheet name="BM" sheetId="98" r:id="rId83"/>
-    <sheet name="BMGroupKind" sheetId="407" r:id="rId84"/>
-    <sheet name="BMDescriptionKind" sheetId="409" r:id="rId85"/>
-    <sheet name="BMKind" sheetId="410" r:id="rId86"/>
-    <sheet name="BMSubKind" sheetId="411" r:id="rId87"/>
-    <sheet name="BMSignKind" sheetId="275" r:id="rId88"/>
-    <sheet name="Contract" sheetId="89" r:id="rId89"/>
-    <sheet name="ContractRoleKind" sheetId="386" r:id="rId90"/>
-    <sheet name="ContractKind" sheetId="268" r:id="rId91"/>
-    <sheet name="ContractSubKind" sheetId="269" r:id="rId92"/>
-    <sheet name="ContractLine" sheetId="229" r:id="rId93"/>
-    <sheet name="ContractExecution" sheetId="289" r:id="rId94"/>
-    <sheet name="ContractDelivery" sheetId="232" r:id="rId95"/>
-    <sheet name="ContractSchedulePayment" sheetId="230" r:id="rId96"/>
-    <sheet name="ContractAddCondition" sheetId="359" r:id="rId97"/>
-    <sheet name="UnitMeasure" sheetId="91" r:id="rId98"/>
-    <sheet name="UMKind" sheetId="303" r:id="rId99"/>
-    <sheet name="UMData" sheetId="463" r:id="rId100"/>
-    <sheet name="Tax" sheetId="93" r:id="rId101"/>
-    <sheet name="TaxRegisterData" sheetId="56" r:id="rId102"/>
-    <sheet name="TBKind" sheetId="330" r:id="rId103"/>
-    <sheet name="TBLimitData" sheetId="440" r:id="rId104"/>
-    <sheet name="TBExceptionData" sheetId="322" r:id="rId105"/>
-    <sheet name="TBDeductionKind" sheetId="446" r:id="rId106"/>
-    <sheet name="TBDeductionSubKind" sheetId="447" r:id="rId107"/>
-    <sheet name="TBDeductionTransferKind" sheetId="449" r:id="rId108"/>
-    <sheet name="TBDeductionData" sheetId="445" r:id="rId109"/>
-    <sheet name="TaxCorrectionData" sheetId="468" r:id="rId110"/>
-    <sheet name="TaxCalcKind" sheetId="280" r:id="rId111"/>
-    <sheet name="TaxAnalystPersonalAccount" sheetId="326" r:id="rId112"/>
-    <sheet name="TaxRegimeKind" sheetId="266" r:id="rId113"/>
-    <sheet name="TaxRegimeData" sheetId="470" r:id="rId114"/>
-    <sheet name="TaxRateKind" sheetId="256" r:id="rId115"/>
-    <sheet name="TaxRateData" sheetId="60" r:id="rId116"/>
-    <sheet name="Country" sheetId="172" r:id="rId117"/>
-    <sheet name="CountryKind" sheetId="392" r:id="rId118"/>
-    <sheet name="CountryCodeData" sheetId="416" r:id="rId119"/>
-    <sheet name="Account" sheetId="13" r:id="rId120"/>
-    <sheet name="AccInfoData" sheetId="450" r:id="rId121"/>
-    <sheet name="AccTableKind" sheetId="263" r:id="rId122"/>
-    <sheet name="AccSign" sheetId="254" r:id="rId123"/>
-    <sheet name="AccKind" sheetId="250" r:id="rId124"/>
-    <sheet name="AccSubKind" sheetId="454" r:id="rId125"/>
-    <sheet name="AC" sheetId="336" r:id="rId126"/>
-    <sheet name="ACKind" sheetId="251" r:id="rId127"/>
-    <sheet name="ACSubKind" sheetId="260" r:id="rId128"/>
-    <sheet name="ACCodeData" sheetId="337" r:id="rId129"/>
-    <sheet name="ACInfoData" sheetId="338" r:id="rId130"/>
-    <sheet name="ACPack" sheetId="379" r:id="rId131"/>
-    <sheet name="ACPiece" sheetId="380" r:id="rId132"/>
-    <sheet name="Asset" sheetId="48" r:id="rId133"/>
-    <sheet name="TransportationKind" sheetId="291" r:id="rId134"/>
-    <sheet name="TransportationData" sheetId="457" r:id="rId135"/>
-    <sheet name="RelationshipKind" sheetId="349" r:id="rId136"/>
-    <sheet name="DocJournalKind" sheetId="426" r:id="rId137"/>
-    <sheet name="DocJournalData" sheetId="427" r:id="rId138"/>
-    <sheet name="DocKind" sheetId="237" r:id="rId139"/>
-    <sheet name="DocSubKind" sheetId="424" r:id="rId140"/>
-    <sheet name="DocViewKind" sheetId="459" r:id="rId141"/>
-    <sheet name="DocView" sheetId="458" r:id="rId142"/>
-    <sheet name="DocPreset" sheetId="456" r:id="rId143"/>
-    <sheet name="DocCodeData" sheetId="462" r:id="rId144"/>
-    <sheet name="DocHead" sheetId="235" r:id="rId145"/>
-    <sheet name="DocLine" sheetId="236" r:id="rId146"/>
-    <sheet name="AccountingReference" sheetId="215" r:id="rId147"/>
-    <sheet name="AdvanceCheck" sheetId="125" r:id="rId148"/>
-    <sheet name="WriteOff" sheetId="154" r:id="rId149"/>
-    <sheet name="BankStatement" sheetId="152" r:id="rId150"/>
-    <sheet name="Warrant" sheetId="150" r:id="rId151"/>
-    <sheet name="PaymentOrder" sheetId="148" r:id="rId152"/>
-    <sheet name="Enter" sheetId="146" r:id="rId153"/>
-    <sheet name="IncomeCashOrder" sheetId="144" r:id="rId154"/>
-    <sheet name="LeaveCashOrder" sheetId="140" r:id="rId155"/>
-    <sheet name="Sell" sheetId="142" r:id="rId156"/>
-    <sheet name="Invoice" sheetId="406" r:id="rId157"/>
-    <sheet name="Return" sheetId="394" r:id="rId158"/>
-    <sheet name="Bill" sheetId="138" r:id="rId159"/>
-    <sheet name="Transfer" sheetId="136" r:id="rId160"/>
-    <sheet name="TimeSheet" sheetId="217" r:id="rId161"/>
-    <sheet name="SalaryCalc" sheetId="134" r:id="rId162"/>
-    <sheet name="List" sheetId="132" r:id="rId163"/>
-    <sheet name="StoreOrder" sheetId="396" r:id="rId164"/>
-    <sheet name="LoadingList" sheetId="395" r:id="rId165"/>
-    <sheet name="CalculationAverageSalary" sheetId="317" r:id="rId166"/>
-    <sheet name="AmortizationCalc" sheetId="318" r:id="rId167"/>
-    <sheet name="HRStatement" sheetId="425" r:id="rId168"/>
+    <sheet name="SCS" sheetId="472" r:id="rId78"/>
+    <sheet name="Currency" sheetId="65" r:id="rId79"/>
+    <sheet name="CurrencyExchangeRate" sheetId="69" r:id="rId80"/>
+    <sheet name="CurrencyExchangeRateKind" sheetId="413" r:id="rId81"/>
+    <sheet name="CurrencyInfoDataKind" sheetId="439" r:id="rId82"/>
+    <sheet name="CurrencyInfoData" sheetId="417" r:id="rId83"/>
+    <sheet name="BM" sheetId="98" r:id="rId84"/>
+    <sheet name="BMGroupKind" sheetId="407" r:id="rId85"/>
+    <sheet name="BMDescriptionKind" sheetId="409" r:id="rId86"/>
+    <sheet name="BMKind" sheetId="410" r:id="rId87"/>
+    <sheet name="BMSubKind" sheetId="411" r:id="rId88"/>
+    <sheet name="BMSignKind" sheetId="275" r:id="rId89"/>
+    <sheet name="Contract" sheetId="89" r:id="rId90"/>
+    <sheet name="ContractRoleKind" sheetId="386" r:id="rId91"/>
+    <sheet name="ContractKind" sheetId="268" r:id="rId92"/>
+    <sheet name="ContractSubKind" sheetId="269" r:id="rId93"/>
+    <sheet name="ContractLine" sheetId="229" r:id="rId94"/>
+    <sheet name="ContractExecution" sheetId="289" r:id="rId95"/>
+    <sheet name="ContractDelivery" sheetId="232" r:id="rId96"/>
+    <sheet name="ContractSchedulePayment" sheetId="230" r:id="rId97"/>
+    <sheet name="ContractAddCondition" sheetId="359" r:id="rId98"/>
+    <sheet name="UnitMeasure" sheetId="91" r:id="rId99"/>
+    <sheet name="UMKind" sheetId="303" r:id="rId100"/>
+    <sheet name="UMData" sheetId="463" r:id="rId101"/>
+    <sheet name="Tax" sheetId="93" r:id="rId102"/>
+    <sheet name="TaxRegisterData" sheetId="56" r:id="rId103"/>
+    <sheet name="TBKind" sheetId="330" r:id="rId104"/>
+    <sheet name="TBLimitData" sheetId="440" r:id="rId105"/>
+    <sheet name="TBExceptionData" sheetId="322" r:id="rId106"/>
+    <sheet name="TBDeductionKind" sheetId="446" r:id="rId107"/>
+    <sheet name="TBDeductionSubKind" sheetId="447" r:id="rId108"/>
+    <sheet name="TBDeductionTransferKind" sheetId="449" r:id="rId109"/>
+    <sheet name="TBDeductionData" sheetId="445" r:id="rId110"/>
+    <sheet name="TaxCorrectionData" sheetId="468" r:id="rId111"/>
+    <sheet name="TaxCalcKind" sheetId="280" r:id="rId112"/>
+    <sheet name="TaxAnalystPersonalAccount" sheetId="326" r:id="rId113"/>
+    <sheet name="TaxRegimeKind" sheetId="266" r:id="rId114"/>
+    <sheet name="TaxRegimeData" sheetId="470" r:id="rId115"/>
+    <sheet name="TaxRateKind" sheetId="256" r:id="rId116"/>
+    <sheet name="TaxRateData" sheetId="60" r:id="rId117"/>
+    <sheet name="Country" sheetId="172" r:id="rId118"/>
+    <sheet name="CountryKind" sheetId="392" r:id="rId119"/>
+    <sheet name="CountryCodeData" sheetId="416" r:id="rId120"/>
+    <sheet name="Account" sheetId="13" r:id="rId121"/>
+    <sheet name="AccInfoData" sheetId="450" r:id="rId122"/>
+    <sheet name="AccTableKind" sheetId="263" r:id="rId123"/>
+    <sheet name="AccSign" sheetId="254" r:id="rId124"/>
+    <sheet name="AccKind" sheetId="250" r:id="rId125"/>
+    <sheet name="AccSubKind" sheetId="454" r:id="rId126"/>
+    <sheet name="AC" sheetId="336" r:id="rId127"/>
+    <sheet name="ACKind" sheetId="251" r:id="rId128"/>
+    <sheet name="ACSubKind" sheetId="260" r:id="rId129"/>
+    <sheet name="ACCodeData" sheetId="337" r:id="rId130"/>
+    <sheet name="ACInfoData" sheetId="338" r:id="rId131"/>
+    <sheet name="ACPack" sheetId="379" r:id="rId132"/>
+    <sheet name="ACPiece" sheetId="380" r:id="rId133"/>
+    <sheet name="Asset" sheetId="48" r:id="rId134"/>
+    <sheet name="TransportationKind" sheetId="291" r:id="rId135"/>
+    <sheet name="TransportationData" sheetId="457" r:id="rId136"/>
+    <sheet name="RelationshipKind" sheetId="349" r:id="rId137"/>
+    <sheet name="DocJournalKind" sheetId="426" r:id="rId138"/>
+    <sheet name="DocJournalData" sheetId="427" r:id="rId139"/>
+    <sheet name="DocKind" sheetId="237" r:id="rId140"/>
+    <sheet name="DocSubKind" sheetId="424" r:id="rId141"/>
+    <sheet name="DocViewKind" sheetId="459" r:id="rId142"/>
+    <sheet name="DocView" sheetId="458" r:id="rId143"/>
+    <sheet name="DocPreset" sheetId="456" r:id="rId144"/>
+    <sheet name="DocCodeData" sheetId="462" r:id="rId145"/>
+    <sheet name="DocHead" sheetId="235" r:id="rId146"/>
+    <sheet name="DocLine" sheetId="236" r:id="rId147"/>
+    <sheet name="AccountingReference" sheetId="215" r:id="rId148"/>
+    <sheet name="AdvanceCheck" sheetId="125" r:id="rId149"/>
+    <sheet name="WriteOff" sheetId="154" r:id="rId150"/>
+    <sheet name="BankStatement" sheetId="152" r:id="rId151"/>
+    <sheet name="Warrant" sheetId="150" r:id="rId152"/>
+    <sheet name="PaymentOrder" sheetId="148" r:id="rId153"/>
+    <sheet name="Enter" sheetId="146" r:id="rId154"/>
+    <sheet name="IncomeCashOrder" sheetId="144" r:id="rId155"/>
+    <sheet name="LeaveCashOrder" sheetId="140" r:id="rId156"/>
+    <sheet name="Sell" sheetId="142" r:id="rId157"/>
+    <sheet name="Invoice" sheetId="406" r:id="rId158"/>
+    <sheet name="Return" sheetId="394" r:id="rId159"/>
+    <sheet name="Bill" sheetId="138" r:id="rId160"/>
+    <sheet name="Transfer" sheetId="136" r:id="rId161"/>
+    <sheet name="TimeSheet" sheetId="217" r:id="rId162"/>
+    <sheet name="SalaryCalc" sheetId="134" r:id="rId163"/>
+    <sheet name="List" sheetId="132" r:id="rId164"/>
+    <sheet name="StoreOrder" sheetId="396" r:id="rId165"/>
+    <sheet name="LoadingList" sheetId="395" r:id="rId166"/>
+    <sheet name="CalculationAverageSalary" sheetId="317" r:id="rId167"/>
+    <sheet name="AmortizationCalc" sheetId="318" r:id="rId168"/>
+    <sheet name="HRStatement" sheetId="425" r:id="rId169"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9113" uniqueCount="2620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="2625">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -8096,6 +8097,21 @@
   </si>
   <si>
     <t>Движение бюджета</t>
+  </si>
+  <si>
+    <t>могут быть специфические виды данных конкретной страны (региона)</t>
+  </si>
+  <si>
+    <t>SalaryCalcSequence</t>
+  </si>
+  <si>
+    <t>SalaryCalcSequenceId</t>
+  </si>
+  <si>
+    <t>Последовательность расчета зарплаты</t>
+  </si>
+  <si>
+    <t>здесь может быть базовая цена (плюс политика)</t>
   </si>
 </sst>
 </file>
@@ -8756,7 +8772,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="403">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9687,9 +9703,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10285,6 +10298,274 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>984</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>994</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="226" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="373" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B26" s="373" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="373" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B27" s="373" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="252" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B28" s="252" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
@@ -10544,11 +10825,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11063,12 +11344,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист24"/>
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11328,7 +11611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -11506,7 +11789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -11786,7 +12069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -12095,7 +12378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -12304,7 +12587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -12511,7 +12794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -12642,288 +12925,6 @@
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="149" t="s">
-        <v>984</v>
-      </c>
-      <c r="B8" s="149" t="s">
-        <v>994</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="352" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="352" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="242" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="242" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="193" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B18" s="193" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="141" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="141" t="s">
-        <v>2089</v>
-      </c>
-      <c r="B21" s="141" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="141" t="s">
-        <v>2090</v>
-      </c>
-      <c r="B22" s="141" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="184" t="s">
-        <v>913</v>
-      </c>
-      <c r="B24" s="148" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -13164,6 +13165,288 @@
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="69" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="149" t="s">
+        <v>984</v>
+      </c>
+      <c r="B8" s="149" t="s">
+        <v>994</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="352" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="352" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="242" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="242" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="193" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B18" s="193" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="141" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B21" s="141" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="141" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B22" s="141" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="184" t="s">
+        <v>913</v>
+      </c>
+      <c r="B24" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
@@ -13463,7 +13746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -13669,7 +13952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -13835,7 +14118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -14004,7 +14287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -14356,7 +14639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -14556,7 +14839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист14"/>
   <dimension ref="A1:I45"/>
@@ -14985,7 +15268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -15300,7 +15583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -15555,183 +15838,6 @@
       <c r="B32" s="314" t="s">
         <v>2225</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F19"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
-        <v>984</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>994</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="257" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B12" s="257" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="148" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -16021,6 +16127,183 @@
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>984</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>994</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="257" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B12" s="257" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист38"/>
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -16333,7 +16616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -16515,7 +16798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -16718,7 +17001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -16863,7 +17146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -17070,7 +17353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -17245,7 +17528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D20"/>
   <sheetViews>
@@ -17441,7 +17724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -17789,7 +18072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -17977,220 +18260,6 @@
       <c r="B24" s="22" t="s">
         <v>2190</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F21"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
-        <v>984</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>994</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="366" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="366" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="143" t="s">
-        <v>2381</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="334" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="334" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="356" t="s">
-        <v>2496</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="257" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B14" s="257" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="148" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -18455,6 +18524,220 @@
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>984</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>994</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="366" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="366" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="334" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="334" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="356" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="257" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B14" s="257" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
@@ -18671,7 +18954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -18977,7 +19260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
@@ -19261,7 +19544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист43"/>
   <dimension ref="A2:D32"/>
@@ -19495,7 +19778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -19660,7 +19943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
@@ -19893,7 +20176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -20321,7 +20604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -20583,7 +20866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -20912,426 +21195,6 @@
       </c>
       <c r="B40" s="22" t="s">
         <v>1375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
-        <v>754</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="148" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="148" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="298" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="298" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="299" t="s">
-        <v>487</v>
-      </c>
-      <c r="B18" s="299" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="299" t="s">
-        <v>718</v>
-      </c>
-      <c r="B19" s="299" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="299" t="s">
-        <v>720</v>
-      </c>
-      <c r="B20" s="299" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="299" t="s">
-        <v>722</v>
-      </c>
-      <c r="B21" s="299" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="299" t="s">
-        <v>723</v>
-      </c>
-      <c r="B22" s="299" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="299" t="s">
-        <v>972</v>
-      </c>
-      <c r="B23" s="299" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="299" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="299" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="299" t="s">
-        <v>563</v>
-      </c>
-      <c r="B25" s="299" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="299" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="299" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="299" t="s">
-        <v>728</v>
-      </c>
-      <c r="B27" s="299" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="299" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B28" s="299" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="299" t="s">
-        <v>730</v>
-      </c>
-      <c r="B29" s="299" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="299" t="s">
-        <v>732</v>
-      </c>
-      <c r="B30" s="299" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="299" t="s">
-        <v>973</v>
-      </c>
-      <c r="B31" s="299" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="299" t="s">
-        <v>2081</v>
-      </c>
-      <c r="B32" s="299" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="299" t="s">
-        <v>974</v>
-      </c>
-      <c r="B33" s="299" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="299" t="s">
-        <v>977</v>
-      </c>
-      <c r="B34" s="299" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="299" t="s">
-        <v>975</v>
-      </c>
-      <c r="B35" s="299" t="s">
-        <v>976</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="299" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B36" s="299" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="299" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B37" s="299" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="299" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B38" s="299" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="299" t="s">
-        <v>2102</v>
-      </c>
-      <c r="B39" s="299" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="299" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B40" s="299" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="299" t="s">
-        <v>2083</v>
-      </c>
-      <c r="B41" s="299" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="299" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B42" s="299" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="299" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B43" s="299" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="299" t="s">
-        <v>2086</v>
-      </c>
-      <c r="B44" s="299" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="303" t="s">
-        <v>732</v>
-      </c>
-      <c r="B45" s="303" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="303" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B46" s="303" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="303" t="s">
-        <v>2105</v>
-      </c>
-      <c r="B47" s="303" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="303" t="s">
-        <v>2107</v>
-      </c>
-      <c r="B48" s="303" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="303" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B49" s="303" t="s">
-        <v>2110</v>
       </c>
     </row>
   </sheetData>
@@ -21521,6 +21384,426 @@
 
 <file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="63" t="s">
+        <v>754</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="148" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="298" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="298" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="299" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="299" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="299" t="s">
+        <v>718</v>
+      </c>
+      <c r="B19" s="299" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="299" t="s">
+        <v>720</v>
+      </c>
+      <c r="B20" s="299" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="299" t="s">
+        <v>722</v>
+      </c>
+      <c r="B21" s="299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="299" t="s">
+        <v>723</v>
+      </c>
+      <c r="B22" s="299" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="299" t="s">
+        <v>972</v>
+      </c>
+      <c r="B23" s="299" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="299" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="299" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="299" t="s">
+        <v>563</v>
+      </c>
+      <c r="B25" s="299" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="299" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="299" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="299" t="s">
+        <v>728</v>
+      </c>
+      <c r="B27" s="299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="299" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B28" s="299" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="299" t="s">
+        <v>730</v>
+      </c>
+      <c r="B29" s="299" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="299" t="s">
+        <v>732</v>
+      </c>
+      <c r="B30" s="299" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="299" t="s">
+        <v>973</v>
+      </c>
+      <c r="B31" s="299" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="299" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B32" s="299" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="299" t="s">
+        <v>974</v>
+      </c>
+      <c r="B33" s="299" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="299" t="s">
+        <v>977</v>
+      </c>
+      <c r="B34" s="299" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="299" t="s">
+        <v>975</v>
+      </c>
+      <c r="B35" s="299" t="s">
+        <v>976</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="299" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B36" s="299" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="299" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B37" s="299" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="299" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B38" s="299" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="299" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B39" s="299" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="299" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B40" s="299" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="299" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B41" s="299" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="299" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B42" s="299" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="299" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B43" s="299" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="299" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B44" s="299" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="303" t="s">
+        <v>732</v>
+      </c>
+      <c r="B45" s="303" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="303" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B46" s="303" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="303" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B47" s="303" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="303" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B48" s="303" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="303" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B49" s="303" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
@@ -21825,7 +22108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -22081,7 +22364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C21"/>
   <sheetViews>
@@ -22261,7 +22544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -22406,7 +22689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
@@ -22618,7 +22901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -22816,7 +23099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
@@ -23077,10 +23360,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="398" t="s">
+      <c r="A32" s="397" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="398" t="s">
+      <c r="B32" s="397" t="s">
         <v>281</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -23088,15 +23371,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="399"/>
-      <c r="B33" s="399"/>
+      <c r="A33" s="398"/>
+      <c r="B33" s="398"/>
       <c r="C33" s="22" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="400"/>
-      <c r="B34" s="400"/>
+      <c r="A34" s="399"/>
+      <c r="B34" s="399"/>
       <c r="C34" s="22" t="s">
         <v>1591</v>
       </c>
@@ -23451,7 +23734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C36"/>
   <sheetViews>
@@ -23722,7 +24005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
@@ -23867,266 +24150,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:C33"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
-        <v>984</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
-        <v>984</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="63" t="s">
-        <v>960</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -24468,6 +24491,266 @@
 
 <file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:C33"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
+        <v>984</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="69" t="s">
+        <v>984</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="63" t="s">
+        <v>960</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="69" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
@@ -24709,7 +24992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
@@ -24924,7 +25207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C36"/>
   <sheetViews>
@@ -25207,7 +25490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C42"/>
   <sheetViews>
@@ -25538,7 +25821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C24"/>
   <sheetViews>
@@ -25755,7 +26038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -25993,7 +26276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C40"/>
   <sheetViews>
@@ -26297,7 +26580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C39"/>
   <sheetViews>
@@ -26593,7 +26876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C41"/>
   <sheetViews>
@@ -26890,270 +27173,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C31"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
-        <v>984</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="102" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="103" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
-        <v>916</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>956</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
-        <v>913</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="69" t="s">
-        <v>984</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
-        <v>913</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -27347,6 +27366,270 @@
 
 <file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C31"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="69" t="s">
+        <v>984</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="63" t="s">
+        <v>916</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>956</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="69" t="s">
+        <v>913</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="69" t="s">
+        <v>984</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="69" t="s">
+        <v>913</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
@@ -27506,7 +27789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C15"/>
   <sheetViews>
@@ -27630,7 +27913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -27845,7 +28128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C42"/>
   <sheetViews>
@@ -28129,7 +28412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -28211,10 +28494,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="401" t="s">
+      <c r="A11" s="400" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="401" t="s">
+      <c r="B11" s="400" t="s">
         <v>281</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -28222,15 +28505,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="402"/>
-      <c r="B12" s="402"/>
+      <c r="A12" s="401"/>
+      <c r="B12" s="401"/>
       <c r="C12" s="25" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="403"/>
-      <c r="B13" s="403"/>
+      <c r="A13" s="402"/>
+      <c r="B13" s="402"/>
       <c r="C13" s="25" t="s">
         <v>1591</v>
       </c>
@@ -28463,7 +28746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -28562,10 +28845,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="401" t="s">
+      <c r="A14" s="400" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="401" t="s">
+      <c r="B14" s="400" t="s">
         <v>281</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -28573,15 +28856,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="402"/>
-      <c r="B15" s="402"/>
+      <c r="A15" s="401"/>
+      <c r="B15" s="401"/>
       <c r="C15" s="25" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="403"/>
-      <c r="B16" s="403"/>
+      <c r="A16" s="402"/>
+      <c r="B16" s="402"/>
       <c r="C16" s="25" t="s">
         <v>1591</v>
       </c>
@@ -28736,7 +29019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C18"/>
   <sheetViews>
@@ -28894,7 +29177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B12"/>
   <sheetViews>
@@ -28996,7 +29279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
@@ -30032,10 +30315,10 @@
       <c r="H21" s="143"/>
     </row>
     <row r="22" spans="1:8" s="382" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="397" t="s">
+      <c r="A22" s="396" t="s">
         <v>1202</v>
       </c>
-      <c r="B22" s="397" t="s">
+      <c r="B22" s="396" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="143" t="s">
@@ -30048,10 +30331,10 @@
       <c r="H22" s="143"/>
     </row>
     <row r="23" spans="1:8" s="382" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="397" t="s">
+      <c r="A23" s="396" t="s">
         <v>2619</v>
       </c>
-      <c r="B23" s="397" t="s">
+      <c r="B23" s="396" t="s">
         <v>218</v>
       </c>
       <c r="C23" s="143" t="s">
@@ -30558,7 +30841,7 @@
       <c r="A18" s="386" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="396" t="s">
+      <c r="B18" s="395" t="s">
         <v>2616</v>
       </c>
     </row>
@@ -39069,7 +39352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39335,7 +39618,9 @@
       <c r="B25" s="226" t="s">
         <v>1746</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>2624</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
@@ -39393,9 +39678,7 @@
   <sheetPr codeName="Лист12"/>
   <dimension ref="A2:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C24"/>
-    </sheetView>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44447,7 +44730,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -44457,12 +44740,12 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -44470,7 +44753,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1211</v>
       </c>
@@ -44478,7 +44761,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -44486,7 +44769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -44494,7 +44777,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>234</v>
       </c>
@@ -44502,7 +44785,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>100</v>
       </c>
@@ -44510,7 +44793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -44518,7 +44801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -44526,18 +44809,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="229" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="226" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>1207</v>
       </c>
@@ -44545,7 +44833,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>1212</v>
       </c>
@@ -44553,217 +44841,237 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="266" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="266" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="333" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="333" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
         <v>1309</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="22"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="115" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B20" s="115" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="116" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B19" s="116" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="116" t="s">
-        <v>553</v>
-      </c>
-      <c r="B20" s="116" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="116" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="116" t="s">
-        <v>1111</v>
+        <v>553</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>1111</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="116" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="116" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="116" t="s">
-        <v>519</v>
+        <v>1112</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>519</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="116" t="s">
-        <v>521</v>
+        <v>1113</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>521</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="116" t="s">
-        <v>1114</v>
+        <v>519</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>1114</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="116" t="s">
-        <v>1115</v>
+        <v>521</v>
       </c>
       <c r="B28" s="116" t="s">
-        <v>1115</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="116" t="s">
-        <v>30</v>
+        <v>1114</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>30</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="116" t="s">
-        <v>531</v>
+        <v>1115</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>531</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="116" t="s">
-        <v>551</v>
+        <v>30</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>551</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="116" t="s">
-        <v>1116</v>
+        <v>531</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>1116</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="116" t="s">
-        <v>1117</v>
+        <v>551</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>1117</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="116" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="116" t="s">
-        <v>399</v>
+        <v>1117</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>399</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="116" t="s">
-        <v>1090</v>
+        <v>1118</v>
       </c>
       <c r="B36" s="116" t="s">
-        <v>1090</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="116" t="s">
-        <v>1091</v>
+        <v>399</v>
       </c>
       <c r="B37" s="116" t="s">
-        <v>1091</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="116" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B38" s="116" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="116" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B39" s="116" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="116" t="s">
         <v>546</v>
       </c>
-      <c r="B38" s="116" t="s">
+      <c r="B40" s="116" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="377" t="s">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="377" t="s">
         <v>2548</v>
       </c>
-      <c r="B39" s="377" t="s">
+      <c r="B41" s="377" t="s">
         <v>2548</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="377" t="s">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="377" t="s">
         <v>2566</v>
       </c>
-      <c r="B40" s="377" t="s">
+      <c r="B42" s="377" t="s">
         <v>2566</v>
       </c>
     </row>
@@ -44776,7 +45084,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -44787,12 +45095,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
@@ -44800,7 +45108,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1209</v>
       </c>
@@ -44808,7 +45116,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -44816,7 +45124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
         <v>15</v>
       </c>
@@ -44824,7 +45132,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="96" t="s">
         <v>234</v>
       </c>
@@ -44832,7 +45140,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="96" t="s">
         <v>100</v>
       </c>
@@ -44840,7 +45148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="97" t="s">
         <v>17</v>
       </c>
@@ -44848,7 +45156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="97" t="s">
         <v>35</v>
       </c>
@@ -44856,165 +45164,188 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="390" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="390" t="s">
+      <c r="B10" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="356" t="s">
+      <c r="C10" s="179" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="266" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="266" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>1309</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B12" s="96" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="96" t="s">
         <v>743</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B13" s="96" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="97" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="97" t="s">
         <v>500</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B14" s="97" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="391" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="390" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="391" t="s">
+      <c r="B17" s="390" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="392" t="s">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="391" t="s">
         <v>1109</v>
       </c>
-      <c r="B17" s="392" t="s">
+      <c r="B18" s="391" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="392" t="s">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="391" t="s">
         <v>1093</v>
       </c>
-      <c r="B18" s="392" t="s">
+      <c r="B19" s="391" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="392" t="s">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="391" t="s">
         <v>1113</v>
       </c>
-      <c r="B19" s="392" t="s">
+      <c r="B20" s="391" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="392" t="s">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="391" t="s">
         <v>1093</v>
       </c>
-      <c r="B20" s="392" t="s">
+      <c r="B21" s="391" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="392" t="s">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="391" t="s">
         <v>1113</v>
       </c>
-      <c r="B21" s="392" t="s">
+      <c r="B22" s="391" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="392" t="s">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="391" t="s">
         <v>2017</v>
       </c>
-      <c r="B22" s="392" t="s">
+      <c r="B23" s="391" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="392" t="s">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="391" t="s">
         <v>2019</v>
       </c>
-      <c r="B23" s="392" t="s">
+      <c r="B24" s="391" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="392" t="s">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="391" t="s">
         <v>2020</v>
       </c>
-      <c r="B24" s="392" t="s">
+      <c r="B25" s="391" t="s">
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="392" t="s">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="391" t="s">
         <v>2022</v>
       </c>
-      <c r="B25" s="392" t="s">
+      <c r="B26" s="391" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="392" t="s">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="391" t="s">
         <v>2024</v>
       </c>
-      <c r="B26" s="392" t="s">
+      <c r="B27" s="391" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="392" t="s">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="391" t="s">
         <v>1634</v>
       </c>
-      <c r="B27" s="392" t="s">
+      <c r="B28" s="391" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="392" t="s">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="391" t="s">
         <v>1632</v>
       </c>
-      <c r="B28" s="392" t="s">
+      <c r="B29" s="391" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="392" t="s">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="391" t="s">
         <v>1360</v>
       </c>
-      <c r="B29" s="392" t="s">
+      <c r="B30" s="391" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="393" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="392" t="s">
         <v>2565</v>
       </c>
-      <c r="B30" s="393" t="s">
+      <c r="B31" s="392" t="s">
         <v>2565</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>2567</v>
       </c>
     </row>
@@ -45026,9 +45357,9 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -45036,12 +45367,12 @@
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -45049,7 +45380,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1205</v>
       </c>
@@ -45057,7 +45388,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -45065,7 +45396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -45073,7 +45404,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>234</v>
       </c>
@@ -45081,7 +45412,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>100</v>
       </c>
@@ -45089,7 +45420,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -45097,7 +45428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -45105,118 +45436,154 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="229" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="226" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="266" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="266" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="269" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B12" s="141" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="141" t="s">
+        <v>743</v>
+      </c>
+      <c r="B13" s="141" t="s">
+        <v>475</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="117" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B17" s="117" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="118" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B15" s="118" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="118" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B16" s="118" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="118" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B17" s="118" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="118" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C18" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="118" t="s">
-        <v>1093</v>
+        <v>1120</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>1093</v>
+        <v>1120</v>
       </c>
       <c r="C19" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="118" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="118" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>1123</v>
+        <v>1121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2034</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="118" t="s">
-        <v>1124</v>
+        <v>1093</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>1124</v>
+        <v>1093</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2036</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="118" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="118" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="118" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B25" s="118" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="118" t="s">
         <v>1125</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B26" s="118" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -45227,6 +45594,162 @@
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="242" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="242" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="179" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="97" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="96" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="179" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="179"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="96" t="s">
+        <v>743</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" s="179"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="97" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" s="97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист11"/>
   <dimension ref="A2:B21"/>
@@ -45390,283 +45913,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>2491</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="351" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="351" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C13" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="257" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B14" s="257" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="148" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="141" t="s">
-        <v>2089</v>
-      </c>
-      <c r="B17" s="141" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="141" t="s">
-        <v>2090</v>
-      </c>
-      <c r="B18" s="141" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="221" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="221" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="222" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B27" s="222" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="222" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B28" s="222" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="222" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B29" s="222" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="222" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B30" s="222" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -45877,6 +46123,285 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="351" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="351" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C13" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="257" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B14" s="257" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="141" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B17" s="141" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="141" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B18" s="141" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="44" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="221" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="222" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B27" s="222" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="222" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B28" s="222" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="222" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B29" s="222" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="222" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B30" s="222" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
@@ -46080,11 +46605,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -46361,7 +46888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E25"/>
   <sheetViews>
@@ -46602,7 +47129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
@@ -47048,7 +47575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -47195,7 +47722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
@@ -47624,7 +48151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -47777,7 +48304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -47920,7 +48447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -48140,7 +48667,246 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="54" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="148" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="148" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C12" s="382" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="310" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="310" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="310" t="s">
+        <v>865</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="342" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B21" s="342" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="133" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" s="133" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="133" t="s">
+        <v>596</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="197" t="s">
+        <v>454</v>
+      </c>
+      <c r="B24" s="197" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="197" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B25" s="197" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="341" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B26" s="341" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="341" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B27" s="341" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="56" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="56" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -48449,246 +49215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="54" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="54"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>2589</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="148" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="148" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C12" s="382" t="s">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="310" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="310" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="310" t="s">
-        <v>865</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="342" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B21" s="342" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="133" t="s">
-        <v>595</v>
-      </c>
-      <c r="B22" s="133" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="133" t="s">
-        <v>596</v>
-      </c>
-      <c r="B23" s="133" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="197" t="s">
-        <v>454</v>
-      </c>
-      <c r="B24" s="197" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="197" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B25" s="197" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="341" t="s">
-        <v>2367</v>
-      </c>
-      <c r="B26" s="341" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="341" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B27" s="341" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
-        <v>2376</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
-        <v>2377</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -48921,7 +49448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -49147,7 +49674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -49421,7 +49948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H38"/>
   <sheetViews>
@@ -49799,7 +50326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -50124,7 +50651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
@@ -50355,10 +50882,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="395" t="s">
+      <c r="A26" s="394" t="s">
         <v>2257</v>
       </c>
-      <c r="B26" s="395" t="s">
+      <c r="B26" s="394" t="s">
         <v>2256</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -50372,10 +50899,10 @@
       <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="398" t="s">
+      <c r="A27" s="397" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="398" t="s">
+      <c r="B27" s="397" t="s">
         <v>281</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -50396,8 +50923,8 @@
       <c r="P27" s="25"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="399"/>
-      <c r="B28" s="399"/>
+      <c r="A28" s="398"/>
+      <c r="B28" s="398"/>
       <c r="C28" s="25" t="s">
         <v>1590</v>
       </c>
@@ -50416,8 +50943,8 @@
       <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="400"/>
-      <c r="B29" s="400"/>
+      <c r="A29" s="399"/>
+      <c r="B29" s="399"/>
       <c r="C29" s="25" t="s">
         <v>1591</v>
       </c>
@@ -50436,8 +50963,8 @@
       <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="394"/>
-      <c r="B30" s="394"/>
+      <c r="A30" s="393"/>
+      <c r="B30" s="393"/>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -50525,7 +51052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
@@ -51099,7 +51626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -51283,7 +51810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C94"/>
   <sheetViews>
@@ -52049,272 +52576,4 @@
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
-        <v>984</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>994</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="226" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="165" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>2504</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>2506</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>2507</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="373" t="s">
-        <v>1839</v>
-      </c>
-      <c r="B26" s="373" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="373" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B27" s="373" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="252" t="s">
-        <v>2553</v>
-      </c>
-      <c r="B28" s="252" t="s">
-        <v>2554</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="53" activeTab="53"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="97" activeTab="97"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -39352,7 +39352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -48913,9 +48913,7 @@
   </sheetPr>
   <dimension ref="A2:I34"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49952,7 +49950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50330,9 +50328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -51630,7 +51626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="115" activeTab="116"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="117" activeTab="119"/>
   </bookViews>
   <sheets>
     <sheet name="AboutProject" sheetId="31" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="2624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9189" uniqueCount="2627">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -6946,12 +6946,6 @@
     <t>FaceAddressDataToId</t>
   </si>
   <si>
-    <t>например, "Астана\ул. Анарская, 60"</t>
-  </si>
-  <si>
-    <t>например, "Астана\ст. Сороковая"</t>
-  </si>
-  <si>
     <t>дог ГПХ</t>
   </si>
   <si>
@@ -6982,9 +6976,6 @@
     <t>физлицо в "контактной организации", может быть пустым</t>
   </si>
   <si>
-    <t>FaceToContactDataId</t>
-  </si>
-  <si>
     <t>Контактное лицо куда</t>
   </si>
   <si>
@@ -7001,9 +6992,6 @@
   </si>
   <si>
     <t>ContractAddConditionItem</t>
-  </si>
-  <si>
-    <t>Деньги лица</t>
   </si>
   <si>
     <t>Метод расчета, знак</t>
@@ -8084,12 +8072,6 @@
     <t>Списание (в т.ч. удержание)</t>
   </si>
   <si>
-    <t>доминирующее в операци движение ЗП</t>
-  </si>
-  <si>
-    <t>доминирующее в операци движение бюджета</t>
-  </si>
-  <si>
     <t>Движение бюджета</t>
   </si>
   <si>
@@ -8109,6 +8091,33 @@
   </si>
   <si>
     <t>Виды единиц измерения</t>
+  </si>
+  <si>
+    <t>Деньги лица от кого</t>
+  </si>
+  <si>
+    <t>Деньги лица кому</t>
+  </si>
+  <si>
+    <t>когда известен только вид денег (например, безнал), но не конкретный банксчет</t>
+  </si>
+  <si>
+    <t>АдресЛицаОткуда</t>
+  </si>
+  <si>
+    <t>FaceAddressDataFromId</t>
+  </si>
+  <si>
+    <t>Контактное лицо откуда</t>
+  </si>
+  <si>
+    <t>FaceContactDataFromId</t>
+  </si>
+  <si>
+    <t>FaceContactDataToId</t>
+  </si>
+  <si>
+    <t>доминирующее в операции</t>
   </si>
 </sst>
 </file>
@@ -8769,7 +8778,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9709,7 +9718,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9728,16 +9752,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10277,7 +10294,7 @@
         <v>1744</v>
       </c>
       <c r="C13" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -10320,15 +10337,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>2623</v>
+        <v>2617</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -10344,7 +10361,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -10485,55 +10502,55 @@
         <v>854</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -10554,10 +10571,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="249" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="B28" s="249" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
     </row>
   </sheetData>
@@ -10584,15 +10601,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -10608,7 +10625,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -10653,13 +10670,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="327" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C11" s="178" t="s">
         <v>2311</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>2516</v>
-      </c>
-      <c r="C11" s="178" t="s">
-        <v>2315</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -10670,14 +10687,14 @@
         <v>1678</v>
       </c>
       <c r="C12" s="178" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="96"/>
       <c r="B13" s="96"/>
       <c r="C13" s="178" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -10688,7 +10705,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -10699,7 +10716,7 @@
         <v>416</v>
       </c>
       <c r="C15" s="178" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -10710,7 +10727,7 @@
         <v>410</v>
       </c>
       <c r="C16" s="178" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -10721,40 +10738,40 @@
         <v>74</v>
       </c>
       <c r="C17" s="178" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="328" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="B18" s="328" t="s">
         <v>1408</v>
       </c>
       <c r="C18" s="178" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="147" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B19" s="147" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="178" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="327" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="B20" s="96" t="s">
         <v>124</v>
       </c>
       <c r="C20" s="178" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -10914,7 +10931,7 @@
         <v>992</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -11005,7 +11022,7 @@
         <v>109</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -11016,7 +11033,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -11027,7 +11044,7 @@
         <v>74</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -11049,7 +11066,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -11087,7 +11104,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -11098,7 +11115,7 @@
         <v>189</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -11254,10 +11271,10 @@
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A46" s="371" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="B46" s="371" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
@@ -11326,10 +11343,10 @@
     </row>
     <row r="55" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A55" s="372" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="B55" s="372" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="C55" t="s">
         <v>2184</v>
@@ -11337,18 +11354,18 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A56" s="372" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="B56" s="372" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="372" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="B57" s="372" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
     </row>
   </sheetData>
@@ -11379,15 +11396,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -11403,7 +11420,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -11479,7 +11496,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -11490,7 +11507,7 @@
         <v>247</v>
       </c>
       <c r="C14" s="178" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -11517,7 +11534,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="147" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
       <c r="B17" s="147" t="s">
         <v>23</v>
@@ -11533,7 +11550,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="355" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="D18" s="353"/>
     </row>
@@ -11830,7 +11847,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11838,7 +11855,7 @@
         <v>1697</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="C4" s="22"/>
     </row>
@@ -11855,7 +11872,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -11885,7 +11902,7 @@
         <v>992</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -11959,7 +11976,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -11970,7 +11987,7 @@
         <v>74</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -11992,7 +12009,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -12030,7 +12047,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -12041,7 +12058,7 @@
         <v>189</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -12108,7 +12125,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12116,7 +12133,7 @@
         <v>369</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -12132,7 +12149,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -12152,7 +12169,7 @@
         <v>992</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -12301,7 +12318,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -12339,7 +12356,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -12350,7 +12367,7 @@
         <v>189</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -13063,35 +13080,35 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="319" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="319" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="B18" s="319" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="319" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13102,7 +13119,7 @@
         <v>1409</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13113,7 +13130,7 @@
         <v>1410</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13124,7 +13141,7 @@
         <v>2071</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13135,7 +13152,7 @@
         <v>1437</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13146,7 +13163,7 @@
         <v>1976</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -13245,7 +13262,7 @@
         <v>992</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -13362,7 +13379,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -13400,7 +13417,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -13411,7 +13428,7 @@
         <v>189</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -13473,18 +13490,18 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -13500,7 +13517,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -13530,7 +13547,7 @@
         <v>992</v>
       </c>
       <c r="C8" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -13541,7 +13558,7 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -13574,13 +13591,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>2419</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>2423</v>
       </c>
       <c r="D13" s="22"/>
     </row>
@@ -13592,7 +13609,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -13607,7 +13624,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -13637,7 +13654,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -13691,7 +13708,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -13706,7 +13723,7 @@
         <v>189</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -14039,13 +14056,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="400" t="s">
+      <c r="A10" s="393" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="400" t="s">
+      <c r="B10" s="393" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="401" t="s">
+      <c r="C10" s="394" t="s">
         <v>676</v>
       </c>
     </row>
@@ -14078,42 +14095,42 @@
       <c r="B14" s="97"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="402" t="s">
+      <c r="A16" s="395" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="402" t="s">
+      <c r="B16" s="395" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="403" t="s">
+      <c r="A17" s="396" t="s">
         <v>756</v>
       </c>
-      <c r="B17" s="403" t="s">
+      <c r="B17" s="396" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="403" t="s">
+      <c r="A18" s="396" t="s">
         <v>558</v>
       </c>
-      <c r="B18" s="403" t="s">
+      <c r="B18" s="396" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="403" t="s">
+      <c r="A19" s="396" t="s">
         <v>560</v>
       </c>
-      <c r="B19" s="403" t="s">
+      <c r="B19" s="396" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="403" t="s">
+      <c r="A20" s="396" t="s">
         <v>1867</v>
       </c>
-      <c r="B20" s="403" t="s">
+      <c r="B20" s="396" t="s">
         <v>1867</v>
       </c>
     </row>
@@ -14280,10 +14297,10 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="314" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B20" s="314" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
   </sheetData>
@@ -14315,15 +14332,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -14339,7 +14356,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14358,7 +14375,7 @@
         <v>992</v>
       </c>
       <c r="C7" s="178" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -14407,7 +14424,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="110" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="B13" s="110" t="s">
         <v>70</v>
@@ -14429,7 +14446,7 @@
         <v>109</v>
       </c>
       <c r="C14" s="178" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="D14" s="178"/>
       <c r="E14" s="178"/>
@@ -14445,7 +14462,7 @@
         <v>197</v>
       </c>
       <c r="C15" s="178" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="D15" s="178"/>
       <c r="E15" s="178"/>
@@ -14455,13 +14472,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="330" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="B16" s="331" t="s">
         <v>2068</v>
       </c>
       <c r="C16" s="178" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="D16" s="178"/>
       <c r="E16" s="178"/>
@@ -14486,7 +14503,7 @@
         <v>125</v>
       </c>
       <c r="C18" s="178" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="D18" s="178"/>
       <c r="E18" s="178"/>
@@ -14634,7 +14651,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="178" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
     </row>
   </sheetData>
@@ -14671,7 +14688,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1872</v>
@@ -14849,7 +14866,7 @@
   <sheetPr codeName="Лист14"/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14919,7 +14936,7 @@
         <v>992</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -15092,7 +15109,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -15130,7 +15147,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -15141,7 +15158,7 @@
         <v>189</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -15675,7 +15692,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -15968,7 +15985,7 @@
         <v>1744</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -16132,12 +16149,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -16228,13 +16245,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B12" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -16533,10 +16550,10 @@
     </row>
     <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A26" s="333" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="B26" s="333" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="C26" s="333" t="s">
         <v>739</v>
@@ -16548,15 +16565,15 @@
         <v>660</v>
       </c>
       <c r="F26" s="333" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A27" s="333" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="B27" s="333" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="C27" s="333" t="s">
         <v>739</v>
@@ -16568,15 +16585,15 @@
         <v>660</v>
       </c>
       <c r="F27" s="333" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A28" s="333" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="B28" s="333" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="C28" s="333" t="s">
         <v>739</v>
@@ -16588,15 +16605,15 @@
         <v>660</v>
       </c>
       <c r="F28" s="333" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A29" s="333" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="B29" s="333" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="C29" s="333" t="s">
         <v>739</v>
@@ -16608,7 +16625,7 @@
         <v>660</v>
       </c>
       <c r="F29" s="333" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
     </row>
   </sheetData>
@@ -17624,7 +17641,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -17635,7 +17652,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -17684,7 +17701,7 @@
         <v>472</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -17695,7 +17712,7 @@
         <v>473</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -18374,7 +18391,7 @@
         <v>1744</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -18612,7 +18629,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="143" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -18626,7 +18643,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="353" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -18658,13 +18675,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B14" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -18836,7 +18853,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="353" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -18847,7 +18864,7 @@
         <v>74</v>
       </c>
       <c r="C12" s="178" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -18855,18 +18872,18 @@
         <v>1253</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B14" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -19640,7 +19657,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -19651,7 +19668,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -19714,7 +19731,7 @@
         <v>472</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -19725,7 +19742,7 @@
         <v>473</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -19968,15 +19985,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -19992,7 +20009,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -20070,7 +20087,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>1408</v>
@@ -20170,7 +20187,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
     </row>
   </sheetData>
@@ -20568,29 +20585,29 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="322" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="B50" s="322" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A51" s="322" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="B51" s="322" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -20891,15 +20908,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -20915,7 +20932,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -20982,18 +20999,18 @@
         <v>197</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="346" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="B14" s="344" t="s">
         <v>2068</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -21359,22 +21376,22 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
     </row>
   </sheetData>
@@ -22411,7 +22428,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -22422,7 +22439,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -22528,17 +22545,17 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
     </row>
   </sheetData>
@@ -22711,15 +22728,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -22735,7 +22752,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -22774,7 +22791,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>2068</v>
@@ -22820,13 +22837,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B14" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -22895,7 +22912,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
     </row>
   </sheetData>
@@ -23044,7 +23061,7 @@
         <v>137</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -23267,7 +23284,7 @@
         <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -23363,10 +23380,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="394" t="s">
+      <c r="A32" s="399" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="394" t="s">
+      <c r="B32" s="399" t="s">
         <v>281</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -23374,15 +23391,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="395"/>
-      <c r="B33" s="395"/>
+      <c r="A33" s="400"/>
+      <c r="B33" s="400"/>
       <c r="C33" s="22" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="396"/>
-      <c r="B34" s="396"/>
+      <c r="A34" s="401"/>
+      <c r="B34" s="401"/>
       <c r="C34" s="22" t="s">
         <v>1589</v>
       </c>
@@ -23460,7 +23477,7 @@
         <v>2188</v>
       </c>
       <c r="B45" s="141" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -23562,13 +23579,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B58" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -24160,7 +24177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24184,7 +24203,7 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1742</v>
@@ -24285,64 +24304,64 @@
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="406" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="406" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="24"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="406" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="406" t="s">
         <v>187</v>
       </c>
       <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="406" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="406" t="s">
         <v>223</v>
       </c>
       <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="406" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="406" t="s">
         <v>182</v>
       </c>
       <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="406" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="406" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="406" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="406" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="406" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="406" t="s">
         <v>125</v>
       </c>
       <c r="C21" s="24"/>
@@ -24358,13 +24377,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -27271,7 +27290,7 @@
         <v>1744</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -27314,14 +27333,14 @@
         <v>1746</v>
       </c>
       <c r="C16" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="337"/>
       <c r="B17" s="337"/>
       <c r="C17" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -27332,7 +27351,7 @@
         <v>1747</v>
       </c>
       <c r="C18" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -27343,14 +27362,14 @@
         <v>1783</v>
       </c>
       <c r="C19" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="337"/>
       <c r="B20" s="337"/>
       <c r="C20" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -28497,10 +28516,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="397" t="s">
+      <c r="A11" s="402" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="397" t="s">
+      <c r="B11" s="402" t="s">
         <v>281</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -28508,15 +28527,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="398"/>
-      <c r="B12" s="398"/>
+      <c r="A12" s="403"/>
+      <c r="B12" s="403"/>
       <c r="C12" s="25" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="399"/>
-      <c r="B13" s="399"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="404"/>
       <c r="C13" s="25" t="s">
         <v>1589</v>
       </c>
@@ -28848,10 +28867,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="397" t="s">
+      <c r="A14" s="402" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="397" t="s">
+      <c r="B14" s="402" t="s">
         <v>281</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -28859,15 +28878,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="398"/>
-      <c r="B15" s="398"/>
+      <c r="A15" s="403"/>
+      <c r="B15" s="403"/>
       <c r="C15" s="25" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="399"/>
-      <c r="B16" s="399"/>
+      <c r="A16" s="404"/>
+      <c r="B16" s="404"/>
       <c r="C16" s="25" t="s">
         <v>1589</v>
       </c>
@@ -29538,7 +29557,7 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1780</v>
@@ -29874,13 +29893,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D37" s="22"/>
     </row>
@@ -30021,47 +30040,47 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
     </row>
   </sheetData>
@@ -30073,13 +30092,13 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист32"/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -30211,7 +30230,7 @@
         <v>103</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="D14" s="143"/>
       <c r="E14" s="143"/>
@@ -30305,7 +30324,7 @@
     </row>
     <row r="21" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>1857</v>
@@ -30318,14 +30337,14 @@
       <c r="H21" s="143"/>
     </row>
     <row r="22" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="393" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B22" s="393" t="s">
-        <v>217</v>
+      <c r="A22" s="179" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="179" t="s">
+        <v>70</v>
       </c>
       <c r="C22" s="143" t="s">
-        <v>2615</v>
+        <v>2626</v>
       </c>
       <c r="D22" s="143"/>
       <c r="E22" s="143"/>
@@ -30334,14 +30353,14 @@
       <c r="H22" s="143"/>
     </row>
     <row r="23" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="393" t="s">
-        <v>2617</v>
-      </c>
-      <c r="B23" s="393" t="s">
-        <v>218</v>
+      <c r="A23" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="179" t="s">
+        <v>187</v>
       </c>
       <c r="C23" s="143" t="s">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="D23" s="143"/>
       <c r="E23" s="143"/>
@@ -30349,50 +30368,178 @@
       <c r="G23" s="143"/>
       <c r="H23" s="143"/>
     </row>
-    <row r="24" spans="1:8" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="179" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="179" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="143" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+    </row>
+    <row r="25" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="179" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="143" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+    </row>
+    <row r="26" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="179" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="143" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+    </row>
+    <row r="27" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="179" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="143" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+    </row>
+    <row r="28" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="179" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="143" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+    </row>
+    <row r="29" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="407" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="407" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="143" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+    </row>
+    <row r="30" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="405" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B30" s="405" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="143" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+    </row>
+    <row r="31" spans="1:8" s="379" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="405" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B31" s="405" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="143" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+    </row>
+    <row r="32" spans="1:8" s="198" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B32" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C24" s="143"/>
-    </row>
-    <row r="25" spans="1:8" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="C32" s="143"/>
+    </row>
+    <row r="33" spans="1:3" s="198" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B33" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="C25" s="143"/>
-    </row>
-    <row r="26" spans="1:8" s="373" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="C33" s="143"/>
+    </row>
+    <row r="34" spans="1:3" s="373" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B34" s="16" t="s">
         <v>1744</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="C34" s="22" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -30845,7 +30992,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="392" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -30866,10 +31013,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="383" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B21" s="383" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -30880,32 +31027,32 @@
         <v>1117</v>
       </c>
       <c r="C22" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="383" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B23" s="383" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="383" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="B24" s="383" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="383" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B25" s="383" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -30946,15 +31093,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -30970,7 +31117,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -31037,10 +31184,10 @@
         <v>158</v>
       </c>
       <c r="B13" s="365" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="C13" s="353" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -31085,7 +31232,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="124" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -31125,7 +31272,7 @@
         <v>224</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -31202,7 +31349,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1749</v>
@@ -31554,16 +31701,16 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -31579,7 +31726,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -31674,10 +31821,10 @@
         <v>158</v>
       </c>
       <c r="B15" s="231" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="C15" s="143" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="D15" s="143"/>
       <c r="E15" s="143"/>
@@ -31694,13 +31841,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="346" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="B17" s="346" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C17" s="309" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="D17" s="345"/>
       <c r="E17" s="345"/>
@@ -31714,7 +31861,7 @@
         <v>1478</v>
       </c>
       <c r="C18" s="309" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="D18" s="345"/>
       <c r="E18" s="345"/>
@@ -31780,17 +31927,17 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="143" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="143" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="143" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -31869,7 +32016,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="143" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -31877,7 +32024,7 @@
         <v>236</v>
       </c>
       <c r="B44" s="228" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -31885,7 +32032,7 @@
         <v>237</v>
       </c>
       <c r="B45" s="228" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -31893,7 +32040,7 @@
         <v>190</v>
       </c>
       <c r="B46" s="228" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -31901,7 +32048,7 @@
         <v>280</v>
       </c>
       <c r="B47" s="228" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -31909,7 +32056,7 @@
         <v>203</v>
       </c>
       <c r="B48" s="141" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -31917,7 +32064,7 @@
         <v>145</v>
       </c>
       <c r="B49" s="141" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -31925,7 +32072,7 @@
         <v>146</v>
       </c>
       <c r="B50" s="141" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -31933,7 +32080,7 @@
         <v>745</v>
       </c>
       <c r="B51" s="266" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -31941,7 +32088,7 @@
         <v>744</v>
       </c>
       <c r="B52" s="266" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -31957,7 +32104,7 @@
         <v>1592</v>
       </c>
       <c r="B54" s="141" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -31965,7 +32112,7 @@
         <v>1593</v>
       </c>
       <c r="B55" s="141" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -31973,7 +32120,7 @@
         <v>1594</v>
       </c>
       <c r="B56" s="141" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -32248,7 +32395,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -32307,13 +32454,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B13" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -32324,7 +32471,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -32710,7 +32857,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1642</v>
@@ -32836,13 +32983,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B18" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -33082,13 +33229,13 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="262" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -33361,13 +33508,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B12" s="254" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -34119,10 +34266,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="324" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="B29" s="324" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -34143,57 +34290,57 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="324" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="B32" s="324" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="C32" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="324" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="B33" s="324" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="C33" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="324" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="B34" s="324" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C34" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="324" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="B35" s="324" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="C35" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="324" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="B36" s="324" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="C36" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
     </row>
   </sheetData>
@@ -34325,50 +34472,50 @@
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A16" s="321" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="B16" s="321" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="321" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="B17" s="321" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="321" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="B18" s="321" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="321" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="B19" s="321" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A20" s="321" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="B20" s="321" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A21" s="321" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="B21" s="321" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -34575,7 +34722,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -34583,7 +34730,7 @@
         <v>961</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -34599,7 +34746,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -34696,10 +34843,10 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="381" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="B19" s="381" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
     </row>
   </sheetData>
@@ -34808,10 +34955,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="183" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="B12" s="183" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -34843,13 +34990,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -35104,13 +35251,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -35424,13 +35571,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B17" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -35686,7 +35833,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="251" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="B17" s="251" t="s">
         <v>791</v>
@@ -35742,7 +35889,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="173" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="B24" s="173" t="s">
         <v>1570</v>
@@ -36478,13 +36625,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B13" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -36902,19 +37049,19 @@
     </row>
     <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A31" s="127" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C31" s="128"/>
     </row>
     <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A32" s="127" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="B32" s="127" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C32" s="128" t="s">
         <v>575</v>
@@ -36922,10 +37069,10 @@
     </row>
     <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A33" s="127" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="B33" s="127" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C33" s="128" t="s">
         <v>575</v>
@@ -36933,10 +37080,10 @@
     </row>
     <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A34" s="127" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="B34" s="127" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C34" s="128" t="s">
         <v>575</v>
@@ -36944,10 +37091,10 @@
     </row>
     <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A35" s="127" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="B35" s="127" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C35" s="128" t="s">
         <v>575</v>
@@ -36955,10 +37102,10 @@
     </row>
     <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A36" s="127" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="B36" s="127" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C36" s="128" t="s">
         <v>575</v>
@@ -36990,7 +37137,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="178" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -37003,7 +37150,7 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="B4" s="137" t="s">
         <v>747</v>
@@ -37085,7 +37232,7 @@
         <v>182</v>
       </c>
       <c r="C13" s="178" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -37138,13 +37285,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="354" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="B17" s="354" t="s">
         <v>2068</v>
       </c>
       <c r="C17" s="178" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="D17" s="178"/>
       <c r="E17" s="178"/>
@@ -37442,10 +37589,10 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="156" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="B24" s="156" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
     </row>
   </sheetData>
@@ -37479,7 +37626,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>671</v>
@@ -37498,7 +37645,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -37589,13 +37736,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B15" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -37617,7 +37764,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -38117,13 +38264,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B23" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D23" s="178"/>
       <c r="E23" s="178"/>
@@ -38139,7 +38286,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D24" s="178"/>
       <c r="E24" s="178"/>
@@ -38155,7 +38302,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D25" s="178"/>
       <c r="E25" s="178"/>
@@ -38171,7 +38318,7 @@
         <v>2089</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D26" s="178"/>
       <c r="E26" s="178"/>
@@ -38187,7 +38334,7 @@
         <v>2090</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D27" s="178"/>
       <c r="E27" s="178"/>
@@ -38203,7 +38350,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D28" s="178"/>
       <c r="E28" s="178"/>
@@ -38219,7 +38366,7 @@
         <v>189</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
       <c r="D29" s="178"/>
       <c r="E29" s="178"/>
@@ -38309,7 +38456,7 @@
     </row>
     <row r="4" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1856</v>
@@ -38452,7 +38599,7 @@
         <v>1744</v>
       </c>
       <c r="C21" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -38509,18 +38656,18 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="253" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="B30" s="253" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="253" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="B31" s="253" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -38570,15 +38717,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -38594,7 +38741,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -38642,13 +38789,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B11" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -38749,7 +38896,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
     </row>
   </sheetData>
@@ -38865,7 +39012,7 @@
         <v>1744</v>
       </c>
       <c r="C12" s="274" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -39055,7 +39202,7 @@
         <v>1744</v>
       </c>
       <c r="C12" s="274" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -39242,13 +39389,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B16" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -39514,13 +39661,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B17" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -39622,7 +39769,7 @@
         <v>1744</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>2622</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -39846,13 +39993,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B19" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -40078,7 +40225,7 @@
         <v>1803</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -40089,13 +40236,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B12" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -40713,7 +40860,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="106" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="B16" s="110" t="s">
         <v>2068</v>
@@ -40837,13 +40984,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D28" s="95"/>
       <c r="E28" s="22"/>
@@ -41005,15 +41152,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -41029,7 +41176,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -41066,7 +41213,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>1857</v>
@@ -41100,7 +41247,7 @@
         <v>1744</v>
       </c>
       <c r="C13" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -41143,7 +41290,7 @@
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>179</v>
@@ -41173,7 +41320,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -41208,7 +41355,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -41270,7 +41417,7 @@
         <v>472</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -41281,7 +41428,7 @@
         <v>473</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -41361,7 +41508,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -41418,7 +41565,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -41744,7 +41891,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -41755,18 +41902,18 @@
         <v>1338</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B14" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -41863,7 +42010,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
     </row>
   </sheetData>
@@ -41899,7 +42046,7 @@
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>947</v>
@@ -41990,13 +42137,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="368" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B13" s="368" t="s">
         <v>1408</v>
       </c>
       <c r="C13" s="353" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -42323,13 +42470,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="384" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B18" s="384" t="s">
         <v>1408</v>
       </c>
       <c r="C18" s="178" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D18" s="178"/>
       <c r="E18" s="178"/>
@@ -42600,10 +42747,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="B12" s="147" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>2047</v>
@@ -42614,10 +42761,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="147" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="B13" s="147" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>2047</v>
@@ -42628,10 +42775,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="147" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="B14" s="147" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>2047</v>
@@ -42719,15 +42866,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -42743,7 +42890,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -42855,10 +43002,10 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="313" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="B19" s="313" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
     </row>
   </sheetData>
@@ -43008,10 +43155,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="216" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="B17" s="216" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -43022,13 +43169,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -43728,10 +43875,10 @@
     </row>
     <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A24" s="169" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="B24" s="169" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
     </row>
   </sheetData>
@@ -43873,7 +44020,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="225" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -43945,15 +44092,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -43969,7 +44116,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -44034,7 +44181,7 @@
         <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -44050,13 +44197,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -44248,15 +44395,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -44272,7 +44419,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -44329,13 +44476,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="254" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="B12" s="254" t="s">
         <v>2006</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -44348,7 +44495,7 @@
         <v>1757</v>
       </c>
       <c r="B13" s="210" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>676</v>
@@ -44367,13 +44514,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -44852,7 +44999,7 @@
         <v>76</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -45064,18 +45211,18 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="374" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="B41" s="374" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="374" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="B42" s="374" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
     </row>
   </sheetData>
@@ -45192,7 +45339,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
       <c r="D11" s="178"/>
       <c r="E11" s="178"/>
@@ -45343,13 +45490,13 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="389" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="B31" s="389" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
     </row>
   </sheetData>
@@ -45461,7 +45608,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -45619,15 +45766,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2619</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2621</v>
+        <v>2615</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2619</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -45643,7 +45790,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2620</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -45713,7 +45860,7 @@
         <v>76</v>
       </c>
       <c r="C13" s="178" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -45943,15 +46090,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -45967,7 +46114,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -46065,10 +46212,10 @@
     </row>
     <row r="19" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="340" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B19" s="340" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="C19" t="s">
         <v>984</v>
@@ -46076,10 +46223,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="341" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="B20" s="341" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -46153,7 +46300,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>188</v>
@@ -46183,7 +46330,7 @@
         <v>205</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -46226,7 +46373,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -46253,13 +46400,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B14" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -46279,7 +46426,7 @@
         <v>124</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -46290,7 +46437,7 @@
         <v>2089</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -46301,7 +46448,7 @@
         <v>2090</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -46746,7 +46893,7 @@
         <v>1694</v>
       </c>
       <c r="C17" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -46807,34 +46954,34 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="271" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B25" s="271" t="s">
         <v>2336</v>
-      </c>
-      <c r="B25" s="271" t="s">
-        <v>2340</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="271" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B26" s="271" t="s">
         <v>2337</v>
-      </c>
-      <c r="B26" s="271" t="s">
-        <v>2341</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="271" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B27" s="271" t="s">
         <v>2338</v>
-      </c>
-      <c r="B27" s="271" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="271" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B28" s="271" t="s">
         <v>2339</v>
-      </c>
-      <c r="B28" s="271" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -47009,7 +47156,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -47027,13 +47174,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="254" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B15" s="254" t="s">
         <v>1408</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -48693,15 +48840,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -48717,7 +48864,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -48776,7 +48923,7 @@
         <v>1744</v>
       </c>
       <c r="C12" s="379" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -48873,10 +49020,10 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="338" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="B26" s="338" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -48889,18 +49036,18 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
     </row>
   </sheetData>
@@ -49437,10 +49584,10 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="B27" s="157" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
   </sheetData>
@@ -49587,7 +49734,7 @@
         <v>472</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -49598,7 +49745,7 @@
         <v>473</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -49663,10 +49810,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
     </row>
   </sheetData>
@@ -49802,7 +49949,7 @@
         <v>260</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -49813,7 +49960,7 @@
         <v>472</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -49824,7 +49971,7 @@
         <v>473</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -49897,10 +50044,10 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="336" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="B26" s="336" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -49929,18 +50076,18 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="249" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="B31" s="249" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
   </sheetData>
@@ -50146,13 +50293,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -50419,7 +50566,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="369" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="B10" s="369" t="s">
         <v>2118</v>
@@ -50459,13 +50606,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>1408</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D14" s="178"/>
       <c r="E14" s="178"/>
@@ -50587,7 +50734,7 @@
         <v>174</v>
       </c>
       <c r="C22" s="178" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -50652,7 +50799,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -50786,7 +50933,7 @@
         <v>2188</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -50827,105 +50974,89 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>192</v>
+      <c r="A20" s="141" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B20" s="141" t="s">
+        <v>2622</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="398" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B21" s="398" t="s">
+        <v>2624</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="110" t="s">
         <v>321</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B23" s="110" t="s">
         <v>1770</v>
-      </c>
-      <c r="C22" s="178" t="s">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
-        <v>744</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>312</v>
       </c>
       <c r="C23" s="178"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
+        <v>744</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="178"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="63" t="s">
         <v>683</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B25" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="391" t="s">
         <v>2252</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="391" t="s">
-        <v>2255</v>
-      </c>
-      <c r="B26" s="391" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>2256</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="394" t="s">
+      <c r="B27" s="391" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="399" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="394" t="s">
+      <c r="B28" s="399" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C28" s="25" t="s">
         <v>1587</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="395"/>
-      <c r="B28" s="395"/>
-      <c r="C28" s="25" t="s">
-        <v>1588</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -50942,10 +51073,10 @@
       <c r="P28" s="25"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="396"/>
-      <c r="B29" s="396"/>
+      <c r="A29" s="400"/>
+      <c r="B29" s="400"/>
       <c r="C29" s="25" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -50962,89 +51093,109 @@
       <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="390"/>
-      <c r="B30" s="390"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="401"/>
+      <c r="B30" s="401"/>
+      <c r="C30" s="25" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="141" t="s">
+      <c r="A31" s="390"/>
+      <c r="B31" s="390"/>
+      <c r="C31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="141" t="s">
         <v>851</v>
       </c>
-      <c r="B31" s="141" t="s">
+      <c r="B32" s="141" t="s">
         <v>852</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C32" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
         <v>1307</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>1744</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C36" s="22" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
-        <v>1608</v>
-      </c>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>1597</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
         <v>1599</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -51053,7 +51204,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -51127,7 +51278,7 @@
         <v>992</v>
       </c>
       <c r="C7" s="178" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="D7" s="275"/>
       <c r="E7" s="275"/>
@@ -51140,7 +51291,7 @@
       <c r="A8" s="335"/>
       <c r="B8" s="335"/>
       <c r="C8" s="178" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="D8" s="334"/>
       <c r="E8" s="334"/>
@@ -51153,7 +51304,7 @@
       <c r="A9" s="335"/>
       <c r="B9" s="335"/>
       <c r="C9" s="178" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="D9" s="334"/>
       <c r="E9" s="334"/>
@@ -51166,7 +51317,7 @@
       <c r="A10" s="335"/>
       <c r="B10" s="335"/>
       <c r="C10" s="178" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="D10" s="334"/>
       <c r="E10" s="334"/>
@@ -51306,7 +51457,9 @@
       <c r="B19" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C19" s="318"/>
+      <c r="C19" s="178" t="s">
+        <v>2620</v>
+      </c>
       <c r="D19" s="318"/>
       <c r="E19" s="318"/>
       <c r="F19" s="318"/>
@@ -51332,11 +51485,11 @@
       <c r="I20" s="275"/>
     </row>
     <row r="21" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>2261</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>223</v>
+      <c r="A21" s="397" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B21" s="397" t="s">
+        <v>232</v>
       </c>
       <c r="C21" s="178"/>
       <c r="D21" s="318"/>
@@ -51361,66 +51514,64 @@
       <c r="H22" s="275"/>
       <c r="I22" s="275"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="94" t="s">
+    <row r="23" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="397" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B23" s="397" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="178"/>
+      <c r="D23" s="351"/>
+      <c r="E23" s="351"/>
+      <c r="F23" s="351"/>
+      <c r="G23" s="351"/>
+      <c r="H23" s="351"/>
+      <c r="I23" s="351"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="94" t="s">
         <v>755</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B24" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="178" t="s">
+      <c r="C24" s="178" t="s">
         <v>1638</v>
       </c>
-      <c r="D23" s="275"/>
-      <c r="E23" s="275"/>
-      <c r="F23" s="275"/>
-      <c r="G23" s="275"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="275"/>
-    </row>
-    <row r="24" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="352" t="s">
+      <c r="D24" s="275"/>
+      <c r="E24" s="275"/>
+      <c r="F24" s="275"/>
+      <c r="G24" s="275"/>
+      <c r="H24" s="275"/>
+      <c r="I24" s="275"/>
+    </row>
+    <row r="25" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="352" t="s">
         <v>2091</v>
       </c>
-      <c r="B24" s="352" t="s">
+      <c r="B25" s="352" t="s">
         <v>1641</v>
       </c>
-      <c r="C24" s="178" t="s">
+      <c r="C25" s="178" t="s">
         <v>2092</v>
       </c>
-      <c r="D24" s="347"/>
-      <c r="E24" s="347"/>
-      <c r="F24" s="347"/>
-      <c r="G24" s="347"/>
-      <c r="H24" s="347"/>
-      <c r="I24" s="347"/>
-    </row>
-    <row r="25" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="141" t="s">
+      <c r="D25" s="347"/>
+      <c r="E25" s="347"/>
+      <c r="F25" s="347"/>
+      <c r="G25" s="347"/>
+      <c r="H25" s="347"/>
+      <c r="I25" s="347"/>
+    </row>
+    <row r="26" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="B25" s="141" t="s">
+      <c r="B26" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="D25" s="351"/>
-      <c r="E25" s="351"/>
-      <c r="F25" s="351"/>
-      <c r="G25" s="351"/>
-      <c r="H25" s="351"/>
-      <c r="I25" s="351"/>
-    </row>
-    <row r="26" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>2263</v>
       </c>
       <c r="D26" s="351"/>
       <c r="E26" s="351"/>
@@ -51430,14 +51581,14 @@
       <c r="I26" s="351"/>
     </row>
     <row r="27" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>23</v>
+      <c r="A27" s="17" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>1408</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>78</v>
+        <v>2259</v>
       </c>
       <c r="D27" s="351"/>
       <c r="E27" s="351"/>
@@ -51448,12 +51599,14 @@
     </row>
     <row r="28" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="D28" s="351"/>
       <c r="E28" s="351"/>
       <c r="F28" s="351"/>
@@ -51462,11 +51615,11 @@
       <c r="I28" s="351"/>
     </row>
     <row r="29" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69" t="s">
-        <v>914</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>850</v>
+      <c r="A29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="351"/>
@@ -51477,15 +51630,13 @@
       <c r="I29" s="351"/>
     </row>
     <row r="30" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>2087</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>2089</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="A30" s="69" t="s">
+        <v>914</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>850</v>
+      </c>
+      <c r="C30" s="22"/>
       <c r="D30" s="351"/>
       <c r="E30" s="351"/>
       <c r="F30" s="351"/>
@@ -51495,10 +51646,10 @@
     </row>
     <row r="31" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>78</v>
@@ -51512,10 +51663,10 @@
     </row>
     <row r="32" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>20</v>
+        <v>2088</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>27</v>
+        <v>2090</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>78</v>
@@ -51528,13 +51679,15 @@
       <c r="I32" s="351"/>
     </row>
     <row r="33" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69" t="s">
-        <v>911</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="22"/>
+      <c r="A33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="D33" s="351"/>
       <c r="E33" s="351"/>
       <c r="F33" s="351"/>
@@ -51543,63 +51696,75 @@
       <c r="I33" s="351"/>
     </row>
     <row r="34" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="69" t="s">
+        <v>911</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="351"/>
+      <c r="E34" s="351"/>
+      <c r="F34" s="351"/>
+      <c r="G34" s="351"/>
+      <c r="H34" s="351"/>
+      <c r="I34" s="351"/>
+    </row>
+    <row r="35" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
         <v>1307</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B35" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C34" s="282"/>
-    </row>
-    <row r="35" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="C35" s="282"/>
+    </row>
+    <row r="36" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B36" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="C35" s="282"/>
-    </row>
-    <row r="36" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="C36" s="282"/>
+    </row>
+    <row r="37" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>1744</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C37" s="22" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>1981</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="178" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="178" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="178" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -51618,6 +51783,9 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -51734,10 +51902,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -51766,7 +51934,7 @@
         <v>472</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -51777,7 +51945,7 @@
         <v>473</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -51836,7 +52004,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -51892,10 +52060,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="344" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="B10" s="344" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -52102,34 +52270,34 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="249" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="B40" s="249" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -52150,53 +52318,53 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="C47" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -52385,7 +52553,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>1715</v>
@@ -52532,34 +52700,34 @@
     </row>
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A90" s="370" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B90" s="370" t="s">
         <v>2554</v>
-      </c>
-      <c r="B90" s="370" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A91" s="370" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B91" s="370" t="s">
         <v>2555</v>
-      </c>
-      <c r="B91" s="370" t="s">
-        <v>2559</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A92" s="370" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B92" s="370" t="s">
         <v>2556</v>
-      </c>
-      <c r="B92" s="370" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A93" s="370" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B93" s="370" t="s">
         <v>2557</v>
-      </c>
-      <c r="B93" s="370" t="s">
-        <v>2561</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="17" activeTab="23"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="63" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="AboutAccBase" sheetId="31" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9553" uniqueCount="2657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9622" uniqueCount="2660">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -7061,12 +7061,6 @@
     <t>значение, например = 1,7</t>
   </si>
   <si>
-    <t>осн пересчет в усл ЕИ</t>
-  </si>
-  <si>
-    <t>основной пересчет в условные единицы измерения</t>
-  </si>
-  <si>
     <t>Осн пр-во</t>
   </si>
   <si>
@@ -8206,6 +8200,21 @@
   </si>
   <si>
     <t>TaxAccountMovement</t>
+  </si>
+  <si>
+    <t>осн пересчет</t>
+  </si>
+  <si>
+    <t>основной пересчет</t>
+  </si>
+  <si>
+    <t>кол-во шт/уп</t>
+  </si>
+  <si>
+    <t>кол-во штук в упаковке</t>
+  </si>
+  <si>
+    <t>лицо чьи цены</t>
   </si>
 </sst>
 </file>
@@ -8866,7 +8875,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9750,19 +9759,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9792,9 +9794,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -9812,6 +9811,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -10205,7 +10207,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -10298,17 +10300,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10368,7 +10370,7 @@
         <v>1728</v>
       </c>
       <c r="C15" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -10413,15 +10415,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -10437,7 +10439,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -10450,15 +10452,15 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -10590,55 +10592,55 @@
         <v>841</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -10659,74 +10661,74 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="240" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B30" s="240" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="240" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B31" s="240" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="240" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B32" s="240" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="240" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B33" s="240" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="240" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B34" s="240" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="240" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B35" s="240" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
   </sheetData>
@@ -10752,7 +10754,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -10760,15 +10762,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -10784,7 +10786,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -10797,15 +10799,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="96" t="s">
@@ -10844,7 +10846,7 @@
         <v>2275</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="C13" s="175" t="s">
         <v>2279</v>
@@ -10858,14 +10860,14 @@
         <v>1663</v>
       </c>
       <c r="C14" s="175" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="96"/>
       <c r="B15" s="96"/>
       <c r="C15" s="175" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -10876,7 +10878,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -10887,7 +10889,7 @@
         <v>415</v>
       </c>
       <c r="C17" s="175" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -10898,7 +10900,7 @@
         <v>409</v>
       </c>
       <c r="C18" s="175" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -10909,7 +10911,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="175" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -10925,7 +10927,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>23</v>
@@ -11082,15 +11084,15 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="384"/>
-      <c r="B9" s="384"/>
+      <c r="A9" s="381"/>
+      <c r="B9" s="381"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
@@ -11117,7 +11119,7 @@
         <v>979</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -11168,7 +11170,7 @@
         <v>102</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -11208,7 +11210,7 @@
         <v>108</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -11219,7 +11221,7 @@
         <v>69</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -11230,7 +11232,7 @@
         <v>73</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -11252,7 +11254,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -11290,7 +11292,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -11301,7 +11303,7 @@
         <v>188</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -11457,10 +11459,10 @@
     </row>
     <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A48" s="345" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B48" s="345" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
@@ -11529,10 +11531,10 @@
     </row>
     <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A57" s="346" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B57" s="346" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="C57" t="s">
         <v>2154</v>
@@ -11540,18 +11542,18 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A58" s="346" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="B58" s="346" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" s="346" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B59" s="346" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
   </sheetData>
@@ -11582,15 +11584,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -11606,7 +11608,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11635,15 +11637,15 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B9" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="384"/>
-      <c r="B10" s="384"/>
+      <c r="A10" s="381"/>
+      <c r="B10" s="381"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="99" t="s">
@@ -11694,7 +11696,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -11705,7 +11707,7 @@
         <v>246</v>
       </c>
       <c r="C16" s="175" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -11732,7 +11734,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>23</v>
@@ -11748,7 +11750,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="335" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="D20" s="333"/>
     </row>
@@ -11901,15 +11903,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -11943,7 +11945,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -12072,7 +12074,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12080,7 +12082,7 @@
         <v>1682</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="C4" s="22"/>
     </row>
@@ -12097,7 +12099,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -12110,15 +12112,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="384"/>
-      <c r="B9" s="384"/>
+      <c r="A9" s="381"/>
+      <c r="B9" s="381"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
@@ -12139,7 +12141,7 @@
         <v>979</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -12218,7 +12220,7 @@
         <v>69</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -12229,7 +12231,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -12251,7 +12253,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -12289,7 +12291,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -12300,7 +12302,7 @@
         <v>188</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12369,7 +12371,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12377,7 +12379,7 @@
         <v>368</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -12393,7 +12395,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -12413,7 +12415,7 @@
         <v>979</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -12427,16 +12429,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B10" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="384"/>
-      <c r="B11" s="384"/>
+      <c r="A11" s="381"/>
+      <c r="B11" s="381"/>
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -12585,7 +12587,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -12623,7 +12625,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -12634,7 +12636,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -12725,15 +12727,15 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="384"/>
-      <c r="B7" s="384"/>
+      <c r="A7" s="381"/>
+      <c r="B7" s="381"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
@@ -12767,7 +12769,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -12959,15 +12961,15 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="384"/>
-      <c r="B7" s="384"/>
+      <c r="A7" s="381"/>
+      <c r="B7" s="381"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
@@ -13001,7 +13003,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -13189,15 +13191,15 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="384"/>
-      <c r="B7" s="384"/>
+      <c r="A7" s="381"/>
+      <c r="B7" s="381"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
@@ -13345,17 +13347,17 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -13440,10 +13442,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="304" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B20" s="304" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>2229</v>
@@ -13451,10 +13453,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="304" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="B21" s="304" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>2229</v>
@@ -13599,15 +13601,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -13625,7 +13627,7 @@
         <v>979</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -13746,7 +13748,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -13784,7 +13786,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -13795,7 +13797,7 @@
         <v>188</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -13859,18 +13861,18 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -13886,7 +13888,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -13899,15 +13901,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -13928,7 +13930,7 @@
         <v>979</v>
       </c>
       <c r="C10" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -13939,7 +13941,7 @@
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -13972,13 +13974,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="D15" s="22"/>
     </row>
@@ -13990,7 +13992,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -14005,7 +14007,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -14035,7 +14037,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -14089,7 +14091,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -14104,7 +14106,7 @@
         <v>188</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -14209,15 +14211,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -14251,7 +14253,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -14402,15 +14404,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -14426,7 +14428,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -14439,15 +14441,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="96" t="s">
@@ -14474,10 +14476,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="375" t="s">
+      <c r="A12" s="372" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="375" t="s">
+      <c r="B12" s="372" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="239" t="s">
@@ -14621,15 +14623,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -14663,7 +14665,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -14779,15 +14781,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -14803,7 +14805,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14816,15 +14818,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="106" t="s">
@@ -14834,7 +14836,7 @@
         <v>979</v>
       </c>
       <c r="C9" s="175" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -14883,7 +14885,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="110" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="B15" s="110" t="s">
         <v>69</v>
@@ -14905,7 +14907,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="175" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="D16" s="175"/>
       <c r="E16" s="175"/>
@@ -14921,7 +14923,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="175" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="D17" s="175"/>
       <c r="E17" s="175"/>
@@ -14937,7 +14939,7 @@
         <v>2039</v>
       </c>
       <c r="C18" s="175" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="D18" s="175"/>
       <c r="E18" s="175"/>
@@ -14962,7 +14964,7 @@
         <v>124</v>
       </c>
       <c r="C20" s="175" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="D20" s="175"/>
       <c r="E20" s="175"/>
@@ -15110,7 +15112,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="175" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
   </sheetData>
@@ -15149,7 +15151,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1854</v>
@@ -15181,15 +15183,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -15223,7 +15225,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -15407,15 +15409,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -15434,7 +15436,7 @@
         <v>979</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -15607,7 +15609,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -15645,7 +15647,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -15656,7 +15658,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -15847,15 +15849,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -16176,15 +16178,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -16218,7 +16220,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -16452,17 +16454,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -16527,7 +16529,7 @@
         <v>1728</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -16743,15 +16745,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -16942,15 +16944,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="264" t="s">
@@ -17041,7 +17043,7 @@
         <v>471</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -17103,10 +17105,10 @@
     </row>
     <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A26" s="316" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B26" s="316" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="C26" s="316" t="s">
         <v>738</v>
@@ -17118,15 +17120,15 @@
         <v>659</v>
       </c>
       <c r="F26" s="316" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A27" s="316" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B27" s="316" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="C27" s="316" t="s">
         <v>738</v>
@@ -17138,15 +17140,15 @@
         <v>659</v>
       </c>
       <c r="F27" s="316" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A28" s="316" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B28" s="316" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="C28" s="316" t="s">
         <v>738</v>
@@ -17158,15 +17160,15 @@
         <v>659</v>
       </c>
       <c r="F28" s="316" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A29" s="316" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="B29" s="316" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="C29" s="316" t="s">
         <v>738</v>
@@ -17178,7 +17180,7 @@
         <v>659</v>
       </c>
       <c r="F29" s="316" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
   </sheetData>
@@ -17251,15 +17253,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -17449,15 +17451,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -17669,15 +17671,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -17825,15 +17827,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -18042,15 +18044,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -18090,7 +18092,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="D12" s="22"/>
     </row>
@@ -18102,19 +18104,19 @@
         <v>31</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="376" t="s">
+      <c r="A14" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="376" t="s">
+      <c r="B14" s="373" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="D14" s="22"/>
     </row>
@@ -18170,7 +18172,7 @@
         <v>471</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="D19" s="22"/>
     </row>
@@ -18182,7 +18184,7 @@
         <v>472</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="D20" s="22"/>
     </row>
@@ -18276,15 +18278,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
@@ -18638,15 +18640,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
@@ -18840,21 +18842,21 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="382" t="s">
+      <c r="A8" s="379" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="382" t="s">
+      <c r="B8" s="379" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="333" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -18890,21 +18892,21 @@
         <v>73</v>
       </c>
       <c r="C11" s="143" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="378" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B12" s="378" t="s">
-        <v>2639</v>
+      <c r="A12" s="375" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B12" s="375" t="s">
+        <v>2637</v>
       </c>
       <c r="C12" s="175" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -18918,7 +18920,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="175" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -19094,17 +19096,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -19156,7 +19158,7 @@
         <v>1728</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -19365,17 +19367,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="382" t="s">
+      <c r="A8" s="379" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="382" t="s">
+      <c r="B8" s="379" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="331"/>
@@ -19423,18 +19425,18 @@
         <v>73</v>
       </c>
       <c r="C13" s="175" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="378" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B14" s="378" t="s">
-        <v>2639</v>
+      <c r="A14" s="375" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B14" s="375" t="s">
+        <v>2637</v>
       </c>
       <c r="C14" s="175" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -19442,7 +19444,7 @@
         <v>1238</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="C15" s="331"/>
     </row>
@@ -19567,15 +19569,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -19591,7 +19593,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -19604,15 +19606,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -19647,10 +19649,10 @@
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="376" t="s">
+      <c r="A12" s="373" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="376" t="s">
+      <c r="B12" s="373" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -19660,14 +19662,14 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="376" t="s">
+      <c r="A13" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="376" t="s">
+      <c r="B13" s="373" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -19689,11 +19691,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="380" t="s">
+      <c r="A16" s="377" t="s">
         <v>1238</v>
       </c>
-      <c r="B16" s="380" t="s">
-        <v>2335</v>
+      <c r="B16" s="377" t="s">
+        <v>2333</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -19705,18 +19707,18 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="377" t="s">
+      <c r="A18" s="374" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="377" t="s">
+      <c r="B18" s="374" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="377" t="s">
+      <c r="A19" s="374" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="377" t="s">
+      <c r="B19" s="374" t="s">
         <v>123</v>
       </c>
     </row>
@@ -19737,18 +19739,18 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="377" t="s">
+      <c r="A22" s="374" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="377" t="s">
+      <c r="B22" s="374" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="381" t="s">
+      <c r="A23" s="378" t="s">
         <v>898</v>
       </c>
-      <c r="B23" s="377" t="s">
+      <c r="B23" s="374" t="s">
         <v>188</v>
       </c>
     </row>
@@ -19860,15 +19862,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -19909,7 +19911,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -19920,7 +19922,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -19946,14 +19948,14 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="376" t="s">
+      <c r="A16" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="376" t="s">
+      <c r="B16" s="373" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -19972,7 +19974,7 @@
         <v>1850</v>
       </c>
       <c r="B18" s="210" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>2123</v>
@@ -19983,7 +19985,7 @@
         <v>1851</v>
       </c>
       <c r="B19" s="210" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>2124</v>
@@ -19997,7 +19999,7 @@
         <v>471</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -20008,7 +20010,7 @@
         <v>472</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -20141,15 +20143,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -20281,15 +20283,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -20305,7 +20307,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -20321,15 +20323,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -20356,14 +20358,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="376" t="s">
+      <c r="A12" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="376" t="s">
+      <c r="B12" s="373" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -20506,7 +20508,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
   </sheetData>
@@ -20520,7 +20522,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20576,15 +20578,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
@@ -20935,12 +20937,12 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="307" t="s">
-        <v>2281</v>
+        <v>2655</v>
       </c>
       <c r="B53" s="307" t="s">
-        <v>2282</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -21018,10 +21020,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -21060,7 +21062,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -21268,15 +21270,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -21292,7 +21294,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -21305,10 +21307,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -21371,7 +21373,7 @@
         <v>196</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -21382,7 +21384,7 @@
         <v>2039</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -21656,10 +21658,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -22088,10 +22090,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -22409,17 +22411,17 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -22518,22 +22520,22 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
   </sheetData>
@@ -22606,10 +22608,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -22860,7 +22862,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -22871,7 +22873,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -22884,10 +22886,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -22989,17 +22991,17 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
   </sheetData>
@@ -23067,10 +23069,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -23223,10 +23225,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -23382,7 +23384,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
   </sheetData>
@@ -23460,10 +23462,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -23661,10 +23663,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="368" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="368" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -23771,7 +23773,7 @@
         <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -23788,10 +23790,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -23867,10 +23869,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="388" t="s">
+      <c r="A34" s="384" t="s">
         <v>279</v>
       </c>
-      <c r="B34" s="388" t="s">
+      <c r="B34" s="384" t="s">
         <v>280</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -23878,15 +23880,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="389"/>
-      <c r="B35" s="389"/>
+      <c r="A35" s="385"/>
+      <c r="B35" s="385"/>
       <c r="C35" s="22" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="390"/>
-      <c r="B36" s="390"/>
+      <c r="A36" s="386"/>
+      <c r="B36" s="386"/>
       <c r="C36" s="22" t="s">
         <v>1574</v>
       </c>
@@ -23964,7 +23966,7 @@
         <v>2158</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -25197,7 +25199,7 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1726</v>
@@ -25229,10 +25231,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -25315,79 +25317,79 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="176" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="B17" s="176" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="176" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B18" s="176" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="176" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="B19" s="176" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="176" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B20" s="176" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="176" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="B21" s="176" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="176" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="B22" s="176" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="176" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="B23" s="176" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="378" t="s">
-        <v>2655</v>
-      </c>
-      <c r="B24" s="378" t="s">
-        <v>2654</v>
+      <c r="A24" s="375" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B24" s="375" t="s">
+        <v>2652</v>
       </c>
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="379"/>
-      <c r="B25" s="379"/>
+      <c r="A25" s="376"/>
+      <c r="B25" s="376"/>
       <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -28199,17 +28201,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -28245,7 +28247,7 @@
         <v>1728</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -28288,14 +28290,14 @@
         <v>1730</v>
       </c>
       <c r="C18" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -28306,7 +28308,7 @@
         <v>1731</v>
       </c>
       <c r="C20" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -28317,14 +28319,14 @@
         <v>1766</v>
       </c>
       <c r="C21" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="320"/>
       <c r="B22" s="320"/>
       <c r="C22" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -29046,10 +29048,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="391" t="s">
+      <c r="A11" s="387" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="391" t="s">
+      <c r="B11" s="387" t="s">
         <v>280</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -29057,15 +29059,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="392"/>
-      <c r="B12" s="392"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="388"/>
       <c r="C12" s="25" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="393"/>
-      <c r="B13" s="393"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="389"/>
       <c r="C13" s="25" t="s">
         <v>1574</v>
       </c>
@@ -29397,10 +29399,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="391" t="s">
+      <c r="A14" s="387" t="s">
         <v>279</v>
       </c>
-      <c r="B14" s="391" t="s">
+      <c r="B14" s="387" t="s">
         <v>280</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -29408,15 +29410,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="392"/>
-      <c r="B15" s="392"/>
+      <c r="A15" s="388"/>
+      <c r="B15" s="388"/>
       <c r="C15" s="25" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="393"/>
-      <c r="B16" s="393"/>
+      <c r="A16" s="389"/>
+      <c r="B16" s="389"/>
       <c r="C16" s="25" t="s">
         <v>1574</v>
       </c>
@@ -30089,7 +30091,7 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1763</v>
@@ -30121,17 +30123,17 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -30588,47 +30590,47 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
     </row>
   </sheetData>
@@ -30702,10 +30704,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -30890,7 +30892,7 @@
     </row>
     <row r="23" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>1839</v>
@@ -30910,7 +30912,7 @@
         <v>186</v>
       </c>
       <c r="C24" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D24" s="143"/>
       <c r="E24" s="143"/>
@@ -30926,7 +30928,7 @@
         <v>222</v>
       </c>
       <c r="C25" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D25" s="143"/>
       <c r="E25" s="143"/>
@@ -30942,7 +30944,7 @@
         <v>181</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D26" s="143"/>
       <c r="E26" s="143"/>
@@ -30958,7 +30960,7 @@
         <v>108</v>
       </c>
       <c r="C27" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D27" s="143"/>
       <c r="E27" s="143"/>
@@ -30974,7 +30976,7 @@
         <v>73</v>
       </c>
       <c r="C28" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D28" s="143"/>
       <c r="E28" s="143"/>
@@ -30990,7 +30992,7 @@
         <v>124</v>
       </c>
       <c r="C29" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D29" s="143"/>
       <c r="E29" s="143"/>
@@ -31000,13 +31002,13 @@
     </row>
     <row r="30" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="284" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="B30" s="284" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="C30" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D30" s="143"/>
       <c r="E30" s="143"/>
@@ -31022,7 +31024,7 @@
         <v>216</v>
       </c>
       <c r="C31" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D31" s="143"/>
       <c r="E31" s="143"/>
@@ -31032,13 +31034,13 @@
     </row>
     <row r="32" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="366" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B32" s="366" t="s">
         <v>217</v>
       </c>
       <c r="C32" s="143" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D32" s="143"/>
       <c r="E32" s="143"/>
@@ -31072,7 +31074,7 @@
         <v>1728</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -31160,10 +31162,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -31329,18 +31331,18 @@
         <v>204</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -31351,7 +31353,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -31362,7 +31364,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -31485,7 +31487,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -31496,7 +31498,7 @@
         <v>1728</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -31574,10 +31576,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -31677,7 +31679,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="363" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -31712,7 +31714,7 @@
         <v>1102</v>
       </c>
       <c r="C25" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -31780,15 +31782,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -31804,7 +31806,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -31817,10 +31819,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -31887,10 +31889,10 @@
         <v>157</v>
       </c>
       <c r="B15" s="277" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="C15" s="175" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -31935,7 +31937,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="124" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -31975,7 +31977,7 @@
         <v>223</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -32054,7 +32056,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1732</v>
@@ -32086,10 +32088,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -32316,10 +32318,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -32417,7 +32419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
@@ -32442,16 +32444,16 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -32467,7 +32469,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -32480,10 +32482,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C7" s="353"/>
       <c r="D7" s="353"/>
@@ -32586,10 +32588,10 @@
         <v>157</v>
       </c>
       <c r="B17" s="224" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="C17" s="143" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="D17" s="143"/>
       <c r="E17" s="143"/>
@@ -32606,13 +32608,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="326" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B19" s="326" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="C19" s="143" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D19" s="327"/>
       <c r="E19" s="327"/>
@@ -32626,7 +32628,7 @@
         <v>1463</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="D20" s="327"/>
       <c r="E20" s="327"/>
@@ -32692,17 +32694,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="143" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="143" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="143" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -32781,7 +32783,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="143" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -32789,7 +32791,7 @@
         <v>235</v>
       </c>
       <c r="B46" s="221" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -32797,7 +32799,7 @@
         <v>236</v>
       </c>
       <c r="B47" s="221" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -32805,7 +32807,7 @@
         <v>189</v>
       </c>
       <c r="B48" s="221" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -32813,7 +32815,7 @@
         <v>279</v>
       </c>
       <c r="B49" s="221" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -32821,7 +32823,7 @@
         <v>202</v>
       </c>
       <c r="B50" s="141" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -32829,7 +32831,7 @@
         <v>144</v>
       </c>
       <c r="B51" s="141" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -32837,7 +32839,7 @@
         <v>145</v>
       </c>
       <c r="B52" s="141" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -32845,7 +32847,7 @@
         <v>744</v>
       </c>
       <c r="B53" s="255" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -32853,7 +32855,7 @@
         <v>743</v>
       </c>
       <c r="B54" s="255" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -32869,7 +32871,7 @@
         <v>1577</v>
       </c>
       <c r="B56" s="141" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -32877,7 +32879,7 @@
         <v>1578</v>
       </c>
       <c r="B57" s="141" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -32885,7 +32887,7 @@
         <v>1579</v>
       </c>
       <c r="B58" s="141" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -32967,10 +32969,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -33122,8 +33124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33172,21 +33174,25 @@
         <v>204</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -33251,7 +33257,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -33317,7 +33323,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33373,15 +33379,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -33634,7 +33644,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33653,7 +33663,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1627</v>
@@ -33685,15 +33695,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -33738,7 +33752,7 @@
         <v>317</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -33798,10 +33812,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="377" t="s">
+      <c r="A21" s="374" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="374" t="s">
         <v>103</v>
       </c>
     </row>
@@ -33922,13 +33936,13 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -33978,15 +33992,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -34073,10 +34091,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="252" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B20" s="252" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>2212</v>
@@ -34146,7 +34164,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -34246,7 +34264,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34302,15 +34320,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -34366,13 +34388,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>2495</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>2496</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>2497</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -34509,7 +34531,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34564,15 +34586,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -34745,13 +34771,13 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -34796,15 +34822,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -34928,7 +34958,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34984,15 +35014,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -35195,7 +35229,7 @@
         <v>2254</v>
       </c>
       <c r="C34" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -35206,7 +35240,7 @@
         <v>2256</v>
       </c>
       <c r="C35" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -35217,7 +35251,7 @@
         <v>2258</v>
       </c>
       <c r="C36" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -35228,7 +35262,7 @@
         <v>2260</v>
       </c>
       <c r="C37" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -35239,7 +35273,7 @@
         <v>2261</v>
       </c>
       <c r="C38" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
   </sheetData>
@@ -35253,7 +35287,7 @@
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35303,15 +35337,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -35442,7 +35480,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35498,15 +35536,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -35631,7 +35673,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35650,7 +35692,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -35658,7 +35700,7 @@
         <v>948</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -35674,7 +35716,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -35687,15 +35729,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -35783,10 +35829,10 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="354" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B21" s="354" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
   </sheetData>
@@ -35799,7 +35845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35849,15 +35897,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -35907,10 +35959,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="69" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -36065,7 +36117,7 @@
   <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36116,15 +36168,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -36396,13 +36452,13 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
@@ -36413,7 +36469,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1609</v>
       </c>
@@ -36447,15 +36503,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="106" t="s">
@@ -36747,17 +36807,17 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -36839,7 +36899,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="242" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B19" s="242" t="s">
         <v>790</v>
@@ -36895,7 +36955,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="170" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B26" s="170" t="s">
         <v>1555</v>
@@ -36911,7 +36971,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
     </row>
   </sheetData>
@@ -36925,7 +36985,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36981,15 +37041,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -37150,7 +37214,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37206,15 +37270,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -37384,7 +37452,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37445,15 +37513,19 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="384"/>
-      <c r="B9" s="384"/>
+      <c r="A9" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -37564,7 +37636,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37620,15 +37692,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -37822,7 +37898,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37880,16 +37956,20 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C7" s="353"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
       <c r="C8" s="353"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -38202,7 +38282,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38232,7 +38312,7 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B4" s="137" t="s">
         <v>746</v>
@@ -38264,15 +38344,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="384"/>
-      <c r="B9" s="384"/>
+      <c r="A9" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="99" t="s">
@@ -38494,7 +38578,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38550,15 +38634,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -38686,10 +38774,10 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="153" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="B26" s="153" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
   </sheetData>
@@ -38706,7 +38794,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38725,7 +38813,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>670</v>
@@ -38744,7 +38832,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -38765,15 +38853,19 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="384"/>
-      <c r="B9" s="384"/>
+      <c r="A9" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
@@ -38864,7 +38956,7 @@
         <v>123</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -38951,7 +39043,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39007,15 +39099,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -39160,7 +39256,7 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39211,15 +39307,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="96" t="s">
@@ -39306,11 +39406,11 @@
       <c r="F17" s="175"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="383" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B18" s="383" t="s">
-        <v>2639</v>
+      <c r="A18" s="380" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B18" s="380" t="s">
+        <v>2637</v>
       </c>
       <c r="D18" s="175"/>
       <c r="E18" s="175"/>
@@ -39323,7 +39423,7 @@
       <c r="B19" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="371" t="s">
+      <c r="C19" s="369" t="s">
         <v>1002</v>
       </c>
       <c r="D19" s="331"/>
@@ -39401,7 +39501,7 @@
         <v>1393</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="D25" s="175"/>
       <c r="E25" s="175"/>
@@ -39417,7 +39517,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="D26" s="175"/>
       <c r="E26" s="175"/>
@@ -39433,7 +39533,7 @@
         <v>123</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="D27" s="175"/>
       <c r="E27" s="175"/>
@@ -39449,7 +39549,7 @@
         <v>2059</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="D28" s="175"/>
       <c r="E28" s="175"/>
@@ -39465,7 +39565,7 @@
         <v>2060</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="D29" s="175"/>
       <c r="E29" s="175"/>
@@ -39481,7 +39581,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="D30" s="175"/>
       <c r="E30" s="175"/>
@@ -39497,7 +39597,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="D31" s="175"/>
       <c r="E31" s="175"/>
@@ -39589,7 +39689,7 @@
     </row>
     <row r="4" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1838</v>
@@ -39621,17 +39721,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="386" t="s">
+      <c r="A9" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="386" t="s">
+      <c r="B9" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -39748,7 +39848,7 @@
         <v>1728</v>
       </c>
       <c r="C23" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -39805,18 +39905,18 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="244" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B32" s="244" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="244" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B33" s="244" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -39854,7 +39954,7 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39868,15 +39968,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -39892,7 +39992,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -39905,15 +40005,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -39940,11 +40044,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="380" t="s">
-        <v>2645</v>
-      </c>
-      <c r="B12" s="380" t="s">
-        <v>2335</v>
+      <c r="A12" s="377" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B12" s="377" t="s">
+        <v>2333</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -40056,7 +40160,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
   </sheetData>
@@ -40070,7 +40174,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40126,15 +40230,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -40186,7 +40294,7 @@
         <v>1728</v>
       </c>
       <c r="C14" s="261" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -40276,7 +40384,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40332,15 +40440,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -40390,7 +40502,7 @@
         <v>1728</v>
       </c>
       <c r="C14" s="261" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -40447,7 +40559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -40497,17 +40611,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>1381</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -40582,11 +40696,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="380" t="s">
-        <v>2645</v>
-      </c>
-      <c r="B17" s="380" t="s">
-        <v>2335</v>
+      <c r="A17" s="377" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B17" s="377" t="s">
+        <v>2333</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -40705,7 +40819,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40762,15 +40876,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="383" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -40974,7 +41092,7 @@
         <v>1728</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -41031,11 +41149,9 @@
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист12"/>
-  <dimension ref="A2:F32"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -41085,15 +41201,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -41147,38 +41267,41 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>69</v>
+      <c r="A15" s="224" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="224" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="224" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="224" t="s">
-        <v>186</v>
+      <c r="A16" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>833</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>190</v>
+        <v>1025</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="C17" t="s">
-        <v>834</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>1025</v>
+        <v>141</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>409</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
         <v>656</v>
@@ -41186,144 +41309,133 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>656</v>
+        <v>135</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>955</v>
+      <c r="A20" s="17" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>1393</v>
+      <c r="A21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2227</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>2058</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>2060</v>
+      <c r="A25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>77</v>
+      <c r="A26" s="69" t="s">
+        <v>898</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
-        <v>898</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="A27" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>2194</v>
-      </c>
+      <c r="A28" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>471</v>
+      <c r="A29" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="A30" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -41392,17 +41504,17 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>1381</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -41451,11 +41563,11 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="380" t="s">
-        <v>2645</v>
-      </c>
-      <c r="B13" s="380" t="s">
-        <v>2335</v>
+      <c r="A13" s="377" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B13" s="377" t="s">
+        <v>2333</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -41625,7 +41737,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41681,15 +41793,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -41794,7 +41910,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41850,15 +41966,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -41970,10 +42090,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
   </sheetData>
@@ -41990,7 +42110,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42046,15 +42166,19 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="369"/>
-      <c r="B8" s="370"/>
+      <c r="A8" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="106" t="s">
@@ -42435,15 +42559,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -42459,7 +42583,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -42472,17 +42596,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -42512,7 +42636,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>1839</v>
@@ -42546,7 +42670,7 @@
         <v>1728</v>
       </c>
       <c r="C15" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -42569,10 +42693,10 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42591,7 +42715,7 @@
     </row>
     <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>178</v>
@@ -42621,22 +42745,28 @@
         <v>204</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>2408</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -42663,100 +42793,89 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>2410</v>
+      <c r="A12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>349</v>
+        <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>249</v>
+      <c r="A18" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>2470</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>471</v>
+      <c r="A19" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>2473</v>
+      <c r="A20" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -42766,10 +42885,10 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42779,12 +42898,12 @@
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -42792,7 +42911,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>316</v>
       </c>
@@ -42800,7 +42919,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -42808,7 +42927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -42817,7 +42936,7 @@
       </c>
       <c r="C5" s="24"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>233</v>
       </c>
@@ -42825,24 +42944,30 @@
         <v>204</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>99</v>
       </c>
@@ -42850,7 +42975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>150</v>
       </c>
@@ -42861,7 +42986,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -42869,7 +42994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>35</v>
       </c>
@@ -42877,7 +43002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>370</v>
       </c>
@@ -42888,72 +43013,72 @@
         <v>675</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>471</v>
       </c>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>472</v>
+      </c>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="C16" s="22"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C16" s="263" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="263"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>234</v>
+        <v>497</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C17" s="263" t="s">
-        <v>1735</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="C17" s="263"/>
       <c r="D17" s="263"/>
       <c r="E17" s="263"/>
       <c r="F17" s="263"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>1750</v>
       </c>
     </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>371</v>
+      </c>
+    </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>200</v>
+      <c r="A21" s="61" t="s">
+        <v>627</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>628</v>
       </c>
       <c r="C21" t="s">
         <v>371</v>
@@ -42961,150 +43086,139 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C22" t="s">
-        <v>371</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>630</v>
-      </c>
-      <c r="C23" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
-        <v>637</v>
+        <v>309</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>638</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
-        <v>309</v>
+        <v>639</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>375</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>640</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>318</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
-        <v>642</v>
+        <v>306</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>643</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>308</v>
+        <v>645</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C33" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
-        <v>646</v>
-      </c>
-      <c r="B34" s="61" t="s">
-        <v>647</v>
+      <c r="A34" s="85" t="s">
+        <v>786</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>788</v>
       </c>
       <c r="C34" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="85" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="85" t="s">
-        <v>787</v>
+        <v>1067</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>789</v>
+        <v>1067</v>
       </c>
       <c r="C36" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="85" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B37" s="85" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C37" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -43119,7 +43233,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43175,15 +43289,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -43236,7 +43354,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -43247,7 +43365,7 @@
         <v>1323</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -43355,7 +43473,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
   </sheetData>
@@ -43369,7 +43487,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43393,7 +43511,7 @@
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>934</v>
@@ -43425,15 +43543,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="383" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -43492,14 +43614,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>675</v>
+      <c r="A15" s="390" t="s">
+        <v>833</v>
+      </c>
+      <c r="B15" s="390" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -43681,11 +43800,9 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -43694,12 +43811,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="175" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -43707,7 +43824,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>932</v>
       </c>
@@ -43715,7 +43832,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -43723,7 +43840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="97" t="s">
         <v>15</v>
       </c>
@@ -43731,7 +43848,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="96" t="s">
         <v>233</v>
       </c>
@@ -43739,15 +43856,15 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="106" t="s">
         <v>969</v>
       </c>
@@ -43755,11 +43872,18 @@
         <v>979</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="387"/>
-      <c r="B9" s="387"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="383" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="97" t="s">
         <v>17</v>
       </c>
@@ -43767,7 +43891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="97" t="s">
         <v>35</v>
       </c>
@@ -43775,7 +43899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="96" t="s">
         <v>99</v>
       </c>
@@ -43783,7 +43907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="96" t="s">
         <v>150</v>
       </c>
@@ -43791,7 +43915,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="96" t="s">
         <v>939</v>
       </c>
@@ -43799,7 +43923,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="96" t="s">
         <v>1025</v>
       </c>
@@ -43810,54 +43934,59 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>675</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="207" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="207" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="207" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
+      <c r="A17" s="97" t="s">
+        <v>833</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="97" t="s">
-        <v>833</v>
+        <v>1710</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="97" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B19" s="97" t="s">
-        <v>73</v>
-      </c>
+      <c r="A19" s="357" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B19" s="357" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C19" s="175" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="357" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B20" s="357" t="s">
-        <v>1393</v>
+      <c r="A20" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="175" t="s">
-        <v>2227</v>
+        <v>77</v>
       </c>
       <c r="D20" s="175"/>
       <c r="E20" s="175"/>
@@ -43867,13 +43996,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="96" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C21" s="175" t="s">
-        <v>77</v>
+        <v>841</v>
       </c>
       <c r="D21" s="175"/>
       <c r="E21" s="175"/>
@@ -43883,13 +44012,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="96" t="s">
-        <v>9</v>
+        <v>2057</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>123</v>
+        <v>2059</v>
       </c>
       <c r="C22" s="175" t="s">
-        <v>841</v>
+        <v>77</v>
       </c>
       <c r="D22" s="175"/>
       <c r="E22" s="175"/>
@@ -43899,10 +44028,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="96" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C23" s="175" t="s">
         <v>77</v>
@@ -43915,14 +44044,12 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="96" t="s">
-        <v>2058</v>
+        <v>20</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C24" s="175" t="s">
-        <v>77</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C24" s="175"/>
       <c r="D24" s="175"/>
       <c r="E24" s="175"/>
       <c r="F24" s="175"/>
@@ -43930,11 +44057,11 @@
       <c r="H24" s="175"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="96" t="s">
-        <v>20</v>
+      <c r="A25" s="110" t="s">
+        <v>898</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="C25" s="175"/>
       <c r="D25" s="175"/>
@@ -43944,29 +44071,28 @@
       <c r="H25" s="175"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="110" t="s">
-        <v>898</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="175"/>
+      <c r="A26" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="226" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="175" t="s">
+        <v>1944</v>
+      </c>
       <c r="D26" s="175"/>
       <c r="E26" s="175"/>
       <c r="F26" s="175"/>
       <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="226" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="175" t="s">
-        <v>1944</v>
-      </c>
+      <c r="A27" s="96" t="s">
+        <v>473</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" s="175"/>
       <c r="D27" s="175"/>
       <c r="E27" s="175"/>
       <c r="F27" s="175"/>
@@ -43974,10 +44100,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="96" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C28" s="175"/>
       <c r="D28" s="175"/>
@@ -43986,33 +44112,20 @@
       <c r="G28" s="175"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="96" t="s">
-        <v>474</v>
-      </c>
-      <c r="B29" s="96" t="s">
-        <v>472</v>
-      </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="97" t="s">
+      <c r="A29" s="97" t="s">
         <v>497</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B29" s="97" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
         <v>1899</v>
       </c>
     </row>
@@ -44027,7 +44140,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44084,20 +44197,20 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>1782</v>
       </c>
     </row>
@@ -44138,10 +44251,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>2018</v>
@@ -44152,10 +44265,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>2018</v>
@@ -44166,10 +44279,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>2018</v>
@@ -44237,10 +44350,10 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44259,15 +44372,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -44283,7 +44396,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -44296,15 +44409,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>1782</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -44341,76 +44461,65 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="373" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="373" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="203" t="s">
-        <v>675</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="204" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="204" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="204" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>1944</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="25"/>
+      <c r="A14" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>471</v>
+      <c r="A15" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="C16" s="22"/>
+      <c r="A16" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="297" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="297" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="297" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="297" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="298" t="s">
-        <v>2416</v>
-      </c>
-      <c r="B21" s="298" t="s">
-        <v>2416</v>
+      <c r="A20" s="298" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B20" s="298" t="s">
+        <v>2414</v>
       </c>
     </row>
   </sheetData>
@@ -44423,8 +44532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44478,15 +44587,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -44574,10 +44687,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="229" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="B19" s="229" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -44810,21 +44923,21 @@
     </row>
     <row r="7" spans="1:5" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="353" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:5" s="353" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="385" t="s">
+      <c r="A9" s="382" t="s">
         <v>969</v>
       </c>
-      <c r="B9" s="385" t="s">
+      <c r="B9" s="382" t="s">
         <v>979</v>
       </c>
     </row>
@@ -44992,15 +45105,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -45200,17 +45313,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -45364,10 +45477,10 @@
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A27" s="166" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="B27" s="166" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
   </sheetData>
@@ -45440,15 +45553,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -45495,10 +45608,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="374" t="s">
+      <c r="A14" s="371" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="374" t="s">
+      <c r="B14" s="371" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -45521,7 +45634,7 @@
         <v>1989</v>
       </c>
       <c r="B16" s="218" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -45595,15 +45708,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -45619,7 +45732,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -45632,18 +45745,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
       <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -45905,15 +46018,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -45929,7 +46042,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -45942,15 +46055,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
@@ -45998,13 +46111,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>1987</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -46017,7 +46130,7 @@
         <v>1740</v>
       </c>
       <c r="B15" s="204" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>675</v>
@@ -46234,15 +46347,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -46376,15 +46489,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -46489,15 +46602,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -46563,7 +46676,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -46775,18 +46888,18 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="348" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B43" s="348" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="348" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B44" s="348" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
   </sheetData>
@@ -46858,15 +46971,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="96" t="s">
@@ -46917,7 +47030,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="D13" s="175"/>
       <c r="E13" s="175"/>
@@ -47068,13 +47181,13 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="361" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B33" s="361" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="B33" s="361" t="s">
-        <v>2522</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2524</v>
       </c>
     </row>
   </sheetData>
@@ -47144,15 +47257,15 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -47200,7 +47313,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -47362,15 +47475,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -47386,7 +47499,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -47399,15 +47512,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="96" t="s">
@@ -47468,7 +47581,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="175" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -47564,15 +47677,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -47714,15 +47827,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -47738,7 +47851,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -47751,17 +47864,17 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -47860,10 +47973,10 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="323" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="B22" s="323" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C22" t="s">
         <v>971</v>
@@ -47871,10 +47984,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="324" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B23" s="324" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -47948,7 +48061,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>187</v>
@@ -47978,21 +48091,21 @@
         <v>204</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -48035,7 +48148,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -48088,7 +48201,7 @@
         <v>123</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -48099,7 +48212,7 @@
         <v>2059</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -48110,7 +48223,7 @@
         <v>2060</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -48273,15 +48386,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -48505,15 +48618,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -48596,7 +48709,7 @@
         <v>1679</v>
       </c>
       <c r="C19" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48657,34 +48770,34 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="259" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B27" s="259" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="259" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B28" s="259" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="259" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B29" s="259" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="259" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B30" s="259" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48797,15 +48910,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -48876,7 +48989,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -49060,15 +49173,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -49520,15 +49633,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -49704,15 +49817,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B10" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="384"/>
-      <c r="B11" s="384"/>
+      <c r="A11" s="381"/>
+      <c r="B11" s="381"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -50132,15 +50245,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -50307,15 +50420,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -50472,15 +50585,15 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -50670,15 +50783,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -50694,7 +50807,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -50707,17 +50820,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="386" t="s">
+      <c r="A8" s="383" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="386" t="s">
+      <c r="B8" s="383" t="s">
         <v>69</v>
       </c>
     </row>
@@ -50769,7 +50882,7 @@
         <v>1728</v>
       </c>
       <c r="C14" s="353" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -50866,10 +50979,10 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="321" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B28" s="321" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -50882,74 +50995,74 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B30" s="56" t="s">
         <v>2337</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>2338</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>2340</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
   </sheetData>
@@ -51016,15 +51129,15 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -51338,15 +51451,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -51596,15 +51709,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -51687,7 +51800,7 @@
         <v>471</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -51698,7 +51811,7 @@
         <v>472</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -51763,10 +51876,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
     </row>
   </sheetData>
@@ -51836,15 +51949,15 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -51927,7 +52040,7 @@
         <v>259</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -51938,7 +52051,7 @@
         <v>471</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -51949,7 +52062,7 @@
         <v>472</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -52022,10 +52135,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="319" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B29" s="319" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -52054,18 +52167,18 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="240" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B34" s="240" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
   </sheetData>
@@ -52130,15 +52243,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -52528,15 +52641,15 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -52573,7 +52686,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="96" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>2088</v>
@@ -52743,7 +52856,7 @@
         <v>173</v>
       </c>
       <c r="C24" s="175" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -52867,15 +52980,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -52956,7 +53069,7 @@
         <v>2158</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -52998,19 +53111,19 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="362" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="B23" s="362" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="C23" s="22"/>
     </row>
@@ -53062,7 +53175,7 @@
         <v>2220</v>
       </c>
       <c r="B29" s="362" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>2221</v>
@@ -53075,10 +53188,10 @@
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="388" t="s">
+      <c r="A30" s="384" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="388" t="s">
+      <c r="B30" s="384" t="s">
         <v>280</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -53099,8 +53212,8 @@
       <c r="P30" s="25"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="389"/>
-      <c r="B31" s="389"/>
+      <c r="A31" s="385"/>
+      <c r="B31" s="385"/>
       <c r="C31" s="22" t="s">
         <v>1573</v>
       </c>
@@ -53119,8 +53232,8 @@
       <c r="P31" s="25"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="390"/>
-      <c r="B32" s="390"/>
+      <c r="A32" s="386"/>
+      <c r="B32" s="386"/>
       <c r="C32" s="22" t="s">
         <v>1574</v>
       </c>
@@ -53139,8 +53252,8 @@
       <c r="P32" s="25"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="372"/>
-      <c r="B33" s="372"/>
+      <c r="A33" s="370"/>
+      <c r="B33" s="370"/>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -53300,10 +53413,10 @@
     </row>
     <row r="7" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="C7" s="331"/>
       <c r="D7" s="331"/>
@@ -53314,8 +53427,8 @@
       <c r="I7" s="331"/>
     </row>
     <row r="8" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
       <c r="C8" s="331"/>
       <c r="D8" s="331"/>
       <c r="E8" s="331"/>
@@ -53332,7 +53445,7 @@
         <v>979</v>
       </c>
       <c r="C9" s="175" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D9" s="262"/>
       <c r="E9" s="262"/>
@@ -53345,7 +53458,7 @@
       <c r="A10" s="318"/>
       <c r="B10" s="318"/>
       <c r="C10" s="175" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="D10" s="317"/>
       <c r="E10" s="317"/>
@@ -53358,7 +53471,7 @@
       <c r="A11" s="318"/>
       <c r="B11" s="318"/>
       <c r="C11" s="175" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="D11" s="317"/>
       <c r="E11" s="317"/>
@@ -53371,7 +53484,7 @@
       <c r="A12" s="318"/>
       <c r="B12" s="318"/>
       <c r="C12" s="175" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="D12" s="317"/>
       <c r="E12" s="317"/>
@@ -53512,7 +53625,7 @@
         <v>326</v>
       </c>
       <c r="C21" s="175" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="D21" s="303"/>
       <c r="E21" s="303"/>
@@ -53540,7 +53653,7 @@
     </row>
     <row r="23" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>231</v>
@@ -53570,7 +53683,7 @@
     </row>
     <row r="25" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>232</v>
@@ -53909,15 +54022,15 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="108" t="s">
@@ -54002,7 +54115,7 @@
         <v>471</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -54013,7 +54126,7 @@
         <v>472</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -54047,11 +54160,9 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -54074,7 +54185,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -54106,15 +54217,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="384"/>
-      <c r="B8" s="384"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -54142,10 +54253,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="330" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B12" s="330" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -54352,101 +54463,101 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="240" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B42" s="240" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="240" t="s">
         <v>1332</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="240" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="240" t="s">
         <v>900</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="240" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="C49" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -54782,34 +54893,34 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A92" s="344" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B92" s="344" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A93" s="344" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B93" s="344" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A94" s="344" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B94" s="344" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A95" s="344" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B95" s="344" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -54822,51 +54933,48 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="57" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="22" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="57" t="s">
         <v>826</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B101" s="17" t="s">
         <v>827</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B102" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>805</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="57" t="s">
-        <v>791</v>
-      </c>
-      <c r="B102" s="57" t="s">
-        <v>801</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>2122</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="57" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>2122</v>
@@ -54874,76 +54982,76 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="57" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="C104" s="22" t="s">
         <v>2122</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="64" t="s">
+      <c r="A105" s="57" t="s">
+        <v>793</v>
+      </c>
+      <c r="B105" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="64" t="s">
         <v>796</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B106" s="16" t="s">
         <v>798</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="229" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B107" s="229" t="s">
-        <v>1894</v>
       </c>
       <c r="C107" s="22" t="s">
         <v>2122</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="229" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B108" s="229" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="64" t="s">
         <v>803</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B109" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>800</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="57" t="s">
-        <v>828</v>
-      </c>
-      <c r="B110" s="57" t="s">
-        <v>830</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>2122</v>
@@ -54951,12 +55059,23 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="57" t="s">
+        <v>828</v>
+      </c>
+      <c r="B111" s="57" t="s">
+        <v>830</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="57" t="s">
         <v>829</v>
       </c>
-      <c r="B111" s="57" t="s">
+      <c r="B112" s="57" t="s">
         <v>831</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C112" s="22" t="s">
         <v>2122</v>
       </c>
     </row>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="115" activeTab="116"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="130" activeTab="134"/>
   </bookViews>
   <sheets>
     <sheet name="AboutAccBase" sheetId="31" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9705" uniqueCount="2660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9748" uniqueCount="2663">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -7052,9 +7052,6 @@
     <t>например, равно</t>
   </si>
   <si>
-    <t>владелец, ед изм откуда, например, "изделие"</t>
-  </si>
-  <si>
     <t>значение, например = 1,7</t>
   </si>
   <si>
@@ -7650,27 +7647,12 @@
     <t>Персональные данные лица</t>
   </si>
   <si>
-    <t>UnitMeasureFromId</t>
-  </si>
-  <si>
-    <t>например, "основной пересчет в условные ЕИ"</t>
-  </si>
-  <si>
     <t>UnitMeasureData</t>
   </si>
   <si>
     <t>UnitMeasureDataId</t>
   </si>
   <si>
-    <t>его может и не быть</t>
-  </si>
-  <si>
-    <t>для вида КА….</t>
-  </si>
-  <si>
-    <t>для КА или группы КА….</t>
-  </si>
-  <si>
     <t>Данные единиц измерения</t>
   </si>
   <si>
@@ -8004,9 +7986,6 @@
     <t>здесь может быть "полное описание" для интернет-магазина</t>
   </si>
   <si>
-    <t>перекрестный учет</t>
-  </si>
-  <si>
     <t>событие истории AccBase</t>
   </si>
   <si>
@@ -8215,6 +8194,36 @@
   </si>
   <si>
     <t>субаналитика инвестиции</t>
+  </si>
+  <si>
+    <t>например, "основной пересчет" (его может и не быть)</t>
+  </si>
+  <si>
+    <t>UnitMeasureWhereId</t>
+  </si>
+  <si>
+    <t>владелец, ед изм где, например, "изделие"</t>
+  </si>
+  <si>
+    <t>AssetCatalogWhereId</t>
+  </si>
+  <si>
+    <t>AssetWhereId</t>
+  </si>
+  <si>
+    <t>AssetCatalogUnitWhereId</t>
+  </si>
+  <si>
+    <t>Ед изм где</t>
+  </si>
+  <si>
+    <t>КА где</t>
+  </si>
+  <si>
+    <t>Актив где</t>
+  </si>
+  <si>
+    <t>Юнит КА где</t>
   </si>
 </sst>
 </file>
@@ -8875,7 +8884,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9805,6 +9814,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10215,7 +10227,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>2606</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -10308,10 +10320,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -10378,7 +10390,7 @@
         <v>1727</v>
       </c>
       <c r="C15" t="s">
-        <v>2543</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -10423,15 +10435,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>2576</v>
+        <v>2570</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -10447,7 +10459,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -10460,10 +10472,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -10604,55 +10616,55 @@
         <v>841</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>2479</v>
+        <v>2473</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>2480</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -10673,74 +10685,74 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="240" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="B30" s="240" t="s">
-        <v>2507</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="240" t="s">
-        <v>2600</v>
+        <v>2593</v>
       </c>
       <c r="B31" s="240" t="s">
-        <v>2600</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="240" t="s">
-        <v>2601</v>
+        <v>2594</v>
       </c>
       <c r="B32" s="240" t="s">
-        <v>2601</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="240" t="s">
-        <v>2602</v>
+        <v>2595</v>
       </c>
       <c r="B33" s="240" t="s">
-        <v>2602</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="240" t="s">
-        <v>2603</v>
+        <v>2596</v>
       </c>
       <c r="B34" s="240" t="s">
-        <v>2603</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="240" t="s">
-        <v>2604</v>
+        <v>2597</v>
       </c>
       <c r="B35" s="240" t="s">
-        <v>2604</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>2629</v>
+        <v>2622</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>2629</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>2630</v>
+        <v>2623</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>2630</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>2631</v>
+        <v>2624</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>2631</v>
+        <v>2624</v>
       </c>
     </row>
   </sheetData>
@@ -10751,22 +10763,20 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2587</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -10774,15 +10784,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2478</v>
+        <v>2472</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -10798,7 +10808,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -10811,10 +10821,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -10825,7 +10835,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>2485</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -10861,163 +10871,177 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="312" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>2471</v>
-      </c>
-      <c r="C13" s="175" t="s">
-        <v>2278</v>
+      <c r="A13" s="387" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B13" s="383" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C13" s="333" t="s">
+        <v>2655</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="383" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B14" s="383" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C14" s="175"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="383" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B15" s="383" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C15" s="175"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="379" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B16" s="379" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C16" s="175"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="110" t="s">
         <v>1660</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B17" s="110" t="s">
         <v>1662</v>
       </c>
-      <c r="C14" s="175" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="175" t="s">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="96" t="s">
-        <v>996</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="C16" s="175" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="96" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>409</v>
-      </c>
       <c r="C17" s="175" t="s">
-        <v>2477</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="96" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="175"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B19" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="175" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="313" t="s">
+      <c r="C19" s="175"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="379" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B20" s="379" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C20" s="175"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="313" t="s">
         <v>2275</v>
       </c>
-      <c r="B19" s="313" t="s">
+      <c r="B21" s="313" t="s">
         <v>1393</v>
       </c>
-      <c r="C19" s="175" t="s">
+      <c r="C21" s="175" t="s">
         <v>2277</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>2423</v>
-      </c>
-      <c r="B20" s="16" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="175" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="312" t="s">
+      <c r="C22" s="175" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="312" t="s">
         <v>2274</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B23" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C23" s="175" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>2056</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>2058</v>
       </c>
-      <c r="C22" s="175"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="C24" s="175"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>2057</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>2059</v>
       </c>
-      <c r="C23" s="175"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="C25" s="175"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="175"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
+      <c r="C26" s="175"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="69" t="s">
         <v>898</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B27" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="175"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="96" t="s">
+      <c r="C27" s="175"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B28" s="96" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="96" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B29" s="96" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="97" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="97" t="s">
         <v>497</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B30" s="97" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="97"/>
-      <c r="B29" s="97"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -11092,10 +11116,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -11106,7 +11130,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -11134,7 +11158,7 @@
         <v>979</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -11185,7 +11209,7 @@
         <v>102</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -11225,7 +11249,7 @@
         <v>108</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -11236,7 +11260,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -11258,7 +11282,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -11296,7 +11320,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -11307,7 +11331,7 @@
         <v>188</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -11463,10 +11487,10 @@
     </row>
     <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A47" s="345" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="B47" s="345" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
@@ -11535,10 +11559,10 @@
     </row>
     <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A56" s="346" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B56" s="346" t="s">
-        <v>2499</v>
+        <v>2493</v>
       </c>
       <c r="C56" t="s">
         <v>2153</v>
@@ -11546,18 +11570,18 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="346" t="s">
-        <v>2500</v>
+        <v>2494</v>
       </c>
       <c r="B57" s="346" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A58" s="346" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="B58" s="346" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
     </row>
   </sheetData>
@@ -11588,15 +11612,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -11612,7 +11636,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11641,10 +11665,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B9" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -11704,7 +11728,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -11715,7 +11739,7 @@
         <v>246</v>
       </c>
       <c r="C16" s="175" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -11742,7 +11766,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>23</v>
@@ -11758,7 +11782,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="335" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D20" s="333"/>
     </row>
@@ -11911,10 +11935,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11957,7 +11981,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -12086,7 +12110,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12094,7 +12118,7 @@
         <v>1681</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C4" s="22"/>
     </row>
@@ -12111,7 +12135,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -12124,10 +12148,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -12138,7 +12162,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -12160,7 +12184,7 @@
         <v>979</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -12239,7 +12263,7 @@
         <v>73</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -12261,7 +12285,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -12299,7 +12323,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -12310,7 +12334,7 @@
         <v>188</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -12379,7 +12403,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12387,7 +12411,7 @@
         <v>368</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -12403,7 +12427,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -12423,7 +12447,7 @@
         <v>979</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -12437,10 +12461,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B10" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C10" s="22"/>
     </row>
@@ -12601,7 +12625,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -12639,7 +12663,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -12650,7 +12674,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -12741,10 +12765,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -12787,7 +12811,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -12979,10 +13003,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -13025,7 +13049,7 @@
         <v>102</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -13213,10 +13237,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -13373,10 +13397,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -13468,10 +13492,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="304" t="s">
-        <v>2495</v>
+        <v>2489</v>
       </c>
       <c r="B20" s="304" t="s">
-        <v>2495</v>
+        <v>2489</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>2228</v>
@@ -13479,10 +13503,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="304" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="B21" s="304" t="s">
-        <v>2496</v>
+        <v>2490</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>2228</v>
@@ -13627,10 +13651,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -13660,7 +13684,7 @@
         <v>979</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -13766,7 +13790,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -13804,7 +13828,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -13815,7 +13839,7 @@
         <v>188</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -13879,18 +13903,18 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -13906,7 +13930,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -13919,10 +13943,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -13933,7 +13957,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -13955,7 +13979,7 @@
         <v>979</v>
       </c>
       <c r="C10" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -13966,7 +13990,7 @@
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -13999,13 +14023,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>2382</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>2383</v>
       </c>
       <c r="D15" s="22"/>
     </row>
@@ -14017,7 +14041,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -14047,7 +14071,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -14101,7 +14125,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -14116,7 +14140,7 @@
         <v>188</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -14221,10 +14245,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14267,7 +14291,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -14420,15 +14444,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2652</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2649</v>
+        <v>2642</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2652</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -14444,7 +14468,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>2648</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -14457,10 +14481,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -14643,10 +14667,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14689,7 +14713,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -14805,15 +14829,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -14829,7 +14853,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14842,10 +14866,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -14867,7 +14891,7 @@
         <v>979</v>
       </c>
       <c r="C9" s="175" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -14922,7 +14946,7 @@
         <v>108</v>
       </c>
       <c r="C15" s="175" t="s">
-        <v>2488</v>
+        <v>2482</v>
       </c>
       <c r="D15" s="175"/>
       <c r="E15" s="175"/>
@@ -14938,7 +14962,7 @@
         <v>196</v>
       </c>
       <c r="C16" s="175" t="s">
-        <v>2486</v>
+        <v>2480</v>
       </c>
       <c r="D16" s="175"/>
       <c r="E16" s="175"/>
@@ -14954,7 +14978,7 @@
         <v>2038</v>
       </c>
       <c r="C17" s="175" t="s">
-        <v>2487</v>
+        <v>2481</v>
       </c>
       <c r="D17" s="175"/>
       <c r="E17" s="175"/>
@@ -14979,7 +15003,7 @@
         <v>124</v>
       </c>
       <c r="C19" s="175" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D19" s="175"/>
       <c r="E19" s="175"/>
@@ -15127,7 +15151,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="175" t="s">
-        <v>2489</v>
+        <v>2483</v>
       </c>
     </row>
   </sheetData>
@@ -15166,7 +15190,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1853</v>
@@ -15198,10 +15222,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -15244,7 +15268,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2598</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -15371,7 +15395,9 @@
   <sheetPr codeName="Лист14"/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15426,10 +15452,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -15474,7 +15500,7 @@
         <v>979</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -15607,7 +15633,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -15645,7 +15671,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -15656,7 +15682,7 @@
         <v>188</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -15791,7 +15817,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15847,15 +15873,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -16120,7 +16150,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16176,15 +16206,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -16218,7 +16252,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2522</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -16452,10 +16486,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -16527,7 +16561,7 @@
         <v>1727</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -16692,7 +16726,7 @@
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16743,15 +16777,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -16884,7 +16922,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16942,15 +16980,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="264" t="s">
@@ -17041,7 +17083,7 @@
         <v>471</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -17103,10 +17145,10 @@
     </row>
     <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A26" s="316" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B26" s="316" t="s">
         <v>2280</v>
-      </c>
-      <c r="B26" s="316" t="s">
-        <v>2281</v>
       </c>
       <c r="C26" s="316" t="s">
         <v>738</v>
@@ -17118,15 +17160,15 @@
         <v>659</v>
       </c>
       <c r="F26" s="316" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A27" s="316" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B27" s="316" t="s">
         <v>2282</v>
-      </c>
-      <c r="B27" s="316" t="s">
-        <v>2283</v>
       </c>
       <c r="C27" s="316" t="s">
         <v>738</v>
@@ -17138,15 +17180,15 @@
         <v>659</v>
       </c>
       <c r="F27" s="316" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A28" s="316" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B28" s="316" t="s">
         <v>2284</v>
-      </c>
-      <c r="B28" s="316" t="s">
-        <v>2285</v>
       </c>
       <c r="C28" s="316" t="s">
         <v>738</v>
@@ -17158,15 +17200,15 @@
         <v>659</v>
       </c>
       <c r="F28" s="316" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A29" s="316" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B29" s="316" t="s">
         <v>2286</v>
-      </c>
-      <c r="B29" s="316" t="s">
-        <v>2287</v>
       </c>
       <c r="C29" s="316" t="s">
         <v>738</v>
@@ -17178,7 +17220,7 @@
         <v>659</v>
       </c>
       <c r="F29" s="316" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
   </sheetData>
@@ -17194,7 +17236,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17251,15 +17293,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -17393,7 +17439,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17449,15 +17495,19 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -17610,7 +17660,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17669,15 +17719,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -17769,13 +17823,13 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -17825,15 +17879,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -17987,16 +18045,16 @@
 
 <file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18042,15 +18100,19 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -18090,7 +18152,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D12" s="22"/>
     </row>
@@ -18102,72 +18164,72 @@
         <v>31</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="372" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="372" t="s">
-        <v>69</v>
+      <c r="A14" s="218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="218" t="s">
+        <v>102</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2589</v>
+        <v>1989</v>
       </c>
       <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="218" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="218" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>1989</v>
-      </c>
+      <c r="A15" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>996</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>411</v>
+      <c r="A16" s="16" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>1476</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>1477</v>
+        <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C17" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1283</v>
+      </c>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>123</v>
+      <c r="A18" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>471</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1283</v>
+        <v>2329</v>
       </c>
       <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>471</v>
+      <c r="A19" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>2330</v>
@@ -18175,38 +18237,26 @@
       <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>2331</v>
-      </c>
+      <c r="A20" s="229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="229" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C20" s="22"/>
       <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="229" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="229" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -18220,7 +18270,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18276,15 +18326,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
@@ -18582,7 +18636,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18638,15 +18692,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="385" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
@@ -18840,10 +18898,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -18854,7 +18912,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="333" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -18890,7 +18948,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="143" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -18898,13 +18956,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="374" t="s">
-        <v>2636</v>
+        <v>2629</v>
       </c>
       <c r="B12" s="374" t="s">
-        <v>2635</v>
+        <v>2628</v>
       </c>
       <c r="C12" s="175" t="s">
-        <v>2640</v>
+        <v>2633</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -18918,7 +18976,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="175" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -19094,10 +19152,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -19156,7 +19214,7 @@
         <v>1727</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -19312,7 +19370,7 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19365,10 +19423,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -19423,18 +19481,18 @@
         <v>73</v>
       </c>
       <c r="C13" s="175" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="374" t="s">
-        <v>2636</v>
+        <v>2629</v>
       </c>
       <c r="B14" s="374" t="s">
-        <v>2635</v>
+        <v>2628</v>
       </c>
       <c r="C14" s="175" t="s">
-        <v>2639</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -19442,7 +19500,7 @@
         <v>1238</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C15" s="331"/>
     </row>
@@ -19550,10 +19608,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H28"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19567,15 +19625,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2634</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2636</v>
+        <v>2629</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2634</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -19591,7 +19649,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2635</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -19604,15 +19662,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -19660,141 +19722,128 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="372" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="372" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>2589</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
+      <c r="A15" s="376" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B15" s="376" t="s">
+        <v>2331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="376" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B16" s="376" t="s">
-        <v>2332</v>
+      <c r="A16" s="245" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B16" s="245" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="245" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B17" s="245" t="s">
-        <v>1393</v>
+      <c r="A17" s="373" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="373" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="373" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18" s="373" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="373" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="373" t="s">
-        <v>123</v>
+      <c r="A19" s="141" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B19" s="141" t="s">
+        <v>2058</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="141" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B20" s="141" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="141" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B21" s="141" t="s">
-        <v>2059</v>
+      <c r="A21" s="373" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="373" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="373" t="s">
-        <v>20</v>
+      <c r="A22" s="377" t="s">
+        <v>898</v>
       </c>
       <c r="B22" s="373" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="377" t="s">
-        <v>898</v>
-      </c>
-      <c r="B23" s="373" t="s">
-        <v>188</v>
+      <c r="A23" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>471</v>
+      <c r="A24" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>472</v>
-      </c>
+      <c r="A25" s="229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="229" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="229" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="229" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="A26" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -19805,10 +19854,10 @@
 <file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист43"/>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19860,15 +19909,19 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -19909,7 +19962,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -19920,7 +19973,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -19946,131 +19999,120 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="372" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="372" t="s">
-        <v>69</v>
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2589</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>328</v>
+      <c r="A17" s="210" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B17" s="210" t="s">
+        <v>2630</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>842</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="210" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B18" s="210" t="s">
-        <v>2637</v>
+        <v>2631</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="210" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B19" s="210" t="s">
-        <v>2638</v>
+      <c r="A19" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>471</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2123</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>471</v>
+      <c r="A20" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2588</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>472</v>
+      <c r="A21" s="229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="229" t="s">
+        <v>1727</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2331</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="229" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="229" t="s">
-        <v>1727</v>
-      </c>
+      <c r="A22" s="210"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="22" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="210"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="22" t="s">
-        <v>1842</v>
+      <c r="A23" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="86" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="86" t="s">
-        <v>810</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="86" t="s">
-        <v>832</v>
-      </c>
       <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="25"/>
+      <c r="A29" s="86" t="s">
+        <v>808</v>
+      </c>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="86" t="s">
-        <v>808</v>
-      </c>
-      <c r="C30" s="22"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="86" t="s">
         <v>809</v>
       </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="25"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -20085,7 +20127,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20141,15 +20183,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -20259,10 +20305,10 @@
 
 <file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20281,15 +20327,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -20305,7 +20351,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -20321,15 +20367,19 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -20356,157 +20406,146 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="372" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="372" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>2589</v>
+      <c r="A12" s="232" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B12" s="232" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="232" t="s">
-        <v>2160</v>
+        <v>742</v>
       </c>
       <c r="B13" s="232" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" t="s">
-        <v>675</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="232" t="s">
-        <v>742</v>
+        <v>320</v>
       </c>
       <c r="B14" s="232" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="232" t="s">
-        <v>320</v>
-      </c>
-      <c r="B15" s="232" t="s">
-        <v>1752</v>
+      <c r="A15" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>838</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>77</v>
+      <c r="A16" s="17" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>1393</v>
+      <c r="A17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>123</v>
+      <c r="A19" s="15" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>2058</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>2059</v>
+      <c r="A21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>20</v>
+      <c r="A22" s="69" t="s">
+        <v>898</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="69" t="s">
-        <v>898</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>188</v>
+      <c r="A23" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>471</v>
+      <c r="A24" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>472</v>
+      <c r="A25" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>2161</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>2161</v>
+      <c r="A26" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2158</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>2566</v>
+        <v>2560</v>
       </c>
     </row>
   </sheetData>
@@ -20519,8 +20558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B53"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20576,15 +20615,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="380"/>
-      <c r="B8" s="380"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
@@ -20937,10 +20980,10 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="307" t="s">
-        <v>2653</v>
+        <v>2646</v>
       </c>
       <c r="B53" s="307" t="s">
-        <v>2654</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -21018,10 +21061,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -21060,7 +21103,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2599</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -21268,15 +21311,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -21292,7 +21335,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -21305,10 +21348,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -21371,7 +21414,7 @@
         <v>196</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -21382,7 +21425,7 @@
         <v>2038</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -21656,10 +21699,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -22088,10 +22131,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -22409,10 +22452,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -22518,22 +22561,22 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
   </sheetData>
@@ -22606,10 +22649,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -22860,7 +22903,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -22871,7 +22914,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -22884,10 +22927,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -22989,17 +23032,17 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
   </sheetData>
@@ -23067,10 +23110,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -23223,10 +23266,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -23382,7 +23425,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
   </sheetData>
@@ -23460,10 +23503,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -23661,10 +23704,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="368" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="368" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -23771,7 +23814,7 @@
         <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>2532</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -23788,10 +23831,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>2649</v>
+        <v>2642</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2648</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -23867,10 +23910,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="387" t="s">
+      <c r="A34" s="388" t="s">
         <v>279</v>
       </c>
-      <c r="B34" s="387" t="s">
+      <c r="B34" s="388" t="s">
         <v>280</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -23878,15 +23921,15 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="388"/>
-      <c r="B35" s="388"/>
+      <c r="A35" s="389"/>
+      <c r="B35" s="389"/>
       <c r="C35" s="22" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="389"/>
-      <c r="B36" s="389"/>
+      <c r="A36" s="390"/>
+      <c r="B36" s="390"/>
       <c r="C36" s="22" t="s">
         <v>1573</v>
       </c>
@@ -23964,7 +24007,7 @@
         <v>2157</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -25197,7 +25240,7 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2545</v>
+        <v>2539</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1725</v>
@@ -25229,10 +25272,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -25315,73 +25358,73 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="176" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B17" s="176" t="s">
         <v>2607</v>
-      </c>
-      <c r="B17" s="176" t="s">
-        <v>2614</v>
       </c>
       <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="176" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B18" s="176" t="s">
         <v>2608</v>
-      </c>
-      <c r="B18" s="176" t="s">
-        <v>2615</v>
       </c>
       <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="176" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B19" s="176" t="s">
         <v>2609</v>
-      </c>
-      <c r="B19" s="176" t="s">
-        <v>2616</v>
       </c>
       <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="176" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B20" s="176" t="s">
         <v>2610</v>
-      </c>
-      <c r="B20" s="176" t="s">
-        <v>2617</v>
       </c>
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="176" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B21" s="176" t="s">
         <v>2611</v>
-      </c>
-      <c r="B21" s="176" t="s">
-        <v>2618</v>
       </c>
       <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="176" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B22" s="176" t="s">
         <v>2612</v>
-      </c>
-      <c r="B22" s="176" t="s">
-        <v>2619</v>
       </c>
       <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="176" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B23" s="176" t="s">
         <v>2613</v>
-      </c>
-      <c r="B23" s="176" t="s">
-        <v>2620</v>
       </c>
       <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="374" t="s">
-        <v>2651</v>
+        <v>2644</v>
       </c>
       <c r="B24" s="374" t="s">
-        <v>2650</v>
+        <v>2643</v>
       </c>
       <c r="C24" s="24"/>
     </row>
@@ -28197,10 +28240,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -28243,7 +28286,7 @@
         <v>1727</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>2546</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -28286,14 +28329,14 @@
         <v>1729</v>
       </c>
       <c r="C18" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -28304,7 +28347,7 @@
         <v>1730</v>
       </c>
       <c r="C20" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -28315,14 +28358,14 @@
         <v>1765</v>
       </c>
       <c r="C21" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="320"/>
       <c r="B22" s="320"/>
       <c r="C22" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -28335,10 +28378,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="384" t="s">
-        <v>2658</v>
+        <v>2651</v>
       </c>
       <c r="B24" s="384" t="s">
-        <v>2659</v>
+        <v>2652</v>
       </c>
     </row>
   </sheetData>
@@ -29052,10 +29095,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="390" t="s">
+      <c r="A11" s="391" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="390" t="s">
+      <c r="B11" s="391" t="s">
         <v>280</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -29063,15 +29106,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="391"/>
-      <c r="B12" s="391"/>
+      <c r="A12" s="392"/>
+      <c r="B12" s="392"/>
       <c r="C12" s="25" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="392"/>
-      <c r="B13" s="392"/>
+      <c r="A13" s="393"/>
+      <c r="B13" s="393"/>
       <c r="C13" s="25" t="s">
         <v>1573</v>
       </c>
@@ -29403,10 +29446,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="390" t="s">
+      <c r="A14" s="391" t="s">
         <v>279</v>
       </c>
-      <c r="B14" s="390" t="s">
+      <c r="B14" s="391" t="s">
         <v>280</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -29414,15 +29457,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="391"/>
-      <c r="B15" s="391"/>
+      <c r="A15" s="392"/>
+      <c r="B15" s="392"/>
       <c r="C15" s="25" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="392"/>
-      <c r="B16" s="392"/>
+      <c r="A16" s="393"/>
+      <c r="B16" s="393"/>
       <c r="C16" s="25" t="s">
         <v>1573</v>
       </c>
@@ -30095,7 +30138,7 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2547</v>
+        <v>2541</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1762</v>
@@ -30127,10 +30170,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
@@ -30594,47 +30637,47 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
   </sheetData>
@@ -30708,10 +30751,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -30896,7 +30939,7 @@
     </row>
     <row r="23" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>1838</v>
@@ -30916,7 +30959,7 @@
         <v>186</v>
       </c>
       <c r="C24" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D24" s="143"/>
       <c r="E24" s="143"/>
@@ -30932,7 +30975,7 @@
         <v>222</v>
       </c>
       <c r="C25" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D25" s="143"/>
       <c r="E25" s="143"/>
@@ -30948,7 +30991,7 @@
         <v>181</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D26" s="143"/>
       <c r="E26" s="143"/>
@@ -30964,7 +31007,7 @@
         <v>108</v>
       </c>
       <c r="C27" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D27" s="143"/>
       <c r="E27" s="143"/>
@@ -30980,7 +31023,7 @@
         <v>73</v>
       </c>
       <c r="C28" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D28" s="143"/>
       <c r="E28" s="143"/>
@@ -30996,7 +31039,7 @@
         <v>124</v>
       </c>
       <c r="C29" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D29" s="143"/>
       <c r="E29" s="143"/>
@@ -31006,13 +31049,13 @@
     </row>
     <row r="30" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="284" t="s">
-        <v>2649</v>
+        <v>2642</v>
       </c>
       <c r="B30" s="284" t="s">
-        <v>2648</v>
+        <v>2641</v>
       </c>
       <c r="C30" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D30" s="143"/>
       <c r="E30" s="143"/>
@@ -31028,7 +31071,7 @@
         <v>216</v>
       </c>
       <c r="C31" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D31" s="143"/>
       <c r="E31" s="143"/>
@@ -31038,13 +31081,13 @@
     </row>
     <row r="32" spans="1:8" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="366" t="s">
-        <v>2570</v>
+        <v>2564</v>
       </c>
       <c r="B32" s="366" t="s">
         <v>217</v>
       </c>
       <c r="C32" s="143" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="D32" s="143"/>
       <c r="E32" s="143"/>
@@ -31078,7 +31121,7 @@
         <v>1727</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>2521</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -31166,10 +31209,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -31335,18 +31378,18 @@
         <v>204</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>2644</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2642</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -31357,7 +31400,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>2643</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -31368,7 +31411,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>2645</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -31491,7 +31534,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>2646</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -31502,7 +31545,7 @@
         <v>1727</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>2647</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -31580,10 +31623,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -31683,7 +31726,7 @@
         <v>39</v>
       </c>
       <c r="B21" s="363" t="s">
-        <v>2569</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -31718,7 +31761,7 @@
         <v>1102</v>
       </c>
       <c r="C25" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -31786,15 +31829,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2595</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2594</v>
+        <v>2587</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2595</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -31810,7 +31853,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2596</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -31823,10 +31866,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -31893,10 +31936,10 @@
         <v>157</v>
       </c>
       <c r="B15" s="277" t="s">
-        <v>2597</v>
+        <v>2590</v>
       </c>
       <c r="C15" s="175" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -31941,7 +31984,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="124" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -31981,7 +32024,7 @@
         <v>223</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -32060,7 +32103,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1731</v>
@@ -32092,10 +32135,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -32322,10 +32365,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -32448,16 +32491,16 @@
         <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2550</v>
+        <v>2544</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -32473,7 +32516,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -32486,10 +32529,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C7" s="353"/>
       <c r="D7" s="353"/>
@@ -32592,10 +32635,10 @@
         <v>157</v>
       </c>
       <c r="B17" s="224" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C17" s="143" t="s">
         <v>2364</v>
-      </c>
-      <c r="C17" s="143" t="s">
-        <v>2365</v>
       </c>
       <c r="D17" s="143"/>
       <c r="E17" s="143"/>
@@ -32612,13 +32655,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="326" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B19" s="326" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="C19" s="143" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D19" s="327"/>
       <c r="E19" s="327"/>
@@ -32632,7 +32675,7 @@
         <v>1462</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D20" s="327"/>
       <c r="E20" s="327"/>
@@ -32698,17 +32741,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="143" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="143" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="143" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -32787,7 +32830,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="143" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -32795,7 +32838,7 @@
         <v>235</v>
       </c>
       <c r="B46" s="221" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -32803,7 +32846,7 @@
         <v>236</v>
       </c>
       <c r="B47" s="221" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -32811,7 +32854,7 @@
         <v>189</v>
       </c>
       <c r="B48" s="221" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -32819,7 +32862,7 @@
         <v>279</v>
       </c>
       <c r="B49" s="221" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -32827,7 +32870,7 @@
         <v>202</v>
       </c>
       <c r="B50" s="141" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -32835,7 +32878,7 @@
         <v>144</v>
       </c>
       <c r="B51" s="141" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -32843,7 +32886,7 @@
         <v>145</v>
       </c>
       <c r="B52" s="141" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -32851,7 +32894,7 @@
         <v>744</v>
       </c>
       <c r="B53" s="255" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -32859,7 +32902,7 @@
         <v>743</v>
       </c>
       <c r="B54" s="255" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -32875,7 +32918,7 @@
         <v>1576</v>
       </c>
       <c r="B56" s="141" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -32883,7 +32926,7 @@
         <v>1577</v>
       </c>
       <c r="B57" s="141" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -32891,7 +32934,7 @@
         <v>1578</v>
       </c>
       <c r="B58" s="141" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -32973,10 +33016,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -33178,15 +33221,15 @@
         <v>204</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -33261,7 +33304,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -33383,10 +33426,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -33667,7 +33710,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2497</v>
+        <v>2491</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1626</v>
@@ -33699,10 +33742,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -33756,7 +33799,7 @@
         <v>317</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2591</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -33996,10 +34039,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -34095,10 +34138,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="252" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B20" s="252" t="s">
         <v>2355</v>
-      </c>
-      <c r="B20" s="252" t="s">
-        <v>2356</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>2211</v>
@@ -34168,7 +34211,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>2605</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -34324,10 +34367,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -34392,13 +34435,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>2492</v>
+        <v>2486</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2493</v>
+        <v>2487</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -34590,10 +34633,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -34826,10 +34869,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -35018,10 +35061,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -35233,7 +35276,7 @@
         <v>2253</v>
       </c>
       <c r="C34" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -35244,7 +35287,7 @@
         <v>2255</v>
       </c>
       <c r="C35" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -35255,7 +35298,7 @@
         <v>2257</v>
       </c>
       <c r="C36" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -35266,7 +35309,7 @@
         <v>2259</v>
       </c>
       <c r="C37" t="s">
-        <v>2498</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -35277,7 +35320,7 @@
         <v>2260</v>
       </c>
       <c r="C38" t="s">
-        <v>2551</v>
+        <v>2545</v>
       </c>
     </row>
   </sheetData>
@@ -35341,10 +35384,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -35540,10 +35583,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -35696,7 +35739,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -35704,7 +35747,7 @@
         <v>948</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -35720,7 +35763,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -35733,10 +35776,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -35833,10 +35876,10 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="354" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
       <c r="B21" s="354" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
     </row>
   </sheetData>
@@ -35901,10 +35944,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -35963,10 +36006,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="69" t="s">
-        <v>2531</v>
+        <v>2525</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -36172,10 +36215,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -36507,10 +36550,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -36811,10 +36854,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -36903,7 +36946,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="242" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
       <c r="B19" s="242" t="s">
         <v>790</v>
@@ -36959,7 +37002,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="170" t="s">
-        <v>2534</v>
+        <v>2528</v>
       </c>
       <c r="B26" s="170" t="s">
         <v>1554</v>
@@ -36975,7 +37018,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>2621</v>
+        <v>2614</v>
       </c>
     </row>
   </sheetData>
@@ -37045,10 +37088,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -37274,10 +37317,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -37517,10 +37560,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -37696,10 +37739,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -37960,10 +38003,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C7" s="353"/>
     </row>
@@ -38316,7 +38359,7 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B4" s="137" t="s">
         <v>746</v>
@@ -38348,10 +38391,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -38638,10 +38681,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -38778,10 +38821,10 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="153" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B26" s="153" t="s">
         <v>2441</v>
-      </c>
-      <c r="B26" s="153" t="s">
-        <v>2442</v>
       </c>
     </row>
   </sheetData>
@@ -38817,7 +38860,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="67" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>670</v>
@@ -38836,7 +38879,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -38857,10 +38900,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -38960,7 +39003,7 @@
         <v>123</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -39103,10 +39146,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -39311,10 +39354,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -39411,10 +39454,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="379" t="s">
-        <v>2636</v>
+        <v>2629</v>
       </c>
       <c r="B18" s="379" t="s">
-        <v>2635</v>
+        <v>2628</v>
       </c>
       <c r="D18" s="175"/>
       <c r="E18" s="175"/>
@@ -39505,7 +39548,7 @@
         <v>1393</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D25" s="175"/>
       <c r="E25" s="175"/>
@@ -39521,7 +39564,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D26" s="175"/>
       <c r="E26" s="175"/>
@@ -39537,7 +39580,7 @@
         <v>123</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D27" s="175"/>
       <c r="E27" s="175"/>
@@ -39553,7 +39596,7 @@
         <v>2058</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D28" s="175"/>
       <c r="E28" s="175"/>
@@ -39569,7 +39612,7 @@
         <v>2059</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D29" s="175"/>
       <c r="E29" s="175"/>
@@ -39585,7 +39628,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D30" s="175"/>
       <c r="E30" s="175"/>
@@ -39601,7 +39644,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D31" s="175"/>
       <c r="E31" s="175"/>
@@ -39693,7 +39736,7 @@
     </row>
     <row r="4" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>2538</v>
+        <v>2532</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>1837</v>
@@ -39725,10 +39768,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -39852,7 +39895,7 @@
         <v>1727</v>
       </c>
       <c r="C23" t="s">
-        <v>2537</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -39909,18 +39952,18 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="244" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
       <c r="B32" s="244" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="244" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="B33" s="244" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -39958,7 +40001,7 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39972,15 +40015,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2403</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -39996,7 +40039,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -40009,10 +40052,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -40049,10 +40092,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="376" t="s">
-        <v>2641</v>
+        <v>2634</v>
       </c>
       <c r="B12" s="376" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -40164,7 +40207,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
   </sheetData>
@@ -40234,10 +40277,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -40298,7 +40341,7 @@
         <v>1727</v>
       </c>
       <c r="C14" s="261" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -40444,10 +40487,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -40506,7 +40549,7 @@
         <v>1727</v>
       </c>
       <c r="C14" s="261" t="s">
-        <v>2508</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -40615,10 +40658,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -40701,10 +40744,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="376" t="s">
-        <v>2641</v>
+        <v>2634</v>
       </c>
       <c r="B17" s="376" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -40880,10 +40923,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -41096,7 +41139,7 @@
         <v>1727</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>2575</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -41207,10 +41250,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -41514,10 +41557,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -41574,10 +41617,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="376" t="s">
-        <v>2641</v>
+        <v>2634</v>
       </c>
       <c r="B13" s="376" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -41803,10 +41846,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -41976,10 +42019,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -42100,10 +42143,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>2590</v>
+        <v>2583</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>2590</v>
+        <v>2583</v>
       </c>
     </row>
   </sheetData>
@@ -42119,8 +42162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView topLeftCell="A22" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42176,10 +42219,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -42569,15 +42612,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -42593,7 +42636,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -42606,10 +42649,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -42646,7 +42689,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
-        <v>2539</v>
+        <v>2533</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>1838</v>
@@ -42680,7 +42723,7 @@
         <v>1727</v>
       </c>
       <c r="C15" t="s">
-        <v>2540</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -42703,16 +42746,16 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -42723,9 +42766,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>178</v>
@@ -42755,15 +42798,15 @@
         <v>204</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -42775,7 +42818,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -42854,38 +42897,119 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="376" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B18" s="376" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="245" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B19" s="245" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="373" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="373" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="373" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="141" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B22" s="141" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="141" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B23" s="141" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="377" t="s">
+        <v>898</v>
+      </c>
+      <c r="B25" s="373" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C26" s="22" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>2468</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -42954,15 +43078,15 @@
         <v>204</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -42974,7 +43098,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -43299,10 +43423,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -43364,7 +43488,7 @@
         <v>199</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -43375,7 +43499,7 @@
         <v>1323</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -43483,7 +43607,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
   </sheetData>
@@ -43521,7 +43645,7 @@
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>2552</v>
+        <v>2546</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>934</v>
@@ -43553,10 +43677,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -43868,10 +43992,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -43890,7 +44014,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>2657</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -43974,10 +44098,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="379" t="s">
-        <v>2636</v>
+        <v>2629</v>
       </c>
       <c r="B19" s="379" t="s">
-        <v>2635</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -44215,10 +44339,10 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -44269,10 +44393,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>2017</v>
@@ -44283,10 +44407,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>2557</v>
+        <v>2551</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>2017</v>
@@ -44297,10 +44421,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>2561</v>
+        <v>2555</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>2017</v>
@@ -44388,15 +44512,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2553</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2553</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -44412,7 +44536,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -44425,10 +44549,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -44532,10 +44656,10 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="298" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B20" s="298" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
   </sheetData>
@@ -44603,10 +44727,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -44703,10 +44827,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="229" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
       <c r="B19" s="229" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -44939,10 +45063,10 @@
     </row>
     <row r="7" spans="1:5" s="353" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="353" customFormat="1" x14ac:dyDescent="0.2">
@@ -45125,10 +45249,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -45337,10 +45461,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -45501,10 +45625,10 @@
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A27" s="166" t="s">
-        <v>2494</v>
+        <v>2488</v>
       </c>
       <c r="B27" s="166" t="s">
-        <v>2490</v>
+        <v>2484</v>
       </c>
     </row>
   </sheetData>
@@ -45577,10 +45701,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -45654,7 +45778,7 @@
         <v>1988</v>
       </c>
       <c r="B15" s="218" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -45728,15 +45852,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -45752,7 +45876,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -45765,13 +45889,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -46042,15 +46166,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -46066,7 +46190,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -46079,10 +46203,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -46139,13 +46263,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>2564</v>
+        <v>2558</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>1986</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2565</v>
+        <v>2559</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -46158,7 +46282,7 @@
         <v>1739</v>
       </c>
       <c r="B15" s="204" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>675</v>
@@ -46375,10 +46499,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -46521,10 +46645,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -46638,10 +46762,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -46716,7 +46840,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2571</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -46928,18 +47052,18 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="348" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
       <c r="B43" s="348" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="348" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="B44" s="348" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
     </row>
   </sheetData>
@@ -47011,10 +47135,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -47074,7 +47198,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>2571</v>
+        <v>2565</v>
       </c>
       <c r="D13" s="175"/>
       <c r="E13" s="175"/>
@@ -47225,13 +47349,13 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="361" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="B33" s="361" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2520</v>
+        <v>2514</v>
       </c>
     </row>
   </sheetData>
@@ -47301,10 +47425,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -47361,7 +47485,7 @@
         <v>75</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>2571</v>
+        <v>2565</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -47523,15 +47647,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2572</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2574</v>
+        <v>2568</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2572</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -47547,7 +47671,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>2573</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -47560,10 +47684,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -47625,7 +47749,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="175" t="s">
-        <v>2571</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -47721,10 +47845,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -47875,15 +47999,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2357</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2358</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -47899,7 +48023,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -47912,10 +48036,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -48021,10 +48145,10 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="323" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="B22" s="323" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C22" t="s">
         <v>971</v>
@@ -48032,10 +48156,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="324" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B23" s="324" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -48109,7 +48233,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>187</v>
@@ -48139,15 +48263,15 @@
         <v>204</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -48159,7 +48283,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -48244,7 +48368,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -48255,7 +48379,7 @@
         <v>2058</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -48266,7 +48390,7 @@
         <v>2059</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -48429,10 +48553,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -48665,10 +48789,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -48760,7 +48884,7 @@
         <v>1678</v>
       </c>
       <c r="C19" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48821,34 +48945,34 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="259" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B27" s="259" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="259" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B28" s="259" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="259" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B29" s="259" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="259" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B30" s="259" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -48961,10 +49085,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -48975,7 +49099,7 @@
         <v>69</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -49218,10 +49342,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -49682,10 +49806,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -49870,10 +49994,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B10" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -50302,10 +50426,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -50481,10 +50605,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -50650,10 +50774,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -50852,15 +50976,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>2542</v>
+        <v>2536</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -50876,7 +51000,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -50889,10 +51013,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -50951,7 +51075,7 @@
         <v>1727</v>
       </c>
       <c r="C14" s="353" t="s">
-        <v>2541</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -51048,10 +51172,10 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="321" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B28" s="321" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -51064,74 +51188,74 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B31" s="56" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="s">
-        <v>2622</v>
+        <v>2615</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>2622</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="56" t="s">
-        <v>2623</v>
+        <v>2616</v>
       </c>
       <c r="B33" s="56" t="s">
-        <v>2623</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
-        <v>2624</v>
+        <v>2617</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>2624</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
-        <v>2625</v>
+        <v>2618</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>2625</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
-        <v>2626</v>
+        <v>2619</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>2626</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="s">
-        <v>2627</v>
+        <v>2620</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>2627</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="s">
-        <v>2628</v>
+        <v>2621</v>
       </c>
       <c r="B38" s="56" t="s">
-        <v>2628</v>
+        <v>2621</v>
       </c>
     </row>
   </sheetData>
@@ -51200,10 +51324,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -51526,10 +51650,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -51788,10 +51912,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -51883,7 +52007,7 @@
         <v>471</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2483</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -51894,7 +52018,7 @@
         <v>472</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -51959,10 +52083,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
   </sheetData>
@@ -52032,10 +52156,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -52127,7 +52251,7 @@
         <v>259</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -52138,7 +52262,7 @@
         <v>471</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2483</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -52149,7 +52273,7 @@
         <v>472</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -52222,10 +52346,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="319" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B29" s="319" t="s">
         <v>2294</v>
-      </c>
-      <c r="B29" s="319" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -52254,18 +52378,18 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="240" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B34" s="240" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
   </sheetData>
@@ -52330,10 +52454,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -52732,10 +52856,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -52781,7 +52905,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="96" t="s">
-        <v>2567</v>
+        <v>2561</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>2087</v>
@@ -52951,7 +53075,7 @@
         <v>173</v>
       </c>
       <c r="C24" s="175" t="s">
-        <v>2568</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -53075,10 +53199,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -53168,7 +53292,7 @@
         <v>2157</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -53210,19 +53334,19 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="362" t="s">
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="B23" s="362" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="C23" s="22"/>
     </row>
@@ -53274,7 +53398,7 @@
         <v>2219</v>
       </c>
       <c r="B29" s="362" t="s">
-        <v>2584</v>
+        <v>2578</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>2220</v>
@@ -53287,10 +53411,10 @@
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="387" t="s">
+      <c r="A30" s="388" t="s">
         <v>279</v>
       </c>
-      <c r="B30" s="387" t="s">
+      <c r="B30" s="388" t="s">
         <v>280</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -53311,8 +53435,8 @@
       <c r="P30" s="25"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="388"/>
-      <c r="B31" s="388"/>
+      <c r="A31" s="389"/>
+      <c r="B31" s="389"/>
       <c r="C31" s="22" t="s">
         <v>1572</v>
       </c>
@@ -53331,8 +53455,8 @@
       <c r="P31" s="25"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="389"/>
-      <c r="B32" s="389"/>
+      <c r="A32" s="390"/>
+      <c r="B32" s="390"/>
       <c r="C32" s="22" t="s">
         <v>1573</v>
       </c>
@@ -53512,10 +53636,10 @@
     </row>
     <row r="7" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
       <c r="C7" s="331"/>
       <c r="D7" s="331"/>
@@ -53548,7 +53672,7 @@
         <v>979</v>
       </c>
       <c r="C9" s="175" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D9" s="262"/>
       <c r="E9" s="262"/>
@@ -53561,7 +53685,7 @@
       <c r="A10" s="318"/>
       <c r="B10" s="318"/>
       <c r="C10" s="175" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D10" s="317"/>
       <c r="E10" s="317"/>
@@ -53574,7 +53698,7 @@
       <c r="A11" s="318"/>
       <c r="B11" s="318"/>
       <c r="C11" s="175" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D11" s="317"/>
       <c r="E11" s="317"/>
@@ -53587,7 +53711,7 @@
       <c r="A12" s="318"/>
       <c r="B12" s="318"/>
       <c r="C12" s="175" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D12" s="317"/>
       <c r="E12" s="317"/>
@@ -53728,7 +53852,7 @@
         <v>326</v>
       </c>
       <c r="C21" s="175" t="s">
-        <v>2579</v>
+        <v>2573</v>
       </c>
       <c r="D21" s="303"/>
       <c r="E21" s="303"/>
@@ -53756,7 +53880,7 @@
     </row>
     <row r="23" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>2577</v>
+        <v>2571</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>231</v>
@@ -53786,7 +53910,7 @@
     </row>
     <row r="25" spans="1:9" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>2578</v>
+        <v>2572</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>232</v>
@@ -54125,10 +54249,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -54222,7 +54346,7 @@
         <v>471</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>2481</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -54233,7 +54357,7 @@
         <v>472</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -54294,7 +54418,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>32</v>
@@ -54326,10 +54450,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="141" t="s">
-        <v>2593</v>
+        <v>2586</v>
       </c>
       <c r="B7" s="141" t="s">
-        <v>2592</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -54366,10 +54490,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="330" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B12" s="330" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -54576,34 +54700,34 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>2397</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>2398</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="240" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B42" s="240" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -54624,53 +54748,53 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>2419</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>2421</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>2422</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>2432</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>2434</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="22" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C49" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -55006,34 +55130,34 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A92" s="344" t="s">
-        <v>2509</v>
+        <v>2503</v>
       </c>
       <c r="B92" s="344" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A93" s="344" t="s">
-        <v>2510</v>
+        <v>2504</v>
       </c>
       <c r="B93" s="344" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A94" s="344" t="s">
-        <v>2511</v>
+        <v>2505</v>
       </c>
       <c r="B94" s="344" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A95" s="344" t="s">
-        <v>2512</v>
+        <v>2506</v>
       </c>
       <c r="B95" s="344" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -55046,18 +55170,18 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
-        <v>2632</v>
+        <v>2625</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>2633</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
-        <v>2655</v>
+        <v>2648</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>2656</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="130" activeTab="134"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="141" activeTab="144"/>
   </bookViews>
   <sheets>
     <sheet name="AboutAccBase" sheetId="31" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9748" uniqueCount="2663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9768" uniqueCount="2663">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -20558,7 +20558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
@@ -21005,7 +21005,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21068,8 +21068,12 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="368"/>
-      <c r="B8" s="368"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -21292,7 +21296,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21355,8 +21359,12 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="368"/>
-      <c r="B8" s="368"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -21643,7 +21651,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21706,8 +21714,12 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="368"/>
-      <c r="B8" s="368"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -22075,7 +22087,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22138,8 +22150,12 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="368"/>
-      <c r="B8" s="368"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -22592,7 +22608,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22656,8 +22672,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="368"/>
-      <c r="B8" s="368"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -22862,7 +22882,7 @@
   <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22934,8 +22954,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="368"/>
-      <c r="B9" s="368"/>
+      <c r="A9" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -23056,7 +23080,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23117,8 +23141,12 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="368"/>
-      <c r="B8" s="368"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -23215,7 +23243,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23273,8 +23301,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="368"/>
-      <c r="B8" s="368"/>
+      <c r="A8" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
@@ -23439,7 +23471,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23510,8 +23542,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="368"/>
-      <c r="B9" s="368"/>
+      <c r="A9" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -23641,7 +23677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23711,8 +23749,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="368"/>
-      <c r="B9" s="368"/>
+      <c r="A9" s="378" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="378" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="28" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="AboutAccBase" sheetId="31" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8395" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8463" uniqueCount="2340">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -7853,7 +7853,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8470,7 +8470,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="65" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8508,7 +8507,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8549,7 +8547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8709,9 +8706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -8749,6 +8743,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="72">
     <cellStyle name="Гиперссылка" xfId="21" builtinId="8"/>
@@ -9236,18 +9231,18 @@
       </c>
     </row>
     <row r="8" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -9407,7 +9402,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -9440,10 +9435,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9464,12 +9459,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="350"/>
-      <c r="B15" s="350"/>
+      <c r="A15" s="347"/>
+      <c r="B15" s="347"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -9511,10 +9506,10 @@
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="330" t="s">
+      <c r="A19" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B19" s="330" t="s">
+      <c r="B19" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C19" s="22"/>
@@ -9727,7 +9722,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -9735,8 +9730,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -9747,10 +9742,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9974,7 +9969,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -9982,8 +9977,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
@@ -9994,10 +9989,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10018,10 +10013,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="326" t="s">
+      <c r="A14" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="326" t="s">
+      <c r="B14" s="323" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="206" t="s">
@@ -10029,8 +10024,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="361"/>
-      <c r="B15" s="361"/>
+      <c r="A15" s="357"/>
+      <c r="B15" s="357"/>
       <c r="C15" s="206"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -10064,42 +10059,42 @@
       <c r="B19" s="87"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="319" t="s">
+      <c r="A21" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="316" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="320" t="s">
+      <c r="A22" s="317" t="s">
         <v>609</v>
       </c>
-      <c r="B22" s="320" t="s">
+      <c r="B22" s="317" t="s">
         <v>1496</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="320" t="s">
+      <c r="A23" s="317" t="s">
         <v>425</v>
       </c>
-      <c r="B23" s="320" t="s">
+      <c r="B23" s="317" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="320" t="s">
+      <c r="A24" s="317" t="s">
         <v>427</v>
       </c>
-      <c r="B24" s="320" t="s">
+      <c r="B24" s="317" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="320" t="s">
+      <c r="A25" s="317" t="s">
         <v>1497</v>
       </c>
-      <c r="B25" s="320" t="s">
+      <c r="B25" s="317" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -10177,7 +10172,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -10185,8 +10180,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -10197,10 +10192,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10306,10 +10301,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="257" t="s">
+      <c r="A25" s="256" t="s">
         <v>1817</v>
       </c>
-      <c r="B25" s="257" t="s">
+      <c r="B25" s="256" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -10388,7 +10383,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -10418,10 +10413,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10454,8 +10449,8 @@
       <c r="D14" s="157"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="358"/>
-      <c r="B15" s="358"/>
+      <c r="A15" s="354"/>
+      <c r="B15" s="354"/>
       <c r="C15" s="157"/>
       <c r="D15" s="157"/>
     </row>
@@ -10534,10 +10529,10 @@
       <c r="I20" s="157"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="330" t="s">
+      <c r="A21" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B21" s="330" t="s">
+      <c r="B21" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C21" s="157"/>
@@ -10765,7 +10760,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -10773,8 +10768,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -10785,10 +10780,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11005,7 +11000,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -11016,15 +11011,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
       <c r="C9" s="22" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="340"/>
-      <c r="B10" s="334"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="331"/>
       <c r="C10" s="22" t="s">
         <v>1384</v>
       </c>
@@ -11049,10 +11044,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="344" t="s">
+      <c r="A13" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="344" t="s">
+      <c r="B13" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11085,8 +11080,8 @@
       <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="327"/>
-      <c r="B17" s="327"/>
+      <c r="A17" s="324"/>
+      <c r="B17" s="324"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
     </row>
@@ -11158,10 +11153,10 @@
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="330" t="s">
+      <c r="A24" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B24" s="330" t="s">
+      <c r="B24" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C24" s="22"/>
@@ -11432,7 +11427,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -11440,8 +11435,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -11452,10 +11447,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11476,8 +11471,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -11781,7 +11776,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -11789,8 +11784,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -11801,10 +11796,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11984,18 +11979,18 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="256" t="s">
+      <c r="A35" s="255" t="s">
         <v>1777</v>
       </c>
-      <c r="B35" s="256" t="s">
+      <c r="B35" s="255" t="s">
         <v>1777</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="256" t="s">
+      <c r="A36" s="255" t="s">
         <v>1801</v>
       </c>
-      <c r="B36" s="256" t="s">
+      <c r="B36" s="255" t="s">
         <v>1801</v>
       </c>
     </row>
@@ -12068,7 +12063,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -12095,10 +12090,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -12130,10 +12125,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B15" s="330" t="s">
+      <c r="B15" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C15" s="22"/>
@@ -12195,10 +12190,10 @@
       <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="331" t="s">
+      <c r="A22" s="328" t="s">
         <v>731</v>
       </c>
-      <c r="B22" s="328" t="s">
+      <c r="B22" s="325" t="s">
         <v>136</v>
       </c>
       <c r="C22" s="22"/>
@@ -12321,18 +12316,18 @@
       </c>
     </row>
     <row r="8" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -12413,10 +12408,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="262" t="s">
+      <c r="A21" s="261" t="s">
         <v>1833</v>
       </c>
-      <c r="B21" s="262" t="s">
+      <c r="B21" s="261" t="s">
         <v>1833</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -12424,10 +12419,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="262" t="s">
+      <c r="A22" s="261" t="s">
         <v>2077</v>
       </c>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="261" t="s">
         <v>2077</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -12435,10 +12430,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="262" t="s">
+      <c r="A23" s="261" t="s">
         <v>2078</v>
       </c>
-      <c r="B23" s="262" t="s">
+      <c r="B23" s="261" t="s">
         <v>2078</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -12591,7 +12586,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -12599,8 +12594,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -12743,102 +12738,102 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="272" t="s">
+      <c r="A27" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="272" t="s">
+      <c r="B27" s="270" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="272" t="s">
+      <c r="C27" s="270" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="272" t="s">
+      <c r="D27" s="270" t="s">
         <v>1645</v>
       </c>
-      <c r="E27" s="272" t="s">
+      <c r="E27" s="270" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="272" t="s">
+      <c r="F27" s="270" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="273" t="s">
+      <c r="A28" s="271" t="s">
         <v>1882</v>
       </c>
-      <c r="B28" s="273" t="s">
+      <c r="B28" s="271" t="s">
         <v>1883</v>
       </c>
-      <c r="C28" s="273" t="s">
+      <c r="C28" s="271" t="s">
         <v>592</v>
       </c>
-      <c r="D28" s="273" t="s">
+      <c r="D28" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="E28" s="273" t="s">
+      <c r="E28" s="271" t="s">
         <v>521</v>
       </c>
-      <c r="F28" s="273" t="s">
+      <c r="F28" s="271" t="s">
         <v>1913</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="273" t="s">
+      <c r="A29" s="271" t="s">
         <v>1884</v>
       </c>
-      <c r="B29" s="273" t="s">
+      <c r="B29" s="271" t="s">
         <v>1885</v>
       </c>
-      <c r="C29" s="273" t="s">
+      <c r="C29" s="271" t="s">
         <v>592</v>
       </c>
-      <c r="D29" s="273" t="s">
+      <c r="D29" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="E29" s="273" t="s">
+      <c r="E29" s="271" t="s">
         <v>521</v>
       </c>
-      <c r="F29" s="273" t="s">
+      <c r="F29" s="271" t="s">
         <v>1913</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="273" t="s">
+      <c r="A30" s="271" t="s">
         <v>1886</v>
       </c>
-      <c r="B30" s="273" t="s">
+      <c r="B30" s="271" t="s">
         <v>1887</v>
       </c>
-      <c r="C30" s="273" t="s">
+      <c r="C30" s="271" t="s">
         <v>592</v>
       </c>
-      <c r="D30" s="273" t="s">
+      <c r="D30" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="E30" s="273" t="s">
+      <c r="E30" s="271" t="s">
         <v>521</v>
       </c>
-      <c r="F30" s="273" t="s">
+      <c r="F30" s="271" t="s">
         <v>1913</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="273" t="s">
+      <c r="A31" s="271" t="s">
         <v>1888</v>
       </c>
-      <c r="B31" s="273" t="s">
+      <c r="B31" s="271" t="s">
         <v>1889</v>
       </c>
-      <c r="C31" s="273" t="s">
+      <c r="C31" s="271" t="s">
         <v>592</v>
       </c>
-      <c r="D31" s="273" t="s">
+      <c r="D31" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="E31" s="273" t="s">
+      <c r="E31" s="271" t="s">
         <v>521</v>
       </c>
-      <c r="F31" s="273" t="s">
+      <c r="F31" s="271" t="s">
         <v>1913</v>
       </c>
     </row>
@@ -12917,7 +12912,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -12925,10 +12920,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -12968,10 +12963,10 @@
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="328" t="s">
+      <c r="A14" s="325" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="328" t="s">
+      <c r="B14" s="325" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="24" t="s">
@@ -13001,10 +12996,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="330" t="s">
+      <c r="A17" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B17" s="330" t="s">
+      <c r="B17" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C17" s="22"/>
@@ -13019,19 +13014,19 @@
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="328" t="s">
+      <c r="A19" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="328" t="s">
+      <c r="B19" s="325" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="328" t="s">
+      <c r="A20" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="328" t="s">
+      <c r="B20" s="325" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="22"/>
@@ -13064,10 +13059,10 @@
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="328" t="s">
         <v>731</v>
       </c>
-      <c r="B24" s="328" t="s">
+      <c r="B24" s="325" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="22"/>
@@ -13177,7 +13172,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -13185,8 +13180,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -13451,8 +13446,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
@@ -13499,18 +13494,18 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="306" t="s">
+      <c r="A22" s="303" t="s">
         <v>2335</v>
       </c>
-      <c r="B22" s="306" t="s">
+      <c r="B22" s="303" t="s">
         <v>2335</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="306" t="s">
+      <c r="A23" s="303" t="s">
         <v>2336</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="303" t="s">
         <v>2336</v>
       </c>
     </row>
@@ -13607,7 +13602,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -13615,8 +13610,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -13651,8 +13646,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="198" t="s">
@@ -13801,7 +13796,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -13809,8 +13804,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -13845,8 +13840,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
@@ -14036,7 +14031,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -14063,10 +14058,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -14098,8 +14093,8 @@
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="327"/>
-      <c r="B14" s="327"/>
+      <c r="A14" s="324"/>
+      <c r="B14" s="324"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
     </row>
@@ -14268,7 +14263,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -14276,8 +14271,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
@@ -14288,10 +14283,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14312,8 +14307,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -14476,7 +14471,7 @@
       <c r="A36" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="B36" s="307" t="s">
+      <c r="B36" s="304" t="s">
         <v>349</v>
       </c>
     </row>
@@ -14484,7 +14479,7 @@
       <c r="A37" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="B37" s="307" t="s">
+      <c r="B37" s="304" t="s">
         <v>351</v>
       </c>
     </row>
@@ -14650,7 +14645,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -14658,8 +14653,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="340"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
@@ -14670,10 +14665,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14694,8 +14689,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -14874,19 +14869,19 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="288"/>
+      <c r="C8" s="285"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -14902,10 +14897,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14934,8 +14929,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="323"/>
-      <c r="B15" s="323"/>
+      <c r="A15" s="320"/>
+      <c r="B15" s="320"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="245" t="s">
@@ -14944,15 +14939,15 @@
       <c r="B16" s="245" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="288" t="s">
+      <c r="C16" s="285" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="275" t="s">
+      <c r="A17" s="273" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="275" t="s">
+      <c r="B17" s="273" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="157" t="s">
@@ -14960,10 +14955,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="329" t="s">
+      <c r="A18" s="326" t="s">
         <v>2210</v>
       </c>
-      <c r="B18" s="329" t="s">
+      <c r="B18" s="326" t="s">
         <v>2209</v>
       </c>
       <c r="C18" s="157" t="s">
@@ -14977,7 +14972,7 @@
       <c r="B19" s="18" t="s">
         <v>1926</v>
       </c>
-      <c r="C19" s="288"/>
+      <c r="C19" s="285"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
@@ -15061,10 +15056,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="328" t="s">
+      <c r="A29" s="325" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="328" t="s">
+      <c r="B29" s="325" t="s">
         <v>1393</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -15157,18 +15152,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -15475,10 +15470,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15502,10 +15497,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15526,12 +15521,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="350"/>
-      <c r="B15" s="350"/>
+      <c r="A15" s="347"/>
+      <c r="B15" s="347"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -15545,10 +15540,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="327" t="s">
+      <c r="A17" s="324" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="327" t="s">
+      <c r="B17" s="324" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -15556,10 +15551,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="330" t="s">
+      <c r="A18" s="327" t="s">
         <v>978</v>
       </c>
-      <c r="B18" s="330" t="s">
+      <c r="B18" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -15572,18 +15567,18 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="328" t="s">
+      <c r="A20" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="328" t="s">
+      <c r="B20" s="325" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="328" t="s">
+      <c r="A21" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="328" t="s">
+      <c r="B21" s="325" t="s">
         <v>83</v>
       </c>
     </row>
@@ -15604,18 +15599,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="328" t="s">
+      <c r="A24" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="328" t="s">
+      <c r="B24" s="325" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="331" t="s">
+      <c r="A25" s="328" t="s">
         <v>731</v>
       </c>
-      <c r="B25" s="328" t="s">
+      <c r="B25" s="325" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15734,10 +15729,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15761,10 +15756,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="234" t="s">
@@ -15795,8 +15790,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="327"/>
-      <c r="B14" s="327"/>
+      <c r="A14" s="324"/>
+      <c r="B14" s="324"/>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -16014,16 +16009,16 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="362"/>
-      <c r="B9" s="362"/>
+      <c r="A9" s="358"/>
+      <c r="B9" s="358"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -16034,10 +16029,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -16058,12 +16053,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="350"/>
-      <c r="B15" s="350"/>
+      <c r="A15" s="347"/>
+      <c r="B15" s="347"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="201" t="s">
@@ -16093,10 +16088,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="330" t="s">
+      <c r="A19" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B19" s="330" t="s">
+      <c r="B19" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C19" s="22"/>
@@ -16280,16 +16275,16 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="362"/>
-      <c r="B9" s="362"/>
+      <c r="A9" s="358"/>
+      <c r="B9" s="358"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
@@ -16300,10 +16295,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -16324,12 +16319,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="350"/>
-      <c r="B15" s="350"/>
+      <c r="A15" s="347"/>
+      <c r="B15" s="347"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -16649,18 +16644,18 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="265" t="s">
+      <c r="A56" s="264" t="s">
         <v>1853</v>
       </c>
-      <c r="B56" s="265" t="s">
+      <c r="B56" s="264" t="s">
         <v>1853</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="265" t="s">
+      <c r="A57" s="264" t="s">
         <v>2226</v>
       </c>
-      <c r="B57" s="265" t="s">
+      <c r="B57" s="264" t="s">
         <v>2227</v>
       </c>
     </row>
@@ -16738,24 +16733,24 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="320" t="s">
         <v>2169</v>
       </c>
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="320" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="362"/>
-      <c r="B9" s="362"/>
+      <c r="A9" s="358"/>
+      <c r="B9" s="358"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -16766,10 +16761,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -16790,14 +16785,14 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="354"/>
-      <c r="B14" s="354"/>
+      <c r="A14" s="350"/>
+      <c r="B14" s="350"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B15" s="330" t="s">
+      <c r="B15" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -16818,10 +16813,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="283" t="s">
+      <c r="A18" s="281" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="287" t="s">
+      <c r="B18" s="284" t="s">
         <v>144</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -16829,10 +16824,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="283" t="s">
+      <c r="A19" s="281" t="s">
         <v>1839</v>
       </c>
-      <c r="B19" s="287" t="s">
+      <c r="B19" s="284" t="s">
         <v>1668</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -17109,24 +17104,24 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="320" t="s">
         <v>2169</v>
       </c>
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="320" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="362"/>
-      <c r="B9" s="362"/>
+      <c r="A9" s="358"/>
+      <c r="B9" s="358"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -17137,10 +17132,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -17161,12 +17156,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="354"/>
-      <c r="B14" s="354"/>
+      <c r="A14" s="350"/>
+      <c r="B14" s="350"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="354"/>
-      <c r="B15" s="354"/>
+      <c r="A15" s="350"/>
+      <c r="B15" s="350"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="57" t="s">
@@ -17554,24 +17549,24 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="320" t="s">
         <v>2169</v>
       </c>
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="320" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="362"/>
-      <c r="B9" s="362"/>
+      <c r="A9" s="358"/>
+      <c r="B9" s="358"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -17582,10 +17577,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -17606,12 +17601,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="354"/>
-      <c r="B14" s="354"/>
+      <c r="A14" s="350"/>
+      <c r="B14" s="350"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="354"/>
-      <c r="B15" s="354"/>
+      <c r="A15" s="350"/>
+      <c r="B15" s="350"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -17888,24 +17883,24 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="320" t="s">
         <v>2169</v>
       </c>
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="320" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="362"/>
-      <c r="B9" s="362"/>
+      <c r="A9" s="358"/>
+      <c r="B9" s="358"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -17916,10 +17911,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="345" t="s">
+      <c r="A11" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="345" t="s">
+      <c r="B11" s="342" t="s">
         <v>101</v>
       </c>
     </row>
@@ -17940,8 +17935,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="363"/>
-      <c r="B14" s="363"/>
+      <c r="A14" s="359"/>
+      <c r="B14" s="359"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
@@ -17988,114 +17983,114 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="255" t="s">
+      <c r="A22" s="254" t="s">
         <v>1791</v>
       </c>
-      <c r="B22" s="255" t="s">
+      <c r="B22" s="254" t="s">
         <v>1791</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="255" t="s">
+      <c r="A23" s="254" t="s">
         <v>1792</v>
       </c>
-      <c r="B23" s="255" t="s">
+      <c r="B23" s="254" t="s">
         <v>1792</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="255" t="s">
+      <c r="A24" s="254" t="s">
         <v>1793</v>
       </c>
-      <c r="B24" s="255" t="s">
+      <c r="B24" s="254" t="s">
         <v>1793</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="255" t="s">
+      <c r="A25" s="254" t="s">
         <v>1794</v>
       </c>
-      <c r="B25" s="255" t="s">
+      <c r="B25" s="254" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="255" t="s">
+      <c r="A26" s="254" t="s">
         <v>1795</v>
       </c>
-      <c r="B26" s="255" t="s">
+      <c r="B26" s="254" t="s">
         <v>1795</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="255" t="s">
+      <c r="A27" s="254" t="s">
         <v>1788</v>
       </c>
-      <c r="B27" s="255" t="s">
+      <c r="B27" s="254" t="s">
         <v>1788</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="255" t="s">
+      <c r="A28" s="254" t="s">
         <v>1789</v>
       </c>
-      <c r="B28" s="255" t="s">
+      <c r="B28" s="254" t="s">
         <v>1789</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="255" t="s">
+      <c r="A29" s="254" t="s">
         <v>1802</v>
       </c>
-      <c r="B29" s="255" t="s">
+      <c r="B29" s="254" t="s">
         <v>1802</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="255" t="s">
+      <c r="A30" s="254" t="s">
         <v>1790</v>
       </c>
-      <c r="B30" s="255" t="s">
+      <c r="B30" s="254" t="s">
         <v>1790</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="255" t="s">
+      <c r="A31" s="254" t="s">
         <v>1803</v>
       </c>
-      <c r="B31" s="255" t="s">
+      <c r="B31" s="254" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="255" t="s">
+      <c r="A32" s="254" t="s">
         <v>1796</v>
       </c>
-      <c r="B32" s="255" t="s">
+      <c r="B32" s="254" t="s">
         <v>1796</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="255" t="s">
+      <c r="A33" s="254" t="s">
         <v>1797</v>
       </c>
-      <c r="B33" s="255" t="s">
+      <c r="B33" s="254" t="s">
         <v>1797</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="255" t="s">
+      <c r="A34" s="254" t="s">
         <v>1798</v>
       </c>
-      <c r="B34" s="255" t="s">
+      <c r="B34" s="254" t="s">
         <v>1798</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="255" t="s">
+      <c r="A35" s="254" t="s">
         <v>1799</v>
       </c>
-      <c r="B35" s="255" t="s">
+      <c r="B35" s="254" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -18164,24 +18159,24 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="323" t="s">
+      <c r="A6" s="320" t="s">
         <v>2169</v>
       </c>
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="320" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="362"/>
-      <c r="B8" s="362"/>
+      <c r="A8" s="358"/>
+      <c r="B8" s="358"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -18222,8 +18217,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="334"/>
-      <c r="B13" s="334"/>
+      <c r="A13" s="331"/>
+      <c r="B13" s="331"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -18382,18 +18377,18 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="320" t="s">
         <v>2169</v>
       </c>
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="320" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="332" t="s">
+      <c r="A8" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>53</v>
       </c>
     </row>
@@ -18442,12 +18437,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="347"/>
-      <c r="B15" s="347"/>
+      <c r="A15" s="344"/>
+      <c r="B15" s="344"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
@@ -18483,10 +18478,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="328" t="s">
+      <c r="A19" s="325" t="s">
         <v>1238</v>
       </c>
-      <c r="B19" s="328" t="s">
+      <c r="B19" s="325" t="s">
         <v>242</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -18494,10 +18489,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="330" t="s">
+      <c r="A20" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B20" s="330" t="s">
+      <c r="B20" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -18547,18 +18542,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="328" t="s">
+      <c r="A26" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="328" t="s">
+      <c r="B26" s="325" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="331" t="s">
+      <c r="A27" s="328" t="s">
         <v>731</v>
       </c>
-      <c r="B27" s="328" t="s">
+      <c r="B27" s="325" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18686,10 +18681,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
@@ -18958,28 +18953,28 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="323" t="s">
+      <c r="A6" s="320" t="s">
         <v>2169</v>
       </c>
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="320" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="329" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="362"/>
-      <c r="B8" s="362"/>
+      <c r="A8" s="358"/>
+      <c r="B8" s="358"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="362"/>
-      <c r="B9" s="362"/>
+      <c r="A9" s="358"/>
+      <c r="B9" s="358"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="124" t="s">
@@ -19006,8 +19001,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="354"/>
-      <c r="B13" s="354"/>
+      <c r="A13" s="350"/>
+      <c r="B13" s="350"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -19163,18 +19158,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="323" t="s">
+      <c r="A6" s="320" t="s">
         <v>2169</v>
       </c>
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="320" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="329" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="329" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19219,12 +19214,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="354"/>
-      <c r="B13" s="354"/>
+      <c r="A13" s="350"/>
+      <c r="B13" s="350"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="354"/>
-      <c r="B14" s="354"/>
+      <c r="A14" s="350"/>
+      <c r="B14" s="350"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="187" t="s">
@@ -19376,10 +19371,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="364" t="s">
+      <c r="A32" s="360" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="364" t="s">
+      <c r="B32" s="360" t="s">
         <v>217</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -19387,15 +19382,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="365"/>
-      <c r="B33" s="365"/>
+      <c r="A33" s="361"/>
+      <c r="B33" s="361"/>
       <c r="C33" s="22" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="366"/>
-      <c r="B34" s="366"/>
+      <c r="A34" s="362"/>
+      <c r="B34" s="362"/>
       <c r="C34" s="22" t="s">
         <v>1280</v>
       </c>
@@ -19707,8 +19702,8 @@
   <sheetPr codeName="Лист16"/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19771,16 +19766,20 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="346"/>
-      <c r="B9" s="346"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -19820,8 +19819,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -19913,8 +19916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19986,8 +19989,12 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="59" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -20027,11 +20034,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
-        <v>773</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>783</v>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -20118,19 +20125,19 @@
       <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="329" t="s">
+      <c r="A24" s="326" t="s">
         <v>2224</v>
       </c>
-      <c r="B24" s="329" t="s">
+      <c r="B24" s="326" t="s">
         <v>2223</v>
       </c>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="330" t="s">
+      <c r="A25" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B25" s="330" t="s">
+      <c r="B25" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C25" s="23"/>
@@ -20271,7 +20278,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20335,16 +20342,20 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="346"/>
-      <c r="B9" s="346"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -20379,8 +20390,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -20437,8 +20452,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="277"/>
-      <c r="B22" s="277"/>
+      <c r="A22" s="275"/>
+      <c r="B22" s="275"/>
       <c r="C22" t="s">
         <v>1910</v>
       </c>
@@ -20466,8 +20481,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="277"/>
-      <c r="B25" s="277"/>
+      <c r="A25" s="275"/>
+      <c r="B25" s="275"/>
       <c r="C25" t="s">
         <v>1912</v>
       </c>
@@ -20481,10 +20496,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="338" t="s">
+      <c r="A27" s="335" t="s">
         <v>2231</v>
       </c>
-      <c r="B27" s="338" t="s">
+      <c r="B27" s="335" t="s">
         <v>2232</v>
       </c>
     </row>
@@ -20496,10 +20511,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20563,16 +20578,20 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="346"/>
-      <c r="B9" s="346"/>
+      <c r="A9" s="59" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -20612,27 +20631,37 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="s">
-        <v>773</v>
+        <v>1094</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>783</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C15" s="244" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="59" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="244" t="s">
-        <v>532</v>
-      </c>
+      <c r="A16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="244"/>
       <c r="D16" s="244"/>
       <c r="E16" s="244"/>
       <c r="F16" s="22"/>
@@ -20640,41 +20669,39 @@
       <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="244"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
+      <c r="A17" s="176" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B17" s="176" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="176" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B18" s="176" t="s">
-        <v>1418</v>
+      <c r="A18" s="190" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="190" t="s">
+        <v>86</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="190" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" s="190" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>1429</v>
@@ -20683,10 +20710,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="190" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="B20" s="190" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>1429</v>
@@ -20695,34 +20722,33 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="190" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="B21" s="190" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1429</v>
+        <v>1442</v>
       </c>
       <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="190" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="190" t="s">
-        <v>217</v>
+      <c r="A22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D22" s="22"/>
+        <v>1433</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>1433</v>
@@ -20730,10 +20756,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>1433</v>
@@ -20741,10 +20767,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>140</v>
+        <v>598</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>595</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>1433</v>
@@ -20752,44 +20778,45 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>595</v>
+        <v>236</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>236</v>
+      <c r="A27" s="190" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="190" t="s">
+        <v>165</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>1433</v>
-      </c>
+        <v>1426</v>
+      </c>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="190" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="190" t="s">
-        <v>165</v>
+      <c r="A28" s="15" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>1282</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>1426</v>
+        <v>1441</v>
       </c>
       <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>1441</v>
@@ -20798,10 +20825,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>1441</v>
@@ -20809,235 +20836,223 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>1287</v>
+      <c r="A31" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>1441</v>
+        <v>1493</v>
       </c>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>93</v>
+        <v>1068</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>1493</v>
+        <v>1427</v>
       </c>
       <c r="D32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>1427</v>
-      </c>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="327" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B33" s="327" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C33" s="186"/>
       <c r="D33" s="22"/>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="330" t="s">
-        <v>2214</v>
-      </c>
-      <c r="B34" s="330" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C34" s="186"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>1832</v>
+      </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D35" s="22"/>
+      <c r="A35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>12</v>
+      <c r="A36" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>683</v>
-      </c>
+      <c r="A37" s="15" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C39" s="22"/>
+      <c r="A39" s="84" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B39" s="84" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>1423</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="84" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B40" s="84" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>1423</v>
-      </c>
+      <c r="A40" s="239" t="s">
+        <v>733</v>
+      </c>
+      <c r="B40" s="239" t="s">
+        <v>679</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="239" t="s">
-        <v>733</v>
-      </c>
-      <c r="B41" s="239" t="s">
-        <v>679</v>
+      <c r="A41" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>741</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>749</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>741</v>
+      <c r="A42" s="63" t="s">
+        <v>751</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>275</v>
       </c>
       <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="63" t="s">
-        <v>751</v>
-      </c>
-      <c r="B43" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="C43" s="22"/>
+      <c r="A43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>61</v>
-      </c>
+      <c r="A44" s="63" t="s">
+        <v>731</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="63" t="s">
-        <v>731</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>136</v>
+      <c r="A45" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>356</v>
+      <c r="A46" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C47" s="22"/>
+      <c r="A47" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
         <v>1904</v>
       </c>
     </row>
@@ -21053,7 +21068,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21127,8 +21142,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -21154,20 +21173,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="190" t="s">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B14" s="190" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="173" customFormat="1" x14ac:dyDescent="0.2">
@@ -21198,7 +21217,7 @@
       <c r="G16" s="126"/>
       <c r="H16" s="126"/>
     </row>
-    <row r="17" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="257" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="190" t="s">
         <v>8</v>
       </c>
@@ -21214,7 +21233,7 @@
       <c r="G17" s="126"/>
       <c r="H17" s="126"/>
     </row>
-    <row r="18" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="257" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>171</v>
       </c>
@@ -21228,7 +21247,7 @@
       <c r="G18" s="126"/>
       <c r="H18" s="126"/>
     </row>
-    <row r="19" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="257" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>204</v>
       </c>
@@ -21242,7 +21261,7 @@
       <c r="G19" s="126"/>
       <c r="H19" s="126"/>
     </row>
-    <row r="20" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="257" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>214</v>
       </c>
@@ -21256,7 +21275,7 @@
       <c r="G20" s="126"/>
       <c r="H20" s="126"/>
     </row>
-    <row r="21" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="257" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58" t="s">
         <v>258</v>
       </c>
@@ -21270,7 +21289,7 @@
       <c r="G21" s="126"/>
       <c r="H21" s="126"/>
     </row>
-    <row r="22" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
         <v>753</v>
       </c>
@@ -21284,7 +21303,7 @@
       <c r="G22" s="126"/>
       <c r="H22" s="126"/>
     </row>
-    <row r="23" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>1343</v>
       </c>
@@ -21298,7 +21317,7 @@
       <c r="G23" s="126"/>
       <c r="H23" s="126"/>
     </row>
-    <row r="24" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>2129</v>
       </c>
@@ -21312,11 +21331,11 @@
       <c r="G24" s="126"/>
       <c r="H24" s="126"/>
     </row>
-    <row r="25" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="322" t="s">
+    <row r="25" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="319" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="322" t="s">
+      <c r="B25" s="319" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="126" t="s">
@@ -21328,11 +21347,11 @@
       <c r="G25" s="126"/>
       <c r="H25" s="126"/>
     </row>
-    <row r="26" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="322" t="s">
+    <row r="26" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="319" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="322" t="s">
+      <c r="B26" s="319" t="s">
         <v>170</v>
       </c>
       <c r="C26" s="126" t="s">
@@ -21344,11 +21363,11 @@
       <c r="G26" s="126"/>
       <c r="H26" s="126"/>
     </row>
-    <row r="27" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="322" t="s">
+    <row r="27" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="319" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="322" t="s">
+      <c r="B27" s="319" t="s">
         <v>129</v>
       </c>
       <c r="C27" s="126" t="s">
@@ -21360,11 +21379,11 @@
       <c r="G27" s="126"/>
       <c r="H27" s="126"/>
     </row>
-    <row r="28" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="322" t="s">
+    <row r="28" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="319" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="322" t="s">
+      <c r="B28" s="319" t="s">
         <v>81</v>
       </c>
       <c r="C28" s="126" t="s">
@@ -21376,11 +21395,11 @@
       <c r="G28" s="126"/>
       <c r="H28" s="126"/>
     </row>
-    <row r="29" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="322" t="s">
+    <row r="29" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="319" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="322" t="s">
+      <c r="B29" s="319" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="126" t="s">
@@ -21392,11 +21411,11 @@
       <c r="G29" s="126"/>
       <c r="H29" s="126"/>
     </row>
-    <row r="30" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="322" t="s">
+    <row r="30" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="319" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="322" t="s">
+      <c r="B30" s="319" t="s">
         <v>84</v>
       </c>
       <c r="C30" s="126" t="s">
@@ -21408,7 +21427,7 @@
       <c r="G30" s="126"/>
       <c r="H30" s="126"/>
     </row>
-    <row r="31" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="245" t="s">
         <v>2222</v>
       </c>
@@ -21424,11 +21443,11 @@
       <c r="G31" s="126"/>
       <c r="H31" s="126"/>
     </row>
-    <row r="32" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="321" t="s">
+    <row r="32" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="318" t="s">
         <v>937</v>
       </c>
-      <c r="B32" s="321" t="s">
+      <c r="B32" s="318" t="s">
         <v>164</v>
       </c>
       <c r="C32" s="126" t="s">
@@ -21440,11 +21459,11 @@
       <c r="G32" s="126"/>
       <c r="H32" s="126"/>
     </row>
-    <row r="33" spans="1:8" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="321" t="s">
+    <row r="33" spans="1:8" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="318" t="s">
         <v>2148</v>
       </c>
-      <c r="B33" s="321" t="s">
+      <c r="B33" s="318" t="s">
         <v>165</v>
       </c>
       <c r="C33" s="126" t="s">
@@ -21474,7 +21493,7 @@
       </c>
       <c r="C35" s="126"/>
     </row>
-    <row r="36" spans="1:8" s="302" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="299" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>182</v>
       </c>
@@ -21514,7 +21533,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21585,8 +21604,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -21621,8 +21644,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -21653,50 +21680,50 @@
       <c r="B18" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="259" t="s">
+      <c r="A20" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="259" t="s">
+      <c r="B20" s="258" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="260" t="s">
+      <c r="B21" s="259" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="260" t="s">
+      <c r="A22" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="260" t="s">
+      <c r="B22" s="259" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="260" t="s">
+      <c r="A23" s="259" t="s">
         <v>1068</v>
       </c>
-      <c r="B23" s="260" t="s">
+      <c r="B23" s="259" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="260" t="s">
+      <c r="A24" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="260" t="s">
+      <c r="B24" s="259" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="260" t="s">
+      <c r="A25" s="259" t="s">
         <v>1157</v>
       </c>
-      <c r="B25" s="260" t="s">
+      <c r="B25" s="259" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -21834,10 +21861,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="330" t="s">
+      <c r="A14" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B14" s="330" t="s">
+      <c r="B14" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -21943,7 +21970,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22014,8 +22041,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -22050,8 +22081,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -22082,74 +22117,74 @@
       <c r="B18" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="310" t="s">
+      <c r="A20" s="307" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="310" t="s">
+      <c r="B20" s="307" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="311" t="s">
+      <c r="A21" s="308" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="311" t="s">
+      <c r="B21" s="308" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="311" t="s">
+      <c r="A22" s="308" t="s">
         <v>843</v>
       </c>
-      <c r="B22" s="311" t="s">
+      <c r="B22" s="308" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="311" t="s">
+      <c r="A23" s="308" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="311" t="s">
+      <c r="B23" s="308" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="311" t="s">
+      <c r="A24" s="308" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="318" t="s">
+      <c r="B24" s="315" t="s">
         <v>2147</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="311" t="s">
+      <c r="A25" s="308" t="s">
         <v>730</v>
       </c>
-      <c r="B25" s="311" t="s">
+      <c r="B25" s="308" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="311" t="s">
+      <c r="A26" s="308" t="s">
         <v>853</v>
       </c>
-      <c r="B26" s="311" t="s">
+      <c r="B26" s="308" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="311" t="s">
+      <c r="A27" s="308" t="s">
         <v>1821</v>
       </c>
-      <c r="B27" s="311" t="s">
+      <c r="B27" s="308" t="s">
         <v>1821</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="311" t="s">
+      <c r="A28" s="308" t="s">
         <v>863</v>
       </c>
-      <c r="B28" s="311" t="s">
+      <c r="B28" s="308" t="s">
         <v>863</v>
       </c>
       <c r="C28" t="s">
@@ -22157,35 +22192,35 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="311" t="s">
+      <c r="A29" s="308" t="s">
         <v>1822</v>
       </c>
-      <c r="B29" s="311" t="s">
+      <c r="B29" s="308" t="s">
         <v>1822</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="311" t="s">
+      <c r="A30" s="308" t="s">
         <v>1823</v>
       </c>
-      <c r="B30" s="311" t="s">
+      <c r="B30" s="308" t="s">
         <v>1823</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="311" t="s">
+      <c r="A31" s="308" t="s">
         <v>1824</v>
       </c>
-      <c r="B31" s="311" t="s">
+      <c r="B31" s="308" t="s">
         <v>1824</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="311" t="s">
+      <c r="A32" s="308" t="s">
         <v>1157</v>
       </c>
-      <c r="B32" s="311" t="s">
+      <c r="B32" s="308" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -22197,10 +22232,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22273,8 +22308,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -22309,169 +22348,181 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="352"/>
-      <c r="B14" s="352"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="325" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="325" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C16" s="157" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
         <v>1067</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="239" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="239" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="239" t="s">
+      <c r="B19" s="239" t="s">
         <v>2173</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C19" s="157" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C19" s="288"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="288"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="285"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="C20" s="288"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="288"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="285"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="297"/>
-      <c r="B23" s="297"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="107" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="294"/>
+      <c r="B24" s="294"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="107" t="s">
         <v>2053</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>1186</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B28" s="18" t="s">
         <v>1183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="B28" s="298" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="295" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="84" t="s">
         <v>1236</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B30" s="84" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>2054</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>202</v>
       </c>
     </row>
@@ -22486,7 +22537,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A23" sqref="A23:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22558,8 +22609,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -22594,87 +22649,91 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="D15" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B17" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>1128</v>
       </c>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>1067</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>1059</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C18" s="22" t="s">
         <v>1129</v>
       </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>1676</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>1464</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -22732,7 +22791,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22804,8 +22863,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -22840,16 +22903,28 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="347"/>
-      <c r="B15" s="347"/>
+      <c r="A15" s="124" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="124" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="347"/>
-      <c r="B16" s="347"/>
+      <c r="A16" s="325" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="325" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -22860,8 +22935,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="350"/>
-      <c r="B18" s="350"/>
+      <c r="A18" s="347"/>
+      <c r="B18" s="347"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -22916,10 +22991,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22986,10 +23061,10 @@
       <c r="B7" s="124" t="s">
         <v>2168</v>
       </c>
-      <c r="C7" s="308"/>
-      <c r="D7" s="308"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="158" t="s">
@@ -22998,18 +23073,22 @@
       <c r="B8" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="308"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="308"/>
-      <c r="F8" s="308"/>
+      <c r="C8" s="305"/>
+      <c r="D8" s="305"/>
+      <c r="E8" s="305"/>
+      <c r="F8" s="305"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
-      <c r="C9" s="308"/>
-      <c r="D9" s="308"/>
-      <c r="E9" s="308"/>
-      <c r="F9" s="308"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
+      <c r="C9" s="305"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="305"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
@@ -23028,9 +23107,9 @@
         <v>101</v>
       </c>
       <c r="C11" s="126"/>
-      <c r="D11" s="308"/>
-      <c r="E11" s="308"/>
-      <c r="F11" s="308"/>
+      <c r="D11" s="305"/>
+      <c r="E11" s="305"/>
+      <c r="F11" s="305"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
@@ -23049,12 +23128,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="353"/>
-      <c r="B14" s="353"/>
-      <c r="C14" s="308"/>
-      <c r="D14" s="308"/>
-      <c r="E14" s="308"/>
-      <c r="F14" s="308"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="305"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="305"/>
+      <c r="F14" s="305"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
@@ -23066,9 +23149,9 @@
       <c r="C15" s="126" t="s">
         <v>532</v>
       </c>
-      <c r="D15" s="308"/>
-      <c r="E15" s="308"/>
-      <c r="F15" s="308"/>
+      <c r="D15" s="305"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="305"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -23091,22 +23174,29 @@
       <c r="F17" s="131"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="283"/>
-      <c r="B18" s="283"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="284"/>
-      <c r="E18" s="284"/>
-      <c r="F18" s="284"/>
+      <c r="A18" s="176" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B18" s="176" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="176" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B19" s="176" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>1443</v>
+      <c r="A19" s="195" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="195" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>1957</v>
       </c>
       <c r="D19" s="126"/>
       <c r="E19" s="126"/>
@@ -23114,325 +23204,294 @@
       <c r="G19" s="50"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="195" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="195" t="s">
-        <v>1956</v>
+      <c r="A20" s="281" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B20" s="281" t="s">
+        <v>1951</v>
       </c>
       <c r="C20" s="126" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="50"/>
+        <v>1959</v>
+      </c>
+      <c r="D20" s="282"/>
+      <c r="E20" s="282"/>
+      <c r="F20" s="282"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="285"/>
-      <c r="B21" s="285"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="284"/>
-      <c r="E21" s="284"/>
-      <c r="F21" s="284"/>
+      <c r="A21" s="59" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C21" s="126" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D21" s="282"/>
+      <c r="E21" s="282"/>
+      <c r="F21" s="282"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="283" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B22" s="283" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C22" s="126" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D22" s="284"/>
-      <c r="E22" s="284"/>
-      <c r="F22" s="284"/>
+      <c r="A22" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="59" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C23" s="126" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D23" s="284"/>
-      <c r="E23" s="284"/>
-      <c r="F23" s="284"/>
+      <c r="A23" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="268"/>
-      <c r="B24" s="268"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="284"/>
-      <c r="F24" s="284"/>
+      <c r="A24" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>379</v>
-      </c>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A28" s="22" t="s">
         <v>1437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="126" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="126" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="126" t="s">
-        <v>1598</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="126" t="s">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="126" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="126" t="s">
         <v>1953</v>
       </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="282"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="282"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="282"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="284"/>
+        <v>130</v>
+      </c>
+      <c r="C39" s="282"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="284"/>
+        <v>17</v>
+      </c>
+      <c r="C40" s="282"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="284"/>
+        <v>56</v>
+      </c>
+      <c r="C41" s="282" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="284"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="284"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="284" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="284"/>
-    </row>
-    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="194" t="s">
+      <c r="C42" s="282"/>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="B46" s="194" t="s">
+      <c r="B43" s="194" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="284"/>
+      <c r="C43" s="282"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="126" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="193" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="193" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="193" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="193" t="s">
+        <v>1934</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="126" t="s">
-        <v>1958</v>
+      <c r="A48" s="193" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="193" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="193" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="B49" s="193" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="193" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="193" t="s">
-        <v>1934</v>
+      <c r="A50" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="124" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="193" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="193" t="s">
-        <v>1935</v>
+      <c r="A51" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="124" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="193" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" s="193" t="s">
-        <v>1936</v>
+      <c r="A52" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="124" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="124" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="124" t="s">
-        <v>1937</v>
+        <v>598</v>
+      </c>
+      <c r="B53" s="222" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="124" t="s">
-        <v>1938</v>
+        <v>597</v>
+      </c>
+      <c r="B54" s="222" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="124" t="s">
-        <v>1939</v>
+      <c r="A55" s="193" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="193" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="124" t="s">
-        <v>598</v>
-      </c>
-      <c r="B56" s="222" t="s">
-        <v>1940</v>
+        <v>1283</v>
+      </c>
+      <c r="B56" s="124" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="124" t="s">
-        <v>597</v>
-      </c>
-      <c r="B57" s="222" t="s">
-        <v>1941</v>
+        <v>1284</v>
+      </c>
+      <c r="B57" s="124" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="193" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="193" t="s">
-        <v>736</v>
+      <c r="A58" s="124" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B58" s="124" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="124" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B59" s="124" t="s">
-        <v>1942</v>
+      <c r="A59" s="212" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="212" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="124" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B60" s="124" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="124" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B61" s="124" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="212" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="212" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="212" t="s">
+      <c r="A60" s="212" t="s">
         <v>1068</v>
       </c>
-      <c r="B63" s="212" t="s">
+      <c r="B60" s="212" t="s">
         <v>737</v>
       </c>
     </row>
@@ -23448,7 +23507,7 @@
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23506,8 +23565,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="334"/>
-      <c r="B8" s="334"/>
+      <c r="A8" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B8" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -23550,29 +23613,33 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="347"/>
-      <c r="B13" s="347"/>
+      <c r="A13" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="190" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>1039</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="190" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="190" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -23663,7 +23730,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23734,8 +23801,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -23996,7 +24067,7 @@
   <dimension ref="A2:D34"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24062,8 +24133,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -24098,66 +24173,70 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="193" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="190" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
         <v>1238</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B16" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>1067</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>1744</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>1745</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>1135</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>1136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="190" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="190" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -24169,10 +24248,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B23" s="330" t="s">
+      <c r="B23" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -24303,7 +24382,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24374,8 +24453,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -24529,7 +24612,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24600,8 +24683,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -24918,7 +25005,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24988,8 +25075,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -25170,7 +25261,7 @@
   <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25179,7 +25270,7 @@
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -25187,7 +25278,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
@@ -25195,7 +25286,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -25203,7 +25294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
@@ -25211,7 +25302,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>181</v>
       </c>
@@ -25219,7 +25310,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
         <v>2169</v>
       </c>
@@ -25227,7 +25318,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="158" t="s">
         <v>49</v>
       </c>
@@ -25235,11 +25326,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>72</v>
       </c>
@@ -25247,7 +25342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="124" t="s">
         <v>99</v>
       </c>
@@ -25255,7 +25350,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -25263,7 +25358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -25271,45 +25366,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="363" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="363" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="190" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="190" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="190" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="190" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B17" s="190" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>1621</v>
+        <v>1588</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -25379,8 +25471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25451,8 +25543,12 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="346" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" s="346" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -25487,8 +25583,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="363" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="363" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -25532,138 +25632,138 @@
       <c r="B19" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="266" t="s">
+      <c r="A21" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="266" t="s">
+      <c r="B21" s="265" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="267" t="s">
+      <c r="A22" s="266" t="s">
         <v>610</v>
       </c>
-      <c r="B22" s="267" t="s">
+      <c r="B22" s="266" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="267" t="s">
+      <c r="A23" s="266" t="s">
         <v>612</v>
       </c>
-      <c r="B23" s="267" t="s">
+      <c r="B23" s="266" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="267" t="s">
+      <c r="A24" s="266" t="s">
         <v>614</v>
       </c>
-      <c r="B24" s="267" t="s">
+      <c r="B24" s="266" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="267" t="s">
+      <c r="A25" s="266" t="s">
         <v>615</v>
       </c>
-      <c r="B25" s="267" t="s">
+      <c r="B25" s="266" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="267" t="s">
+      <c r="A26" s="266" t="s">
         <v>617</v>
       </c>
-      <c r="B26" s="267" t="s">
+      <c r="B26" s="266" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="267" t="s">
+      <c r="A27" s="266" t="s">
         <v>618</v>
       </c>
-      <c r="B27" s="267" t="s">
+      <c r="B27" s="266" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="267" t="s">
+      <c r="A28" s="266" t="s">
         <v>620</v>
       </c>
-      <c r="B28" s="267" t="s">
+      <c r="B28" s="266" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="267" t="s">
+      <c r="A29" s="266" t="s">
         <v>1164</v>
       </c>
-      <c r="B29" s="267" t="s">
+      <c r="B29" s="266" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="267" t="s">
+      <c r="A30" s="266" t="s">
         <v>622</v>
       </c>
-      <c r="B30" s="267" t="s">
+      <c r="B30" s="266" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="267" t="s">
+      <c r="A31" s="266" t="s">
         <v>623</v>
       </c>
-      <c r="B31" s="267" t="s">
+      <c r="B31" s="266" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="267" t="s">
+      <c r="A32" s="266" t="s">
         <v>624</v>
       </c>
-      <c r="B32" s="267" t="s">
+      <c r="B32" s="266" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="267" t="s">
+      <c r="A33" s="266" t="s">
         <v>626</v>
       </c>
-      <c r="B33" s="267" t="s">
+      <c r="B33" s="266" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="267" t="s">
+      <c r="A34" s="266" t="s">
         <v>1854</v>
       </c>
-      <c r="B34" s="267" t="s">
+      <c r="B34" s="266" t="s">
         <v>1854</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="267" t="s">
+      <c r="A35" s="266" t="s">
         <v>1162</v>
       </c>
-      <c r="B35" s="267" t="s">
+      <c r="B35" s="266" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="267" t="s">
+      <c r="A36" s="266" t="s">
         <v>1163</v>
       </c>
-      <c r="B36" s="267" t="s">
+      <c r="B36" s="266" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="267" t="s">
+      <c r="A37" s="266" t="s">
         <v>1855</v>
       </c>
-      <c r="B37" s="267" t="s">
+      <c r="B37" s="266" t="s">
         <v>1856</v>
       </c>
       <c r="C37" t="s">
@@ -25671,10 +25771,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="267" t="s">
+      <c r="A38" s="266" t="s">
         <v>1857</v>
       </c>
-      <c r="B38" s="267" t="s">
+      <c r="B38" s="266" t="s">
         <v>1858</v>
       </c>
       <c r="C38" t="s">
@@ -25682,10 +25782,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="267" t="s">
+      <c r="A39" s="266" t="s">
         <v>1859</v>
       </c>
-      <c r="B39" s="267" t="s">
+      <c r="B39" s="266" t="s">
         <v>1860</v>
       </c>
       <c r="C39" t="s">
@@ -25693,10 +25793,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="267" t="s">
+      <c r="A40" s="266" t="s">
         <v>1861</v>
       </c>
-      <c r="B40" s="267" t="s">
+      <c r="B40" s="266" t="s">
         <v>1862</v>
       </c>
       <c r="C40" t="s">
@@ -25704,10 +25804,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="267" t="s">
+      <c r="A41" s="266" t="s">
         <v>1863</v>
       </c>
-      <c r="B41" s="267" t="s">
+      <c r="B41" s="266" t="s">
         <v>1863</v>
       </c>
       <c r="C41" t="s">
@@ -25790,8 +25890,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -25826,8 +25926,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -25867,58 +25967,58 @@
       <c r="B18" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="263" t="s">
+      <c r="A20" s="262" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="262" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="264" t="s">
+      <c r="A21" s="263" t="s">
         <v>1843</v>
       </c>
-      <c r="B21" s="264" t="s">
+      <c r="B21" s="263" t="s">
         <v>1844</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="264" t="s">
+      <c r="A22" s="263" t="s">
         <v>1845</v>
       </c>
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="263" t="s">
         <v>1845</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="264" t="s">
+      <c r="A23" s="263" t="s">
         <v>1846</v>
       </c>
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="263" t="s">
         <v>1846</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="264" t="s">
+      <c r="A24" s="263" t="s">
         <v>1847</v>
       </c>
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="263" t="s">
         <v>1848</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="264" t="s">
+      <c r="A25" s="263" t="s">
         <v>1849</v>
       </c>
-      <c r="B25" s="264" t="s">
+      <c r="B25" s="263" t="s">
         <v>1850</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="264" t="s">
+      <c r="A26" s="263" t="s">
         <v>1851</v>
       </c>
-      <c r="B26" s="264" t="s">
+      <c r="B26" s="263" t="s">
         <v>1852</v>
       </c>
     </row>
@@ -26005,8 +26105,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -26041,8 +26141,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -26203,8 +26303,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -26239,8 +26339,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -26295,10 +26395,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="309" t="s">
+      <c r="A23" s="306" t="s">
         <v>2111</v>
       </c>
-      <c r="B23" s="309" t="s">
+      <c r="B23" s="306" t="s">
         <v>2111</v>
       </c>
     </row>
@@ -26377,8 +26477,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -26416,8 +26516,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="57" t="s">
@@ -26466,10 +26566,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="330" t="s">
+      <c r="A20" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B20" s="330" t="s">
+      <c r="B20" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C20" s="22"/>
@@ -26700,8 +26800,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
@@ -26745,10 +26845,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="330" t="s">
+      <c r="A19" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B19" s="330" t="s">
+      <c r="B19" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -27036,8 +27136,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -27051,10 +27151,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="271" t="s">
+      <c r="A16" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="269" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -27287,8 +27387,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -27515,18 +27615,18 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -27595,10 +27695,10 @@
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="328" t="s">
+      <c r="A17" s="325" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="328" t="s">
+      <c r="B17" s="325" t="s">
         <v>1393</v>
       </c>
       <c r="C17" s="22"/>
@@ -27785,8 +27885,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -28047,8 +28147,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="351"/>
-      <c r="B10" s="351"/>
+      <c r="A10" s="348"/>
+      <c r="B10" s="348"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -28084,8 +28184,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="347"/>
-      <c r="B15" s="347"/>
+      <c r="A15" s="344"/>
+      <c r="B15" s="344"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
@@ -28231,8 +28331,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -28267,8 +28367,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
@@ -28293,10 +28393,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="349" t="s">
+      <c r="A17" s="346" t="s">
         <v>2258</v>
       </c>
-      <c r="B17" s="349" t="s">
+      <c r="B17" s="346" t="s">
         <v>1926</v>
       </c>
       <c r="C17" s="22"/>
@@ -28379,8 +28479,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="296"/>
-      <c r="B25" s="296"/>
+      <c r="A25" s="293"/>
+      <c r="B25" s="293"/>
       <c r="C25" s="22" t="s">
         <v>1086</v>
       </c>
@@ -28499,7 +28599,7 @@
       <c r="B7" s="124" t="s">
         <v>2168</v>
       </c>
-      <c r="C7" s="308"/>
+      <c r="C7" s="305"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="158" t="s">
@@ -28508,12 +28608,12 @@
       <c r="B8" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="308"/>
+      <c r="C8" s="305"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
-      <c r="C9" s="308"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
+      <c r="C9" s="305"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -28530,7 +28630,7 @@
       <c r="B11" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="308"/>
+      <c r="C11" s="305"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -28549,9 +28649,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="354"/>
-      <c r="B14" s="354"/>
-      <c r="C14" s="308"/>
+      <c r="A14" s="350"/>
+      <c r="B14" s="350"/>
+      <c r="C14" s="305"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
@@ -28916,8 +29016,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="351"/>
-      <c r="B10" s="351"/>
+      <c r="A10" s="348"/>
+      <c r="B10" s="348"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="97" t="s">
@@ -28952,8 +29052,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="355"/>
-      <c r="B15" s="355"/>
+      <c r="A15" s="351"/>
+      <c r="B15" s="351"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
@@ -28965,10 +29065,10 @@
       <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="293" t="s">
+      <c r="A17" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="290" t="s">
         <v>129</v>
       </c>
       <c r="C17" s="157" t="s">
@@ -29008,10 +29108,10 @@
       <c r="H19" s="157"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="290" t="s">
+      <c r="A20" s="287" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="290" t="s">
+      <c r="B20" s="287" t="s">
         <v>144</v>
       </c>
       <c r="C20" s="157" t="s">
@@ -29024,10 +29124,10 @@
       <c r="H20" s="157"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="290" t="s">
+      <c r="A21" s="287" t="s">
         <v>1839</v>
       </c>
-      <c r="B21" s="290" t="s">
+      <c r="B21" s="287" t="s">
         <v>1668</v>
       </c>
       <c r="C21" s="157" t="s">
@@ -29040,10 +29140,10 @@
       <c r="H21" s="157"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="290" t="s">
+      <c r="A22" s="287" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="290" t="s">
+      <c r="B22" s="287" t="s">
         <v>197</v>
       </c>
       <c r="C22" s="157" t="s">
@@ -29056,10 +29156,10 @@
       <c r="H22" s="157"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="290" t="s">
+      <c r="A23" s="287" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="290" t="s">
+      <c r="B23" s="287" t="s">
         <v>199</v>
       </c>
       <c r="C23" s="157" t="s">
@@ -29072,10 +29172,10 @@
       <c r="H23" s="157"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="290" t="s">
+      <c r="A24" s="287" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="287" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="157" t="s">
@@ -29220,8 +29320,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
@@ -29290,10 +29390,10 @@
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="349" t="s">
+      <c r="A17" s="346" t="s">
         <v>2258</v>
       </c>
-      <c r="B17" s="349" t="s">
+      <c r="B17" s="346" t="s">
         <v>1926</v>
       </c>
       <c r="C17" s="22"/>
@@ -29483,8 +29583,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
-      <c r="B9" s="351"/>
+      <c r="A9" s="348"/>
+      <c r="B9" s="348"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
@@ -29520,8 +29620,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="355"/>
-      <c r="B14" s="355"/>
+      <c r="A14" s="351"/>
+      <c r="B14" s="351"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="89" t="s">
@@ -29579,12 +29679,12 @@
       <c r="B20" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="324" t="s">
+      <c r="C20" s="321" t="s">
         <v>801</v>
       </c>
-      <c r="D20" s="288"/>
-      <c r="E20" s="294"/>
-      <c r="F20" s="294"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="291"/>
       <c r="G20" s="157"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -29640,10 +29740,10 @@
       <c r="H24" s="157"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="349" t="s">
+      <c r="A25" s="346" t="s">
         <v>2258</v>
       </c>
-      <c r="B25" s="349" t="s">
+      <c r="B25" s="346" t="s">
         <v>1926</v>
       </c>
       <c r="C25" s="157"/>
@@ -29892,10 +29992,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -29943,10 +30043,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B15" s="330" t="s">
+      <c r="B15" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -30042,10 +30142,10 @@
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="328" t="s">
+      <c r="A25" s="325" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="328" t="s">
+      <c r="B25" s="325" t="s">
         <v>1393</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -30137,10 +30237,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>1108</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -30188,14 +30288,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B15" s="330" t="s">
+      <c r="B15" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -30379,10 +30479,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>1108</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
@@ -30462,10 +30562,10 @@
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="330" t="s">
+      <c r="A17" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B17" s="330" t="s">
+      <c r="B17" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C17" s="22"/>
@@ -30625,7 +30725,7 @@
       <c r="A32" s="165" t="s">
         <v>1341</v>
       </c>
-      <c r="B32" s="304" t="s">
+      <c r="B32" s="301" t="s">
         <v>1338</v>
       </c>
       <c r="C32" s="165" t="s">
@@ -30636,7 +30736,7 @@
       <c r="A33" s="165" t="s">
         <v>1342</v>
       </c>
-      <c r="B33" s="304" t="s">
+      <c r="B33" s="301" t="s">
         <v>1340</v>
       </c>
       <c r="C33" s="165" t="s">
@@ -30724,18 +30824,18 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="336" t="s">
+      <c r="A9" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="336" t="s">
+      <c r="B9" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="349" t="s">
+      <c r="A10" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B10" s="349" t="s">
+      <c r="B10" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -31023,10 +31123,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
@@ -31131,10 +31231,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="330" t="s">
+      <c r="A20" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B20" s="330" t="s">
+      <c r="B20" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C20" s="22"/>
@@ -31321,10 +31421,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>1108</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -31332,8 +31432,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="346"/>
-      <c r="B9" s="346"/>
+      <c r="A9" s="343"/>
+      <c r="B9" s="343"/>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -31369,8 +31469,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="353"/>
-      <c r="B14" s="353"/>
+      <c r="A14" s="349"/>
+      <c r="B14" s="349"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
@@ -31390,10 +31490,10 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="330" t="s">
+      <c r="A16" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B16" s="330" t="s">
+      <c r="B16" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C16" s="22"/>
@@ -31627,10 +31727,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
@@ -31654,10 +31754,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="337" t="s">
+      <c r="A11" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="334" t="s">
         <v>101</v>
       </c>
     </row>
@@ -31680,8 +31780,8 @@
       <c r="D13" s="82"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="355"/>
-      <c r="B14" s="355"/>
+      <c r="A14" s="351"/>
+      <c r="B14" s="351"/>
       <c r="D14" s="82"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -31805,10 +31905,10 @@
       <c r="D24" s="82"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="330" t="s">
+      <c r="A25" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B25" s="330" t="s">
+      <c r="B25" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="D25" s="82"/>
@@ -32028,10 +32128,10 @@
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -32039,8 +32139,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="346"/>
-      <c r="B9" s="346"/>
+      <c r="A9" s="343"/>
+      <c r="B9" s="343"/>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -32052,10 +32152,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="337" t="s">
+      <c r="A11" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="334" t="s">
         <v>101</v>
       </c>
     </row>
@@ -32076,8 +32176,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -32123,10 +32223,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="330" t="s">
+      <c r="A20" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B20" s="330" t="s">
+      <c r="B20" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -32142,10 +32242,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="328" t="s">
+      <c r="A22" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="328" t="s">
+      <c r="B22" s="325" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -32153,10 +32253,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="328" t="s">
+      <c r="A23" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="328" t="s">
+      <c r="B23" s="325" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -32195,10 +32295,10 @@
       <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="331" t="s">
+      <c r="A27" s="328" t="s">
         <v>731</v>
       </c>
-      <c r="B27" s="328" t="s">
+      <c r="B27" s="325" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="24"/>
@@ -32317,10 +32417,10 @@
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -32328,8 +32428,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="346"/>
-      <c r="B9" s="346"/>
+      <c r="A9" s="343"/>
+      <c r="B9" s="343"/>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -32366,8 +32466,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
@@ -32663,16 +32763,16 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="347"/>
-      <c r="B9" s="347"/>
+      <c r="A9" s="344"/>
+      <c r="B9" s="344"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -32707,8 +32807,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="334"/>
-      <c r="B14" s="334"/>
+      <c r="A14" s="331"/>
+      <c r="B14" s="331"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -32752,10 +32852,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="330" t="s">
+      <c r="A19" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B19" s="330" t="s">
+      <c r="B19" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C19" s="22"/>
@@ -32940,10 +33040,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
@@ -33015,26 +33115,26 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="337" t="s">
+      <c r="A16" s="334" t="s">
         <v>675</v>
       </c>
-      <c r="B16" s="337" t="s">
+      <c r="B16" s="334" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="330" t="s">
+      <c r="A17" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B17" s="330" t="s">
+      <c r="B17" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="312" t="s">
+      <c r="A18" s="309" t="s">
         <v>1831</v>
       </c>
-      <c r="B18" s="312" t="s">
+      <c r="B18" s="309" t="s">
         <v>1120</v>
       </c>
       <c r="C18" s="157" t="s">
@@ -33267,10 +33367,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="336" t="s">
+      <c r="A9" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="336" t="s">
+      <c r="B9" s="333" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -33278,8 +33378,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="346"/>
-      <c r="B10" s="346"/>
+      <c r="A10" s="343"/>
+      <c r="B10" s="343"/>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -33292,10 +33392,10 @@
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="337" t="s">
+      <c r="A12" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="337" t="s">
+      <c r="B12" s="334" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="22"/>
@@ -33317,8 +33417,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="357"/>
-      <c r="B15" s="357"/>
+      <c r="A15" s="353"/>
+      <c r="B15" s="353"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="86" t="s">
@@ -33368,18 +33468,18 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="330" t="s">
+      <c r="A21" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B21" s="330" t="s">
+      <c r="B21" s="327" t="s">
         <v>1926</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="312" t="s">
+      <c r="A22" s="309" t="s">
         <v>1831</v>
       </c>
-      <c r="B22" s="312" t="s">
+      <c r="B22" s="309" t="s">
         <v>1120</v>
       </c>
       <c r="C22" s="157" t="s">
@@ -33628,8 +33728,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
       <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33641,10 +33741,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="337" t="s">
+      <c r="A11" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="334" t="s">
         <v>101</v>
       </c>
     </row>
@@ -33665,8 +33765,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
@@ -33852,8 +33952,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -33864,10 +33964,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -33888,8 +33988,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="327"/>
-      <c r="B14" s="327"/>
+      <c r="A14" s="324"/>
+      <c r="B14" s="324"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="198" t="s">
@@ -33936,10 +34036,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="330" t="s">
+      <c r="A20" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B20" s="330" t="s">
+      <c r="B20" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C20" s="24"/>
@@ -34177,18 +34277,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -34346,7 +34446,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="308" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="305" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
         <v>2169</v>
       </c>
@@ -34354,7 +34454,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="308" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="305" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="124" t="s">
         <v>49</v>
       </c>
@@ -34362,11 +34462,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="335" t="s">
+    <row r="9" spans="1:5" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="332" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="332" t="s">
         <v>783</v>
       </c>
     </row>
@@ -34388,11 +34488,11 @@
       <c r="B11" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="313" t="s">
+      <c r="C11" s="310" t="s">
         <v>812</v>
       </c>
-      <c r="D11" s="313"/>
-      <c r="E11" s="313"/>
+      <c r="D11" s="310"/>
+      <c r="E11" s="310"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -34410,9 +34510,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="308" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
+    <row r="14" spans="1:5" s="305" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="344"/>
+      <c r="B14" s="344"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
@@ -34433,7 +34533,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="308" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="305" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>92</v>
       </c>
@@ -34554,8 +34654,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -34566,10 +34666,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -34798,10 +34898,10 @@
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -34852,10 +34952,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="330" t="s">
+      <c r="A17" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B17" s="330" t="s">
+      <c r="B17" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C17" s="24"/>
@@ -34872,10 +34972,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="328" t="s">
+      <c r="A19" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="328" t="s">
+      <c r="B19" s="325" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -34883,10 +34983,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="328" t="s">
+      <c r="A20" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="328" t="s">
+      <c r="B20" s="325" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="24"/>
@@ -34914,10 +35014,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="328" t="s">
+      <c r="A23" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="328" t="s">
+      <c r="B23" s="325" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -34925,10 +35025,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="328" t="s">
         <v>731</v>
       </c>
-      <c r="B24" s="328" t="s">
+      <c r="B24" s="325" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="24"/>
@@ -35067,10 +35167,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -35102,10 +35202,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B15" s="330" t="s">
+      <c r="B15" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C15" s="22"/>
@@ -35380,10 +35480,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -35442,10 +35542,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="330" t="s">
+      <c r="A17" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B17" s="330" t="s">
+      <c r="B17" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C17" s="22"/>
@@ -35665,8 +35765,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -35677,10 +35777,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -35823,8 +35923,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -35835,10 +35935,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -36109,18 +36209,18 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="303" t="s">
+      <c r="A45" s="300" t="s">
         <v>2083</v>
       </c>
-      <c r="B45" s="303" t="s">
+      <c r="B45" s="300" t="s">
         <v>2083</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="303" t="s">
+      <c r="A46" s="300" t="s">
         <v>2100</v>
       </c>
-      <c r="B46" s="303" t="s">
+      <c r="B46" s="300" t="s">
         <v>2100</v>
       </c>
     </row>
@@ -36208,8 +36308,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
@@ -36220,10 +36320,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -36300,122 +36400,122 @@
       <c r="B19" s="87"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="314" t="s">
+      <c r="A21" s="311" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="314" t="s">
+      <c r="B21" s="311" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="315" t="s">
+      <c r="A22" s="312" t="s">
         <v>853</v>
       </c>
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="312" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="315" t="s">
+      <c r="A23" s="312" t="s">
         <v>838</v>
       </c>
-      <c r="B23" s="315" t="s">
+      <c r="B23" s="312" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="315" t="s">
+      <c r="A24" s="312" t="s">
         <v>857</v>
       </c>
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="312" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="315" t="s">
+      <c r="A25" s="312" t="s">
         <v>838</v>
       </c>
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="312" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="315" t="s">
+      <c r="A26" s="312" t="s">
         <v>857</v>
       </c>
-      <c r="B26" s="315" t="s">
+      <c r="B26" s="312" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="315" t="s">
+      <c r="A27" s="312" t="s">
         <v>1626</v>
       </c>
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="312" t="s">
         <v>1627</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="315" t="s">
+      <c r="A28" s="312" t="s">
         <v>1628</v>
       </c>
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="312" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="315" t="s">
+      <c r="A29" s="312" t="s">
         <v>1629</v>
       </c>
-      <c r="B29" s="315" t="s">
+      <c r="B29" s="312" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="315" t="s">
+      <c r="A30" s="312" t="s">
         <v>1631</v>
       </c>
-      <c r="B30" s="315" t="s">
+      <c r="B30" s="312" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="315" t="s">
+      <c r="A31" s="312" t="s">
         <v>1633</v>
       </c>
-      <c r="B31" s="315" t="s">
+      <c r="B31" s="312" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="315" t="s">
+      <c r="A32" s="312" t="s">
         <v>1312</v>
       </c>
-      <c r="B32" s="315" t="s">
+      <c r="B32" s="312" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="315" t="s">
+      <c r="A33" s="312" t="s">
         <v>1310</v>
       </c>
-      <c r="B33" s="315" t="s">
+      <c r="B33" s="312" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="315" t="s">
+      <c r="A34" s="312" t="s">
         <v>1071</v>
       </c>
-      <c r="B34" s="315" t="s">
+      <c r="B34" s="312" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="316" t="s">
+      <c r="A35" s="313" t="s">
         <v>2099</v>
       </c>
-      <c r="B35" s="316" t="s">
+      <c r="B35" s="313" t="s">
         <v>2099</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -36504,8 +36604,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -36516,10 +36616,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -36776,8 +36876,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
@@ -36788,10 +36888,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -36942,18 +37042,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -37191,8 +37291,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -37203,10 +37303,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -37235,8 +37335,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="350"/>
-      <c r="B15" s="350"/>
+      <c r="A15" s="347"/>
+      <c r="B15" s="347"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -37405,8 +37505,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -37418,10 +37518,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -37461,10 +37561,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="330" t="s">
+      <c r="A16" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B16" s="330" t="s">
+      <c r="B16" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C16" s="22"/>
@@ -37695,8 +37795,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -37708,10 +37808,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="22"/>
@@ -37759,10 +37859,10 @@
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="330" t="s">
+      <c r="A16" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B16" s="330" t="s">
+      <c r="B16" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C16" s="180"/>
@@ -37952,8 +38052,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -37964,10 +38064,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -37993,8 +38093,8 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="327"/>
-      <c r="B14" s="327"/>
+      <c r="A14" s="324"/>
+      <c r="B14" s="324"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -38435,8 +38535,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -38447,10 +38547,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -38471,8 +38571,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -38522,7 +38622,7 @@
       <c r="A22" s="105" t="s">
         <v>871</v>
       </c>
-      <c r="B22" s="305" t="s">
+      <c r="B22" s="302" t="s">
         <v>872</v>
       </c>
     </row>
@@ -38530,7 +38630,7 @@
       <c r="A23" s="105" t="s">
         <v>873</v>
       </c>
-      <c r="B23" s="305" t="s">
+      <c r="B23" s="302" t="s">
         <v>874</v>
       </c>
     </row>
@@ -38639,8 +38739,8 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="334"/>
-      <c r="B12" s="334"/>
+      <c r="A12" s="331"/>
+      <c r="B12" s="331"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -38651,10 +38751,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="344" t="s">
+      <c r="A14" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="344" t="s">
+      <c r="B14" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -38675,8 +38775,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="350"/>
-      <c r="B17" s="350"/>
+      <c r="A17" s="347"/>
+      <c r="B17" s="347"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="190" t="s">
@@ -39087,8 +39187,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -39099,10 +39199,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -39123,8 +39223,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -39282,8 +39382,8 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -39294,10 +39394,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -39318,8 +39418,8 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -39467,8 +39567,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -39479,10 +39579,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -39503,8 +39603,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -39755,8 +39855,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="350"/>
-      <c r="B13" s="350"/>
+      <c r="A13" s="347"/>
+      <c r="B13" s="347"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="190" t="s">
@@ -39848,10 +39948,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="327" t="s">
         <v>2214</v>
       </c>
-      <c r="B23" s="330" t="s">
+      <c r="B23" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C23" s="22"/>
@@ -39920,10 +40020,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="331" t="s">
+      <c r="A30" s="328" t="s">
         <v>731</v>
       </c>
-      <c r="B30" s="328" t="s">
+      <c r="B30" s="325" t="s">
         <v>136</v>
       </c>
     </row>
@@ -40066,18 +40166,18 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -40175,10 +40275,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="278" t="s">
         <v>1920</v>
       </c>
-      <c r="B23" s="280" t="s">
+      <c r="B23" s="278" t="s">
         <v>1932</v>
       </c>
       <c r="C23" t="s">
@@ -40186,48 +40286,48 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="281" t="s">
+      <c r="A24" s="279" t="s">
         <v>1921</v>
       </c>
-      <c r="B24" s="281" t="s">
+      <c r="B24" s="279" t="s">
         <v>1921</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="282"/>
-      <c r="B25" s="282"/>
+      <c r="A25" s="280"/>
+      <c r="B25" s="280"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="282"/>
-      <c r="B26" s="282"/>
+      <c r="A26" s="280"/>
+      <c r="B26" s="280"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="282"/>
-      <c r="B27" s="282"/>
+      <c r="A27" s="280"/>
+      <c r="B27" s="280"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="282"/>
-      <c r="B28" s="282"/>
+      <c r="A28" s="280"/>
+      <c r="B28" s="280"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="282"/>
-      <c r="B29" s="282"/>
+      <c r="A29" s="280"/>
+      <c r="B29" s="280"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="282"/>
-      <c r="B30" s="282"/>
+      <c r="A30" s="280"/>
+      <c r="B30" s="280"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="282"/>
-      <c r="B31" s="282"/>
+      <c r="A31" s="280"/>
+      <c r="B31" s="280"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="282"/>
-      <c r="B32" s="282"/>
+      <c r="A32" s="280"/>
+      <c r="B32" s="280"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="282"/>
-      <c r="B33" s="282"/>
+      <c r="A33" s="280"/>
+      <c r="B33" s="280"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -40354,8 +40454,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="190" t="s">
@@ -40416,7 +40516,7 @@
       <c r="A23" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="303" t="s">
         <v>691</v>
       </c>
     </row>
@@ -40440,7 +40540,7 @@
       <c r="A26" s="73" t="s">
         <v>694</v>
       </c>
-      <c r="B26" s="306" t="s">
+      <c r="B26" s="303" t="s">
         <v>696</v>
       </c>
     </row>
@@ -40854,10 +40954,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="287" t="s">
+      <c r="A15" s="284" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="287" t="s">
+      <c r="B15" s="284" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -40966,10 +41066,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="276" t="s">
+      <c r="A29" s="274" t="s">
         <v>1896</v>
       </c>
-      <c r="B29" s="276" t="s">
+      <c r="B29" s="274" t="s">
         <v>1897</v>
       </c>
     </row>
@@ -41147,12 +41247,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="350"/>
-      <c r="B15" s="350"/>
+      <c r="A15" s="347"/>
+      <c r="B15" s="347"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="350"/>
-      <c r="B16" s="350"/>
+      <c r="A16" s="347"/>
+      <c r="B16" s="347"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -41228,10 +41328,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="330" t="s">
+      <c r="A25" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B25" s="330" t="s">
+      <c r="B25" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C25" s="22"/>
@@ -41520,10 +41620,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="157"/>
@@ -41560,13 +41660,13 @@
       <c r="C14" s="157"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="358"/>
-      <c r="B15" s="358"/>
+      <c r="A15" s="354"/>
+      <c r="B15" s="354"/>
       <c r="C15" s="157"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="358"/>
-      <c r="B16" s="358"/>
+      <c r="A16" s="354"/>
+      <c r="B16" s="354"/>
       <c r="C16" s="157"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -41581,10 +41681,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="330" t="s">
+      <c r="A18" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B18" s="330" t="s">
+      <c r="B18" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C18" s="22"/>
@@ -41877,10 +41977,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="328" t="s">
+      <c r="A11" s="325" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="325" t="s">
         <v>101</v>
       </c>
     </row>
@@ -41913,12 +42013,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="350"/>
-      <c r="B15" s="350"/>
+      <c r="A15" s="347"/>
+      <c r="B15" s="347"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="350"/>
-      <c r="B16" s="350"/>
+      <c r="A16" s="347"/>
+      <c r="B16" s="347"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -41983,10 +42083,10 @@
       <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="317" t="s">
+      <c r="A24" s="314" t="s">
         <v>2160</v>
       </c>
-      <c r="B24" s="317" t="s">
+      <c r="B24" s="314" t="s">
         <v>2161</v>
       </c>
       <c r="C24" s="22"/>
@@ -42035,10 +42135,10 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="317" t="s">
+      <c r="A30" s="314" t="s">
         <v>1827</v>
       </c>
-      <c r="B30" s="317" t="s">
+      <c r="B30" s="314" t="s">
         <v>2162</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -42052,10 +42152,10 @@
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="364" t="s">
+      <c r="A31" s="360" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="364" t="s">
+      <c r="B31" s="360" t="s">
         <v>217</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -42076,8 +42176,8 @@
       <c r="P31" s="24"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="365"/>
-      <c r="B32" s="365"/>
+      <c r="A32" s="361"/>
+      <c r="B32" s="361"/>
       <c r="C32" s="22" t="s">
         <v>1279</v>
       </c>
@@ -42096,8 +42196,8 @@
       <c r="P32" s="24"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="366"/>
-      <c r="B33" s="366"/>
+      <c r="A33" s="362"/>
+      <c r="B33" s="362"/>
       <c r="C33" s="22" t="s">
         <v>1280</v>
       </c>
@@ -42116,8 +42216,8 @@
       <c r="P33" s="24"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="325"/>
-      <c r="B34" s="325"/>
+      <c r="A34" s="322"/>
+      <c r="B34" s="322"/>
       <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -42132,10 +42232,10 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="342" t="s">
+      <c r="A36" s="339" t="s">
         <v>1439</v>
       </c>
-      <c r="B36" s="342" t="s">
+      <c r="B36" s="339" t="s">
         <v>1372</v>
       </c>
       <c r="C36" s="22"/>
@@ -42291,13 +42391,13 @@
       <c r="B7" s="124" t="s">
         <v>2168</v>
       </c>
-      <c r="C7" s="288"/>
-      <c r="D7" s="288"/>
-      <c r="E7" s="288"/>
-      <c r="F7" s="288"/>
-      <c r="G7" s="288"/>
-      <c r="H7" s="288"/>
-      <c r="I7" s="288"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
     </row>
     <row r="8" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="124" t="s">
@@ -42306,13 +42406,13 @@
       <c r="B8" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="288"/>
-      <c r="D8" s="288"/>
-      <c r="E8" s="288"/>
-      <c r="F8" s="288"/>
-      <c r="G8" s="288"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="288"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="s">
@@ -42332,43 +42432,43 @@
       <c r="I9" s="225"/>
     </row>
     <row r="10" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="275"/>
-      <c r="B10" s="275"/>
+      <c r="A10" s="273"/>
+      <c r="B10" s="273"/>
       <c r="C10" s="157" t="s">
         <v>1891</v>
       </c>
-      <c r="D10" s="274"/>
-      <c r="E10" s="274"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="274"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="272"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="272"/>
     </row>
     <row r="11" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="275"/>
-      <c r="B11" s="275"/>
+      <c r="A11" s="273"/>
+      <c r="B11" s="273"/>
       <c r="C11" s="157" t="s">
         <v>1892</v>
       </c>
-      <c r="D11" s="274"/>
-      <c r="E11" s="274"/>
-      <c r="F11" s="274"/>
-      <c r="G11" s="274"/>
-      <c r="H11" s="274"/>
-      <c r="I11" s="274"/>
+      <c r="D11" s="272"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="272"/>
     </row>
     <row r="12" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="275"/>
-      <c r="B12" s="275"/>
+      <c r="A12" s="273"/>
+      <c r="B12" s="273"/>
       <c r="C12" s="157" t="s">
         <v>1893</v>
       </c>
-      <c r="D12" s="274"/>
-      <c r="E12" s="274"/>
-      <c r="F12" s="274"/>
-      <c r="G12" s="274"/>
-      <c r="H12" s="274"/>
-      <c r="I12" s="274"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="272"/>
+      <c r="H12" s="272"/>
+      <c r="I12" s="272"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
@@ -42386,10 +42486,10 @@
       <c r="I13" s="225"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="330" t="s">
+      <c r="A14" s="327" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="330" t="s">
+      <c r="B14" s="327" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="225"/>
@@ -42448,26 +42548,26 @@
       <c r="I17" s="225"/>
     </row>
     <row r="18" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="359"/>
-      <c r="B18" s="359"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
+      <c r="A18" s="355"/>
+      <c r="B18" s="355"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="285"/>
+      <c r="E18" s="285"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="285"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
     </row>
     <row r="19" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="359"/>
-      <c r="B19" s="359"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="288"/>
-      <c r="H19" s="288"/>
-      <c r="I19" s="288"/>
+      <c r="A19" s="355"/>
+      <c r="B19" s="355"/>
+      <c r="C19" s="285"/>
+      <c r="D19" s="285"/>
+      <c r="E19" s="285"/>
+      <c r="F19" s="285"/>
+      <c r="G19" s="285"/>
+      <c r="H19" s="285"/>
+      <c r="I19" s="285"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="84" t="s">
@@ -42509,12 +42609,12 @@
       <c r="C22" s="157" t="s">
         <v>2157</v>
       </c>
-      <c r="D22" s="261"/>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="261"/>
+      <c r="D22" s="260"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="260"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
@@ -42541,12 +42641,12 @@
         <v>179</v>
       </c>
       <c r="C24" s="157"/>
-      <c r="D24" s="261"/>
-      <c r="E24" s="261"/>
-      <c r="F24" s="261"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="261"/>
-      <c r="I24" s="261"/>
+      <c r="D24" s="260"/>
+      <c r="E24" s="260"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="260"/>
+      <c r="I24" s="260"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
@@ -42571,12 +42671,12 @@
         <v>180</v>
       </c>
       <c r="C26" s="157"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="288"/>
-      <c r="H26" s="288"/>
-      <c r="I26" s="288"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="285"/>
+      <c r="G26" s="285"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="285"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="84" t="s">
@@ -42596,21 +42696,21 @@
       <c r="I27" s="225"/>
     </row>
     <row r="28" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="348" t="s">
+      <c r="A28" s="345" t="s">
         <v>1689</v>
       </c>
-      <c r="B28" s="348" t="s">
+      <c r="B28" s="345" t="s">
         <v>1997</v>
       </c>
       <c r="C28" s="157" t="s">
         <v>1690</v>
       </c>
-      <c r="D28" s="286"/>
-      <c r="E28" s="286"/>
-      <c r="F28" s="286"/>
-      <c r="G28" s="286"/>
-      <c r="H28" s="286"/>
-      <c r="I28" s="286"/>
+      <c r="D28" s="283"/>
+      <c r="E28" s="283"/>
+      <c r="F28" s="283"/>
+      <c r="G28" s="283"/>
+      <c r="H28" s="283"/>
+      <c r="I28" s="283"/>
     </row>
     <row r="29" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
@@ -42622,27 +42722,27 @@
       <c r="C29" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="288"/>
-      <c r="E29" s="288"/>
-      <c r="F29" s="288"/>
-      <c r="G29" s="288"/>
-      <c r="H29" s="288"/>
-      <c r="I29" s="288"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="285"/>
+      <c r="H29" s="285"/>
+      <c r="I29" s="285"/>
     </row>
     <row r="30" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="330" t="s">
+      <c r="A30" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B30" s="330" t="s">
+      <c r="B30" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="288"/>
-      <c r="F30" s="288"/>
-      <c r="G30" s="288"/>
-      <c r="H30" s="288"/>
-      <c r="I30" s="288"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="285"/>
+      <c r="I30" s="285"/>
     </row>
     <row r="31" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
@@ -42654,12 +42754,12 @@
       <c r="C31" s="22" t="s">
         <v>1832</v>
       </c>
-      <c r="D31" s="288"/>
-      <c r="E31" s="288"/>
-      <c r="F31" s="288"/>
-      <c r="G31" s="288"/>
-      <c r="H31" s="288"/>
-      <c r="I31" s="288"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="285"/>
+      <c r="I31" s="285"/>
     </row>
     <row r="32" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
@@ -42671,12 +42771,12 @@
       <c r="C32" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="288"/>
-      <c r="E32" s="288"/>
-      <c r="F32" s="288"/>
-      <c r="G32" s="288"/>
-      <c r="H32" s="288"/>
-      <c r="I32" s="288"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="285"/>
+      <c r="F32" s="285"/>
+      <c r="G32" s="285"/>
+      <c r="H32" s="285"/>
+      <c r="I32" s="285"/>
     </row>
     <row r="33" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
@@ -42686,12 +42786,12 @@
         <v>83</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="288"/>
-      <c r="F33" s="288"/>
-      <c r="G33" s="288"/>
-      <c r="H33" s="288"/>
-      <c r="I33" s="288"/>
+      <c r="D33" s="285"/>
+      <c r="E33" s="285"/>
+      <c r="F33" s="285"/>
+      <c r="G33" s="285"/>
+      <c r="H33" s="285"/>
+      <c r="I33" s="285"/>
     </row>
     <row r="34" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
@@ -42701,12 +42801,12 @@
         <v>679</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="288"/>
-      <c r="F34" s="288"/>
-      <c r="G34" s="288"/>
-      <c r="H34" s="288"/>
-      <c r="I34" s="288"/>
+      <c r="D34" s="285"/>
+      <c r="E34" s="285"/>
+      <c r="F34" s="285"/>
+      <c r="G34" s="285"/>
+      <c r="H34" s="285"/>
+      <c r="I34" s="285"/>
     </row>
     <row r="35" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
@@ -42718,12 +42818,12 @@
       <c r="C35" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="288"/>
-      <c r="E35" s="288"/>
-      <c r="F35" s="288"/>
-      <c r="G35" s="288"/>
-      <c r="H35" s="288"/>
-      <c r="I35" s="288"/>
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="285"/>
+      <c r="G35" s="285"/>
+      <c r="H35" s="285"/>
+      <c r="I35" s="285"/>
     </row>
     <row r="36" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
@@ -42735,12 +42835,12 @@
       <c r="C36" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="288"/>
-      <c r="E36" s="288"/>
-      <c r="F36" s="288"/>
-      <c r="G36" s="288"/>
-      <c r="H36" s="288"/>
-      <c r="I36" s="288"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="285"/>
+      <c r="F36" s="285"/>
+      <c r="G36" s="285"/>
+      <c r="H36" s="285"/>
+      <c r="I36" s="285"/>
     </row>
     <row r="37" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
@@ -42752,12 +42852,12 @@
       <c r="C37" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="288"/>
-      <c r="E37" s="288"/>
-      <c r="F37" s="288"/>
-      <c r="G37" s="288"/>
-      <c r="H37" s="288"/>
-      <c r="I37" s="288"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="285"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="285"/>
+      <c r="H37" s="285"/>
+      <c r="I37" s="285"/>
     </row>
     <row r="38" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
@@ -42767,12 +42867,12 @@
         <v>136</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="288"/>
-      <c r="E38" s="288"/>
-      <c r="F38" s="288"/>
-      <c r="G38" s="288"/>
-      <c r="H38" s="288"/>
-      <c r="I38" s="288"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="285"/>
+      <c r="H38" s="285"/>
+      <c r="I38" s="285"/>
     </row>
     <row r="39" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
@@ -42953,10 +43053,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="330" t="s">
+      <c r="A11" s="327" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="330" t="s">
+      <c r="B11" s="327" t="s">
         <v>101</v>
       </c>
     </row>
@@ -42977,8 +43077,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="124" t="s">
@@ -42992,10 +43092,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="330" t="s">
+      <c r="A16" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B16" s="330" t="s">
+      <c r="B16" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C16" s="22"/>
@@ -43032,10 +43132,10 @@
       <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="331" t="s">
+      <c r="A20" s="328" t="s">
         <v>733</v>
       </c>
-      <c r="B20" s="331" t="s">
+      <c r="B20" s="328" t="s">
         <v>679</v>
       </c>
       <c r="C20" s="24"/>
@@ -43074,10 +43174,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="331" t="s">
+      <c r="A24" s="328" t="s">
         <v>731</v>
       </c>
-      <c r="B24" s="328" t="s">
+      <c r="B24" s="325" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="24"/>
@@ -43214,8 +43314,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -43226,10 +43326,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="330" t="s">
+      <c r="A11" s="327" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="330" t="s">
+      <c r="B11" s="327" t="s">
         <v>101</v>
       </c>
     </row>
@@ -43250,14 +43350,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="350"/>
-      <c r="B14" s="350"/>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="287" t="s">
+      <c r="A15" s="284" t="s">
         <v>2052</v>
       </c>
-      <c r="B15" s="287" t="s">
+      <c r="B15" s="284" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -43833,7 +43933,7 @@
       <c r="A87" s="154" t="s">
         <v>1694</v>
       </c>
-      <c r="B87" s="295" t="s">
+      <c r="B87" s="292" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -43854,82 +43954,82 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="299" t="s">
+      <c r="A90" s="296" t="s">
         <v>439</v>
       </c>
-      <c r="B90" s="299" t="s">
+      <c r="B90" s="296" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="299" t="s">
+      <c r="A91" s="296" t="s">
         <v>440</v>
       </c>
-      <c r="B91" s="299" t="s">
+      <c r="B91" s="296" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="299" t="s">
+      <c r="A92" s="296" t="s">
         <v>441</v>
       </c>
-      <c r="B92" s="299" t="s">
+      <c r="B92" s="296" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="299" t="s">
+      <c r="A93" s="296" t="s">
         <v>1471</v>
       </c>
-      <c r="B93" s="299" t="s">
+      <c r="B93" s="296" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="299" t="s">
+      <c r="A94" s="296" t="s">
         <v>1472</v>
       </c>
-      <c r="B94" s="299" t="s">
+      <c r="B94" s="296" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="299" t="s">
+      <c r="A95" s="296" t="s">
         <v>2090</v>
       </c>
-      <c r="B95" s="299" t="s">
+      <c r="B95" s="296" t="s">
         <v>2094</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="299" t="s">
+      <c r="A96" s="296" t="s">
         <v>2091</v>
       </c>
-      <c r="B96" s="299" t="s">
+      <c r="B96" s="296" t="s">
         <v>2095</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="299" t="s">
+      <c r="A97" s="296" t="s">
         <v>2092</v>
       </c>
-      <c r="B97" s="299" t="s">
+      <c r="B97" s="296" t="s">
         <v>2096</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="299" t="s">
+      <c r="A98" s="296" t="s">
         <v>2093</v>
       </c>
-      <c r="B98" s="299" t="s">
+      <c r="B98" s="296" t="s">
         <v>2097</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="299" t="s">
+      <c r="A99" s="296" t="s">
         <v>1121</v>
       </c>
-      <c r="B99" s="299" t="s">
+      <c r="B99" s="296" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -44187,10 +44287,10 @@
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="330" t="s">
+      <c r="A11" s="327" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="330" t="s">
+      <c r="B11" s="327" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="22"/>
@@ -44235,8 +44335,8 @@
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="343"/>
-      <c r="B15" s="343"/>
+      <c r="A15" s="340"/>
+      <c r="B15" s="340"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -44365,18 +44465,18 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="299" t="s">
+      <c r="A30" s="296" t="s">
         <v>1471</v>
       </c>
-      <c r="B30" s="299" t="s">
+      <c r="B30" s="296" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="299" t="s">
+      <c r="A31" s="296" t="s">
         <v>1472</v>
       </c>
-      <c r="B31" s="299" t="s">
+      <c r="B31" s="296" t="s">
         <v>1472</v>
       </c>
     </row>
@@ -44527,18 +44627,18 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="336" t="s">
+      <c r="A8" s="333" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="336" t="s">
+      <c r="B8" s="333" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="346" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="346" t="s">
         <v>783</v>
       </c>
     </row>
@@ -44605,7 +44705,7 @@
       <c r="B17" s="16" t="s">
         <v>1393</v>
       </c>
-      <c r="C17" s="308" t="s">
+      <c r="C17" s="305" t="s">
         <v>2122</v>
       </c>
     </row>
@@ -44662,10 +44762,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="279" t="s">
+      <c r="A26" s="277" t="s">
         <v>1759</v>
       </c>
-      <c r="B26" s="279" t="s">
+      <c r="B26" s="277" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -44702,18 +44802,18 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="278" t="s">
+      <c r="A31" s="276" t="s">
         <v>1919</v>
       </c>
-      <c r="B31" s="278" t="s">
+      <c r="B31" s="276" t="s">
         <v>1919</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="278" t="s">
+      <c r="A32" s="276" t="s">
         <v>1366</v>
       </c>
-      <c r="B32" s="278" t="s">
+      <c r="B32" s="276" t="s">
         <v>1366</v>
       </c>
     </row>
@@ -44934,26 +45034,26 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="356" t="s">
+      <c r="A60" s="352" t="s">
         <v>2268</v>
       </c>
-      <c r="B60" s="356" t="s">
+      <c r="B60" s="352" t="s">
         <v>2268</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="356" t="s">
+      <c r="A61" s="352" t="s">
         <v>2269</v>
       </c>
-      <c r="B61" s="356" t="s">
+      <c r="B61" s="352" t="s">
         <v>2269</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="356" t="s">
+      <c r="A62" s="352" t="s">
         <v>2270</v>
       </c>
-      <c r="B62" s="356" t="s">
+      <c r="B62" s="352" t="s">
         <v>2270</v>
       </c>
     </row>
@@ -45339,8 +45439,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -45352,10 +45452,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -45376,43 +45476,43 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="355"/>
-      <c r="B14" s="355"/>
+      <c r="A14" s="351"/>
+      <c r="B14" s="351"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="341" t="s">
+      <c r="A15" s="338" t="s">
         <v>2239</v>
       </c>
-      <c r="B15" s="337" t="s">
+      <c r="B15" s="334" t="s">
         <v>2234</v>
       </c>
-      <c r="C15" s="289" t="s">
+      <c r="C15" s="286" t="s">
         <v>2235</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="337" t="s">
+      <c r="A16" s="334" t="s">
         <v>2240</v>
       </c>
-      <c r="B16" s="337" t="s">
+      <c r="B16" s="334" t="s">
         <v>2236</v>
       </c>
       <c r="C16" s="157"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="337" t="s">
+      <c r="A17" s="334" t="s">
         <v>2241</v>
       </c>
-      <c r="B17" s="337" t="s">
+      <c r="B17" s="334" t="s">
         <v>2237</v>
       </c>
       <c r="C17" s="157"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="333" t="s">
+      <c r="A18" s="330" t="s">
         <v>2242</v>
       </c>
-      <c r="B18" s="333" t="s">
+      <c r="B18" s="330" t="s">
         <v>2238</v>
       </c>
       <c r="C18" s="157"/>
@@ -45447,28 +45547,28 @@
       <c r="C21" s="157"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="333" t="s">
+      <c r="A22" s="330" t="s">
         <v>2210</v>
       </c>
-      <c r="B22" s="333" t="s">
+      <c r="B22" s="330" t="s">
         <v>2209</v>
       </c>
       <c r="C22" s="157"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B23" s="330" t="s">
+      <c r="B23" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C23" s="157"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="270" t="s">
+      <c r="A24" s="268" t="s">
         <v>1878</v>
       </c>
-      <c r="B24" s="270" t="s">
+      <c r="B24" s="268" t="s">
         <v>1120</v>
       </c>
       <c r="C24" s="157" t="s">
@@ -45487,7 +45587,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="269" t="s">
+      <c r="A26" s="267" t="s">
         <v>1877</v>
       </c>
       <c r="B26" s="86" t="s">
@@ -45741,10 +45841,10 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="287" t="s">
+      <c r="A19" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="287" t="s">
+      <c r="B19" s="284" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -45763,10 +45863,10 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="330" t="s">
+      <c r="A21" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B21" s="330" t="s">
+      <c r="B21" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C21" s="22"/>
@@ -45983,10 +46083,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="300" t="s">
+      <c r="A46" s="297" t="s">
         <v>390</v>
       </c>
-      <c r="B46" s="300" t="s">
+      <c r="B46" s="297" t="s">
         <v>391</v>
       </c>
       <c r="C46" t="s">
@@ -45994,10 +46094,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="300" t="s">
+      <c r="A47" s="297" t="s">
         <v>2084</v>
       </c>
-      <c r="B47" s="300" t="s">
+      <c r="B47" s="297" t="s">
         <v>2085</v>
       </c>
     </row>
@@ -46066,10 +46166,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="301" t="s">
+      <c r="A56" s="298" t="s">
         <v>1968</v>
       </c>
-      <c r="B56" s="301" t="s">
+      <c r="B56" s="298" t="s">
         <v>2081</v>
       </c>
       <c r="C56" t="s">
@@ -46077,18 +46177,18 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="301" t="s">
+      <c r="A57" s="298" t="s">
         <v>2082</v>
       </c>
-      <c r="B57" s="301" t="s">
+      <c r="B57" s="298" t="s">
         <v>2083</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="301" t="s">
+      <c r="A58" s="298" t="s">
         <v>2086</v>
       </c>
-      <c r="B58" s="301" t="s">
+      <c r="B58" s="298" t="s">
         <v>2087</v>
       </c>
     </row>
@@ -46172,14 +46272,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="344" t="s">
+      <c r="A10" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="344" t="s">
+      <c r="B10" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -46233,10 +46333,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="293" t="s">
+      <c r="A16" s="290" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="293" t="s">
+      <c r="B16" s="290" t="s">
         <v>188</v>
       </c>
       <c r="C16" s="157" t="s">
@@ -46253,17 +46353,17 @@
       <c r="C17" s="157" t="s">
         <v>1375</v>
       </c>
-      <c r="D17" s="289"/>
+      <c r="D17" s="286"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="330" t="s">
+      <c r="A18" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B18" s="330" t="s">
+      <c r="B18" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C18" s="157"/>
-      <c r="D18" s="289"/>
+      <c r="D18" s="286"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="167" t="s">
@@ -46273,7 +46373,7 @@
         <v>1120</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="289"/>
+      <c r="D19" s="286"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
@@ -46283,7 +46383,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="289"/>
+      <c r="D20" s="286"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -46292,10 +46392,10 @@
       <c r="B21" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="291" t="s">
+      <c r="C21" s="288" t="s">
         <v>2027</v>
       </c>
-      <c r="D21" s="289"/>
+      <c r="D21" s="286"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
@@ -46304,8 +46404,8 @@
       <c r="B22" s="15" t="s">
         <v>1687</v>
       </c>
-      <c r="C22" s="291"/>
-      <c r="D22" s="289"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="286"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -46314,8 +46414,8 @@
       <c r="B23" s="15" t="s">
         <v>1688</v>
       </c>
-      <c r="C23" s="291"/>
-      <c r="D23" s="289"/>
+      <c r="C23" s="288"/>
+      <c r="D23" s="286"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
@@ -46325,7 +46425,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="22"/>
-      <c r="D24" s="289"/>
+      <c r="D24" s="286"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
@@ -46335,7 +46435,7 @@
         <v>136</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="289"/>
+      <c r="D25" s="286"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="86" t="s">
@@ -46344,7 +46444,7 @@
       <c r="B26" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="C26" s="291"/>
+      <c r="C26" s="288"/>
       <c r="D26" s="157"/>
       <c r="E26" s="157"/>
       <c r="F26" s="157"/>
@@ -46358,7 +46458,7 @@
       <c r="B27" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="C27" s="292"/>
+      <c r="C27" s="289"/>
       <c r="D27" s="157"/>
       <c r="E27" s="157"/>
       <c r="F27" s="157"/>
@@ -46461,8 +46561,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="331"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -46473,10 +46573,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -46707,10 +46807,10 @@
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="344" t="s">
+      <c r="A12" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="344" t="s">
+      <c r="B12" s="341" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="22"/>
@@ -46734,13 +46834,13 @@
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="327"/>
-      <c r="B15" s="327"/>
+      <c r="A15" s="324"/>
+      <c r="B15" s="324"/>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="327"/>
-      <c r="B16" s="327"/>
+      <c r="A16" s="324"/>
+      <c r="B16" s="324"/>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -46787,10 +46887,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="330" t="s">
+      <c r="A21" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B21" s="330" t="s">
+      <c r="B21" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C21" s="22"/>
@@ -46989,7 +47089,7 @@
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="339" t="s">
+      <c r="A10" s="336" t="s">
         <v>1453</v>
       </c>
       <c r="B10" s="124" t="s">
@@ -47000,8 +47100,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="340"/>
-      <c r="B11" s="334"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="331"/>
       <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -47014,10 +47114,10 @@
       <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="344" t="s">
+      <c r="A13" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="344" t="s">
+      <c r="B13" s="341" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="22"/>
@@ -47041,13 +47141,13 @@
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="327"/>
-      <c r="B16" s="327"/>
+      <c r="A16" s="324"/>
+      <c r="B16" s="324"/>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="327"/>
-      <c r="B17" s="327"/>
+      <c r="A17" s="324"/>
+      <c r="B17" s="324"/>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -47131,10 +47231,10 @@
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="330" t="s">
+      <c r="A26" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B26" s="330" t="s">
+      <c r="B26" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C26" s="22"/>
@@ -47305,7 +47405,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="339" t="s">
+      <c r="A7" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="124" t="s">
@@ -47313,8 +47413,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="340"/>
-      <c r="B8" s="334"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="331"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -47325,10 +47425,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="344" t="s">
+      <c r="A10" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="344" t="s">
+      <c r="B10" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -47554,7 +47654,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="339" t="s">
+      <c r="A7" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="124" t="s">
@@ -47562,8 +47662,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="340"/>
-      <c r="B8" s="334"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="331"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -47574,10 +47674,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="344" t="s">
+      <c r="A10" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="344" t="s">
+      <c r="B10" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -47799,7 +47899,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="339" t="s">
+      <c r="A7" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="124" t="s">
@@ -47807,8 +47907,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="340"/>
-      <c r="B8" s="334"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="331"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -47819,10 +47919,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="344" t="s">
+      <c r="A10" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="344" t="s">
+      <c r="B10" s="341" t="s">
         <v>101</v>
       </c>
     </row>
@@ -47855,8 +47955,8 @@
       <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="360"/>
-      <c r="B14" s="360"/>
+      <c r="A14" s="356"/>
+      <c r="B14" s="356"/>
       <c r="C14" s="180"/>
       <c r="D14" s="22"/>
     </row>
@@ -47978,7 +48078,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="339" t="s">
+      <c r="A8" s="336" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="124" t="s">
@@ -48009,10 +48109,10 @@
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="341" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>101</v>
       </c>
       <c r="C11" s="22"/>
@@ -48036,13 +48136,13 @@
       <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="327"/>
-      <c r="B14" s="327"/>
+      <c r="A14" s="324"/>
+      <c r="B14" s="324"/>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="327"/>
-      <c r="B15" s="327"/>
+      <c r="A15" s="324"/>
+      <c r="B15" s="324"/>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -48094,10 +48194,10 @@
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="330" t="s">
+      <c r="A20" s="327" t="s">
         <v>2258</v>
       </c>
-      <c r="B20" s="330" t="s">
+      <c r="B20" s="327" t="s">
         <v>1926</v>
       </c>
       <c r="C20" s="22"/>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="43" activeTab="44"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="59" activeTab="60"/>
   </bookViews>
   <sheets>
     <sheet name="AboutAccBase" sheetId="31" r:id="rId1"/>
@@ -29422,7 +29422,7 @@
   </sheetPr>
   <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
@@ -34690,7 +34690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>

--- a/AccBaseSpecification_KZ.xlsx
+++ b/AccBaseSpecification_KZ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="24" activeTab="30"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="109" activeTab="113"/>
   </bookViews>
   <sheets>
     <sheet name="AboutAccBase" sheetId="31" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8579" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8575" uniqueCount="2293">
   <si>
     <t>ШтатноеРасписание</t>
   </si>
@@ -5215,15 +5215,6 @@
     <t>для бухсправок</t>
   </si>
   <si>
-    <t>Использовать в проводках</t>
-  </si>
-  <si>
-    <t>UseInEntry</t>
-  </si>
-  <si>
-    <t>Дт/Кт нельзя использовать в проводках, только в плане счетов</t>
-  </si>
-  <si>
     <t>ContractLine</t>
   </si>
   <si>
@@ -5390,15 +5381,6 @@
   </si>
   <si>
     <t>дубликат</t>
-  </si>
-  <si>
-    <t>Оборотный</t>
-  </si>
-  <si>
-    <t>Turnover</t>
-  </si>
-  <si>
-    <t>(можно делать только оборотные счета)</t>
   </si>
   <si>
     <t>субрайон</t>
@@ -6233,9 +6215,6 @@
     <t>расчетный показатель</t>
   </si>
   <si>
-    <t>полный текст доп условия и т.д.</t>
-  </si>
-  <si>
     <t>фото (ссылки) и т.д.</t>
   </si>
   <si>
@@ -7080,6 +7059,24 @@
   </si>
   <si>
     <t>если указан, то это подразделение FaceDepartment</t>
+  </si>
+  <si>
+    <t>скорее дебет, но может быть и кредит</t>
+  </si>
+  <si>
+    <t>Кт/Дт</t>
+  </si>
+  <si>
+    <t>Кредит/Дебет</t>
+  </si>
+  <si>
+    <t>скорее кредит, но может быть и дебет</t>
+  </si>
+  <si>
+    <t>использовать только в плане счетов</t>
+  </si>
+  <si>
+    <t>можно использовать в проводках</t>
   </si>
 </sst>
 </file>
@@ -7713,7 +7710,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8569,6 +8566,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="Гиперссылка" xfId="21" builtinId="8"/>
@@ -8955,7 +8955,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -9048,10 +9048,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
@@ -9134,7 +9134,7 @@
         <v>1368</v>
       </c>
       <c r="C17" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -9216,10 +9216,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -9289,7 +9289,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -9430,15 +9430,15 @@
         <v>29</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -9454,7 +9454,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9467,10 +9467,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -9678,10 +9678,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -9752,7 +9752,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -9828,10 +9828,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="252" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="B26" s="252" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
     </row>
   </sheetData>
@@ -9865,15 +9865,15 @@
         <v>29</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -9889,7 +9889,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -9902,10 +9902,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -9927,7 +9927,7 @@
         <v>764</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="157" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="D15" s="157"/>
       <c r="E15" s="157"/>
@@ -9998,7 +9998,7 @@
         <v>131</v>
       </c>
       <c r="C16" s="157" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="D16" s="157"/>
       <c r="E16" s="157"/>
@@ -10023,7 +10023,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="157" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="D18" s="157"/>
       <c r="E18" s="157"/>
@@ -10034,10 +10034,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="319" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="C19" s="157"/>
       <c r="D19" s="157"/>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="157" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1474</v>
@@ -10257,10 +10257,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -10330,7 +10330,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -10503,10 +10503,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -10542,7 +10542,7 @@
         <v>764</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -10658,10 +10658,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="319" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="B23" s="319" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="C23" s="22"/>
     </row>
@@ -10684,7 +10684,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -10722,7 +10722,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -10733,7 +10733,7 @@
         <v>123</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -10924,10 +10924,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -10993,10 +10993,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="195" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="B15" s="195" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -11062,7 +11062,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="245" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B23" s="245" t="s">
         <v>936</v>
@@ -11070,7 +11070,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="245" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="B24" s="245" t="s">
         <v>937</v>
@@ -11086,7 +11086,7 @@
     </row>
     <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A26" s="245" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="B26" s="245" t="s">
         <v>940</v>
@@ -11102,7 +11102,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="245" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="B28" s="245" t="s">
         <v>943</v>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="245" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="B29" s="245" t="s">
         <v>945</v>
@@ -11134,7 +11134,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="245" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="B32" s="245" t="s">
         <v>949</v>
@@ -11158,7 +11158,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="245" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="B35" s="245" t="s">
         <v>954</v>
@@ -11174,34 +11174,34 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="245" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B37" s="245" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="245" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B38" s="245" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="245" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="B39" s="245" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="245" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B40" s="245" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -11273,10 +11273,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11335,7 +11335,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -11488,18 +11488,18 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="251" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="B35" s="251" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="251" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="B36" s="251" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
     </row>
   </sheetData>
@@ -11513,7 +11513,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11527,15 +11527,15 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -11551,7 +11551,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -11564,10 +11564,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -11628,28 +11628,26 @@
       <c r="B14" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>515</v>
-      </c>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="319" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="B15" s="319" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>1100</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -11759,7 +11757,7 @@
 <file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист38"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -11818,10 +11816,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11893,10 +11891,10 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="209" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="B15" s="209" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="C15" s="179"/>
       <c r="D15" s="22"/>
@@ -11919,93 +11917,99 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="188" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B18" s="188" t="s">
-        <v>1738</v>
+      <c r="A18" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>1739</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>2101</v>
-      </c>
+      <c r="A19" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C20" s="22"/>
+        <v>1368</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1644</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>1644</v>
+      <c r="A21" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="264" t="s">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="264" t="s">
+      <c r="B26" s="264" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="264" t="s">
+      <c r="C26" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="264" t="s">
+      <c r="D26" s="264" t="s">
         <v>1616</v>
       </c>
-      <c r="E27" s="264" t="s">
+      <c r="E26" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="264" t="s">
+      <c r="F26" s="264" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="265" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B27" s="265" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C27" s="265" t="s">
+        <v>575</v>
+      </c>
+      <c r="D27" s="265" t="s">
+        <v>425</v>
+      </c>
+      <c r="E27" s="265" t="s">
+        <v>504</v>
+      </c>
+      <c r="F27" s="265" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A28" s="265" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="B28" s="265" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="C28" s="265" t="s">
         <v>575</v>
@@ -12017,15 +12021,15 @@
         <v>504</v>
       </c>
       <c r="F28" s="265" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A29" s="265" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="B29" s="265" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="C29" s="265" t="s">
         <v>575</v>
@@ -12037,15 +12041,15 @@
         <v>504</v>
       </c>
       <c r="F29" s="265" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A30" s="265" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="B30" s="265" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="C30" s="265" t="s">
         <v>575</v>
@@ -12057,27 +12061,7 @@
         <v>504</v>
       </c>
       <c r="F30" s="265" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="265" t="s">
-        <v>1837</v>
-      </c>
-      <c r="B31" s="265" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C31" s="265" t="s">
-        <v>575</v>
-      </c>
-      <c r="D31" s="265" t="s">
-        <v>425</v>
-      </c>
-      <c r="E31" s="265" t="s">
-        <v>504</v>
-      </c>
-      <c r="F31" s="265" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
     </row>
   </sheetData>
@@ -12149,10 +12133,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
@@ -12249,35 +12233,35 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="257" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="B21" s="257" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="257" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="B22" s="257" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="257" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="B23" s="257" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -12288,7 +12272,7 @@
         <v>1101</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -12299,7 +12283,7 @@
         <v>1102</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -12310,7 +12294,7 @@
         <v>1640</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -12321,7 +12305,7 @@
         <v>1128</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -12332,15 +12316,15 @@
         <v>1562</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="225" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B29" s="225" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -12382,7 +12366,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -12390,7 +12374,7 @@
         <v>1545</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -12406,7 +12390,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -12419,10 +12403,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -12511,16 +12495,16 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="319" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="209" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B18" s="209" t="s">
         <v>1100</v>
@@ -12679,10 +12663,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -12869,15 +12853,15 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2271</v>
+        <v>2264</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -12893,7 +12877,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -12906,10 +12890,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -13019,34 +13003,34 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="297" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="B22" s="297" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="297" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
       <c r="B23" s="297" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="137" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="B24" s="137" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="137" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
     </row>
   </sheetData>
@@ -13057,11 +13041,9 @@
 
 <file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13119,10 +13101,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -13182,76 +13164,91 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="195" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B15" s="195" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>1680</v>
-      </c>
+      <c r="A15" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>339</v>
+      <c r="A16" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>340</v>
       </c>
       <c r="C16" s="22"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="112" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B20" s="112" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="113" t="s">
+        <v>504</v>
+      </c>
+      <c r="B21" s="113" t="s">
+        <v>505</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="113" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B22" s="113" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="113" t="s">
-        <v>506</v>
+        <v>997</v>
       </c>
       <c r="B23" s="113" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="113" t="s">
-        <v>997</v>
-      </c>
-      <c r="B24" s="113" t="s">
         <v>998</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="349" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B24" s="349" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2291</v>
       </c>
     </row>
   </sheetData>
@@ -13264,7 +13261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
@@ -13321,10 +13318,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -13566,10 +13563,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -13588,7 +13585,7 @@
         <v>764</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -13618,7 +13615,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="D12" s="22"/>
     </row>
@@ -13630,7 +13627,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="D13" s="22"/>
     </row>
@@ -13696,7 +13693,7 @@
         <v>339</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="D19" s="22"/>
     </row>
@@ -13708,7 +13705,7 @@
         <v>340</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="D20" s="22"/>
     </row>
@@ -13802,10 +13799,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -14192,10 +14189,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -14356,10 +14353,10 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
   </sheetData>
@@ -14389,7 +14386,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.2">
@@ -14397,7 +14394,7 @@
         <v>445</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -14413,7 +14410,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="241" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -14426,10 +14423,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -14511,18 +14508,18 @@
         <v>54</v>
       </c>
       <c r="C16" s="157" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="318" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="B17" s="318" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="C17" s="157" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -14530,19 +14527,19 @@
         <v>958</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="C18" s="279"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>1100</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -14666,15 +14663,15 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -14690,7 +14687,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -14703,10 +14700,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -14725,7 +14722,7 @@
         <v>764</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -14803,12 +14800,12 @@
         <v>958</v>
       </c>
       <c r="B18" s="319" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="209" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B19" s="209" t="s">
         <v>1100</v>
@@ -14973,10 +14970,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
@@ -15072,7 +15069,7 @@
         <v>1368</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -15290,10 +15287,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -15341,7 +15338,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -15352,7 +15349,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -15402,10 +15399,10 @@
         <v>1470</v>
       </c>
       <c r="B18" s="184" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -15413,10 +15410,10 @@
         <v>1471</v>
       </c>
       <c r="B19" s="184" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -15427,7 +15424,7 @@
         <v>339</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -15438,7 +15435,7 @@
         <v>340</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -15532,15 +15529,15 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -15556,7 +15553,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -15572,10 +15569,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -15660,18 +15657,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="124" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="342" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="B19" s="342" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -15700,21 +15697,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="124" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="342" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="B24" s="342" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -15744,18 +15741,18 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="124" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="342" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="B29" s="342" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -15771,16 +15768,16 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="319" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="B31" s="319" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>1100</v>
@@ -15858,7 +15855,7 @@
         <v>1368</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -15875,12 +15872,12 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
     </row>
   </sheetData>
@@ -15954,10 +15951,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="124" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -16292,61 +16289,61 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="165" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="B50" s="165" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A51" s="165" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B51" s="165" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A52" s="165" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="B52" s="165" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="165" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="B53" s="165" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A55" s="258" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="B55" s="258" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A56" s="258" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="B56" s="258" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -16387,15 +16384,15 @@
         <v>29</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -16411,7 +16408,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -16424,10 +16421,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="313" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="313" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -16488,10 +16485,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="319" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="B15" s="319" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -16518,7 +16515,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -16792,10 +16789,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="313" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="313" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -17059,7 +17056,7 @@
         <v>747</v>
       </c>
       <c r="C39" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -17241,10 +17238,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="313" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B7" s="313" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="8" spans="1: